--- a/Data/manual_update.xlsx
+++ b/Data/manual_update.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cheyu/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cheyu/Documents/GitHub/CofactorYeast/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E594176-D7E4-2A4A-AA51-E8E99E4B272D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BB65916-CC40-AF4B-9035-954CFF6671C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="460" windowWidth="38400" windowHeight="21140" activeTab="1" xr2:uid="{0732DB2B-E664-7544-B4C9-5536E1206D06}"/>
+    <workbookView xWindow="-38400" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{0732DB2B-E664-7544-B4C9-5536E1206D06}"/>
   </bookViews>
   <sheets>
     <sheet name="kcats" sheetId="3" r:id="rId1"/>
@@ -328,9 +328,6 @@
     <t>BioCyc</t>
   </si>
   <si>
-    <t>Median of three values: Median of EC1.8.1.4 with NAD+ as substrate (506) * stoichiometry of YFL018C (12); Median of EC1.2.4.1 with pyruvate as substrate (37.9) * stoichiometry of YBR221C and YER178W (48); Median of EC1.2.4.1 with pyruvate as substrate (2.4) * stoichiometry of YNL071W (60).</t>
-  </si>
-  <si>
     <t>YNL037C; YOR136W</t>
   </si>
   <si>
@@ -344,6 +341,9 @@
   </si>
   <si>
     <t>PMID: 4346952</t>
+  </si>
+  <si>
+    <t>Minimum of three values: Median of EC1.8.1.4 with NAD+ as substrate (506) * stoichiometry of YFL018C (12); Median of EC1.2.4.1 with pyruvate as substrate (37.9) * stoichiometry of YBR221C and YER178W (48); Median of EC1.2.4.1 with pyruvate as substrate (2.4) * stoichiometry of YNL071W (60).</t>
   </si>
 </sst>
 </file>
@@ -703,8 +703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1417A95A-9A45-104E-81A0-44F5861A24E6}">
   <dimension ref="A1:D69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A65" sqref="A65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1235,10 +1235,10 @@
         <v>54</v>
       </c>
       <c r="B38">
-        <v>1819.2</v>
+        <v>144</v>
       </c>
       <c r="C38" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D38">
         <v>4</v>
@@ -1462,7 +1462,7 @@
         <v>260</v>
       </c>
       <c r="C54" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D54">
         <v>4</v>
@@ -1476,7 +1476,7 @@
         <v>580</v>
       </c>
       <c r="C55" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D55">
         <v>4</v>
@@ -1490,7 +1490,7 @@
         <v>828</v>
       </c>
       <c r="C56" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D56">
         <v>4</v>
@@ -1546,7 +1546,7 @@
         <v>120</v>
       </c>
       <c r="C60" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D60">
         <v>4</v>
@@ -1560,7 +1560,7 @@
         <v>120</v>
       </c>
       <c r="C61" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D61">
         <v>4</v>
@@ -1574,7 +1574,7 @@
         <v>120</v>
       </c>
       <c r="C62" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D62">
         <v>4</v>
@@ -1588,7 +1588,7 @@
         <v>160</v>
       </c>
       <c r="C63" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D63">
         <v>4</v>
@@ -1602,7 +1602,7 @@
         <v>160</v>
       </c>
       <c r="C64" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D64">
         <v>4</v>
@@ -1616,7 +1616,7 @@
         <v>726.9</v>
       </c>
       <c r="C65" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D65">
         <v>4</v>
@@ -1630,7 +1630,7 @@
         <v>726.7</v>
       </c>
       <c r="C66" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D66">
         <v>4</v>
@@ -1644,7 +1644,7 @@
         <v>725.8</v>
       </c>
       <c r="C67" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D67">
         <v>4</v>
@@ -1658,7 +1658,7 @@
         <v>725.6</v>
       </c>
       <c r="C68" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D68">
         <v>4</v>
@@ -1672,7 +1672,7 @@
         <v>825.4</v>
       </c>
       <c r="C69" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D69">
         <v>4</v>
@@ -1688,7 +1688,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FE794CF-9095-4B49-B7ED-0ACA2739CBC2}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -1844,7 +1844,7 @@
         <v>42</v>
       </c>
       <c r="B11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C11" t="s">
         <v>89</v>

--- a/Data/manual_update.xlsx
+++ b/Data/manual_update.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cheyu/Documents/GitHub/CofactorYeast/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BB65916-CC40-AF4B-9035-954CFF6671C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43736DFD-0EB8-064C-BB60-C310B560E378}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{0732DB2B-E664-7544-B4C9-5536E1206D06}"/>
+    <workbookView xWindow="-38400" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{0732DB2B-E664-7544-B4C9-5536E1206D06}"/>
   </bookViews>
   <sheets>
     <sheet name="kcats" sheetId="3" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="116">
   <si>
     <t>PMID: 11561293</t>
   </si>
@@ -344,6 +344,42 @@
   </si>
   <si>
     <t>Minimum of three values: Median of EC1.8.1.4 with NAD+ as substrate (506) * stoichiometry of YFL018C (12); Median of EC1.2.4.1 with pyruvate as substrate (37.9) * stoichiometry of YBR221C and YER178W (48); Median of EC1.2.4.1 with pyruvate as substrate (2.4) * stoichiometry of YNL071W (60).</t>
+  </si>
+  <si>
+    <t>r_0003_rvs_enzyme</t>
+  </si>
+  <si>
+    <t>PMID: 19507198</t>
+  </si>
+  <si>
+    <t>r_0960_2_enzyme</t>
+  </si>
+  <si>
+    <t>r_0062_2_enzyme</t>
+  </si>
+  <si>
+    <t>r_0064_3_enzyme</t>
+  </si>
+  <si>
+    <t>r_0095_2_enzyme</t>
+  </si>
+  <si>
+    <t>r_0567_2_enzyme</t>
+  </si>
+  <si>
+    <t>r_0960_1_enzyme</t>
+  </si>
+  <si>
+    <t>r_0960_3_enzyme</t>
+  </si>
+  <si>
+    <t>r_0095_1_enzyme</t>
+  </si>
+  <si>
+    <t>r_0095_3_enzyme</t>
+  </si>
+  <si>
+    <t>PMID: 11412091</t>
   </si>
 </sst>
 </file>
@@ -701,10 +737,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1417A95A-9A45-104E-81A0-44F5861A24E6}">
-  <dimension ref="A1:D69"/>
+  <dimension ref="A1:D76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1678,6 +1714,104 @@
         <v>4</v>
       </c>
     </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>104</v>
+      </c>
+      <c r="B70">
+        <v>127.5</v>
+      </c>
+      <c r="C70" t="s">
+        <v>105</v>
+      </c>
+      <c r="D70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>111</v>
+      </c>
+      <c r="B71">
+        <v>1.38</v>
+      </c>
+      <c r="C71" t="s">
+        <v>115</v>
+      </c>
+      <c r="D71">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>106</v>
+      </c>
+      <c r="B72">
+        <v>1.38</v>
+      </c>
+      <c r="C72" t="s">
+        <v>115</v>
+      </c>
+      <c r="D72">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>112</v>
+      </c>
+      <c r="B73">
+        <v>1.38</v>
+      </c>
+      <c r="C73" t="s">
+        <v>115</v>
+      </c>
+      <c r="D73">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>113</v>
+      </c>
+      <c r="B74">
+        <v>0.69</v>
+      </c>
+      <c r="C74" t="s">
+        <v>115</v>
+      </c>
+      <c r="D74">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>109</v>
+      </c>
+      <c r="B75">
+        <v>0.69</v>
+      </c>
+      <c r="C75" t="s">
+        <v>115</v>
+      </c>
+      <c r="D75">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>114</v>
+      </c>
+      <c r="B76">
+        <v>0.69</v>
+      </c>
+      <c r="C76" t="s">
+        <v>115</v>
+      </c>
+      <c r="D76">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1686,10 +1820,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FE794CF-9095-4B49-B7ED-0ACA2739CBC2}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1867,7 +2001,78 @@
         <v>7</v>
       </c>
     </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>106</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>108</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>109</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>110</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>

--- a/Data/manual_update.xlsx
+++ b/Data/manual_update.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cheyu/Documents/GitHub/CofactorYeast/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43736DFD-0EB8-064C-BB60-C310B560E378}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65E0C0EB-4C04-6B42-B72E-B5085B535577}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{0732DB2B-E664-7544-B4C9-5536E1206D06}"/>
+    <workbookView xWindow="-38400" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{0732DB2B-E664-7544-B4C9-5536E1206D06}"/>
   </bookViews>
   <sheets>
     <sheet name="kcats" sheetId="3" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="134">
   <si>
     <t>PMID: 11561293</t>
   </si>
@@ -380,6 +380,60 @@
   </si>
   <si>
     <t>PMID: 11412091</t>
+  </si>
+  <si>
+    <t>r_0659_fwd_enzyme</t>
+  </si>
+  <si>
+    <t>r_0659_rvs_enzyme</t>
+  </si>
+  <si>
+    <t>PMID: 15574419</t>
+  </si>
+  <si>
+    <t>r_0725_fwd_enzyme</t>
+  </si>
+  <si>
+    <t>PMID: 6990198</t>
+  </si>
+  <si>
+    <t>r_0724_fwd_enzyme</t>
+  </si>
+  <si>
+    <t>r_0732_fwd_enzyme</t>
+  </si>
+  <si>
+    <t>r_0733_fwd_enzyme</t>
+  </si>
+  <si>
+    <t>Median of EC1.5.1.5 with matched substrates</t>
+  </si>
+  <si>
+    <t>r_0732_rvs_enzyme</t>
+  </si>
+  <si>
+    <t>r_0733_rvs_enzyme</t>
+  </si>
+  <si>
+    <t>Median of EC1.5.1.5 with all substrates</t>
+  </si>
+  <si>
+    <t>r_0446_rvs_enzyme</t>
+  </si>
+  <si>
+    <t>r_0447_rvs_enzyme</t>
+  </si>
+  <si>
+    <t>Median of EC6.3.4.3 with all substrates</t>
+  </si>
+  <si>
+    <t>r_0724_rvs_enzyme</t>
+  </si>
+  <si>
+    <t>r_0725_rvs_enzyme</t>
+  </si>
+  <si>
+    <t>Assume to be the same as fwd reaction</t>
   </si>
 </sst>
 </file>
@@ -737,15 +791,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1417A95A-9A45-104E-81A0-44F5861A24E6}">
-  <dimension ref="A1:D76"/>
+  <dimension ref="A1:D88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="C75" sqref="C75"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.83203125" customWidth="1"/>
+    <col min="3" max="3" width="38.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -1775,7 +1830,7 @@
         <v>113</v>
       </c>
       <c r="B74">
-        <v>0.69</v>
+        <v>1.38</v>
       </c>
       <c r="C74" t="s">
         <v>115</v>
@@ -1789,7 +1844,7 @@
         <v>109</v>
       </c>
       <c r="B75">
-        <v>0.69</v>
+        <v>1.38</v>
       </c>
       <c r="C75" t="s">
         <v>115</v>
@@ -1803,12 +1858,180 @@
         <v>114</v>
       </c>
       <c r="B76">
-        <v>0.69</v>
+        <v>1.38</v>
       </c>
       <c r="C76" t="s">
         <v>115</v>
       </c>
       <c r="D76">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>116</v>
+      </c>
+      <c r="B77">
+        <v>202.7</v>
+      </c>
+      <c r="C77" t="s">
+        <v>118</v>
+      </c>
+      <c r="D77">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>117</v>
+      </c>
+      <c r="B78">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="C78" t="s">
+        <v>118</v>
+      </c>
+      <c r="D78">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>119</v>
+      </c>
+      <c r="B79">
+        <v>7.5</v>
+      </c>
+      <c r="C79" t="s">
+        <v>120</v>
+      </c>
+      <c r="D79">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>121</v>
+      </c>
+      <c r="B80">
+        <v>7.5</v>
+      </c>
+      <c r="C80" t="s">
+        <v>120</v>
+      </c>
+      <c r="D80">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>131</v>
+      </c>
+      <c r="B81">
+        <v>7.5</v>
+      </c>
+      <c r="C81" t="s">
+        <v>133</v>
+      </c>
+      <c r="D81">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>132</v>
+      </c>
+      <c r="B82">
+        <v>7.5</v>
+      </c>
+      <c r="C82" t="s">
+        <v>133</v>
+      </c>
+      <c r="D82">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>122</v>
+      </c>
+      <c r="B83">
+        <v>14</v>
+      </c>
+      <c r="C83" t="s">
+        <v>124</v>
+      </c>
+      <c r="D83">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>123</v>
+      </c>
+      <c r="B84">
+        <v>14</v>
+      </c>
+      <c r="C84" t="s">
+        <v>124</v>
+      </c>
+      <c r="D84">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>125</v>
+      </c>
+      <c r="B85">
+        <v>14</v>
+      </c>
+      <c r="C85" t="s">
+        <v>127</v>
+      </c>
+      <c r="D85">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>126</v>
+      </c>
+      <c r="B86">
+        <v>14</v>
+      </c>
+      <c r="C86" t="s">
+        <v>127</v>
+      </c>
+      <c r="D86">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>128</v>
+      </c>
+      <c r="B87">
+        <v>6.08</v>
+      </c>
+      <c r="C87" t="s">
+        <v>130</v>
+      </c>
+      <c r="D87">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>129</v>
+      </c>
+      <c r="B88">
+        <v>6.08</v>
+      </c>
+      <c r="C88" t="s">
+        <v>130</v>
+      </c>
+      <c r="D88">
         <v>4</v>
       </c>
     </row>

--- a/Data/manual_update.xlsx
+++ b/Data/manual_update.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cheyu/Documents/GitHub/CofactorYeast/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65E0C0EB-4C04-6B42-B72E-B5085B535577}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77A9235E-A380-9E45-8768-64E7DC7F7219}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{0732DB2B-E664-7544-B4C9-5536E1206D06}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="177">
   <si>
     <t>PMID: 11561293</t>
   </si>
@@ -434,13 +434,142 @@
   </si>
   <si>
     <t>Assume to be the same as fwd reaction</t>
+  </si>
+  <si>
+    <t>PMID: 2201405</t>
+  </si>
+  <si>
+    <t>r_2140_enzyme</t>
+  </si>
+  <si>
+    <t>r_2141_enzyme</t>
+  </si>
+  <si>
+    <t>PMID: 7001460</t>
+  </si>
+  <si>
+    <t>r_0510_1_enzyme</t>
+  </si>
+  <si>
+    <t>r_0510_2_enzyme</t>
+  </si>
+  <si>
+    <t>r_0510_3_enzyme</t>
+  </si>
+  <si>
+    <t>r_0510_4_enzyme</t>
+  </si>
+  <si>
+    <t>PMID: 4365739</t>
+  </si>
+  <si>
+    <t>r_0096_enzyme</t>
+  </si>
+  <si>
+    <t>Median of EC1.1.1.86 with matched substrates (2-acetolactate &amp; nadph)</t>
+  </si>
+  <si>
+    <t>Median of EC1.1.1.86 with matched substrates (2-aceto-2-hydroxybutyrate &amp; nadph)</t>
+  </si>
+  <si>
+    <t>r_0669_enzyme</t>
+  </si>
+  <si>
+    <t>r_0355_enzyme</t>
+  </si>
+  <si>
+    <t>r_0462_enzyme</t>
+  </si>
+  <si>
+    <t>PMID: 16554305</t>
+  </si>
+  <si>
+    <t>Median of EC2.5.1.1 with isopentenyl diphosphate as substrate</t>
+  </si>
+  <si>
+    <t>r_0818_enzyme</t>
+  </si>
+  <si>
+    <t>PMID: 7705341</t>
+  </si>
+  <si>
+    <t>r_0193_1_enzyme</t>
+  </si>
+  <si>
+    <t>r_0193_2_enzyme</t>
+  </si>
+  <si>
+    <t>r_0194_enzyme</t>
+  </si>
+  <si>
+    <t>PMID: 3286651</t>
+  </si>
+  <si>
+    <t>r_0916_1_enzyme</t>
+  </si>
+  <si>
+    <t>r_0916_2_enzyme</t>
+  </si>
+  <si>
+    <t>r_0916_3_enzyme</t>
+  </si>
+  <si>
+    <t>r_0916_4_enzyme</t>
+  </si>
+  <si>
+    <t>r_0916_5_enzyme</t>
+  </si>
+  <si>
+    <t>Median of EC2.7.6.1 with matched substrates (atp &amp; d-ribose 5-phosphate)</t>
+  </si>
+  <si>
+    <t>YER099C; YOL061W</t>
+  </si>
+  <si>
+    <t>YBL068W; YOL061W</t>
+  </si>
+  <si>
+    <t>6; 6</t>
+  </si>
+  <si>
+    <t>Assume to be the same as other isoreactions</t>
+  </si>
+  <si>
+    <t>r_0476_enzyme</t>
+  </si>
+  <si>
+    <t>PMID: 6129248</t>
+  </si>
+  <si>
+    <t>r_0302_rvs_enzyme</t>
+  </si>
+  <si>
+    <t>r_0303_rvs_enzyme</t>
+  </si>
+  <si>
+    <t>r_2305_rvs_enzyme</t>
+  </si>
+  <si>
+    <t>r_0280_rvs_enzyme</t>
+  </si>
+  <si>
+    <t>r_0005_1_enzyme</t>
+  </si>
+  <si>
+    <t>r_0005_2_enzyme</t>
+  </si>
+  <si>
+    <t>r_0005_3_enzyme</t>
+  </si>
+  <si>
+    <t>PMID: 7649185</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -450,6 +579,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -475,8 +611,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -791,10 +929,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1417A95A-9A45-104E-81A0-44F5861A24E6}">
-  <dimension ref="A1:D88"/>
+  <dimension ref="A1:D115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C77" sqref="C77"/>
+    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="A97" sqref="A97:D115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1364,11 +1502,11 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+      <c r="A41" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B41">
-        <v>142.30000000000001</v>
+        <v>143.30000000000001</v>
       </c>
       <c r="C41" t="s">
         <v>4</v>
@@ -1378,11 +1516,11 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+      <c r="A42" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B42">
-        <v>142.30000000000001</v>
+        <v>143.30000000000001</v>
       </c>
       <c r="C42" t="s">
         <v>4</v>
@@ -1392,11 +1530,11 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+      <c r="A43" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B43">
-        <v>142.30000000000001</v>
+        <v>143.30000000000001</v>
       </c>
       <c r="C43" t="s">
         <v>4</v>
@@ -1406,11 +1544,11 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+      <c r="A44" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B44">
-        <v>142.30000000000001</v>
+        <v>143.30000000000001</v>
       </c>
       <c r="C44" t="s">
         <v>4</v>
@@ -1420,11 +1558,11 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>42</v>
+      <c r="A45" s="1" t="s">
+        <v>169</v>
       </c>
       <c r="B45">
-        <v>187.6</v>
+        <v>143.30000000000001</v>
       </c>
       <c r="C45" t="s">
         <v>4</v>
@@ -1434,11 +1572,11 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>55</v>
+      <c r="A46" s="1" t="s">
+        <v>170</v>
       </c>
       <c r="B46">
-        <v>357.7</v>
+        <v>143.30000000000001</v>
       </c>
       <c r="C46" t="s">
         <v>4</v>
@@ -1448,11 +1586,11 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>56</v>
+      <c r="A47" s="1" t="s">
+        <v>171</v>
       </c>
       <c r="B47">
-        <v>359.8</v>
+        <v>143.30000000000001</v>
       </c>
       <c r="C47" t="s">
         <v>4</v>
@@ -1462,11 +1600,11 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>57</v>
+      <c r="A48" s="1" t="s">
+        <v>172</v>
       </c>
       <c r="B48">
-        <v>353.6</v>
+        <v>143.30000000000001</v>
       </c>
       <c r="C48" t="s">
         <v>4</v>
@@ -1477,10 +1615,10 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="B49">
-        <v>4074.9</v>
+        <v>187.6</v>
       </c>
       <c r="C49" t="s">
         <v>4</v>
@@ -1491,10 +1629,10 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>4074.9</v>
+        <v>357.7</v>
       </c>
       <c r="C50" t="s">
         <v>4</v>
@@ -1505,10 +1643,10 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>366.8</v>
+        <v>359.8</v>
       </c>
       <c r="C51" t="s">
         <v>4</v>
@@ -1519,13 +1657,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="B52">
-        <v>704</v>
+        <v>353.6</v>
       </c>
       <c r="C52" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D52">
         <v>4</v>
@@ -1533,13 +1671,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>79</v>
+        <v>30</v>
       </c>
       <c r="B53">
-        <v>704</v>
+        <v>4074.9</v>
       </c>
       <c r="C53" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D53">
         <v>4</v>
@@ -1547,13 +1685,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="B54">
-        <v>260</v>
+        <v>4074.9</v>
       </c>
       <c r="C54" t="s">
-        <v>99</v>
+        <v>4</v>
       </c>
       <c r="D54">
         <v>4</v>
@@ -1561,41 +1699,41 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B55">
-        <v>580</v>
+        <v>366.8</v>
       </c>
       <c r="C55" t="s">
-        <v>99</v>
+        <v>4</v>
       </c>
       <c r="D55">
         <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>53</v>
-      </c>
-      <c r="B56">
-        <v>828</v>
+      <c r="A56" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B56" s="2">
+        <v>7200</v>
       </c>
       <c r="C56" t="s">
-        <v>99</v>
+        <v>134</v>
       </c>
       <c r="D56">
         <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>46</v>
-      </c>
-      <c r="B57">
-        <v>118.1</v>
+      <c r="A57" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B57" s="2">
+        <v>7200</v>
       </c>
       <c r="C57" t="s">
-        <v>6</v>
+        <v>134</v>
       </c>
       <c r="D57">
         <v>4</v>
@@ -1603,13 +1741,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B58">
-        <v>127.2</v>
+        <v>260</v>
       </c>
       <c r="C58" t="s">
-        <v>6</v>
+        <v>99</v>
       </c>
       <c r="D58">
         <v>4</v>
@@ -1617,13 +1755,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B59">
-        <v>129.5</v>
+        <v>580</v>
       </c>
       <c r="C59" t="s">
-        <v>6</v>
+        <v>99</v>
       </c>
       <c r="D59">
         <v>4</v>
@@ -1631,13 +1769,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="B60">
-        <v>120</v>
+        <v>828</v>
       </c>
       <c r="C60" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D60">
         <v>4</v>
@@ -1645,13 +1783,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="B61">
-        <v>120</v>
+        <v>118.1</v>
       </c>
       <c r="C61" t="s">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="D61">
         <v>4</v>
@@ -1659,13 +1797,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="B62">
-        <v>120</v>
+        <v>127.2</v>
       </c>
       <c r="C62" t="s">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="D62">
         <v>4</v>
@@ -1673,13 +1811,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="B63">
-        <v>160</v>
+        <v>129.5</v>
       </c>
       <c r="C63" t="s">
-        <v>101</v>
+        <v>6</v>
       </c>
       <c r="D63">
         <v>4</v>
@@ -1687,13 +1825,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="B64">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="C64" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D64">
         <v>4</v>
@@ -1701,13 +1839,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B65">
-        <v>726.9</v>
+        <v>120</v>
       </c>
       <c r="C65" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D65">
         <v>4</v>
@@ -1715,13 +1853,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B66">
-        <v>726.7</v>
+        <v>120</v>
       </c>
       <c r="C66" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D66">
         <v>4</v>
@@ -1729,13 +1867,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B67">
-        <v>725.8</v>
+        <v>160</v>
       </c>
       <c r="C67" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D67">
         <v>4</v>
@@ -1743,13 +1881,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B68">
-        <v>725.6</v>
+        <v>160</v>
       </c>
       <c r="C68" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D68">
         <v>4</v>
@@ -1757,10 +1895,10 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B69">
-        <v>825.4</v>
+        <v>726.9</v>
       </c>
       <c r="C69" t="s">
         <v>102</v>
@@ -1771,13 +1909,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>104</v>
+        <v>23</v>
       </c>
       <c r="B70">
-        <v>127.5</v>
+        <v>726.7</v>
       </c>
       <c r="C70" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D70">
         <v>4</v>
@@ -1785,13 +1923,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>111</v>
+        <v>24</v>
       </c>
       <c r="B71">
-        <v>1.38</v>
+        <v>725.8</v>
       </c>
       <c r="C71" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="D71">
         <v>4</v>
@@ -1799,13 +1937,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>106</v>
+        <v>25</v>
       </c>
       <c r="B72">
-        <v>1.38</v>
+        <v>725.6</v>
       </c>
       <c r="C72" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="D72">
         <v>4</v>
@@ -1813,13 +1951,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>112</v>
+        <v>26</v>
       </c>
       <c r="B73">
-        <v>1.38</v>
+        <v>825.4</v>
       </c>
       <c r="C73" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="D73">
         <v>4</v>
@@ -1827,13 +1965,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="B74">
-        <v>1.38</v>
+        <v>127.5</v>
       </c>
       <c r="C74" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="D74">
         <v>4</v>
@@ -1841,7 +1979,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B75">
         <v>1.38</v>
@@ -1855,7 +1993,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B76">
         <v>1.38</v>
@@ -1869,13 +2007,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B77">
-        <v>202.7</v>
+        <v>1.38</v>
       </c>
       <c r="C77" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D77">
         <v>4</v>
@@ -1883,13 +2021,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B78">
-        <v>9.1999999999999993</v>
+        <v>1.38</v>
       </c>
       <c r="C78" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D78">
         <v>4</v>
@@ -1897,13 +2035,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="B79">
-        <v>7.5</v>
+        <v>1.38</v>
       </c>
       <c r="C79" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D79">
         <v>4</v>
@@ -1911,13 +2049,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B80">
-        <v>7.5</v>
+        <v>1.38</v>
       </c>
       <c r="C80" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D80">
         <v>4</v>
@@ -1925,13 +2063,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="B81">
-        <v>7.5</v>
+        <v>202.7</v>
       </c>
       <c r="C81" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="D81">
         <v>4</v>
@@ -1939,13 +2077,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="B82">
-        <v>7.5</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="C82" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="D82">
         <v>4</v>
@@ -1953,13 +2091,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B83">
-        <v>14</v>
+        <v>7.5</v>
       </c>
       <c r="C83" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D83">
         <v>4</v>
@@ -1967,13 +2105,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B84">
-        <v>14</v>
+        <v>7.5</v>
       </c>
       <c r="C84" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D84">
         <v>4</v>
@@ -1981,13 +2119,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B85">
-        <v>14</v>
+        <v>7.5</v>
       </c>
       <c r="C85" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="D85">
         <v>4</v>
@@ -1995,13 +2133,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="B86">
-        <v>14</v>
+        <v>7.5</v>
       </c>
       <c r="C86" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="D86">
         <v>4</v>
@@ -2009,13 +2147,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B87">
-        <v>6.08</v>
+        <v>14</v>
       </c>
       <c r="C87" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D87">
         <v>4</v>
@@ -2023,15 +2161,393 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
+        <v>123</v>
+      </c>
+      <c r="B88">
+        <v>14</v>
+      </c>
+      <c r="C88" t="s">
+        <v>124</v>
+      </c>
+      <c r="D88">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>125</v>
+      </c>
+      <c r="B89">
+        <v>14</v>
+      </c>
+      <c r="C89" t="s">
+        <v>127</v>
+      </c>
+      <c r="D89">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>126</v>
+      </c>
+      <c r="B90">
+        <v>14</v>
+      </c>
+      <c r="C90" t="s">
+        <v>127</v>
+      </c>
+      <c r="D90">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>128</v>
+      </c>
+      <c r="B91">
+        <v>6.08</v>
+      </c>
+      <c r="C91" t="s">
+        <v>130</v>
+      </c>
+      <c r="D91">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
         <v>129</v>
       </c>
-      <c r="B88">
+      <c r="B92">
         <v>6.08</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C92" t="s">
         <v>130</v>
       </c>
-      <c r="D88">
+      <c r="D92">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B93">
+        <v>552.9</v>
+      </c>
+      <c r="C93" t="s">
+        <v>142</v>
+      </c>
+      <c r="D93">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B94">
+        <v>590.9</v>
+      </c>
+      <c r="C94" t="s">
+        <v>142</v>
+      </c>
+      <c r="D94">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B95">
+        <v>550.29999999999995</v>
+      </c>
+      <c r="C95" t="s">
+        <v>142</v>
+      </c>
+      <c r="D95">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B96">
+        <v>588.29999999999995</v>
+      </c>
+      <c r="C96" t="s">
+        <v>142</v>
+      </c>
+      <c r="D96">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B97">
+        <v>0.98</v>
+      </c>
+      <c r="C97" t="s">
+        <v>144</v>
+      </c>
+      <c r="D97">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B98">
+        <v>0.7</v>
+      </c>
+      <c r="C98" t="s">
+        <v>145</v>
+      </c>
+      <c r="D98">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B99">
+        <v>1.1120000000000001</v>
+      </c>
+      <c r="C99" t="s">
+        <v>150</v>
+      </c>
+      <c r="D99">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B100">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="C100" t="s">
+        <v>149</v>
+      </c>
+      <c r="D100">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B101">
+        <v>35.1</v>
+      </c>
+      <c r="C101" t="s">
+        <v>152</v>
+      </c>
+      <c r="D101">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B102">
+        <v>141.69999999999999</v>
+      </c>
+      <c r="C102" t="s">
+        <v>156</v>
+      </c>
+      <c r="D102">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B103">
+        <v>141.69999999999999</v>
+      </c>
+      <c r="C103" t="s">
+        <v>156</v>
+      </c>
+      <c r="D103">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B104">
+        <v>141.69999999999999</v>
+      </c>
+      <c r="C104" t="s">
+        <v>156</v>
+      </c>
+      <c r="D104">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B105">
+        <v>364.08</v>
+      </c>
+      <c r="C105" t="s">
+        <v>162</v>
+      </c>
+      <c r="D105">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B106">
+        <v>364.08</v>
+      </c>
+      <c r="C106" t="s">
+        <v>162</v>
+      </c>
+      <c r="D106">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B107">
+        <v>364.08</v>
+      </c>
+      <c r="C107" t="s">
+        <v>162</v>
+      </c>
+      <c r="D107">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B108">
+        <v>364.08</v>
+      </c>
+      <c r="C108" t="s">
+        <v>162</v>
+      </c>
+      <c r="D108">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B109">
+        <v>364.08</v>
+      </c>
+      <c r="C109" t="s">
+        <v>162</v>
+      </c>
+      <c r="D109">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B110">
+        <v>1642.8</v>
+      </c>
+      <c r="C110" t="s">
+        <v>168</v>
+      </c>
+      <c r="D110">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B111">
+        <v>14.5</v>
+      </c>
+      <c r="C111" t="s">
+        <v>176</v>
+      </c>
+      <c r="D111">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B112">
+        <v>13.8</v>
+      </c>
+      <c r="C112" t="s">
+        <v>176</v>
+      </c>
+      <c r="D112">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B113">
+        <v>17</v>
+      </c>
+      <c r="C113" t="s">
+        <v>176</v>
+      </c>
+      <c r="D113">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B114">
+        <v>4.7</v>
+      </c>
+      <c r="C114" t="s">
+        <v>137</v>
+      </c>
+      <c r="D114">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B115">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C115" t="s">
+        <v>137</v>
+      </c>
+      <c r="D115">
         <v>4</v>
       </c>
     </row>
@@ -2043,10 +2559,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FE794CF-9095-4B49-B7ED-0ACA2739CBC2}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2294,6 +2810,34 @@
         <v>7</v>
       </c>
     </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>160</v>
+      </c>
+      <c r="B18" t="s">
+        <v>163</v>
+      </c>
+      <c r="C18" t="s">
+        <v>165</v>
+      </c>
+      <c r="D18" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>161</v>
+      </c>
+      <c r="B19" t="s">
+        <v>164</v>
+      </c>
+      <c r="C19" t="s">
+        <v>165</v>
+      </c>
+      <c r="D19" t="s">
+        <v>166</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/manual_update.xlsx
+++ b/Data/manual_update.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cheyu/Documents/GitHub/CofactorYeast/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77A9235E-A380-9E45-8768-64E7DC7F7219}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B05CAA5D-406E-E848-AE38-CFAADDA7ED11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{0732DB2B-E664-7544-B4C9-5536E1206D06}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="180">
   <si>
     <t>PMID: 11561293</t>
   </si>
@@ -343,9 +343,6 @@
     <t>PMID: 4346952</t>
   </si>
   <si>
-    <t>Minimum of three values: Median of EC1.8.1.4 with NAD+ as substrate (506) * stoichiometry of YFL018C (12); Median of EC1.2.4.1 with pyruvate as substrate (37.9) * stoichiometry of YBR221C and YER178W (48); Median of EC1.2.4.1 with pyruvate as substrate (2.4) * stoichiometry of YNL071W (60).</t>
-  </si>
-  <si>
     <t>r_0003_rvs_enzyme</t>
   </si>
   <si>
@@ -563,6 +560,18 @@
   </si>
   <si>
     <t>PMID: 7649185</t>
+  </si>
+  <si>
+    <t>r_0893_1_fwd_enzyme</t>
+  </si>
+  <si>
+    <t>r_0893_2_fwd_enzyme</t>
+  </si>
+  <si>
+    <t>PMID: 10369755</t>
+  </si>
+  <si>
+    <t>Median of three values: Median of EC1.8.1.4 with NAD+ as substrate (506) * stoichiometry of YFL018C (12); Median of EC1.2.4.1 with pyruvate as substrate (37.9) * stoichiometry of YBR221C and YER178W (48); Median of EC1.2.4.1 with pyruvate as substrate (2.4) * stoichiometry of YNL071W (60).</t>
   </si>
 </sst>
 </file>
@@ -929,10 +938,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1417A95A-9A45-104E-81A0-44F5861A24E6}">
-  <dimension ref="A1:D115"/>
+  <dimension ref="A1:D117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="A97" sqref="A97:D115"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1464,10 +1473,10 @@
         <v>54</v>
       </c>
       <c r="B38">
-        <v>144</v>
+        <v>1819.1999999999998</v>
       </c>
       <c r="C38" t="s">
-        <v>103</v>
+        <v>179</v>
       </c>
       <c r="D38">
         <v>4</v>
@@ -1559,7 +1568,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B45">
         <v>143.30000000000001</v>
@@ -1573,7 +1582,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B46">
         <v>143.30000000000001</v>
@@ -1587,7 +1596,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B47">
         <v>143.30000000000001</v>
@@ -1601,7 +1610,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B48">
         <v>143.30000000000001</v>
@@ -1719,7 +1728,7 @@
         <v>7200</v>
       </c>
       <c r="C56" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D56">
         <v>4</v>
@@ -1733,7 +1742,7 @@
         <v>7200</v>
       </c>
       <c r="C57" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D57">
         <v>4</v>
@@ -1965,13 +1974,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B74">
         <v>127.5</v>
       </c>
       <c r="C74" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D74">
         <v>4</v>
@@ -1979,13 +1988,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B75">
         <v>1.38</v>
       </c>
       <c r="C75" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D75">
         <v>4</v>
@@ -1993,13 +2002,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B76">
         <v>1.38</v>
       </c>
       <c r="C76" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D76">
         <v>4</v>
@@ -2007,13 +2016,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B77">
         <v>1.38</v>
       </c>
       <c r="C77" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D77">
         <v>4</v>
@@ -2021,13 +2030,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B78">
         <v>1.38</v>
       </c>
       <c r="C78" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D78">
         <v>4</v>
@@ -2035,13 +2044,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B79">
         <v>1.38</v>
       </c>
       <c r="C79" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D79">
         <v>4</v>
@@ -2049,13 +2058,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B80">
         <v>1.38</v>
       </c>
       <c r="C80" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D80">
         <v>4</v>
@@ -2063,13 +2072,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B81">
         <v>202.7</v>
       </c>
       <c r="C81" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D81">
         <v>4</v>
@@ -2077,13 +2086,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B82">
         <v>9.1999999999999993</v>
       </c>
       <c r="C82" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D82">
         <v>4</v>
@@ -2091,13 +2100,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B83">
         <v>7.5</v>
       </c>
       <c r="C83" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D83">
         <v>4</v>
@@ -2105,13 +2114,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B84">
         <v>7.5</v>
       </c>
       <c r="C84" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D84">
         <v>4</v>
@@ -2119,13 +2128,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B85">
         <v>7.5</v>
       </c>
       <c r="C85" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D85">
         <v>4</v>
@@ -2133,13 +2142,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B86">
         <v>7.5</v>
       </c>
       <c r="C86" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D86">
         <v>4</v>
@@ -2147,13 +2156,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B87">
         <v>14</v>
       </c>
       <c r="C87" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D87">
         <v>4</v>
@@ -2161,13 +2170,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B88">
         <v>14</v>
       </c>
       <c r="C88" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D88">
         <v>4</v>
@@ -2175,13 +2184,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B89">
         <v>14</v>
       </c>
       <c r="C89" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D89">
         <v>4</v>
@@ -2189,13 +2198,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B90">
         <v>14</v>
       </c>
       <c r="C90" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D90">
         <v>4</v>
@@ -2203,13 +2212,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B91">
         <v>6.08</v>
       </c>
       <c r="C91" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D91">
         <v>4</v>
@@ -2217,13 +2226,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B92">
         <v>6.08</v>
       </c>
       <c r="C92" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D92">
         <v>4</v>
@@ -2231,13 +2240,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B93">
         <v>552.9</v>
       </c>
       <c r="C93" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D93">
         <v>4</v>
@@ -2245,13 +2254,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B94">
         <v>590.9</v>
       </c>
       <c r="C94" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D94">
         <v>4</v>
@@ -2259,13 +2268,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B95">
         <v>550.29999999999995</v>
       </c>
       <c r="C95" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D95">
         <v>4</v>
@@ -2273,13 +2282,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B96">
         <v>588.29999999999995</v>
       </c>
       <c r="C96" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D96">
         <v>4</v>
@@ -2287,13 +2296,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B97">
         <v>0.98</v>
       </c>
       <c r="C97" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D97">
         <v>4</v>
@@ -2301,13 +2310,13 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B98">
         <v>0.7</v>
       </c>
       <c r="C98" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D98">
         <v>4</v>
@@ -2315,13 +2324,13 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B99">
         <v>1.1120000000000001</v>
       </c>
       <c r="C99" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D99">
         <v>4</v>
@@ -2329,13 +2338,13 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B100">
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="C100" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D100">
         <v>4</v>
@@ -2343,13 +2352,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B101">
         <v>35.1</v>
       </c>
       <c r="C101" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D101">
         <v>4</v>
@@ -2357,13 +2366,13 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B102">
         <v>141.69999999999999</v>
       </c>
       <c r="C102" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D102">
         <v>4</v>
@@ -2371,13 +2380,13 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B103">
         <v>141.69999999999999</v>
       </c>
       <c r="C103" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D103">
         <v>4</v>
@@ -2385,13 +2394,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B104">
         <v>141.69999999999999</v>
       </c>
       <c r="C104" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D104">
         <v>4</v>
@@ -2399,13 +2408,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B105">
         <v>364.08</v>
       </c>
       <c r="C105" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D105">
         <v>4</v>
@@ -2413,13 +2422,13 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B106">
         <v>364.08</v>
       </c>
       <c r="C106" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D106">
         <v>4</v>
@@ -2427,13 +2436,13 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B107">
         <v>364.08</v>
       </c>
       <c r="C107" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D107">
         <v>4</v>
@@ -2441,13 +2450,13 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B108">
         <v>364.08</v>
       </c>
       <c r="C108" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D108">
         <v>4</v>
@@ -2455,13 +2464,13 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B109">
         <v>364.08</v>
       </c>
       <c r="C109" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D109">
         <v>4</v>
@@ -2469,13 +2478,13 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B110">
         <v>1642.8</v>
       </c>
       <c r="C110" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D110">
         <v>4</v>
@@ -2483,13 +2492,13 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B111">
         <v>14.5</v>
       </c>
       <c r="C111" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D111">
         <v>4</v>
@@ -2497,13 +2506,13 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B112">
         <v>13.8</v>
       </c>
       <c r="C112" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D112">
         <v>4</v>
@@ -2511,13 +2520,13 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B113">
         <v>17</v>
       </c>
       <c r="C113" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D113">
         <v>4</v>
@@ -2525,13 +2534,13 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B114">
         <v>4.7</v>
       </c>
       <c r="C114" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D114">
         <v>4</v>
@@ -2539,15 +2548,43 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B115">
         <v>4.0999999999999996</v>
       </c>
       <c r="C115" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D115">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B116">
+        <v>530</v>
+      </c>
+      <c r="C116" t="s">
+        <v>178</v>
+      </c>
+      <c r="D116">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B117">
+        <v>2120</v>
+      </c>
+      <c r="C117" t="s">
+        <v>178</v>
+      </c>
+      <c r="D117">
         <v>4</v>
       </c>
     </row>
@@ -2742,7 +2779,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
@@ -2756,7 +2793,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
@@ -2770,7 +2807,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
@@ -2784,7 +2821,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B16" t="s">
         <v>8</v>
@@ -2798,7 +2835,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
@@ -2812,30 +2849,30 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C18" t="s">
+        <v>164</v>
+      </c>
+      <c r="D18" t="s">
         <v>165</v>
-      </c>
-      <c r="D18" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B19" t="s">
+        <v>163</v>
+      </c>
+      <c r="C19" t="s">
         <v>164</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>165</v>
-      </c>
-      <c r="D19" t="s">
-        <v>166</v>
       </c>
     </row>
   </sheetData>

--- a/Data/manual_update.xlsx
+++ b/Data/manual_update.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cheyu/Documents/GitHub/CofactorYeast/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B05CAA5D-406E-E848-AE38-CFAADDA7ED11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D7C1A04-9769-DB49-AE3B-5C3FAC6171D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{0732DB2B-E664-7544-B4C9-5536E1206D06}"/>
+    <workbookView xWindow="-21560" yWindow="460" windowWidth="21560" windowHeight="21140" activeTab="1" xr2:uid="{0732DB2B-E664-7544-B4C9-5536E1206D06}"/>
   </bookViews>
   <sheets>
     <sheet name="kcats" sheetId="3" r:id="rId1"/>
     <sheet name="stoichiometry" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="184">
   <si>
     <t>PMID: 11561293</t>
   </si>
@@ -572,6 +572,18 @@
   </si>
   <si>
     <t>Median of three values: Median of EC1.8.1.4 with NAD+ as substrate (506) * stoichiometry of YFL018C (12); Median of EC1.2.4.1 with pyruvate as substrate (37.9) * stoichiometry of YBR221C and YER178W (48); Median of EC1.2.4.1 with pyruvate as substrate (2.4) * stoichiometry of YNL071W (60).</t>
+  </si>
+  <si>
+    <t>r_0505_1_enzyme</t>
+  </si>
+  <si>
+    <t>r_0505_2_enzyme</t>
+  </si>
+  <si>
+    <t>PMID: ﻿31405984</t>
+  </si>
+  <si>
+    <t>r_1022_enzyme</t>
   </si>
 </sst>
 </file>
@@ -938,10 +950,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1417A95A-9A45-104E-81A0-44F5861A24E6}">
-  <dimension ref="A1:D117"/>
+  <dimension ref="A1:D120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="A120" sqref="A120:XFD120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2588,6 +2600,48 @@
         <v>4</v>
       </c>
     </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A118" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B118">
+        <v>1012</v>
+      </c>
+      <c r="C118" t="s">
+        <v>182</v>
+      </c>
+      <c r="D118">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A119" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B119">
+        <v>1012</v>
+      </c>
+      <c r="C119" t="s">
+        <v>182</v>
+      </c>
+      <c r="D119">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B120" s="1">
+        <v>22</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D120" s="1">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2598,8 +2652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FE794CF-9095-4B49-B7ED-0ACA2739CBC2}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Data/manual_update.xlsx
+++ b/Data/manual_update.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cheyu/Documents/GitHub/CofactorYeast/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D7C1A04-9769-DB49-AE3B-5C3FAC6171D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{087BC263-2CED-1A46-BCDD-88BA04E7F545}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21560" yWindow="460" windowWidth="21560" windowHeight="21140" activeTab="1" xr2:uid="{0732DB2B-E664-7544-B4C9-5536E1206D06}"/>
+    <workbookView xWindow="-38400" yWindow="460" windowWidth="21560" windowHeight="21140" xr2:uid="{0732DB2B-E664-7544-B4C9-5536E1206D06}"/>
   </bookViews>
   <sheets>
     <sheet name="kcats" sheetId="3" r:id="rId1"/>
     <sheet name="stoichiometry" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="296">
   <si>
     <t>PMID: 11561293</t>
   </si>
@@ -584,6 +584,342 @@
   </si>
   <si>
     <t>r_1022_enzyme</t>
+  </si>
+  <si>
+    <t>r_1049_1_fwd_enzyme</t>
+  </si>
+  <si>
+    <t>r_1049_1_rvs_enzyme</t>
+  </si>
+  <si>
+    <t>r_1049_2_fwd_enzyme</t>
+  </si>
+  <si>
+    <t>r_1049_2_rvs_enzyme</t>
+  </si>
+  <si>
+    <t>r_1050_1_fwd_enzyme</t>
+  </si>
+  <si>
+    <t>r_1050_1_rvs_enzyme</t>
+  </si>
+  <si>
+    <t>r_1050_2_fwd_enzyme</t>
+  </si>
+  <si>
+    <t>r_1050_2_rvs_enzyme</t>
+  </si>
+  <si>
+    <t>BRENDA EC2.2.1.1</t>
+  </si>
+  <si>
+    <t>PMID: 9537513</t>
+  </si>
+  <si>
+    <t>Median of EC2.2.1.1 within S. cerevisiae</t>
+  </si>
+  <si>
+    <t>r_0006_1_enzyme</t>
+  </si>
+  <si>
+    <t>r_0006_2_enzyme</t>
+  </si>
+  <si>
+    <t>Median of isozymes of r_0005</t>
+  </si>
+  <si>
+    <t>r_0018_1_fwd_enzyme</t>
+  </si>
+  <si>
+    <t>r_0018_1_rvs_enzyme</t>
+  </si>
+  <si>
+    <t>r_0018_2_fwd_enzyme</t>
+  </si>
+  <si>
+    <t>r_0018_2_rvs_enzyme</t>
+  </si>
+  <si>
+    <t>r_0018_3_fwd_enzyme</t>
+  </si>
+  <si>
+    <t>r_0018_3_rvs_enzyme</t>
+  </si>
+  <si>
+    <t>Matched organism and substrte (L-glutamate) of EC2.6.1.39</t>
+  </si>
+  <si>
+    <t>Matched organism and substrte (L-2-aminoadipate) of EC2.6.1.39</t>
+  </si>
+  <si>
+    <t>r_0023_fwd_enzyme</t>
+  </si>
+  <si>
+    <t>r_0023_rvs_enzyme</t>
+  </si>
+  <si>
+    <t>PMID: 3071717</t>
+  </si>
+  <si>
+    <t>r_0060_fwd_enzyme</t>
+  </si>
+  <si>
+    <t>r_0060_rvs_enzyme</t>
+  </si>
+  <si>
+    <t>Median of EC3.1.3.5 with matched substrates (cmp)</t>
+  </si>
+  <si>
+    <t>r_0076_1_enzyme</t>
+  </si>
+  <si>
+    <t>r_0076_2_enzyme</t>
+  </si>
+  <si>
+    <t>Median of EC3.1.3.5 with matched substrates (imp)</t>
+  </si>
+  <si>
+    <t>r_0077_enzyme</t>
+  </si>
+  <si>
+    <t>Median of EC3.1.3.5 with matched substrates (ump)</t>
+  </si>
+  <si>
+    <t>r_0078_1_enzyme</t>
+  </si>
+  <si>
+    <t>r_0078_2_enzyme</t>
+  </si>
+  <si>
+    <t>r_0168_1_enzyme</t>
+  </si>
+  <si>
+    <t>r_0168_2_enzyme</t>
+  </si>
+  <si>
+    <t>r_0168_3_enzyme</t>
+  </si>
+  <si>
+    <t>Median of EC1.1.1.2 within S. cerevisiae</t>
+  </si>
+  <si>
+    <t>r_0164_1_enzyme</t>
+  </si>
+  <si>
+    <t>r_0164_2_enzyme</t>
+  </si>
+  <si>
+    <t>r_0483_1_fwd_enzyme</t>
+  </si>
+  <si>
+    <t>r_0483_1_rvs_enzyme</t>
+  </si>
+  <si>
+    <t>r_0483_2_fwd_enzyme</t>
+  </si>
+  <si>
+    <t>r_0483_2_rvs_enzyme</t>
+  </si>
+  <si>
+    <t>r_0483_3_fwd_enzyme</t>
+  </si>
+  <si>
+    <t>r_0483_3_rvs_enzyme</t>
+  </si>
+  <si>
+    <t>r_0483_4_fwd_enzyme</t>
+  </si>
+  <si>
+    <t>r_0483_4_rvs_enzyme</t>
+  </si>
+  <si>
+    <t>r_0483_5_fwd_enzyme</t>
+  </si>
+  <si>
+    <t>r_0483_5_rvs_enzyme</t>
+  </si>
+  <si>
+    <t>r_0483_6_fwd_enzyme</t>
+  </si>
+  <si>
+    <t>r_0483_6_rvs_enzyme</t>
+  </si>
+  <si>
+    <t>PMID: 12684511</t>
+  </si>
+  <si>
+    <t>r_1029_enzyme</t>
+  </si>
+  <si>
+    <t>Median of EC1.14.11.17 with matched substrates (2-oxoglutarate &amp; taurine)</t>
+  </si>
+  <si>
+    <t>r_0989_enzyme</t>
+  </si>
+  <si>
+    <t>PMID: 3098733</t>
+  </si>
+  <si>
+    <t>r_0441_enzyme</t>
+  </si>
+  <si>
+    <t>r_0442_enzyme</t>
+  </si>
+  <si>
+    <t>kcat of EC1.5.1.39 of Paracoccus denitrificans (PMID: 14728682)</t>
+  </si>
+  <si>
+    <t>r_0782_enzyme</t>
+  </si>
+  <si>
+    <t>Median of EC2.1.1.1</t>
+  </si>
+  <si>
+    <t>r_1046_enzyme</t>
+  </si>
+  <si>
+    <t>PMID: 11695919</t>
+  </si>
+  <si>
+    <t>r_0272_1_enzyme</t>
+  </si>
+  <si>
+    <t>r_0272_2_enzyme</t>
+  </si>
+  <si>
+    <t>r_0272_3_enzyme</t>
+  </si>
+  <si>
+    <t>PMID: 2955198</t>
+  </si>
+  <si>
+    <t>Median of EC2.4.2.22 with matched substrates (prpp &amp; xanthine)</t>
+  </si>
+  <si>
+    <t>r_1091_enzyme</t>
+  </si>
+  <si>
+    <t>r_0556_enzyme</t>
+  </si>
+  <si>
+    <t>PMID: 8394314</t>
+  </si>
+  <si>
+    <t>r_1036_enzyme</t>
+  </si>
+  <si>
+    <t>r_0561_1_enzyme</t>
+  </si>
+  <si>
+    <t>r_0561_2_enzyme</t>
+  </si>
+  <si>
+    <t>r_0561_3_enzyme</t>
+  </si>
+  <si>
+    <t>Median of EC2.7.1.49 with matched substrates (atp &amp; 4-amino-5-hydroxymethyl-2-methylpyrimidine)</t>
+  </si>
+  <si>
+    <t>r_0903_1_enzyme</t>
+  </si>
+  <si>
+    <t>r_0903_2_enzyme</t>
+  </si>
+  <si>
+    <t>r_0903_3_enzyme</t>
+  </si>
+  <si>
+    <t>Median of EC2.7.4.7 with matched substrates (atp)</t>
+  </si>
+  <si>
+    <t>r_0468_enzyme</t>
+  </si>
+  <si>
+    <t>PMID: 17449694</t>
+  </si>
+  <si>
+    <t>Median of EC2.7.7.2 with matched substrates (atp &amp; fmn)</t>
+  </si>
+  <si>
+    <t>r_0440_enzyme</t>
+  </si>
+  <si>
+    <t>Median of EC3.1.1.6</t>
+  </si>
+  <si>
+    <t>r_0369_enzyme</t>
+  </si>
+  <si>
+    <t>r_0656_enzyme</t>
+  </si>
+  <si>
+    <t>r_0657_enzyme</t>
+  </si>
+  <si>
+    <t>Median of EC3.1.1.23</t>
+  </si>
+  <si>
+    <t>r_4309_enzyme</t>
+  </si>
+  <si>
+    <t>r_0091_1_enzyme</t>
+  </si>
+  <si>
+    <t>r_0091_2_enzyme</t>
+  </si>
+  <si>
+    <t>kcat of EC3.1.1.31 of Bos taurus (PMID: 6852020)</t>
+  </si>
+  <si>
+    <t>PMID: 39610</t>
+  </si>
+  <si>
+    <t>r_0143_enzyme</t>
+  </si>
+  <si>
+    <t>Median of EC3.6.1.67</t>
+  </si>
+  <si>
+    <t>r_0348_enzyme</t>
+  </si>
+  <si>
+    <t>Median of EC4.2.1.36</t>
+  </si>
+  <si>
+    <t>r_0542_1_fwd_enzyme</t>
+  </si>
+  <si>
+    <t>r_0542_1_rvs_enzyme</t>
+  </si>
+  <si>
+    <t>r_0542_2_fwd_enzyme</t>
+  </si>
+  <si>
+    <t>r_0542_2_rvs_enzyme</t>
+  </si>
+  <si>
+    <t>kcat of EC4.2.1.69 of Myrothecium verrucaria (PMID: 2034671)</t>
+  </si>
+  <si>
+    <t>r_4210_1_fwd_enzyme</t>
+  </si>
+  <si>
+    <t>r_4210_1_rvs_enzyme</t>
+  </si>
+  <si>
+    <t>r_4210_2_fwd_enzyme</t>
+  </si>
+  <si>
+    <t>r_4210_2_rvs_enzyme</t>
+  </si>
+  <si>
+    <t>r_0893_1_rvs_enzyme</t>
+  </si>
+  <si>
+    <t>r_0893_2_rvs_enzyme</t>
+  </si>
+  <si>
+    <t>Median of EC5.4.2.11 within S. cerevisiae</t>
   </si>
 </sst>
 </file>
@@ -612,12 +948,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -632,10 +974,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -950,16 +1294,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1417A95A-9A45-104E-81A0-44F5861A24E6}">
-  <dimension ref="A1:D120"/>
+  <dimension ref="A1:D200"/>
   <sheetViews>
-    <sheetView topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="A120" sqref="A120:XFD120"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="C127" sqref="C127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.83203125" customWidth="1"/>
-    <col min="3" max="3" width="38.83203125" customWidth="1"/>
+    <col min="3" max="3" width="63.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -987,7 +1331,7 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1001,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1015,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -1029,7 +1373,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -1043,7 +1387,7 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -1057,7 +1401,7 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -1071,7 +1415,7 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -1085,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -1099,7 +1443,7 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -1113,7 +1457,7 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -1127,7 +1471,7 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -1141,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -1155,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -1169,7 +1513,7 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -1183,7 +1527,7 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -1197,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -1211,7 +1555,7 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -1225,7 +1569,7 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -1239,7 +1583,7 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -1253,7 +1597,7 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -1267,7 +1611,7 @@
         <v>1</v>
       </c>
       <c r="D22">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -1281,7 +1625,7 @@
         <v>1</v>
       </c>
       <c r="D23">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -1295,7 +1639,7 @@
         <v>1</v>
       </c>
       <c r="D24">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -1309,7 +1653,7 @@
         <v>1</v>
       </c>
       <c r="D25">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -1323,7 +1667,7 @@
         <v>1</v>
       </c>
       <c r="D26">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -1337,7 +1681,7 @@
         <v>91</v>
       </c>
       <c r="D27">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -1351,7 +1695,7 @@
         <v>91</v>
       </c>
       <c r="D28">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -1365,7 +1709,7 @@
         <v>1</v>
       </c>
       <c r="D29">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -1379,7 +1723,7 @@
         <v>92</v>
       </c>
       <c r="D30">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -1393,7 +1737,7 @@
         <v>92</v>
       </c>
       <c r="D31">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -1407,7 +1751,7 @@
         <v>92</v>
       </c>
       <c r="D32">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -1421,7 +1765,7 @@
         <v>94</v>
       </c>
       <c r="D33">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -1435,7 +1779,7 @@
         <v>94</v>
       </c>
       <c r="D34">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -1449,7 +1793,7 @@
         <v>94</v>
       </c>
       <c r="D35">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -1463,7 +1807,7 @@
         <v>94</v>
       </c>
       <c r="D36">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -1477,7 +1821,7 @@
         <v>94</v>
       </c>
       <c r="D37">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -1491,7 +1835,7 @@
         <v>179</v>
       </c>
       <c r="D38">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -1505,7 +1849,7 @@
         <v>4</v>
       </c>
       <c r="D39">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -1519,7 +1863,7 @@
         <v>4</v>
       </c>
       <c r="D40">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -1533,7 +1877,7 @@
         <v>4</v>
       </c>
       <c r="D41">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -1547,7 +1891,7 @@
         <v>4</v>
       </c>
       <c r="D42">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -1561,7 +1905,7 @@
         <v>4</v>
       </c>
       <c r="D43">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -1575,7 +1919,7 @@
         <v>4</v>
       </c>
       <c r="D44">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -1589,7 +1933,7 @@
         <v>4</v>
       </c>
       <c r="D45">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -1603,7 +1947,7 @@
         <v>4</v>
       </c>
       <c r="D46">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -1617,7 +1961,7 @@
         <v>4</v>
       </c>
       <c r="D47">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -1631,7 +1975,7 @@
         <v>4</v>
       </c>
       <c r="D48">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -1645,7 +1989,7 @@
         <v>4</v>
       </c>
       <c r="D49">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -1659,7 +2003,7 @@
         <v>4</v>
       </c>
       <c r="D50">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -1673,7 +2017,7 @@
         <v>4</v>
       </c>
       <c r="D51">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -1687,7 +2031,7 @@
         <v>4</v>
       </c>
       <c r="D52">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -1701,7 +2045,7 @@
         <v>4</v>
       </c>
       <c r="D53">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -1715,7 +2059,7 @@
         <v>4</v>
       </c>
       <c r="D54">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -1729,7 +2073,7 @@
         <v>4</v>
       </c>
       <c r="D55">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
@@ -1743,7 +2087,7 @@
         <v>133</v>
       </c>
       <c r="D56">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -1757,7 +2101,7 @@
         <v>133</v>
       </c>
       <c r="D57">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -1771,7 +2115,7 @@
         <v>99</v>
       </c>
       <c r="D58">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -1785,7 +2129,7 @@
         <v>99</v>
       </c>
       <c r="D59">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -1799,7 +2143,7 @@
         <v>99</v>
       </c>
       <c r="D60">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
@@ -1813,7 +2157,7 @@
         <v>6</v>
       </c>
       <c r="D61">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
@@ -1827,7 +2171,7 @@
         <v>6</v>
       </c>
       <c r="D62">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -1841,7 +2185,7 @@
         <v>6</v>
       </c>
       <c r="D63">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
@@ -1855,7 +2199,7 @@
         <v>100</v>
       </c>
       <c r="D64">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
@@ -1869,7 +2213,7 @@
         <v>100</v>
       </c>
       <c r="D65">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
@@ -1883,7 +2227,7 @@
         <v>100</v>
       </c>
       <c r="D66">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
@@ -1897,7 +2241,7 @@
         <v>101</v>
       </c>
       <c r="D67">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -1911,7 +2255,7 @@
         <v>101</v>
       </c>
       <c r="D68">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
@@ -1925,7 +2269,7 @@
         <v>102</v>
       </c>
       <c r="D69">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
@@ -1939,7 +2283,7 @@
         <v>102</v>
       </c>
       <c r="D70">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
@@ -1953,7 +2297,7 @@
         <v>102</v>
       </c>
       <c r="D71">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
@@ -1967,7 +2311,7 @@
         <v>102</v>
       </c>
       <c r="D72">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -1981,7 +2325,7 @@
         <v>102</v>
       </c>
       <c r="D73">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -1995,7 +2339,7 @@
         <v>104</v>
       </c>
       <c r="D74">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -2009,7 +2353,7 @@
         <v>114</v>
       </c>
       <c r="D75">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
@@ -2023,7 +2367,7 @@
         <v>114</v>
       </c>
       <c r="D76">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
@@ -2037,7 +2381,7 @@
         <v>114</v>
       </c>
       <c r="D77">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
@@ -2051,7 +2395,7 @@
         <v>114</v>
       </c>
       <c r="D78">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -2065,7 +2409,7 @@
         <v>114</v>
       </c>
       <c r="D79">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
@@ -2079,7 +2423,7 @@
         <v>114</v>
       </c>
       <c r="D80">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
@@ -2093,7 +2437,7 @@
         <v>117</v>
       </c>
       <c r="D81">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
@@ -2107,7 +2451,7 @@
         <v>117</v>
       </c>
       <c r="D82">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
@@ -2121,7 +2465,7 @@
         <v>119</v>
       </c>
       <c r="D83">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
@@ -2135,7 +2479,7 @@
         <v>119</v>
       </c>
       <c r="D84">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
@@ -2149,7 +2493,7 @@
         <v>132</v>
       </c>
       <c r="D85">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
@@ -2163,7 +2507,7 @@
         <v>132</v>
       </c>
       <c r="D86">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
@@ -2177,7 +2521,7 @@
         <v>123</v>
       </c>
       <c r="D87">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
@@ -2191,7 +2535,7 @@
         <v>123</v>
       </c>
       <c r="D88">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
@@ -2205,7 +2549,7 @@
         <v>126</v>
       </c>
       <c r="D89">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
@@ -2219,7 +2563,7 @@
         <v>126</v>
       </c>
       <c r="D90">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
@@ -2233,7 +2577,7 @@
         <v>129</v>
       </c>
       <c r="D91">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
@@ -2247,7 +2591,7 @@
         <v>129</v>
       </c>
       <c r="D92">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
@@ -2261,7 +2605,7 @@
         <v>141</v>
       </c>
       <c r="D93">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
@@ -2275,7 +2619,7 @@
         <v>141</v>
       </c>
       <c r="D94">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
@@ -2289,7 +2633,7 @@
         <v>141</v>
       </c>
       <c r="D95">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
@@ -2303,7 +2647,7 @@
         <v>141</v>
       </c>
       <c r="D96">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
@@ -2317,7 +2661,7 @@
         <v>143</v>
       </c>
       <c r="D97">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
@@ -2331,7 +2675,7 @@
         <v>144</v>
       </c>
       <c r="D98">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
@@ -2345,7 +2689,7 @@
         <v>149</v>
       </c>
       <c r="D99">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
@@ -2359,7 +2703,7 @@
         <v>148</v>
       </c>
       <c r="D100">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
@@ -2373,7 +2717,7 @@
         <v>151</v>
       </c>
       <c r="D101">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
@@ -2387,7 +2731,7 @@
         <v>155</v>
       </c>
       <c r="D102">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
@@ -2401,7 +2745,7 @@
         <v>155</v>
       </c>
       <c r="D103">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
@@ -2415,7 +2759,7 @@
         <v>155</v>
       </c>
       <c r="D104">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
@@ -2429,7 +2773,7 @@
         <v>161</v>
       </c>
       <c r="D105">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
@@ -2443,7 +2787,7 @@
         <v>161</v>
       </c>
       <c r="D106">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
@@ -2457,7 +2801,7 @@
         <v>161</v>
       </c>
       <c r="D107">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
@@ -2471,7 +2815,7 @@
         <v>161</v>
       </c>
       <c r="D108">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
@@ -2485,7 +2829,7 @@
         <v>161</v>
       </c>
       <c r="D109">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
@@ -2499,7 +2843,7 @@
         <v>167</v>
       </c>
       <c r="D110">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
@@ -2513,7 +2857,7 @@
         <v>175</v>
       </c>
       <c r="D111">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
@@ -2527,7 +2871,7 @@
         <v>175</v>
       </c>
       <c r="D112">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
@@ -2541,7 +2885,7 @@
         <v>175</v>
       </c>
       <c r="D113">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
@@ -2555,7 +2899,7 @@
         <v>136</v>
       </c>
       <c r="D114">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
@@ -2569,7 +2913,7 @@
         <v>136</v>
       </c>
       <c r="D115">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
@@ -2583,7 +2927,7 @@
         <v>178</v>
       </c>
       <c r="D116">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
@@ -2597,7 +2941,7 @@
         <v>178</v>
       </c>
       <c r="D117">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
@@ -2611,7 +2955,7 @@
         <v>182</v>
       </c>
       <c r="D118">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
@@ -2625,7 +2969,7 @@
         <v>182</v>
       </c>
       <c r="D119">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
@@ -2638,8 +2982,1128 @@
       <c r="C120" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="D120" s="1">
-        <v>4</v>
+      <c r="D120">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B121">
+        <v>56.7</v>
+      </c>
+      <c r="C121" t="s">
+        <v>192</v>
+      </c>
+      <c r="D121">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B122">
+        <v>44.5</v>
+      </c>
+      <c r="C122" t="s">
+        <v>194</v>
+      </c>
+      <c r="D122">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A123" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B123">
+        <v>56.7</v>
+      </c>
+      <c r="C123" t="s">
+        <v>192</v>
+      </c>
+      <c r="D123">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A124" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B124">
+        <v>44.5</v>
+      </c>
+      <c r="C124" t="s">
+        <v>194</v>
+      </c>
+      <c r="D124">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A125" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B125">
+        <v>69</v>
+      </c>
+      <c r="C125" t="s">
+        <v>193</v>
+      </c>
+      <c r="D125">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A126" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B126">
+        <v>44.5</v>
+      </c>
+      <c r="C126" t="s">
+        <v>194</v>
+      </c>
+      <c r="D126">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B127">
+        <v>69</v>
+      </c>
+      <c r="C127" t="s">
+        <v>193</v>
+      </c>
+      <c r="D127">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A128" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B128">
+        <v>44.5</v>
+      </c>
+      <c r="C128" t="s">
+        <v>194</v>
+      </c>
+      <c r="D128">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A129" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B129">
+        <v>14.5</v>
+      </c>
+      <c r="C129" t="s">
+        <v>197</v>
+      </c>
+      <c r="D129">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A130" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B130">
+        <v>14.5</v>
+      </c>
+      <c r="C130" t="s">
+        <v>197</v>
+      </c>
+      <c r="D130">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A131" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B131">
+        <v>12.8</v>
+      </c>
+      <c r="C131" t="s">
+        <v>204</v>
+      </c>
+      <c r="D131">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A132" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B132">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="C132" t="s">
+        <v>205</v>
+      </c>
+      <c r="D132">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A133" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B133">
+        <v>25.6</v>
+      </c>
+      <c r="C133" t="s">
+        <v>204</v>
+      </c>
+      <c r="D133">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A134" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B134">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="C134" t="s">
+        <v>205</v>
+      </c>
+      <c r="D134">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A135" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B135">
+        <v>25.6</v>
+      </c>
+      <c r="C135" t="s">
+        <v>204</v>
+      </c>
+      <c r="D135">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A136" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B136">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="C136" t="s">
+        <v>205</v>
+      </c>
+      <c r="D136">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A137" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B137">
+        <v>8.83</v>
+      </c>
+      <c r="C137" t="s">
+        <v>208</v>
+      </c>
+      <c r="D137">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A138" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B138">
+        <v>8.83</v>
+      </c>
+      <c r="C138" t="s">
+        <v>208</v>
+      </c>
+      <c r="D138">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A139" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B139">
+        <v>8.83</v>
+      </c>
+      <c r="C139" t="s">
+        <v>208</v>
+      </c>
+      <c r="D139">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A140" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="B140">
+        <v>8.83</v>
+      </c>
+      <c r="C140" t="s">
+        <v>208</v>
+      </c>
+      <c r="D140">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A141" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B141">
+        <v>104</v>
+      </c>
+      <c r="C141" t="s">
+        <v>211</v>
+      </c>
+      <c r="D141">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A142" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="B142">
+        <v>104</v>
+      </c>
+      <c r="C142" t="s">
+        <v>211</v>
+      </c>
+      <c r="D142">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A143" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B143">
+        <v>52.15</v>
+      </c>
+      <c r="C143" t="s">
+        <v>214</v>
+      </c>
+      <c r="D143">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A144" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="B144">
+        <v>145.1</v>
+      </c>
+      <c r="C144" t="s">
+        <v>216</v>
+      </c>
+      <c r="D144">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A145" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B145">
+        <v>145.1</v>
+      </c>
+      <c r="C145" t="s">
+        <v>216</v>
+      </c>
+      <c r="D145">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A146" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="B146">
+        <v>6270</v>
+      </c>
+      <c r="C146" t="s">
+        <v>222</v>
+      </c>
+      <c r="D146">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A147" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B147">
+        <v>6270</v>
+      </c>
+      <c r="C147" t="s">
+        <v>222</v>
+      </c>
+      <c r="D147">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A148" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B148">
+        <v>6270</v>
+      </c>
+      <c r="C148" t="s">
+        <v>222</v>
+      </c>
+      <c r="D148">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A149" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B149">
+        <v>6270</v>
+      </c>
+      <c r="C149" t="s">
+        <v>222</v>
+      </c>
+      <c r="D149">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A150" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B150">
+        <v>3135</v>
+      </c>
+      <c r="C150" t="s">
+        <v>222</v>
+      </c>
+      <c r="D150">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A151" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B151">
+        <v>52.9</v>
+      </c>
+      <c r="C151" t="s">
+        <v>237</v>
+      </c>
+      <c r="D151">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A152" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="B152">
+        <v>52.9</v>
+      </c>
+      <c r="C152" t="s">
+        <v>132</v>
+      </c>
+      <c r="D152">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A153" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B153">
+        <v>52.9</v>
+      </c>
+      <c r="C153" t="s">
+        <v>237</v>
+      </c>
+      <c r="D153">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A154" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="B154">
+        <v>52.9</v>
+      </c>
+      <c r="C154" t="s">
+        <v>132</v>
+      </c>
+      <c r="D154">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A155" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="B155">
+        <v>52.9</v>
+      </c>
+      <c r="C155" t="s">
+        <v>237</v>
+      </c>
+      <c r="D155">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A156" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B156">
+        <v>52.9</v>
+      </c>
+      <c r="C156" t="s">
+        <v>132</v>
+      </c>
+      <c r="D156">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A157" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="B157">
+        <v>52.9</v>
+      </c>
+      <c r="C157" t="s">
+        <v>237</v>
+      </c>
+      <c r="D157">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A158" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="B158">
+        <v>52.9</v>
+      </c>
+      <c r="C158" t="s">
+        <v>132</v>
+      </c>
+      <c r="D158">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A159" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="B159">
+        <v>52.9</v>
+      </c>
+      <c r="C159" t="s">
+        <v>237</v>
+      </c>
+      <c r="D159">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A160" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="B160">
+        <v>52.9</v>
+      </c>
+      <c r="C160" t="s">
+        <v>132</v>
+      </c>
+      <c r="D160">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A161" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="B161">
+        <v>52.9</v>
+      </c>
+      <c r="C161" t="s">
+        <v>237</v>
+      </c>
+      <c r="D161">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A162" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B162">
+        <v>52.9</v>
+      </c>
+      <c r="C162" t="s">
+        <v>132</v>
+      </c>
+      <c r="D162">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A163" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="B163">
+        <v>3.15</v>
+      </c>
+      <c r="C163" t="s">
+        <v>239</v>
+      </c>
+      <c r="D163">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A164" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="B164">
+        <v>439.3</v>
+      </c>
+      <c r="C164" t="s">
+        <v>241</v>
+      </c>
+      <c r="D164">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A165" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="B165">
+        <v>56</v>
+      </c>
+      <c r="C165" t="s">
+        <v>244</v>
+      </c>
+      <c r="D165">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A166" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="B166">
+        <v>56</v>
+      </c>
+      <c r="C166" t="s">
+        <v>244</v>
+      </c>
+      <c r="D166">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A167" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="B167">
+        <v>1.02</v>
+      </c>
+      <c r="C167" t="s">
+        <v>246</v>
+      </c>
+      <c r="D167">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A168" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="B168">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="C168" t="s">
+        <v>248</v>
+      </c>
+      <c r="D168">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A169" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="B169">
+        <v>93.6</v>
+      </c>
+      <c r="C169" t="s">
+        <v>252</v>
+      </c>
+      <c r="D169">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A170" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="B170">
+        <v>78.2</v>
+      </c>
+      <c r="C170" t="s">
+        <v>252</v>
+      </c>
+      <c r="D170">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A171" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="B171">
+        <v>92.4</v>
+      </c>
+      <c r="C171" t="s">
+        <v>252</v>
+      </c>
+      <c r="D171">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A172" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="B172">
+        <v>22</v>
+      </c>
+      <c r="C172" t="s">
+        <v>253</v>
+      </c>
+      <c r="D172">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A173" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B173">
+        <v>3.08</v>
+      </c>
+      <c r="C173" t="s">
+        <v>256</v>
+      </c>
+      <c r="D173">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A174" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="B174">
+        <v>1.56</v>
+      </c>
+      <c r="C174" t="s">
+        <v>256</v>
+      </c>
+      <c r="D174">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A175" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="B175">
+        <v>0.5</v>
+      </c>
+      <c r="C175" t="s">
+        <v>261</v>
+      </c>
+      <c r="D175">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A176" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="B176">
+        <v>0.5</v>
+      </c>
+      <c r="C176" t="s">
+        <v>261</v>
+      </c>
+      <c r="D176">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A177" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="B177">
+        <v>0.5</v>
+      </c>
+      <c r="C177" t="s">
+        <v>261</v>
+      </c>
+      <c r="D177">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A178" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="B178">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C178" t="s">
+        <v>265</v>
+      </c>
+      <c r="D178">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A179" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="B179">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C179" t="s">
+        <v>265</v>
+      </c>
+      <c r="D179">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A180" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="B180">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C180" t="s">
+        <v>265</v>
+      </c>
+      <c r="D180">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A181" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="B181">
+        <v>23.1</v>
+      </c>
+      <c r="C181" t="s">
+        <v>267</v>
+      </c>
+      <c r="D181">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A182" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="B182">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="C182" t="s">
+        <v>268</v>
+      </c>
+      <c r="D182">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A183" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="B183">
+        <v>82.6</v>
+      </c>
+      <c r="C183" t="s">
+        <v>270</v>
+      </c>
+      <c r="D183">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A184" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="B184">
+        <v>82.6</v>
+      </c>
+      <c r="C184" t="s">
+        <v>270</v>
+      </c>
+      <c r="D184">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A185" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="B185">
+        <v>82.6</v>
+      </c>
+      <c r="C185" t="s">
+        <v>270</v>
+      </c>
+      <c r="D185">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A186" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="B186">
+        <v>0.255</v>
+      </c>
+      <c r="C186" t="s">
+        <v>274</v>
+      </c>
+      <c r="D186">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A187" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="B187">
+        <v>14.3</v>
+      </c>
+      <c r="C187" t="s">
+        <v>278</v>
+      </c>
+      <c r="D187">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A188" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="B188">
+        <v>14.3</v>
+      </c>
+      <c r="C188" t="s">
+        <v>278</v>
+      </c>
+      <c r="D188">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A189" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="B189">
+        <v>533.79999999999995</v>
+      </c>
+      <c r="C189" t="s">
+        <v>279</v>
+      </c>
+      <c r="D189">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A190" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="B190">
+        <v>4.8</v>
+      </c>
+      <c r="C190" t="s">
+        <v>281</v>
+      </c>
+      <c r="D190">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A191" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="B191">
+        <v>0.75</v>
+      </c>
+      <c r="C191" t="s">
+        <v>283</v>
+      </c>
+      <c r="D191">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A192" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="B192">
+        <v>0.75</v>
+      </c>
+      <c r="C192" t="s">
+        <v>283</v>
+      </c>
+      <c r="D192">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A193" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="B193">
+        <v>0.75</v>
+      </c>
+      <c r="C193" t="s">
+        <v>283</v>
+      </c>
+      <c r="D193">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A194" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="B194">
+        <v>0.75</v>
+      </c>
+      <c r="C194" t="s">
+        <v>283</v>
+      </c>
+      <c r="D194">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A195" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="B195">
+        <v>288</v>
+      </c>
+      <c r="C195" t="s">
+        <v>288</v>
+      </c>
+      <c r="D195">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A196" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="B196">
+        <v>288</v>
+      </c>
+      <c r="C196" t="s">
+        <v>288</v>
+      </c>
+      <c r="D196">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A197" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="B197">
+        <v>288</v>
+      </c>
+      <c r="C197" t="s">
+        <v>288</v>
+      </c>
+      <c r="D197">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A198" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="B198">
+        <v>288</v>
+      </c>
+      <c r="C198" t="s">
+        <v>288</v>
+      </c>
+      <c r="D198">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A199" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B199">
+        <v>530</v>
+      </c>
+      <c r="C199" t="s">
+        <v>295</v>
+      </c>
+      <c r="D199">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A200" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B200">
+        <v>2120</v>
+      </c>
+      <c r="C200" t="s">
+        <v>295</v>
+      </c>
+      <c r="D200">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -2652,7 +4116,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FE794CF-9095-4B49-B7ED-0ACA2739CBC2}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>

--- a/Data/manual_update.xlsx
+++ b/Data/manual_update.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cheyu/Documents/GitHub/CofactorYeast/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{087BC263-2CED-1A46-BCDD-88BA04E7F545}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1E5CDA7-8A36-8045-9C9D-59A568938743}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="460" windowWidth="21560" windowHeight="21140" xr2:uid="{0732DB2B-E664-7544-B4C9-5536E1206D06}"/>
+    <workbookView xWindow="-38400" yWindow="460" windowWidth="27560" windowHeight="21140" xr2:uid="{0732DB2B-E664-7544-B4C9-5536E1206D06}"/>
   </bookViews>
   <sheets>
     <sheet name="kcats" sheetId="3" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="275">
   <si>
     <t>PMID: 11561293</t>
   </si>
@@ -40,27 +40,12 @@
     <t>PMID: 23831062</t>
   </si>
   <si>
-    <t>YJL052W</t>
-  </si>
-  <si>
-    <t>YJR009C</t>
-  </si>
-  <si>
     <t>PMID: 26928598</t>
   </si>
   <si>
-    <t>PMID: 16884682</t>
-  </si>
-  <si>
     <t>PMID: 3138118</t>
   </si>
   <si>
-    <t>PMID: 1101964</t>
-  </si>
-  <si>
-    <t>YLR044C</t>
-  </si>
-  <si>
     <t>r_0226_1_enzyme</t>
   </si>
   <si>
@@ -139,15 +124,9 @@
     <t>r_0486_2_fwd_enzyme</t>
   </si>
   <si>
-    <t>r_0486_2_rvs_enzyme</t>
-  </si>
-  <si>
     <t>r_0486_3_fwd_enzyme</t>
   </si>
   <si>
-    <t>r_0486_3_rvs_enzyme</t>
-  </si>
-  <si>
     <t>r_0534_1_enzyme</t>
   </si>
   <si>
@@ -181,12 +160,6 @@
     <t>r_0886_2_enzyme</t>
   </si>
   <si>
-    <t>r_0887_1_enzyme</t>
-  </si>
-  <si>
-    <t>r_0887_2_enzyme</t>
-  </si>
-  <si>
     <t>r_0959_1_enzyme</t>
   </si>
   <si>
@@ -295,27 +268,12 @@
     <t>subunits</t>
   </si>
   <si>
-    <t>YMR205C</t>
-  </si>
-  <si>
-    <t>YMR205C; YGR240C</t>
-  </si>
-  <si>
-    <t>4; 4</t>
-  </si>
-  <si>
-    <t>PMID: 145942</t>
-  </si>
-  <si>
     <t>PMID: 6455071</t>
   </si>
   <si>
     <t>PMID: 24456572</t>
   </si>
   <si>
-    <t>PMID: 6250837</t>
-  </si>
-  <si>
     <t>PMID: 9602170</t>
   </si>
   <si>
@@ -328,9 +286,6 @@
     <t>BioCyc</t>
   </si>
   <si>
-    <t>YNL037C; YOR136W</t>
-  </si>
-  <si>
     <t>PMID: 23423327</t>
   </si>
   <si>
@@ -352,18 +307,9 @@
     <t>r_0960_2_enzyme</t>
   </si>
   <si>
-    <t>r_0062_2_enzyme</t>
-  </si>
-  <si>
-    <t>r_0064_3_enzyme</t>
-  </si>
-  <si>
     <t>r_0095_2_enzyme</t>
   </si>
   <si>
-    <t>r_0567_2_enzyme</t>
-  </si>
-  <si>
     <t>r_0960_1_enzyme</t>
   </si>
   <si>
@@ -520,18 +466,6 @@
     <t>Median of EC2.7.6.1 with matched substrates (atp &amp; d-ribose 5-phosphate)</t>
   </si>
   <si>
-    <t>YER099C; YOL061W</t>
-  </si>
-  <si>
-    <t>YBL068W; YOL061W</t>
-  </si>
-  <si>
-    <t>6; 6</t>
-  </si>
-  <si>
-    <t>Assume to be the same as other isoreactions</t>
-  </si>
-  <si>
     <t>r_0476_enzyme</t>
   </si>
   <si>
@@ -920,6 +854,9 @@
   </si>
   <si>
     <t>Median of EC5.4.2.11 within S. cerevisiae</t>
+  </si>
+  <si>
+    <t>check protein stoichiometry</t>
   </si>
 </sst>
 </file>
@@ -1294,10 +1231,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1417A95A-9A45-104E-81A0-44F5861A24E6}">
-  <dimension ref="A1:D200"/>
+  <dimension ref="A1:E200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="C127" sqref="C127"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1308,21 +1245,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C1" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D1" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B2">
         <v>200</v>
@@ -1336,7 +1273,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B3">
         <v>200</v>
@@ -1350,7 +1287,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B4">
         <v>200</v>
@@ -1364,7 +1301,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="B5">
         <v>200</v>
@@ -1378,7 +1315,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B6">
         <v>200</v>
@@ -1392,7 +1329,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B7">
         <v>200</v>
@@ -1406,7 +1343,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B8">
         <v>200</v>
@@ -1420,7 +1357,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B9">
         <v>200</v>
@@ -1434,7 +1371,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="B10">
         <v>200</v>
@@ -1448,7 +1385,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="B11">
         <v>200</v>
@@ -1462,7 +1399,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B12">
         <v>200</v>
@@ -1476,7 +1413,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B13">
         <v>200</v>
@@ -1490,7 +1427,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="B14">
         <v>200</v>
@@ -1504,7 +1441,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B15">
         <v>200</v>
@@ -1518,7 +1455,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="B16">
         <v>200</v>
@@ -1532,7 +1469,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B17">
         <v>200</v>
@@ -1546,7 +1483,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B18">
         <v>200</v>
@@ -1560,7 +1497,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B19">
         <v>200</v>
@@ -1574,7 +1511,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="B20">
         <v>200</v>
@@ -1588,7 +1525,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B21">
         <v>200</v>
@@ -1602,7 +1539,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B22">
         <v>63.1</v>
@@ -1616,7 +1553,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B23">
         <v>63.1</v>
@@ -1630,7 +1567,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B24">
         <v>63.1</v>
@@ -1644,7 +1581,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B25">
         <v>63.1</v>
@@ -1658,10 +1595,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26">
-        <v>974</v>
+        <v>27</v>
+      </c>
+      <c r="B26" s="1">
+        <v>487</v>
       </c>
       <c r="C26" t="s">
         <v>1</v>
@@ -1672,13 +1609,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>47</v>
-      </c>
-      <c r="B27">
-        <v>1255.4000000000001</v>
+        <v>40</v>
+      </c>
+      <c r="B27" s="1">
+        <v>627.70000000000005</v>
       </c>
       <c r="C27" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D27">
         <v>5</v>
@@ -1686,13 +1623,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>48</v>
-      </c>
-      <c r="B28">
-        <v>2551</v>
+        <v>41</v>
+      </c>
+      <c r="B28" s="1">
+        <v>1275.5</v>
       </c>
       <c r="C28" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D28">
         <v>5</v>
@@ -1700,10 +1637,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29">
-        <v>8.2799999999999994</v>
+        <v>24</v>
+      </c>
+      <c r="B29" s="1">
+        <v>4.1399999999999997</v>
       </c>
       <c r="C29" t="s">
         <v>1</v>
@@ -1714,13 +1651,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B30">
         <v>36.4</v>
       </c>
       <c r="C30" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="D30">
         <v>5</v>
@@ -1728,13 +1665,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31">
-        <v>116</v>
+        <v>29</v>
+      </c>
+      <c r="B31" s="1">
+        <v>29</v>
       </c>
       <c r="C31" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="D31">
         <v>5</v>
@@ -1742,13 +1679,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B32">
         <v>64</v>
       </c>
       <c r="C32" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="D32">
         <v>5</v>
@@ -1756,13 +1693,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>17</v>
-      </c>
-      <c r="B33">
-        <v>460</v>
+        <v>12</v>
+      </c>
+      <c r="B33" s="1">
+        <v>230</v>
       </c>
       <c r="C33" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="D33">
         <v>5</v>
@@ -1770,13 +1707,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B34">
         <v>460</v>
       </c>
       <c r="C34" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="D34">
         <v>5</v>
@@ -1784,13 +1721,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B35">
         <v>460</v>
       </c>
       <c r="C35" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="D35">
         <v>5</v>
@@ -1798,13 +1735,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>20</v>
-      </c>
-      <c r="B36">
-        <v>460</v>
+        <v>15</v>
+      </c>
+      <c r="B36" s="1">
+        <v>230</v>
       </c>
       <c r="C36" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="D36">
         <v>5</v>
@@ -1812,13 +1749,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>21</v>
-      </c>
-      <c r="B37">
-        <v>460</v>
+        <v>16</v>
+      </c>
+      <c r="B37" s="1">
+        <v>230</v>
       </c>
       <c r="C37" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="D37">
         <v>5</v>
@@ -1826,13 +1763,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B38">
         <v>1819.1999999999998</v>
       </c>
       <c r="C38" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="D38">
         <v>5</v>
@@ -1840,13 +1777,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>13</v>
-      </c>
-      <c r="B39">
-        <v>284.60000000000002</v>
+        <v>8</v>
+      </c>
+      <c r="B39" s="1">
+        <v>142.30000000000001</v>
       </c>
       <c r="C39" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D39">
         <v>5</v>
@@ -1854,13 +1791,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>14</v>
-      </c>
-      <c r="B40">
-        <v>287</v>
+        <v>9</v>
+      </c>
+      <c r="B40" s="1">
+        <v>143.5</v>
       </c>
       <c r="C40" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D40">
         <v>5</v>
@@ -1868,13 +1805,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B41">
         <v>143.30000000000001</v>
       </c>
       <c r="C41" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D41">
         <v>5</v>
@@ -1882,13 +1819,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B42">
         <v>143.30000000000001</v>
       </c>
       <c r="C42" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D42">
         <v>5</v>
@@ -1896,13 +1833,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="B43">
         <v>143.30000000000001</v>
       </c>
       <c r="C43" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D43">
         <v>5</v>
@@ -1910,13 +1847,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B44">
         <v>143.30000000000001</v>
       </c>
       <c r="C44" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D44">
         <v>5</v>
@@ -1924,13 +1861,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="B45">
         <v>143.30000000000001</v>
       </c>
       <c r="C45" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D45">
         <v>5</v>
@@ -1938,13 +1875,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="B46">
         <v>143.30000000000001</v>
       </c>
       <c r="C46" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D46">
         <v>5</v>
@@ -1952,13 +1889,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="B47">
         <v>143.30000000000001</v>
       </c>
       <c r="C47" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D47">
         <v>5</v>
@@ -1966,461 +1903,491 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
       <c r="B48">
         <v>143.30000000000001</v>
       </c>
       <c r="C48" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D48">
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>42</v>
-      </c>
-      <c r="B49">
-        <v>187.6</v>
+        <v>35</v>
+      </c>
+      <c r="B49" s="1">
+        <v>93.8</v>
       </c>
       <c r="C49" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D49">
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B50">
         <v>357.7</v>
       </c>
       <c r="C50" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D50">
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B51">
         <v>359.8</v>
       </c>
       <c r="C51" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D51">
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B52">
         <v>353.6</v>
       </c>
       <c r="C52" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D52">
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B53">
         <v>4074.9</v>
       </c>
       <c r="C53" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D53">
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B54">
         <v>4074.9</v>
       </c>
       <c r="C54" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D54">
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>43</v>
-      </c>
-      <c r="B55">
-        <v>366.8</v>
+        <v>36</v>
+      </c>
+      <c r="B55" s="1">
+        <v>183.4</v>
       </c>
       <c r="C55" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D55">
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B56" s="2">
         <v>7200</v>
       </c>
       <c r="C56" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="D56">
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B57" s="2">
         <v>7200</v>
       </c>
       <c r="C57" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="D57">
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>51</v>
-      </c>
-      <c r="B58">
-        <v>260</v>
+        <v>42</v>
+      </c>
+      <c r="B58" s="1">
+        <v>65</v>
       </c>
       <c r="C58" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="D58">
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>52</v>
-      </c>
-      <c r="B59">
-        <v>580</v>
+        <v>43</v>
+      </c>
+      <c r="B59" s="1">
+        <v>290</v>
       </c>
       <c r="C59" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="D59">
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>53</v>
-      </c>
-      <c r="B60">
-        <v>828</v>
+        <v>44</v>
+      </c>
+      <c r="B60" s="1">
+        <v>207</v>
       </c>
       <c r="C60" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="D60">
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B61">
         <v>118.1</v>
       </c>
       <c r="C61" t="s">
+        <v>3</v>
+      </c>
+      <c r="D61">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>37</v>
+      </c>
+      <c r="B62" s="1">
+        <v>63.6</v>
+      </c>
+      <c r="C62" t="s">
+        <v>3</v>
+      </c>
+      <c r="D62">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>38</v>
+      </c>
+      <c r="B63" s="1">
+        <v>64.75</v>
+      </c>
+      <c r="C63" t="s">
+        <v>3</v>
+      </c>
+      <c r="D63">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B64" s="4">
+        <v>120</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D64" s="4">
+        <v>5</v>
+      </c>
+      <c r="E64" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B65" s="4">
+        <v>120</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D65" s="4">
+        <v>5</v>
+      </c>
+      <c r="E65" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D61">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>44</v>
-      </c>
-      <c r="B62">
-        <v>127.2</v>
-      </c>
-      <c r="C62" t="s">
-        <v>6</v>
-      </c>
-      <c r="D62">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>45</v>
-      </c>
-      <c r="B63">
-        <v>129.5</v>
-      </c>
-      <c r="C63" t="s">
-        <v>6</v>
-      </c>
-      <c r="D63">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>9</v>
-      </c>
-      <c r="B64">
+      <c r="B66" s="4">
         <v>120</v>
       </c>
-      <c r="C64" t="s">
-        <v>100</v>
-      </c>
-      <c r="D64">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>10</v>
-      </c>
-      <c r="B65">
-        <v>120</v>
-      </c>
-      <c r="C65" t="s">
-        <v>100</v>
-      </c>
-      <c r="D65">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>11</v>
-      </c>
-      <c r="B66">
-        <v>120</v>
-      </c>
-      <c r="C66" t="s">
-        <v>100</v>
-      </c>
-      <c r="D66">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>27</v>
-      </c>
-      <c r="B67">
+      <c r="C66" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D66" s="4">
+        <v>5</v>
+      </c>
+      <c r="E66" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B67" s="4">
         <v>160</v>
       </c>
-      <c r="C67" t="s">
-        <v>101</v>
-      </c>
-      <c r="D67">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>28</v>
-      </c>
-      <c r="B68">
+      <c r="C67" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D67" s="4">
+        <v>5</v>
+      </c>
+      <c r="E67" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B68" s="4">
         <v>160</v>
       </c>
-      <c r="C68" t="s">
-        <v>101</v>
-      </c>
-      <c r="D68">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>22</v>
-      </c>
-      <c r="B69">
-        <v>726.9</v>
-      </c>
-      <c r="C69" t="s">
-        <v>102</v>
-      </c>
-      <c r="D69">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>23</v>
-      </c>
-      <c r="B70">
-        <v>726.7</v>
-      </c>
-      <c r="C70" t="s">
-        <v>102</v>
-      </c>
-      <c r="D70">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>24</v>
-      </c>
-      <c r="B71">
-        <v>725.8</v>
-      </c>
-      <c r="C71" t="s">
-        <v>102</v>
-      </c>
-      <c r="D71">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>25</v>
-      </c>
-      <c r="B72">
-        <v>725.6</v>
-      </c>
-      <c r="C72" t="s">
-        <v>102</v>
-      </c>
-      <c r="D72">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>26</v>
-      </c>
-      <c r="B73">
-        <v>825.4</v>
-      </c>
-      <c r="C73" t="s">
-        <v>102</v>
-      </c>
-      <c r="D73">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C68" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D68" s="4">
+        <v>5</v>
+      </c>
+      <c r="E68" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B69" s="3">
+        <v>1048.9000000000001</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D69" s="4">
+        <v>5</v>
+      </c>
+      <c r="E69" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B70" s="3">
+        <v>1048.7</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D70" s="4">
+        <v>5</v>
+      </c>
+      <c r="E70" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B71" s="3">
+        <v>1062.5999999999999</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D71" s="4">
+        <v>5</v>
+      </c>
+      <c r="E71" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B72" s="3">
+        <v>1046.5</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D72" s="4">
+        <v>5</v>
+      </c>
+      <c r="E72" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B73" s="3">
+        <v>1107.7</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D73" s="4">
+        <v>5</v>
+      </c>
+      <c r="E73" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>103</v>
-      </c>
-      <c r="B74">
-        <v>127.5</v>
+        <v>88</v>
+      </c>
+      <c r="B74" s="1">
+        <v>63.75</v>
       </c>
       <c r="C74" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="D74">
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>110</v>
-      </c>
-      <c r="B75">
-        <v>1.38</v>
+        <v>92</v>
+      </c>
+      <c r="B75" s="1">
+        <v>0.34499999999999997</v>
       </c>
       <c r="C75" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="D75">
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>105</v>
-      </c>
-      <c r="B76">
-        <v>1.38</v>
+        <v>90</v>
+      </c>
+      <c r="B76" s="1">
+        <v>0.69</v>
       </c>
       <c r="C76" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="D76">
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>111</v>
-      </c>
-      <c r="B77">
-        <v>1.38</v>
+        <v>93</v>
+      </c>
+      <c r="B77" s="1">
+        <v>0.34499999999999997</v>
       </c>
       <c r="C77" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="D77">
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>112</v>
-      </c>
-      <c r="B78">
-        <v>1.38</v>
+        <v>94</v>
+      </c>
+      <c r="B78" s="1">
+        <v>0.34499999999999997</v>
       </c>
       <c r="C78" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="D78">
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>108</v>
-      </c>
-      <c r="B79">
-        <v>1.38</v>
+        <v>91</v>
+      </c>
+      <c r="B79" s="1">
+        <v>0.69</v>
       </c>
       <c r="C79" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="D79">
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>113</v>
-      </c>
-      <c r="B80">
-        <v>1.38</v>
+        <v>95</v>
+      </c>
+      <c r="B80" s="1">
+        <v>0.34499999999999997</v>
       </c>
       <c r="C80" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="D80">
         <v>5</v>
@@ -2428,13 +2395,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>115</v>
-      </c>
-      <c r="B81">
-        <v>202.7</v>
+        <v>97</v>
+      </c>
+      <c r="B81" s="1">
+        <v>101.35</v>
       </c>
       <c r="C81" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="D81">
         <v>5</v>
@@ -2442,13 +2409,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>116</v>
-      </c>
-      <c r="B82">
-        <v>9.1999999999999993</v>
+        <v>98</v>
+      </c>
+      <c r="B82" s="1">
+        <v>4.5999999999999996</v>
       </c>
       <c r="C82" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="D82">
         <v>5</v>
@@ -2456,13 +2423,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="B83">
         <v>7.5</v>
       </c>
       <c r="C83" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="D83">
         <v>5</v>
@@ -2470,13 +2437,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="B84">
         <v>7.5</v>
       </c>
       <c r="C84" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="D84">
         <v>5</v>
@@ -2484,13 +2451,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="B85">
         <v>7.5</v>
       </c>
       <c r="C85" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="D85">
         <v>5</v>
@@ -2498,13 +2465,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="B86">
         <v>7.5</v>
       </c>
       <c r="C86" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="D86">
         <v>5</v>
@@ -2512,13 +2479,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="B87">
         <v>14</v>
       </c>
       <c r="C87" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="D87">
         <v>5</v>
@@ -2526,13 +2493,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="B88">
         <v>14</v>
       </c>
       <c r="C88" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="D88">
         <v>5</v>
@@ -2540,13 +2507,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="B89">
         <v>14</v>
       </c>
       <c r="C89" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="D89">
         <v>5</v>
@@ -2554,13 +2521,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="B90">
         <v>14</v>
       </c>
       <c r="C90" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="D90">
         <v>5</v>
@@ -2568,13 +2535,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="B91">
         <v>6.08</v>
       </c>
       <c r="C91" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="D91">
         <v>5</v>
@@ -2582,13 +2549,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="B92">
         <v>6.08</v>
       </c>
       <c r="C92" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="D92">
         <v>5</v>
@@ -2596,13 +2563,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="B93">
         <v>552.9</v>
       </c>
       <c r="C93" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="D93">
         <v>5</v>
@@ -2610,13 +2577,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="B94">
         <v>590.9</v>
       </c>
       <c r="C94" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="D94">
         <v>5</v>
@@ -2624,13 +2591,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="B95">
         <v>550.29999999999995</v>
       </c>
       <c r="C95" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="D95">
         <v>5</v>
@@ -2638,13 +2605,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="B96">
         <v>588.29999999999995</v>
       </c>
       <c r="C96" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="D96">
         <v>5</v>
@@ -2652,13 +2619,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="B97">
         <v>0.98</v>
       </c>
       <c r="C97" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="D97">
         <v>5</v>
@@ -2666,13 +2633,13 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="B98">
         <v>0.7</v>
       </c>
       <c r="C98" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="D98">
         <v>5</v>
@@ -2680,13 +2647,13 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B99">
-        <v>1.1120000000000001</v>
+        <v>128</v>
+      </c>
+      <c r="B99" s="1">
+        <v>0.55600000000000005</v>
       </c>
       <c r="C99" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="D99">
         <v>5</v>
@@ -2694,13 +2661,13 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B100">
-        <v>2.5999999999999999E-2</v>
+        <v>129</v>
+      </c>
+      <c r="B100" s="1">
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="C100" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="D100">
         <v>5</v>
@@ -2708,13 +2675,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B101">
-        <v>35.1</v>
+        <v>132</v>
+      </c>
+      <c r="B101" s="1">
+        <v>17.55</v>
       </c>
       <c r="C101" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="D101">
         <v>5</v>
@@ -2722,13 +2689,13 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="B102">
         <v>141.69999999999999</v>
       </c>
       <c r="C102" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="D102">
         <v>5</v>
@@ -2736,13 +2703,13 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B103">
         <v>141.69999999999999</v>
       </c>
       <c r="C103" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="D103">
         <v>5</v>
@@ -2750,13 +2717,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="B104">
         <v>141.69999999999999</v>
       </c>
       <c r="C104" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="D104">
         <v>5</v>
@@ -2764,13 +2731,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B105">
-        <v>364.08</v>
+        <v>138</v>
+      </c>
+      <c r="B105" s="1">
+        <v>60.68</v>
       </c>
       <c r="C105" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="D105">
         <v>5</v>
@@ -2778,13 +2745,13 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B106">
-        <v>364.08</v>
+        <v>139</v>
+      </c>
+      <c r="B106" s="1">
+        <v>60.68</v>
       </c>
       <c r="C106" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="D106">
         <v>5</v>
@@ -2792,13 +2759,13 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B107">
-        <v>364.08</v>
+        <v>140</v>
+      </c>
+      <c r="B107" s="1">
+        <v>60.68</v>
       </c>
       <c r="C107" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="D107">
         <v>5</v>
@@ -2806,13 +2773,13 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B108">
-        <v>364.08</v>
+        <v>141</v>
+      </c>
+      <c r="B108" s="1">
+        <v>60.68</v>
       </c>
       <c r="C108" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="D108">
         <v>5</v>
@@ -2820,13 +2787,13 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B109">
-        <v>364.08</v>
+        <v>142</v>
+      </c>
+      <c r="B109" s="1">
+        <v>60.68</v>
       </c>
       <c r="C109" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="D109">
         <v>5</v>
@@ -2834,13 +2801,13 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="B110">
         <v>1642.8</v>
       </c>
       <c r="C110" t="s">
-        <v>167</v>
+        <v>145</v>
       </c>
       <c r="D110">
         <v>5</v>
@@ -2848,13 +2815,13 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>172</v>
+        <v>150</v>
       </c>
       <c r="B111">
         <v>14.5</v>
       </c>
       <c r="C111" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="D111">
         <v>5</v>
@@ -2862,13 +2829,13 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="B112">
         <v>13.8</v>
       </c>
       <c r="C112" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="D112">
         <v>5</v>
@@ -2876,13 +2843,13 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="B113">
         <v>17</v>
       </c>
       <c r="C113" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="D113">
         <v>5</v>
@@ -2890,13 +2857,13 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B114">
-        <v>4.7</v>
+        <v>116</v>
+      </c>
+      <c r="B114" s="1">
+        <v>9.4</v>
       </c>
       <c r="C114" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="D114">
         <v>5</v>
@@ -2904,13 +2871,13 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B115">
-        <v>4.0999999999999996</v>
+        <v>117</v>
+      </c>
+      <c r="B115" s="1">
+        <v>8.1999999999999993</v>
       </c>
       <c r="C115" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="D115">
         <v>5</v>
@@ -2918,13 +2885,13 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="B116">
         <v>530</v>
       </c>
       <c r="C116" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="D116">
         <v>5</v>
@@ -2932,13 +2899,13 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="B117">
         <v>2120</v>
       </c>
       <c r="C117" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="D117">
         <v>5</v>
@@ -2946,13 +2913,13 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="B118">
         <v>1012</v>
       </c>
       <c r="C118" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="D118">
         <v>5</v>
@@ -2960,13 +2927,13 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="B119">
         <v>1012</v>
       </c>
       <c r="C119" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="D119">
         <v>5</v>
@@ -2974,13 +2941,13 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="B120" s="1">
         <v>22</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="D120">
         <v>5</v>
@@ -2988,13 +2955,13 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="B121">
         <v>56.7</v>
       </c>
       <c r="C121" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="D121">
         <v>5</v>
@@ -3002,13 +2969,13 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="B122">
         <v>44.5</v>
       </c>
       <c r="C122" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="D122">
         <v>5</v>
@@ -3016,13 +2983,13 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="B123">
         <v>56.7</v>
       </c>
       <c r="C123" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="D123">
         <v>5</v>
@@ -3030,13 +2997,13 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="B124">
         <v>44.5</v>
       </c>
       <c r="C124" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="D124">
         <v>5</v>
@@ -3044,13 +3011,13 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="B125">
         <v>69</v>
       </c>
       <c r="C125" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
       <c r="D125">
         <v>5</v>
@@ -3058,13 +3025,13 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="B126">
         <v>44.5</v>
       </c>
       <c r="C126" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="D126">
         <v>5</v>
@@ -3072,13 +3039,13 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="B127">
         <v>69</v>
       </c>
       <c r="C127" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
       <c r="D127">
         <v>5</v>
@@ -3086,13 +3053,13 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="B128">
         <v>44.5</v>
       </c>
       <c r="C128" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="D128">
         <v>5</v>
@@ -3100,13 +3067,13 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="B129">
         <v>14.5</v>
       </c>
       <c r="C129" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
       <c r="D129">
         <v>5</v>
@@ -3114,13 +3081,13 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
       <c r="B130">
         <v>14.5</v>
       </c>
       <c r="C130" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
       <c r="D130">
         <v>5</v>
@@ -3128,13 +3095,13 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
       <c r="B131">
         <v>12.8</v>
       </c>
       <c r="C131" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
       <c r="D131">
         <v>5</v>
@@ -3142,13 +3109,13 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
-        <v>199</v>
+        <v>177</v>
       </c>
       <c r="B132">
         <v>18.399999999999999</v>
       </c>
       <c r="C132" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="D132">
         <v>5</v>
@@ -3156,13 +3123,13 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B133">
-        <v>25.6</v>
+        <v>178</v>
+      </c>
+      <c r="B133" s="1">
+        <v>12.8</v>
       </c>
       <c r="C133" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
       <c r="D133">
         <v>5</v>
@@ -3170,13 +3137,13 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="B134">
-        <v>36.799999999999997</v>
+        <v>179</v>
+      </c>
+      <c r="B134" s="1">
+        <v>18.399999999999999</v>
       </c>
       <c r="C134" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="D134">
         <v>5</v>
@@ -3184,13 +3151,13 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="B135">
         <v>25.6</v>
       </c>
       <c r="C135" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
       <c r="D135">
         <v>5</v>
@@ -3198,13 +3165,13 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="B136">
         <v>36.799999999999997</v>
       </c>
       <c r="C136" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="D136">
         <v>5</v>
@@ -3212,13 +3179,13 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="s">
-        <v>206</v>
+        <v>184</v>
       </c>
       <c r="B137">
         <v>8.83</v>
       </c>
       <c r="C137" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="D137">
         <v>5</v>
@@ -3226,13 +3193,13 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="s">
-        <v>207</v>
+        <v>185</v>
       </c>
       <c r="B138">
         <v>8.83</v>
       </c>
       <c r="C138" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="D138">
         <v>5</v>
@@ -3240,13 +3207,13 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" s="4" t="s">
-        <v>209</v>
+        <v>187</v>
       </c>
       <c r="B139">
         <v>8.83</v>
       </c>
       <c r="C139" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="D139">
         <v>5</v>
@@ -3254,13 +3221,13 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" s="4" t="s">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="B140">
         <v>8.83</v>
       </c>
       <c r="C140" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="D140">
         <v>5</v>
@@ -3268,13 +3235,13 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" s="4" t="s">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="B141">
         <v>104</v>
       </c>
       <c r="C141" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="D141">
         <v>5</v>
@@ -3282,13 +3249,13 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" s="4" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
       <c r="B142">
         <v>104</v>
       </c>
       <c r="C142" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="D142">
         <v>5</v>
@@ -3296,13 +3263,13 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" s="4" t="s">
-        <v>215</v>
+        <v>193</v>
       </c>
       <c r="B143">
         <v>52.15</v>
       </c>
       <c r="C143" t="s">
-        <v>214</v>
+        <v>192</v>
       </c>
       <c r="D143">
         <v>5</v>
@@ -3310,13 +3277,13 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" s="4" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="B144">
         <v>145.1</v>
       </c>
       <c r="C144" t="s">
-        <v>216</v>
+        <v>194</v>
       </c>
       <c r="D144">
         <v>5</v>
@@ -3324,13 +3291,13 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" s="4" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c r="B145">
         <v>145.1</v>
       </c>
       <c r="C145" t="s">
-        <v>216</v>
+        <v>194</v>
       </c>
       <c r="D145">
         <v>5</v>
@@ -3338,13 +3305,13 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="B146">
-        <v>6270</v>
+        <v>197</v>
+      </c>
+      <c r="B146" s="1">
+        <v>3135</v>
       </c>
       <c r="C146" t="s">
-        <v>222</v>
+        <v>200</v>
       </c>
       <c r="D146">
         <v>5</v>
@@ -3352,13 +3319,13 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="B147">
-        <v>6270</v>
+        <v>198</v>
+      </c>
+      <c r="B147" s="1">
+        <v>3135</v>
       </c>
       <c r="C147" t="s">
-        <v>222</v>
+        <v>200</v>
       </c>
       <c r="D147">
         <v>5</v>
@@ -3366,13 +3333,13 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" s="4" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="B148">
         <v>6270</v>
       </c>
       <c r="C148" t="s">
-        <v>222</v>
+        <v>200</v>
       </c>
       <c r="D148">
         <v>5</v>
@@ -3380,13 +3347,13 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="B149">
-        <v>6270</v>
+        <v>201</v>
+      </c>
+      <c r="B149" s="1">
+        <v>3135</v>
       </c>
       <c r="C149" t="s">
-        <v>222</v>
+        <v>200</v>
       </c>
       <c r="D149">
         <v>5</v>
@@ -3394,13 +3361,13 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" s="4" t="s">
-        <v>224</v>
+        <v>202</v>
       </c>
       <c r="B150">
         <v>3135</v>
       </c>
       <c r="C150" t="s">
-        <v>222</v>
+        <v>200</v>
       </c>
       <c r="D150">
         <v>5</v>
@@ -3408,13 +3375,13 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="B151">
-        <v>52.9</v>
+        <v>203</v>
+      </c>
+      <c r="B151" s="1">
+        <v>105.8</v>
       </c>
       <c r="C151" t="s">
-        <v>237</v>
+        <v>215</v>
       </c>
       <c r="D151">
         <v>5</v>
@@ -3422,13 +3389,13 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="B152">
-        <v>52.9</v>
+        <v>204</v>
+      </c>
+      <c r="B152" s="1">
+        <v>105.8</v>
       </c>
       <c r="C152" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="D152">
         <v>5</v>
@@ -3436,13 +3403,13 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" s="4" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="B153">
         <v>52.9</v>
       </c>
       <c r="C153" t="s">
-        <v>237</v>
+        <v>215</v>
       </c>
       <c r="D153">
         <v>5</v>
@@ -3450,13 +3417,13 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" s="4" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="B154">
         <v>52.9</v>
       </c>
       <c r="C154" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="D154">
         <v>5</v>
@@ -3464,13 +3431,13 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" s="4" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="B155">
         <v>52.9</v>
       </c>
       <c r="C155" t="s">
-        <v>237</v>
+        <v>215</v>
       </c>
       <c r="D155">
         <v>5</v>
@@ -3478,13 +3445,13 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" s="4" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="B156">
         <v>52.9</v>
       </c>
       <c r="C156" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="D156">
         <v>5</v>
@@ -3492,13 +3459,13 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" s="4" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="B157">
         <v>52.9</v>
       </c>
       <c r="C157" t="s">
-        <v>237</v>
+        <v>215</v>
       </c>
       <c r="D157">
         <v>5</v>
@@ -3506,13 +3473,13 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" s="4" t="s">
-        <v>232</v>
+        <v>210</v>
       </c>
       <c r="B158">
         <v>52.9</v>
       </c>
       <c r="C158" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="D158">
         <v>5</v>
@@ -3520,13 +3487,13 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" s="4" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
       <c r="B159">
         <v>52.9</v>
       </c>
       <c r="C159" t="s">
-        <v>237</v>
+        <v>215</v>
       </c>
       <c r="D159">
         <v>5</v>
@@ -3534,13 +3501,13 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" s="4" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="B160">
         <v>52.9</v>
       </c>
       <c r="C160" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="D160">
         <v>5</v>
@@ -3548,13 +3515,13 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" s="4" t="s">
-        <v>235</v>
+        <v>213</v>
       </c>
       <c r="B161">
         <v>52.9</v>
       </c>
       <c r="C161" t="s">
-        <v>237</v>
+        <v>215</v>
       </c>
       <c r="D161">
         <v>5</v>
@@ -3562,13 +3529,13 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" s="4" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
       <c r="B162">
         <v>52.9</v>
       </c>
       <c r="C162" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="D162">
         <v>5</v>
@@ -3576,13 +3543,13 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" s="4" t="s">
-        <v>238</v>
+        <v>216</v>
       </c>
       <c r="B163">
         <v>3.15</v>
       </c>
       <c r="C163" t="s">
-        <v>239</v>
+        <v>217</v>
       </c>
       <c r="D163">
         <v>5</v>
@@ -3590,13 +3557,13 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" s="4" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="B164">
         <v>439.3</v>
       </c>
       <c r="C164" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="D164">
         <v>5</v>
@@ -3604,13 +3571,13 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" s="4" t="s">
-        <v>242</v>
+        <v>220</v>
       </c>
       <c r="B165">
         <v>56</v>
       </c>
       <c r="C165" t="s">
-        <v>244</v>
+        <v>222</v>
       </c>
       <c r="D165">
         <v>5</v>
@@ -3618,13 +3585,13 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" s="4" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="B166">
         <v>56</v>
       </c>
       <c r="C166" t="s">
-        <v>244</v>
+        <v>222</v>
       </c>
       <c r="D166">
         <v>5</v>
@@ -3632,13 +3599,13 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" s="4" t="s">
-        <v>245</v>
+        <v>223</v>
       </c>
       <c r="B167">
         <v>1.02</v>
       </c>
       <c r="C167" t="s">
-        <v>246</v>
+        <v>224</v>
       </c>
       <c r="D167">
         <v>5</v>
@@ -3646,13 +3613,13 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" s="4" t="s">
-        <v>247</v>
+        <v>225</v>
       </c>
       <c r="B168">
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="C168" t="s">
-        <v>248</v>
+        <v>226</v>
       </c>
       <c r="D168">
         <v>5</v>
@@ -3660,13 +3627,13 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="B169">
-        <v>93.6</v>
+        <v>227</v>
+      </c>
+      <c r="B169" s="1">
+        <v>187.2</v>
       </c>
       <c r="C169" t="s">
-        <v>252</v>
+        <v>230</v>
       </c>
       <c r="D169">
         <v>5</v>
@@ -3674,13 +3641,13 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" s="4" t="s">
-        <v>250</v>
+        <v>228</v>
       </c>
       <c r="B170">
         <v>78.2</v>
       </c>
       <c r="C170" t="s">
-        <v>252</v>
+        <v>230</v>
       </c>
       <c r="D170">
         <v>5</v>
@@ -3688,13 +3655,13 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" s="4" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
       <c r="B171">
         <v>92.4</v>
       </c>
       <c r="C171" t="s">
-        <v>252</v>
+        <v>230</v>
       </c>
       <c r="D171">
         <v>5</v>
@@ -3702,13 +3669,13 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B172">
-        <v>22</v>
+        <v>232</v>
+      </c>
+      <c r="B172" s="1">
+        <v>11</v>
       </c>
       <c r="C172" t="s">
-        <v>253</v>
+        <v>231</v>
       </c>
       <c r="D172">
         <v>5</v>
@@ -3716,13 +3683,13 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B173">
-        <v>3.08</v>
+        <v>233</v>
+      </c>
+      <c r="B173" s="1">
+        <v>0.51</v>
       </c>
       <c r="C173" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
       <c r="D173">
         <v>5</v>
@@ -3730,13 +3697,13 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="B174">
-        <v>1.56</v>
+        <v>235</v>
+      </c>
+      <c r="B174" s="1">
+        <v>0.26</v>
       </c>
       <c r="C174" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
       <c r="D174">
         <v>5</v>
@@ -3744,13 +3711,13 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" s="4" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
       <c r="B175">
         <v>0.5</v>
       </c>
       <c r="C175" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="D175">
         <v>5</v>
@@ -3758,13 +3725,13 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="B176">
-        <v>0.5</v>
+        <v>237</v>
+      </c>
+      <c r="B176" s="1">
+        <v>0.25</v>
       </c>
       <c r="C176" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="D176">
         <v>5</v>
@@ -3772,13 +3739,13 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="B177">
-        <v>0.5</v>
+        <v>238</v>
+      </c>
+      <c r="B177" s="1">
+        <v>0.25</v>
       </c>
       <c r="C177" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="D177">
         <v>5</v>
@@ -3786,13 +3753,13 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" s="4" t="s">
-        <v>262</v>
+        <v>240</v>
       </c>
       <c r="B178">
         <v>0.14000000000000001</v>
       </c>
       <c r="C178" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
       <c r="D178">
         <v>5</v>
@@ -3800,13 +3767,13 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="B179">
-        <v>0.14000000000000001</v>
+        <v>241</v>
+      </c>
+      <c r="B179" s="1">
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C179" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
       <c r="D179">
         <v>5</v>
@@ -3814,13 +3781,13 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="B180">
-        <v>0.14000000000000001</v>
+        <v>242</v>
+      </c>
+      <c r="B180" s="1">
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C180" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
       <c r="D180">
         <v>5</v>
@@ -3828,13 +3795,13 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="B181">
-        <v>23.1</v>
+        <v>244</v>
+      </c>
+      <c r="B181" s="1">
+        <v>11.55</v>
       </c>
       <c r="C181" t="s">
-        <v>267</v>
+        <v>245</v>
       </c>
       <c r="D181">
         <v>5</v>
@@ -3842,13 +3809,13 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" s="4" t="s">
-        <v>269</v>
+        <v>247</v>
       </c>
       <c r="B182">
         <v>8.6999999999999994E-2</v>
       </c>
       <c r="C182" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
       <c r="D182">
         <v>5</v>
@@ -3856,13 +3823,13 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" s="4" t="s">
-        <v>271</v>
+        <v>249</v>
       </c>
       <c r="B183">
         <v>82.6</v>
       </c>
       <c r="C183" t="s">
-        <v>270</v>
+        <v>248</v>
       </c>
       <c r="D183">
         <v>5</v>
@@ -3870,13 +3837,13 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" s="4" t="s">
-        <v>272</v>
+        <v>250</v>
       </c>
       <c r="B184">
         <v>82.6</v>
       </c>
       <c r="C184" t="s">
-        <v>270</v>
+        <v>248</v>
       </c>
       <c r="D184">
         <v>5</v>
@@ -3884,13 +3851,13 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" s="4" t="s">
-        <v>273</v>
+        <v>251</v>
       </c>
       <c r="B185">
         <v>82.6</v>
       </c>
       <c r="C185" t="s">
-        <v>270</v>
+        <v>248</v>
       </c>
       <c r="D185">
         <v>5</v>
@@ -3898,13 +3865,13 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" s="4" t="s">
-        <v>275</v>
+        <v>253</v>
       </c>
       <c r="B186">
         <v>0.255</v>
       </c>
       <c r="C186" t="s">
-        <v>274</v>
+        <v>252</v>
       </c>
       <c r="D186">
         <v>5</v>
@@ -3912,13 +3879,13 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" s="4" t="s">
-        <v>276</v>
+        <v>254</v>
       </c>
       <c r="B187">
         <v>14.3</v>
       </c>
       <c r="C187" t="s">
-        <v>278</v>
+        <v>256</v>
       </c>
       <c r="D187">
         <v>5</v>
@@ -3926,13 +3893,13 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" s="4" t="s">
-        <v>277</v>
+        <v>255</v>
       </c>
       <c r="B188">
         <v>14.3</v>
       </c>
       <c r="C188" t="s">
-        <v>278</v>
+        <v>256</v>
       </c>
       <c r="D188">
         <v>5</v>
@@ -3940,13 +3907,13 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" s="4" t="s">
-        <v>280</v>
+        <v>258</v>
       </c>
       <c r="B189">
         <v>533.79999999999995</v>
       </c>
       <c r="C189" t="s">
-        <v>279</v>
+        <v>257</v>
       </c>
       <c r="D189">
         <v>5</v>
@@ -3954,13 +3921,13 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="B190">
-        <v>4.8</v>
+        <v>260</v>
+      </c>
+      <c r="B190" s="1">
+        <v>19.2</v>
       </c>
       <c r="C190" t="s">
-        <v>281</v>
+        <v>259</v>
       </c>
       <c r="D190">
         <v>5</v>
@@ -3968,13 +3935,13 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" s="4" t="s">
-        <v>284</v>
+        <v>262</v>
       </c>
       <c r="B191">
         <v>0.75</v>
       </c>
       <c r="C191" t="s">
-        <v>283</v>
+        <v>261</v>
       </c>
       <c r="D191">
         <v>5</v>
@@ -3982,13 +3949,13 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" s="4" t="s">
-        <v>285</v>
+        <v>263</v>
       </c>
       <c r="B192">
         <v>0.75</v>
       </c>
       <c r="C192" t="s">
-        <v>283</v>
+        <v>261</v>
       </c>
       <c r="D192">
         <v>5</v>
@@ -3996,13 +3963,13 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" s="4" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
       <c r="B193">
         <v>0.75</v>
       </c>
       <c r="C193" t="s">
-        <v>283</v>
+        <v>261</v>
       </c>
       <c r="D193">
         <v>5</v>
@@ -4010,13 +3977,13 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" s="4" t="s">
-        <v>287</v>
+        <v>265</v>
       </c>
       <c r="B194">
         <v>0.75</v>
       </c>
       <c r="C194" t="s">
-        <v>283</v>
+        <v>261</v>
       </c>
       <c r="D194">
         <v>5</v>
@@ -4024,13 +3991,13 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="B195">
-        <v>288</v>
+        <v>267</v>
+      </c>
+      <c r="B195" s="1">
+        <v>144</v>
       </c>
       <c r="C195" t="s">
-        <v>288</v>
+        <v>266</v>
       </c>
       <c r="D195">
         <v>5</v>
@@ -4038,13 +4005,13 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="B196">
-        <v>288</v>
+        <v>268</v>
+      </c>
+      <c r="B196" s="1">
+        <v>144</v>
       </c>
       <c r="C196" t="s">
-        <v>288</v>
+        <v>266</v>
       </c>
       <c r="D196">
         <v>5</v>
@@ -4052,13 +4019,13 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="B197">
-        <v>288</v>
+        <v>269</v>
+      </c>
+      <c r="B197" s="1">
+        <v>144</v>
       </c>
       <c r="C197" t="s">
-        <v>288</v>
+        <v>266</v>
       </c>
       <c r="D197">
         <v>5</v>
@@ -4066,13 +4033,13 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="B198">
-        <v>288</v>
+        <v>270</v>
+      </c>
+      <c r="B198" s="1">
+        <v>144</v>
       </c>
       <c r="C198" t="s">
-        <v>288</v>
+        <v>266</v>
       </c>
       <c r="D198">
         <v>5</v>
@@ -4080,13 +4047,13 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" s="4" t="s">
-        <v>293</v>
+        <v>271</v>
       </c>
       <c r="B199">
         <v>530</v>
       </c>
       <c r="C199" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="D199">
         <v>5</v>
@@ -4094,13 +4061,13 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" s="4" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
       <c r="B200">
         <v>2120</v>
       </c>
       <c r="C200" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="D200">
         <v>5</v>
@@ -4114,10 +4081,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FE794CF-9095-4B49-B7ED-0ACA2739CBC2}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4129,268 +4096,30 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B1" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C1" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="D1" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C2">
-        <v>4</v>
+        <v>82</v>
+      </c>
+      <c r="C2" t="s">
+        <v>81</v>
       </c>
       <c r="D2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C4">
-        <v>4</v>
-      </c>
-      <c r="D4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7">
-        <v>4</v>
-      </c>
-      <c r="D7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8">
-        <v>4</v>
-      </c>
-      <c r="D8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>54</v>
-      </c>
-      <c r="B10" t="s">
-        <v>96</v>
-      </c>
-      <c r="C10" t="s">
-        <v>95</v>
-      </c>
-      <c r="D10" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" t="s">
-        <v>98</v>
-      </c>
-      <c r="C11" t="s">
-        <v>89</v>
-      </c>
-      <c r="D11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12">
-        <v>4</v>
-      </c>
-      <c r="D12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>105</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13">
-        <v>4</v>
-      </c>
-      <c r="D13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>106</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14">
-        <v>4</v>
-      </c>
-      <c r="D14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>107</v>
-      </c>
-      <c r="B15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15">
-        <v>4</v>
-      </c>
-      <c r="D15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>108</v>
-      </c>
-      <c r="B16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16">
-        <v>4</v>
-      </c>
-      <c r="D16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>109</v>
-      </c>
-      <c r="B17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17">
-        <v>4</v>
-      </c>
-      <c r="D17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>159</v>
-      </c>
-      <c r="B18" t="s">
-        <v>162</v>
-      </c>
-      <c r="C18" t="s">
-        <v>164</v>
-      </c>
-      <c r="D18" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>160</v>
-      </c>
-      <c r="B19" t="s">
-        <v>163</v>
-      </c>
-      <c r="C19" t="s">
-        <v>164</v>
-      </c>
-      <c r="D19" t="s">
-        <v>165</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/Data/manual_update.xlsx
+++ b/Data/manual_update.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cheyu/Documents/GitHub/CofactorYeast/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1E5CDA7-8A36-8045-9C9D-59A568938743}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8589755B-747E-7146-A9E0-3DD9B1E5B431}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="460" windowWidth="27560" windowHeight="21140" xr2:uid="{0732DB2B-E664-7544-B4C9-5536E1206D06}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="347">
   <si>
     <t>PMID: 11561293</t>
   </si>
@@ -277,15 +277,9 @@
     <t>PMID: 9602170</t>
   </si>
   <si>
-    <t>12; 12; 60; 48; 48</t>
-  </si>
-  <si>
     <t>YGR193C; YFL018C; YNL071W; YBR221C; YER178W</t>
   </si>
   <si>
-    <t>BioCyc</t>
-  </si>
-  <si>
     <t>PMID: 23423327</t>
   </si>
   <si>
@@ -505,9 +499,6 @@
     <t>PMID: 10369755</t>
   </si>
   <si>
-    <t>Median of three values: Median of EC1.8.1.4 with NAD+ as substrate (506) * stoichiometry of YFL018C (12); Median of EC1.2.4.1 with pyruvate as substrate (37.9) * stoichiometry of YBR221C and YER178W (48); Median of EC1.2.4.1 with pyruvate as substrate (2.4) * stoichiometry of YNL071W (60).</t>
-  </si>
-  <si>
     <t>r_0505_1_enzyme</t>
   </si>
   <si>
@@ -856,7 +847,232 @@
     <t>Median of EC5.4.2.11 within S. cerevisiae</t>
   </si>
   <si>
-    <t>check protein stoichiometry</t>
+    <t>note</t>
+  </si>
+  <si>
+    <t>r_1027_enzyme</t>
+  </si>
+  <si>
+    <t>2; 2</t>
+  </si>
+  <si>
+    <t>YFR030W; YJR137C</t>
+  </si>
+  <si>
+    <t>Sulfite reductase complex (NADPH)</t>
+  </si>
+  <si>
+    <t>Complex Portal</t>
+  </si>
+  <si>
+    <t>12; 12; 60; 24; 24</t>
+  </si>
+  <si>
+    <t>Mitochondrial pyruvate dehydrogenase complex</t>
+  </si>
+  <si>
+    <t>Mitochondrial proton-transporting ATP synthase complex</t>
+  </si>
+  <si>
+    <t>Q0080; Q0085; Q0130; YBL099W; YBR039W; YDL004W; YDR298C; YDR322C-A; YDR377W; YJR121W; YKL016C; YLR295C; YML081C-A; YPL078C; YPL271W</t>
+  </si>
+  <si>
+    <t>1; 1; 10; 3; 1; 1; 1; 1; 1; 3; 1; 1; 1; 1; 1</t>
+  </si>
+  <si>
+    <t>Q0080; Q0085; Q0130; YBL099W; YBR039W; YDL004W; YDR298C; YDR377W; YJR121W; YKL016C; YLR295C; YML081C-A; YPL078C; YPL271W; YPR020W</t>
+  </si>
+  <si>
+    <t>1; 1; 10; 3; 1; 1; 1; 1; 3; 1; 1; 1; 1; 1; 1</t>
+  </si>
+  <si>
+    <t>Glutathione hydrolase complex</t>
+  </si>
+  <si>
+    <t>r_4171_enzyme</t>
+  </si>
+  <si>
+    <t>YBR281C; YNL191W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r_0886_2_enzyme </t>
+  </si>
+  <si>
+    <t xml:space="preserve">r_0887_2_enzyme </t>
+  </si>
+  <si>
+    <t>4; 4</t>
+  </si>
+  <si>
+    <t>YMR205C; YGR240C</t>
+  </si>
+  <si>
+    <t>6-phosphofructokinase complex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r_0658_enzyme </t>
+  </si>
+  <si>
+    <t>YNL037C; YOR136W</t>
+  </si>
+  <si>
+    <t>Mitochondrial isocitrate dehydrogenase complex (NAD+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r_0886_1_enzyme </t>
+  </si>
+  <si>
+    <t>YMR205C</t>
+  </si>
+  <si>
+    <t>Assumed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r_0887_1_enzyme </t>
+  </si>
+  <si>
+    <t>Q0105; YBL045C; YDR529C; YEL024W; YEL039C; YFR033C; YGR183C; YHR001W-A; YJL166W; YOR065W; YPR191W</t>
+  </si>
+  <si>
+    <t>Q0105; YBL045C; YDR529C; YEL024W; YFR033C; YGR183C; YHR001W-A; YJL166W; YJR048W; YOR065W; YPR191W</t>
+  </si>
+  <si>
+    <t>1; 1; 1; 1; 1; 1; 1; 1; 1; 1; 1</t>
+  </si>
+  <si>
+    <t>Mitochondrial electron transport complex III</t>
+  </si>
+  <si>
+    <t>Q0045; Q0250; Q0275; YDL067C; YDR231C; YGR062C; YHR116W; YJL003W; YLL018C-A; YPL132W</t>
+  </si>
+  <si>
+    <t>YLR395C; YEL039C; Q0045; Q0250; Q0275; YDL067C; YGL187C; YGL191W; YHR051W; YIL111W; YLR038C; YMR256C</t>
+  </si>
+  <si>
+    <t>YLR395C; YEL039C; Q0045; Q0250; Q0275; YDL067C; YGL187C; YGL191W; YHR051W; YLR038C; YMR256C; YNL052W</t>
+  </si>
+  <si>
+    <t>YLR395C; YJR048W; Q0045; Q0250; Q0275; YDL067C; YGL187C; YGL191W; YHR051W; YIL111W; YLR038C; YMR256C</t>
+  </si>
+  <si>
+    <t>YLR395C; YJR048W; Q0045; Q0250; Q0275; YDL067C; YGL187C; YGL191W; YHR051W; YLR038C; YMR256C; YNL052W</t>
+  </si>
+  <si>
+    <t>2; 1; 1; 1; 1; 1; 1; 1; 1; 1; 1; 1</t>
+  </si>
+  <si>
+    <t>1; 1; 1; 1; 1; 1; 1; 1; 1; 1</t>
+  </si>
+  <si>
+    <t>Mitochondrial electron transport complex IV</t>
+  </si>
+  <si>
+    <t>r_4270_fwd_enzyme</t>
+  </si>
+  <si>
+    <t>r_4270_rvs_enzyme</t>
+  </si>
+  <si>
+    <t>YJR104C</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>[Cu-Zn] Superoxide dismutase complex</t>
+  </si>
+  <si>
+    <t>r_0097_1_enzyme</t>
+  </si>
+  <si>
+    <t>r_0097_2_enzyme</t>
+  </si>
+  <si>
+    <t>r_0016_1_enzyme</t>
+  </si>
+  <si>
+    <t>r_0016_2_enzyme</t>
+  </si>
+  <si>
+    <t>YCL009C; YMR108W</t>
+  </si>
+  <si>
+    <t>YMR108W</t>
+  </si>
+  <si>
+    <t>Acetolactate synthase complex</t>
+  </si>
+  <si>
+    <t>r_0021_enzyme</t>
+  </si>
+  <si>
+    <t>r_0022_enzyme</t>
+  </si>
+  <si>
+    <t>r_0532_enzyme</t>
+  </si>
+  <si>
+    <t>r_0963_enzyme</t>
+  </si>
+  <si>
+    <t>r_0985_enzyme</t>
+  </si>
+  <si>
+    <t>YDR204W; YGL119W; YGR255C; YLR201C; YML110C; YOL096C; YOR125C</t>
+  </si>
+  <si>
+    <t>1; 1; 1; 1; 1; 1; 1</t>
+  </si>
+  <si>
+    <t>CoQ biosynthetic complex</t>
+  </si>
+  <si>
+    <t>r_0501_enzyme</t>
+  </si>
+  <si>
+    <t>r_0504_enzyme</t>
+  </si>
+  <si>
+    <t>r_0506_enzyme</t>
+  </si>
+  <si>
+    <t>r_0507_enzyme</t>
+  </si>
+  <si>
+    <t>r_0508_enzyme</t>
+  </si>
+  <si>
+    <t>r_0509_enzyme</t>
+  </si>
+  <si>
+    <t>r_1030_enzyme</t>
+  </si>
+  <si>
+    <t>YAL044C; YDR019C; YFL018C; YMR189W</t>
+  </si>
+  <si>
+    <t>1; 1; 1; 1</t>
+  </si>
+  <si>
+    <t>Glycine decarboxylase multienzyme complex</t>
+  </si>
+  <si>
+    <t>YDR148C; YFL018C; YIL125W</t>
+  </si>
+  <si>
+    <t>1; 1; 1</t>
+  </si>
+  <si>
+    <t>r_0831_enzyme</t>
+  </si>
+  <si>
+    <t>r_0832_enzyme</t>
+  </si>
+  <si>
+    <t>Mitochondrial 2-oxoglutarate dehydrogenase complex</t>
+  </si>
+  <si>
+    <t>Median of three values: Median of EC1.8.1.4 with NAD+ as substrate (506) * stoichiometry of YFL018C (12); Median of EC1.2.4.1 with pyruvate as substrate (37.9) * stoichiometry of YBR221C and YER178W (24); Median of EC1.2.4.1 with pyruvate as substrate (2.4) * stoichiometry of YNL071W (60).</t>
   </si>
 </sst>
 </file>
@@ -911,12 +1127,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1231,10 +1448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1417A95A-9A45-104E-81A0-44F5861A24E6}">
-  <dimension ref="A1:E200"/>
+  <dimension ref="A1:D200"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1766,10 +1983,10 @@
         <v>45</v>
       </c>
       <c r="B38">
-        <v>1819.1999999999998</v>
+        <v>909.59999999999991</v>
       </c>
       <c r="C38" t="s">
-        <v>157</v>
+        <v>346</v>
       </c>
       <c r="D38">
         <v>5</v>
@@ -1861,7 +2078,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B45">
         <v>143.30000000000001</v>
@@ -1875,7 +2092,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B46">
         <v>143.30000000000001</v>
@@ -1889,7 +2106,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B47">
         <v>143.30000000000001</v>
@@ -1903,7 +2120,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B48">
         <v>143.30000000000001</v>
@@ -1915,7 +2132,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>35</v>
       </c>
@@ -1929,7 +2146,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>46</v>
       </c>
@@ -1943,7 +2160,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>47</v>
       </c>
@@ -1957,7 +2174,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>48</v>
       </c>
@@ -1971,7 +2188,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>25</v>
       </c>
@@ -1985,7 +2202,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>26</v>
       </c>
@@ -1999,7 +2216,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>36</v>
       </c>
@@ -2013,7 +2230,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>69</v>
       </c>
@@ -2021,13 +2238,13 @@
         <v>7200</v>
       </c>
       <c r="C56" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D56">
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>70</v>
       </c>
@@ -2035,13 +2252,13 @@
         <v>7200</v>
       </c>
       <c r="C57" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D57">
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>42</v>
       </c>
@@ -2049,13 +2266,13 @@
         <v>65</v>
       </c>
       <c r="C58" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D58">
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>43</v>
       </c>
@@ -2063,13 +2280,13 @@
         <v>290</v>
       </c>
       <c r="C59" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D59">
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>44</v>
       </c>
@@ -2077,13 +2294,13 @@
         <v>207</v>
       </c>
       <c r="C60" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D60">
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>39</v>
       </c>
@@ -2097,7 +2314,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>37</v>
       </c>
@@ -2111,7 +2328,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>38</v>
       </c>
@@ -2125,7 +2342,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
         <v>4</v>
       </c>
@@ -2133,16 +2350,13 @@
         <v>120</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D64" s="4">
         <v>5</v>
       </c>
-      <c r="E64" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
         <v>5</v>
       </c>
@@ -2150,16 +2364,13 @@
         <v>120</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D65" s="4">
         <v>5</v>
       </c>
-      <c r="E65" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
         <v>6</v>
       </c>
@@ -2167,16 +2378,13 @@
         <v>120</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D66" s="4">
         <v>5</v>
       </c>
-      <c r="E66" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
         <v>22</v>
       </c>
@@ -2184,16 +2392,13 @@
         <v>160</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D67" s="4">
         <v>5</v>
       </c>
-      <c r="E67" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
         <v>23</v>
       </c>
@@ -2201,193 +2406,175 @@
         <v>160</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D68" s="4">
         <v>5</v>
       </c>
-      <c r="E68" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B69" s="3">
-        <v>1048.9000000000001</v>
+        <v>755.1</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D69" s="4">
         <v>5</v>
       </c>
-      <c r="E69" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B70" s="3">
-        <v>1048.7</v>
+        <v>754.9</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D70" s="4">
         <v>5</v>
       </c>
-      <c r="E70" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B71" s="3">
-        <v>1062.5999999999999</v>
+        <v>754</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D71" s="4">
         <v>5</v>
       </c>
-      <c r="E71" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B72" s="3">
-        <v>1046.5</v>
+        <v>753.8</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D72" s="4">
         <v>5</v>
       </c>
-      <c r="E72" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B73" s="3">
-        <v>1107.7</v>
+        <v>825.4</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D73" s="4">
         <v>5</v>
       </c>
-      <c r="E73" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B74" s="1">
         <v>63.75</v>
       </c>
       <c r="C74" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D74">
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B75" s="1">
         <v>0.34499999999999997</v>
       </c>
       <c r="C75" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D75">
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B76" s="1">
         <v>0.69</v>
       </c>
       <c r="C76" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D76">
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B77" s="1">
         <v>0.34499999999999997</v>
       </c>
       <c r="C77" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D77">
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B78" s="1">
         <v>0.34499999999999997</v>
       </c>
       <c r="C78" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D78">
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B79" s="1">
         <v>0.69</v>
       </c>
       <c r="C79" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D79">
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B80" s="1">
         <v>0.34499999999999997</v>
       </c>
       <c r="C80" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D80">
         <v>5</v>
@@ -2395,13 +2582,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B81" s="1">
         <v>101.35</v>
       </c>
       <c r="C81" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D81">
         <v>5</v>
@@ -2409,13 +2596,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B82" s="1">
         <v>4.5999999999999996</v>
       </c>
       <c r="C82" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D82">
         <v>5</v>
@@ -2423,13 +2610,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B83">
         <v>7.5</v>
       </c>
       <c r="C83" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D83">
         <v>5</v>
@@ -2437,13 +2624,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B84">
         <v>7.5</v>
       </c>
       <c r="C84" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D84">
         <v>5</v>
@@ -2451,13 +2638,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B85">
         <v>7.5</v>
       </c>
       <c r="C85" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D85">
         <v>5</v>
@@ -2465,13 +2652,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B86">
         <v>7.5</v>
       </c>
       <c r="C86" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D86">
         <v>5</v>
@@ -2479,13 +2666,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B87">
         <v>14</v>
       </c>
       <c r="C87" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D87">
         <v>5</v>
@@ -2493,13 +2680,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B88">
         <v>14</v>
       </c>
       <c r="C88" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D88">
         <v>5</v>
@@ -2507,13 +2694,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B89">
         <v>14</v>
       </c>
       <c r="C89" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D89">
         <v>5</v>
@@ -2521,13 +2708,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B90">
         <v>14</v>
       </c>
       <c r="C90" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D90">
         <v>5</v>
@@ -2535,13 +2722,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B91">
         <v>6.08</v>
       </c>
       <c r="C91" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D91">
         <v>5</v>
@@ -2549,13 +2736,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B92">
         <v>6.08</v>
       </c>
       <c r="C92" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D92">
         <v>5</v>
@@ -2563,13 +2750,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B93">
         <v>552.9</v>
       </c>
       <c r="C93" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D93">
         <v>5</v>
@@ -2577,13 +2764,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B94">
         <v>590.9</v>
       </c>
       <c r="C94" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D94">
         <v>5</v>
@@ -2591,13 +2778,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B95">
         <v>550.29999999999995</v>
       </c>
       <c r="C95" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D95">
         <v>5</v>
@@ -2605,13 +2792,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B96">
         <v>588.29999999999995</v>
       </c>
       <c r="C96" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D96">
         <v>5</v>
@@ -2619,13 +2806,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B97">
         <v>0.98</v>
       </c>
       <c r="C97" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D97">
         <v>5</v>
@@ -2633,13 +2820,13 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B98">
         <v>0.7</v>
       </c>
       <c r="C98" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D98">
         <v>5</v>
@@ -2647,13 +2834,13 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B99" s="1">
         <v>0.55600000000000005</v>
       </c>
       <c r="C99" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D99">
         <v>5</v>
@@ -2661,13 +2848,13 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B100" s="1">
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="C100" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D100">
         <v>5</v>
@@ -2675,13 +2862,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B101" s="1">
         <v>17.55</v>
       </c>
       <c r="C101" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D101">
         <v>5</v>
@@ -2689,13 +2876,13 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B102">
         <v>141.69999999999999</v>
       </c>
       <c r="C102" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D102">
         <v>5</v>
@@ -2703,13 +2890,13 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B103">
         <v>141.69999999999999</v>
       </c>
       <c r="C103" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D103">
         <v>5</v>
@@ -2717,13 +2904,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B104">
         <v>141.69999999999999</v>
       </c>
       <c r="C104" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D104">
         <v>5</v>
@@ -2731,13 +2918,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B105" s="1">
         <v>60.68</v>
       </c>
       <c r="C105" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D105">
         <v>5</v>
@@ -2745,13 +2932,13 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B106" s="1">
         <v>60.68</v>
       </c>
       <c r="C106" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D106">
         <v>5</v>
@@ -2759,13 +2946,13 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B107" s="1">
         <v>60.68</v>
       </c>
       <c r="C107" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D107">
         <v>5</v>
@@ -2773,13 +2960,13 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B108" s="1">
         <v>60.68</v>
       </c>
       <c r="C108" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D108">
         <v>5</v>
@@ -2787,13 +2974,13 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B109" s="1">
         <v>60.68</v>
       </c>
       <c r="C109" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D109">
         <v>5</v>
@@ -2801,13 +2988,13 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B110">
         <v>1642.8</v>
       </c>
       <c r="C110" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D110">
         <v>5</v>
@@ -2815,13 +3002,13 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B111">
         <v>14.5</v>
       </c>
       <c r="C111" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D111">
         <v>5</v>
@@ -2829,13 +3016,13 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B112">
         <v>13.8</v>
       </c>
       <c r="C112" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D112">
         <v>5</v>
@@ -2843,13 +3030,13 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B113">
         <v>17</v>
       </c>
       <c r="C113" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D113">
         <v>5</v>
@@ -2857,13 +3044,13 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B114" s="1">
         <v>9.4</v>
       </c>
       <c r="C114" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D114">
         <v>5</v>
@@ -2871,13 +3058,13 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B115" s="1">
         <v>8.1999999999999993</v>
       </c>
       <c r="C115" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D115">
         <v>5</v>
@@ -2885,13 +3072,13 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B116">
         <v>530</v>
       </c>
       <c r="C116" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D116">
         <v>5</v>
@@ -2899,13 +3086,13 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B117">
         <v>2120</v>
       </c>
       <c r="C117" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D117">
         <v>5</v>
@@ -2913,13 +3100,13 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B118">
         <v>1012</v>
       </c>
       <c r="C118" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D118">
         <v>5</v>
@@ -2927,13 +3114,13 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B119">
         <v>1012</v>
       </c>
       <c r="C119" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D119">
         <v>5</v>
@@ -2941,13 +3128,13 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B120" s="1">
         <v>22</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D120">
         <v>5</v>
@@ -2955,13 +3142,13 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B121">
         <v>56.7</v>
       </c>
       <c r="C121" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D121">
         <v>5</v>
@@ -2969,13 +3156,13 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B122">
         <v>44.5</v>
       </c>
       <c r="C122" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D122">
         <v>5</v>
@@ -2983,13 +3170,13 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B123">
         <v>56.7</v>
       </c>
       <c r="C123" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D123">
         <v>5</v>
@@ -2997,13 +3184,13 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B124">
         <v>44.5</v>
       </c>
       <c r="C124" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D124">
         <v>5</v>
@@ -3011,13 +3198,13 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B125">
         <v>69</v>
       </c>
       <c r="C125" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D125">
         <v>5</v>
@@ -3025,13 +3212,13 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B126">
         <v>44.5</v>
       </c>
       <c r="C126" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D126">
         <v>5</v>
@@ -3039,13 +3226,13 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B127">
         <v>69</v>
       </c>
       <c r="C127" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D127">
         <v>5</v>
@@ -3053,13 +3240,13 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B128">
         <v>44.5</v>
       </c>
       <c r="C128" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D128">
         <v>5</v>
@@ -3067,13 +3254,13 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B129">
         <v>14.5</v>
       </c>
       <c r="C129" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D129">
         <v>5</v>
@@ -3081,13 +3268,13 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B130">
         <v>14.5</v>
       </c>
       <c r="C130" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D130">
         <v>5</v>
@@ -3095,13 +3282,13 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B131">
         <v>12.8</v>
       </c>
       <c r="C131" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D131">
         <v>5</v>
@@ -3109,13 +3296,13 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B132">
         <v>18.399999999999999</v>
       </c>
       <c r="C132" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D132">
         <v>5</v>
@@ -3123,13 +3310,13 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B133" s="1">
         <v>12.8</v>
       </c>
       <c r="C133" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D133">
         <v>5</v>
@@ -3137,13 +3324,13 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B134" s="1">
         <v>18.399999999999999</v>
       </c>
       <c r="C134" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D134">
         <v>5</v>
@@ -3151,13 +3338,13 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B135">
         <v>25.6</v>
       </c>
       <c r="C135" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D135">
         <v>5</v>
@@ -3165,13 +3352,13 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B136">
         <v>36.799999999999997</v>
       </c>
       <c r="C136" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D136">
         <v>5</v>
@@ -3179,13 +3366,13 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B137">
         <v>8.83</v>
       </c>
       <c r="C137" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D137">
         <v>5</v>
@@ -3193,13 +3380,13 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B138">
         <v>8.83</v>
       </c>
       <c r="C138" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D138">
         <v>5</v>
@@ -3207,13 +3394,13 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B139">
         <v>8.83</v>
       </c>
       <c r="C139" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D139">
         <v>5</v>
@@ -3221,13 +3408,13 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B140">
         <v>8.83</v>
       </c>
       <c r="C140" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D140">
         <v>5</v>
@@ -3235,13 +3422,13 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B141">
         <v>104</v>
       </c>
       <c r="C141" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D141">
         <v>5</v>
@@ -3249,13 +3436,13 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B142">
         <v>104</v>
       </c>
       <c r="C142" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D142">
         <v>5</v>
@@ -3263,13 +3450,13 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B143">
         <v>52.15</v>
       </c>
       <c r="C143" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D143">
         <v>5</v>
@@ -3277,13 +3464,13 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B144">
         <v>145.1</v>
       </c>
       <c r="C144" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D144">
         <v>5</v>
@@ -3291,13 +3478,13 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" s="4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B145">
         <v>145.1</v>
       </c>
       <c r="C145" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D145">
         <v>5</v>
@@ -3305,13 +3492,13 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B146" s="1">
         <v>3135</v>
       </c>
       <c r="C146" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D146">
         <v>5</v>
@@ -3319,13 +3506,13 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B147" s="1">
         <v>3135</v>
       </c>
       <c r="C147" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D147">
         <v>5</v>
@@ -3333,13 +3520,13 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B148">
         <v>6270</v>
       </c>
       <c r="C148" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D148">
         <v>5</v>
@@ -3347,13 +3534,13 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" s="4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B149" s="1">
         <v>3135</v>
       </c>
       <c r="C149" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D149">
         <v>5</v>
@@ -3361,13 +3548,13 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B150">
         <v>3135</v>
       </c>
       <c r="C150" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D150">
         <v>5</v>
@@ -3375,13 +3562,13 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B151" s="1">
         <v>105.8</v>
       </c>
       <c r="C151" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D151">
         <v>5</v>
@@ -3389,13 +3576,13 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B152" s="1">
         <v>105.8</v>
       </c>
       <c r="C152" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D152">
         <v>5</v>
@@ -3403,13 +3590,13 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B153">
         <v>52.9</v>
       </c>
       <c r="C153" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D153">
         <v>5</v>
@@ -3417,13 +3604,13 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" s="4" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B154">
         <v>52.9</v>
       </c>
       <c r="C154" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D154">
         <v>5</v>
@@ -3431,13 +3618,13 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B155">
         <v>52.9</v>
       </c>
       <c r="C155" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D155">
         <v>5</v>
@@ -3445,13 +3632,13 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" s="4" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B156">
         <v>52.9</v>
       </c>
       <c r="C156" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D156">
         <v>5</v>
@@ -3459,13 +3646,13 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" s="4" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B157">
         <v>52.9</v>
       </c>
       <c r="C157" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D157">
         <v>5</v>
@@ -3473,13 +3660,13 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" s="4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B158">
         <v>52.9</v>
       </c>
       <c r="C158" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D158">
         <v>5</v>
@@ -3487,13 +3674,13 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" s="4" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B159">
         <v>52.9</v>
       </c>
       <c r="C159" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D159">
         <v>5</v>
@@ -3501,13 +3688,13 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" s="4" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B160">
         <v>52.9</v>
       </c>
       <c r="C160" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D160">
         <v>5</v>
@@ -3515,13 +3702,13 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" s="4" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B161">
         <v>52.9</v>
       </c>
       <c r="C161" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D161">
         <v>5</v>
@@ -3529,13 +3716,13 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" s="4" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B162">
         <v>52.9</v>
       </c>
       <c r="C162" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D162">
         <v>5</v>
@@ -3543,13 +3730,13 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" s="4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B163">
         <v>3.15</v>
       </c>
       <c r="C163" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D163">
         <v>5</v>
@@ -3557,13 +3744,13 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" s="4" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B164">
         <v>439.3</v>
       </c>
       <c r="C164" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D164">
         <v>5</v>
@@ -3571,13 +3758,13 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" s="4" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B165">
         <v>56</v>
       </c>
       <c r="C165" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D165">
         <v>5</v>
@@ -3585,13 +3772,13 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" s="4" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B166">
         <v>56</v>
       </c>
       <c r="C166" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D166">
         <v>5</v>
@@ -3599,13 +3786,13 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" s="4" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B167">
         <v>1.02</v>
       </c>
       <c r="C167" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D167">
         <v>5</v>
@@ -3613,13 +3800,13 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" s="4" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B168">
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="C168" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D168">
         <v>5</v>
@@ -3627,13 +3814,13 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" s="4" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B169" s="1">
         <v>187.2</v>
       </c>
       <c r="C169" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D169">
         <v>5</v>
@@ -3641,13 +3828,13 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" s="4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B170">
         <v>78.2</v>
       </c>
       <c r="C170" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D170">
         <v>5</v>
@@ -3655,13 +3842,13 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B171">
         <v>92.4</v>
       </c>
       <c r="C171" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D171">
         <v>5</v>
@@ -3669,13 +3856,13 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" s="4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B172" s="1">
         <v>11</v>
       </c>
       <c r="C172" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D172">
         <v>5</v>
@@ -3683,13 +3870,13 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" s="4" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B173" s="1">
         <v>0.51</v>
       </c>
       <c r="C173" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D173">
         <v>5</v>
@@ -3697,13 +3884,13 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" s="4" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B174" s="1">
         <v>0.26</v>
       </c>
       <c r="C174" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D174">
         <v>5</v>
@@ -3711,13 +3898,13 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" s="4" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B175">
         <v>0.5</v>
       </c>
       <c r="C175" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D175">
         <v>5</v>
@@ -3725,13 +3912,13 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" s="4" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B176" s="1">
         <v>0.25</v>
       </c>
       <c r="C176" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D176">
         <v>5</v>
@@ -3739,13 +3926,13 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B177" s="1">
         <v>0.25</v>
       </c>
       <c r="C177" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D177">
         <v>5</v>
@@ -3753,13 +3940,13 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" s="4" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B178">
         <v>0.14000000000000001</v>
       </c>
       <c r="C178" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D178">
         <v>5</v>
@@ -3767,13 +3954,13 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" s="4" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B179" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C179" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D179">
         <v>5</v>
@@ -3781,13 +3968,13 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" s="4" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B180" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C180" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D180">
         <v>5</v>
@@ -3795,13 +3982,13 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" s="4" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B181" s="1">
         <v>11.55</v>
       </c>
       <c r="C181" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D181">
         <v>5</v>
@@ -3809,13 +3996,13 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" s="4" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B182">
         <v>8.6999999999999994E-2</v>
       </c>
       <c r="C182" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D182">
         <v>5</v>
@@ -3823,13 +4010,13 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" s="4" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B183">
         <v>82.6</v>
       </c>
       <c r="C183" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D183">
         <v>5</v>
@@ -3837,13 +4024,13 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B184">
         <v>82.6</v>
       </c>
       <c r="C184" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D184">
         <v>5</v>
@@ -3851,13 +4038,13 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" s="4" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B185">
         <v>82.6</v>
       </c>
       <c r="C185" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D185">
         <v>5</v>
@@ -3865,13 +4052,13 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" s="4" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B186">
         <v>0.255</v>
       </c>
       <c r="C186" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D186">
         <v>5</v>
@@ -3879,13 +4066,13 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" s="4" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B187">
         <v>14.3</v>
       </c>
       <c r="C187" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D187">
         <v>5</v>
@@ -3893,13 +4080,13 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" s="4" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B188">
         <v>14.3</v>
       </c>
       <c r="C188" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D188">
         <v>5</v>
@@ -3907,13 +4094,13 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" s="4" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B189">
         <v>533.79999999999995</v>
       </c>
       <c r="C189" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D189">
         <v>5</v>
@@ -3921,13 +4108,13 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" s="4" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B190" s="1">
         <v>19.2</v>
       </c>
       <c r="C190" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D190">
         <v>5</v>
@@ -3935,13 +4122,13 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" s="4" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B191">
         <v>0.75</v>
       </c>
       <c r="C191" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D191">
         <v>5</v>
@@ -3949,13 +4136,13 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" s="4" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B192">
         <v>0.75</v>
       </c>
       <c r="C192" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D192">
         <v>5</v>
@@ -3963,13 +4150,13 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" s="4" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B193">
         <v>0.75</v>
       </c>
       <c r="C193" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D193">
         <v>5</v>
@@ -3977,13 +4164,13 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" s="4" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B194">
         <v>0.75</v>
       </c>
       <c r="C194" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D194">
         <v>5</v>
@@ -3991,13 +4178,13 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" s="4" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B195" s="1">
         <v>144</v>
       </c>
       <c r="C195" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D195">
         <v>5</v>
@@ -4005,13 +4192,13 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" s="4" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B196" s="1">
         <v>144</v>
       </c>
       <c r="C196" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D196">
         <v>5</v>
@@ -4019,13 +4206,13 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" s="4" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B197" s="1">
         <v>144</v>
       </c>
       <c r="C197" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D197">
         <v>5</v>
@@ -4033,13 +4220,13 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" s="4" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B198" s="1">
         <v>144</v>
       </c>
       <c r="C198" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D198">
         <v>5</v>
@@ -4047,13 +4234,13 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" s="4" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B199">
         <v>530</v>
       </c>
       <c r="C199" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D199">
         <v>5</v>
@@ -4061,13 +4248,13 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" s="4" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B200">
         <v>2120</v>
       </c>
       <c r="C200" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D200">
         <v>5</v>
@@ -4081,10 +4268,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FE794CF-9095-4B49-B7ED-0ACA2739CBC2}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4092,9 +4279,10 @@
     <col min="1" max="1" width="25" customWidth="1"/>
     <col min="2" max="2" width="47" customWidth="1"/>
     <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>72</v>
       </c>
@@ -4107,24 +4295,696 @@
       <c r="D1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C2" t="s">
-        <v>81</v>
+        <v>277</v>
       </c>
       <c r="D2" t="s">
-        <v>83</v>
+        <v>276</v>
+      </c>
+      <c r="E2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>272</v>
+      </c>
+      <c r="B3" t="s">
+        <v>274</v>
+      </c>
+      <c r="C3" t="s">
+        <v>273</v>
+      </c>
+      <c r="D3" t="s">
+        <v>276</v>
+      </c>
+      <c r="E3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>280</v>
+      </c>
+      <c r="C4" t="s">
+        <v>281</v>
+      </c>
+      <c r="D4" t="s">
+        <v>276</v>
+      </c>
+      <c r="E4" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>282</v>
+      </c>
+      <c r="C5" t="s">
+        <v>283</v>
+      </c>
+      <c r="D5" t="s">
+        <v>276</v>
+      </c>
+      <c r="E5" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>280</v>
+      </c>
+      <c r="C6" t="s">
+        <v>281</v>
+      </c>
+      <c r="D6" t="s">
+        <v>276</v>
+      </c>
+      <c r="E6" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>285</v>
+      </c>
+      <c r="B7" t="s">
+        <v>286</v>
+      </c>
+      <c r="C7" t="s">
+        <v>273</v>
+      </c>
+      <c r="D7" t="s">
+        <v>276</v>
+      </c>
+      <c r="E7" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>287</v>
+      </c>
+      <c r="B8" t="s">
+        <v>290</v>
+      </c>
+      <c r="C8" t="s">
+        <v>289</v>
+      </c>
+      <c r="D8" t="s">
+        <v>276</v>
+      </c>
+      <c r="E8" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>295</v>
+      </c>
+      <c r="B9" t="s">
+        <v>296</v>
+      </c>
+      <c r="C9" s="5">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>297</v>
+      </c>
+      <c r="E9" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>288</v>
+      </c>
+      <c r="B10" t="s">
+        <v>290</v>
+      </c>
+      <c r="C10" t="s">
+        <v>289</v>
+      </c>
+      <c r="D10" t="s">
+        <v>276</v>
+      </c>
+      <c r="E10" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>298</v>
+      </c>
+      <c r="B11" t="s">
+        <v>296</v>
+      </c>
+      <c r="C11" s="5">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>276</v>
+      </c>
+      <c r="E11" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>292</v>
+      </c>
+      <c r="B12" t="s">
+        <v>293</v>
+      </c>
+      <c r="C12" t="s">
+        <v>289</v>
+      </c>
+      <c r="D12" t="s">
+        <v>276</v>
+      </c>
+      <c r="E12" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>299</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="D13" t="s">
+        <v>276</v>
+      </c>
+      <c r="E13" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>300</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="D14" t="s">
+        <v>276</v>
+      </c>
+      <c r="E14" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>304</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="D15" t="s">
+        <v>276</v>
+      </c>
+      <c r="E15" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>305</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="D16" t="s">
+        <v>276</v>
+      </c>
+      <c r="E16" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>306</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="D17" t="s">
+        <v>276</v>
+      </c>
+      <c r="E17" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>307</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="D18" t="s">
+        <v>276</v>
+      </c>
+      <c r="E18" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>303</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="D19" t="s">
+        <v>297</v>
+      </c>
+      <c r="E19" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>311</v>
+      </c>
+      <c r="B20" t="s">
+        <v>313</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="D20" t="s">
+        <v>276</v>
+      </c>
+      <c r="E20" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>312</v>
+      </c>
+      <c r="B21" t="s">
+        <v>313</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="D21" t="s">
+        <v>276</v>
+      </c>
+      <c r="E21" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>316</v>
+      </c>
+      <c r="B22" t="s">
+        <v>320</v>
+      </c>
+      <c r="C22" t="s">
+        <v>273</v>
+      </c>
+      <c r="D22" t="s">
+        <v>276</v>
+      </c>
+      <c r="E22" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>317</v>
+      </c>
+      <c r="B23" t="s">
+        <v>321</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="D23" t="s">
+        <v>297</v>
+      </c>
+      <c r="E23" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>318</v>
+      </c>
+      <c r="B24" t="s">
+        <v>320</v>
+      </c>
+      <c r="C24" t="s">
+        <v>273</v>
+      </c>
+      <c r="D24" t="s">
+        <v>276</v>
+      </c>
+      <c r="E24" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>319</v>
+      </c>
+      <c r="B25" t="s">
+        <v>321</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="D25" t="s">
+        <v>297</v>
+      </c>
+      <c r="E25" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>323</v>
+      </c>
+      <c r="B26" t="s">
+        <v>328</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="D26" t="s">
+        <v>276</v>
+      </c>
+      <c r="E26" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>324</v>
+      </c>
+      <c r="B27" t="s">
+        <v>328</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="D27" t="s">
+        <v>276</v>
+      </c>
+      <c r="E27" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>325</v>
+      </c>
+      <c r="B28" t="s">
+        <v>328</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="D28" t="s">
+        <v>276</v>
+      </c>
+      <c r="E28" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>326</v>
+      </c>
+      <c r="B29" t="s">
+        <v>328</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="D29" t="s">
+        <v>276</v>
+      </c>
+      <c r="E29" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>327</v>
+      </c>
+      <c r="B30" t="s">
+        <v>328</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="D30" t="s">
+        <v>276</v>
+      </c>
+      <c r="E30" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>331</v>
+      </c>
+      <c r="B31" t="s">
+        <v>338</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="D31" t="s">
+        <v>276</v>
+      </c>
+      <c r="E31" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>332</v>
+      </c>
+      <c r="B32" t="s">
+        <v>338</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="D32" t="s">
+        <v>276</v>
+      </c>
+      <c r="E32" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>155</v>
+      </c>
+      <c r="B33" t="s">
+        <v>338</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="D33" t="s">
+        <v>276</v>
+      </c>
+      <c r="E33" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>156</v>
+      </c>
+      <c r="B34" t="s">
+        <v>341</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="D34" t="s">
+        <v>297</v>
+      </c>
+      <c r="E34" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>333</v>
+      </c>
+      <c r="B35" t="s">
+        <v>338</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="D35" t="s">
+        <v>276</v>
+      </c>
+      <c r="E35" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>334</v>
+      </c>
+      <c r="B36" t="s">
+        <v>338</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="D36" t="s">
+        <v>276</v>
+      </c>
+      <c r="E36" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>335</v>
+      </c>
+      <c r="B37" t="s">
+        <v>338</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="D37" t="s">
+        <v>276</v>
+      </c>
+      <c r="E37" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>336</v>
+      </c>
+      <c r="B38" t="s">
+        <v>338</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="D38" t="s">
+        <v>276</v>
+      </c>
+      <c r="E38" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>337</v>
+      </c>
+      <c r="B39" t="s">
+        <v>338</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="D39" t="s">
+        <v>276</v>
+      </c>
+      <c r="E39" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>343</v>
+      </c>
+      <c r="B40" t="s">
+        <v>341</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="D40" t="s">
+        <v>276</v>
+      </c>
+      <c r="E40" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>344</v>
+      </c>
+      <c r="B41" t="s">
+        <v>341</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="D41" t="s">
+        <v>276</v>
+      </c>
+      <c r="E41" t="s">
+        <v>345</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <ignoredErrors>
+    <ignoredError sqref="C20:C21 C23 C25" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/Data/manual_update.xlsx
+++ b/Data/manual_update.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cheyu/Documents/GitHub/CofactorYeast/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8589755B-747E-7146-A9E0-3DD9B1E5B431}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF00D980-9AB7-4740-8E10-EB5C16842EBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="460" windowWidth="27560" windowHeight="21140" xr2:uid="{0732DB2B-E664-7544-B4C9-5536E1206D06}"/>
   </bookViews>
@@ -24,7 +24,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1450,8 +1452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1417A95A-9A45-104E-81A0-44F5861A24E6}">
   <dimension ref="A1:D200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="C72" sqref="C72"/>
+    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
+      <selection activeCell="C202" sqref="C202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Data/manual_update.xlsx
+++ b/Data/manual_update.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cheyu/Documents/GitHub/CofactorYeast/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF00D980-9AB7-4740-8E10-EB5C16842EBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE56E893-C0F0-CD4B-A504-6097C5B60C77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="460" windowWidth="27560" windowHeight="21140" xr2:uid="{0732DB2B-E664-7544-B4C9-5536E1206D06}"/>
+    <workbookView xWindow="1560" yWindow="460" windowWidth="31000" windowHeight="20540" xr2:uid="{0732DB2B-E664-7544-B4C9-5536E1206D06}"/>
   </bookViews>
   <sheets>
     <sheet name="kcats" sheetId="3" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="346">
   <si>
     <t>PMID: 11561293</t>
   </si>
@@ -373,9 +373,6 @@
   </si>
   <si>
     <t>Assume to be the same as fwd reaction</t>
-  </si>
-  <si>
-    <t>PMID: 2201405</t>
   </si>
   <si>
     <t>r_2140_enzyme</t>
@@ -1452,8 +1449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1417A95A-9A45-104E-81A0-44F5861A24E6}">
   <dimension ref="A1:D200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
-      <selection activeCell="C202" sqref="C202"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1988,7 +1985,7 @@
         <v>909.59999999999991</v>
       </c>
       <c r="C38" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D38">
         <v>5</v>
@@ -2080,7 +2077,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B45">
         <v>143.30000000000001</v>
@@ -2094,7 +2091,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B46">
         <v>143.30000000000001</v>
@@ -2108,7 +2105,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B47">
         <v>143.30000000000001</v>
@@ -2122,7 +2119,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B48">
         <v>143.30000000000001</v>
@@ -2237,10 +2234,10 @@
         <v>69</v>
       </c>
       <c r="B56" s="2">
-        <v>7200</v>
+        <v>704</v>
       </c>
       <c r="C56" t="s">
-        <v>113</v>
+        <v>1</v>
       </c>
       <c r="D56">
         <v>5</v>
@@ -2251,10 +2248,10 @@
         <v>70</v>
       </c>
       <c r="B57" s="2">
-        <v>7200</v>
+        <v>704</v>
       </c>
       <c r="C57" t="s">
-        <v>113</v>
+        <v>1</v>
       </c>
       <c r="D57">
         <v>5</v>
@@ -2752,13 +2749,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B93">
         <v>552.9</v>
       </c>
       <c r="C93" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D93">
         <v>5</v>
@@ -2766,13 +2763,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B94">
         <v>590.9</v>
       </c>
       <c r="C94" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D94">
         <v>5</v>
@@ -2780,13 +2777,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B95">
         <v>550.29999999999995</v>
       </c>
       <c r="C95" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D95">
         <v>5</v>
@@ -2794,13 +2791,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B96">
         <v>588.29999999999995</v>
       </c>
       <c r="C96" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D96">
         <v>5</v>
@@ -2808,13 +2805,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B97">
         <v>0.98</v>
       </c>
       <c r="C97" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D97">
         <v>5</v>
@@ -2822,13 +2819,13 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B98">
         <v>0.7</v>
       </c>
       <c r="C98" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D98">
         <v>5</v>
@@ -2836,13 +2833,13 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B99" s="1">
         <v>0.55600000000000005</v>
       </c>
       <c r="C99" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D99">
         <v>5</v>
@@ -2850,13 +2847,13 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B100" s="1">
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="C100" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D100">
         <v>5</v>
@@ -2864,13 +2861,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B101" s="1">
         <v>17.55</v>
       </c>
       <c r="C101" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D101">
         <v>5</v>
@@ -2878,13 +2875,13 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B102">
         <v>141.69999999999999</v>
       </c>
       <c r="C102" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D102">
         <v>5</v>
@@ -2892,13 +2889,13 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B103">
         <v>141.69999999999999</v>
       </c>
       <c r="C103" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D103">
         <v>5</v>
@@ -2906,13 +2903,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B104">
         <v>141.69999999999999</v>
       </c>
       <c r="C104" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D104">
         <v>5</v>
@@ -2920,13 +2917,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B105" s="1">
         <v>60.68</v>
       </c>
       <c r="C105" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D105">
         <v>5</v>
@@ -2934,13 +2931,13 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B106" s="1">
         <v>60.68</v>
       </c>
       <c r="C106" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D106">
         <v>5</v>
@@ -2948,13 +2945,13 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B107" s="1">
         <v>60.68</v>
       </c>
       <c r="C107" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D107">
         <v>5</v>
@@ -2962,13 +2959,13 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B108" s="1">
         <v>60.68</v>
       </c>
       <c r="C108" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D108">
         <v>5</v>
@@ -2976,13 +2973,13 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B109" s="1">
         <v>60.68</v>
       </c>
       <c r="C109" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D109">
         <v>5</v>
@@ -2990,13 +2987,13 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B110">
         <v>1642.8</v>
       </c>
       <c r="C110" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D110">
         <v>5</v>
@@ -3004,13 +3001,13 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B111">
         <v>14.5</v>
       </c>
       <c r="C111" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D111">
         <v>5</v>
@@ -3018,13 +3015,13 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B112">
         <v>13.8</v>
       </c>
       <c r="C112" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D112">
         <v>5</v>
@@ -3032,13 +3029,13 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B113">
         <v>17</v>
       </c>
       <c r="C113" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D113">
         <v>5</v>
@@ -3046,13 +3043,13 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B114" s="1">
         <v>9.4</v>
       </c>
       <c r="C114" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D114">
         <v>5</v>
@@ -3060,13 +3057,13 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B115" s="1">
         <v>8.1999999999999993</v>
       </c>
       <c r="C115" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D115">
         <v>5</v>
@@ -3074,13 +3071,13 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B116">
         <v>530</v>
       </c>
       <c r="C116" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D116">
         <v>5</v>
@@ -3088,13 +3085,13 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B117">
         <v>2120</v>
       </c>
       <c r="C117" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D117">
         <v>5</v>
@@ -3102,13 +3099,13 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B118">
         <v>1012</v>
       </c>
       <c r="C118" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D118">
         <v>5</v>
@@ -3116,13 +3113,13 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B119">
         <v>1012</v>
       </c>
       <c r="C119" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D119">
         <v>5</v>
@@ -3130,13 +3127,13 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B120" s="1">
         <v>22</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D120">
         <v>5</v>
@@ -3144,13 +3141,13 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B121">
         <v>56.7</v>
       </c>
       <c r="C121" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D121">
         <v>5</v>
@@ -3158,13 +3155,13 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B122">
         <v>44.5</v>
       </c>
       <c r="C122" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D122">
         <v>5</v>
@@ -3172,13 +3169,13 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B123">
         <v>56.7</v>
       </c>
       <c r="C123" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D123">
         <v>5</v>
@@ -3186,13 +3183,13 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B124">
         <v>44.5</v>
       </c>
       <c r="C124" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D124">
         <v>5</v>
@@ -3200,13 +3197,13 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B125">
         <v>69</v>
       </c>
       <c r="C125" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D125">
         <v>5</v>
@@ -3214,13 +3211,13 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B126">
         <v>44.5</v>
       </c>
       <c r="C126" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D126">
         <v>5</v>
@@ -3228,13 +3225,13 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B127">
         <v>69</v>
       </c>
       <c r="C127" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D127">
         <v>5</v>
@@ -3242,13 +3239,13 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B128">
         <v>44.5</v>
       </c>
       <c r="C128" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D128">
         <v>5</v>
@@ -3256,13 +3253,13 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B129">
         <v>14.5</v>
       </c>
       <c r="C129" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D129">
         <v>5</v>
@@ -3270,13 +3267,13 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B130">
         <v>14.5</v>
       </c>
       <c r="C130" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D130">
         <v>5</v>
@@ -3284,13 +3281,13 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B131">
         <v>12.8</v>
       </c>
       <c r="C131" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D131">
         <v>5</v>
@@ -3298,13 +3295,13 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B132">
         <v>18.399999999999999</v>
       </c>
       <c r="C132" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D132">
         <v>5</v>
@@ -3312,13 +3309,13 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B133" s="1">
         <v>12.8</v>
       </c>
       <c r="C133" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D133">
         <v>5</v>
@@ -3326,13 +3323,13 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B134" s="1">
         <v>18.399999999999999</v>
       </c>
       <c r="C134" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D134">
         <v>5</v>
@@ -3340,13 +3337,13 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B135">
         <v>25.6</v>
       </c>
       <c r="C135" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D135">
         <v>5</v>
@@ -3354,13 +3351,13 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B136">
         <v>36.799999999999997</v>
       </c>
       <c r="C136" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D136">
         <v>5</v>
@@ -3368,13 +3365,13 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B137">
         <v>8.83</v>
       </c>
       <c r="C137" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D137">
         <v>5</v>
@@ -3382,13 +3379,13 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B138">
         <v>8.83</v>
       </c>
       <c r="C138" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D138">
         <v>5</v>
@@ -3396,13 +3393,13 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B139">
         <v>8.83</v>
       </c>
       <c r="C139" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D139">
         <v>5</v>
@@ -3410,13 +3407,13 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B140">
         <v>8.83</v>
       </c>
       <c r="C140" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D140">
         <v>5</v>
@@ -3424,13 +3421,13 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B141">
         <v>104</v>
       </c>
       <c r="C141" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D141">
         <v>5</v>
@@ -3438,13 +3435,13 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B142">
         <v>104</v>
       </c>
       <c r="C142" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D142">
         <v>5</v>
@@ -3452,13 +3449,13 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B143">
         <v>52.15</v>
       </c>
       <c r="C143" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D143">
         <v>5</v>
@@ -3466,13 +3463,13 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B144">
         <v>145.1</v>
       </c>
       <c r="C144" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D144">
         <v>5</v>
@@ -3480,13 +3477,13 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B145">
         <v>145.1</v>
       </c>
       <c r="C145" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D145">
         <v>5</v>
@@ -3494,13 +3491,13 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B146" s="1">
         <v>3135</v>
       </c>
       <c r="C146" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D146">
         <v>5</v>
@@ -3508,13 +3505,13 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B147" s="1">
         <v>3135</v>
       </c>
       <c r="C147" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D147">
         <v>5</v>
@@ -3522,13 +3519,13 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B148">
         <v>6270</v>
       </c>
       <c r="C148" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D148">
         <v>5</v>
@@ -3536,13 +3533,13 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B149" s="1">
         <v>3135</v>
       </c>
       <c r="C149" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D149">
         <v>5</v>
@@ -3550,13 +3547,13 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B150">
         <v>3135</v>
       </c>
       <c r="C150" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D150">
         <v>5</v>
@@ -3564,13 +3561,13 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B151" s="1">
         <v>105.8</v>
       </c>
       <c r="C151" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D151">
         <v>5</v>
@@ -3578,7 +3575,7 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B152" s="1">
         <v>105.8</v>
@@ -3592,13 +3589,13 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B153">
         <v>52.9</v>
       </c>
       <c r="C153" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D153">
         <v>5</v>
@@ -3606,7 +3603,7 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B154">
         <v>52.9</v>
@@ -3620,13 +3617,13 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B155">
         <v>52.9</v>
       </c>
       <c r="C155" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D155">
         <v>5</v>
@@ -3634,7 +3631,7 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B156">
         <v>52.9</v>
@@ -3648,13 +3645,13 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B157">
         <v>52.9</v>
       </c>
       <c r="C157" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D157">
         <v>5</v>
@@ -3662,7 +3659,7 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B158">
         <v>52.9</v>
@@ -3676,13 +3673,13 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B159">
         <v>52.9</v>
       </c>
       <c r="C159" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D159">
         <v>5</v>
@@ -3690,7 +3687,7 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B160">
         <v>52.9</v>
@@ -3704,13 +3701,13 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B161">
         <v>52.9</v>
       </c>
       <c r="C161" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D161">
         <v>5</v>
@@ -3718,7 +3715,7 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B162">
         <v>52.9</v>
@@ -3732,13 +3729,13 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B163">
         <v>3.15</v>
       </c>
       <c r="C163" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D163">
         <v>5</v>
@@ -3746,13 +3743,13 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B164">
         <v>439.3</v>
       </c>
       <c r="C164" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D164">
         <v>5</v>
@@ -3760,13 +3757,13 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B165">
         <v>56</v>
       </c>
       <c r="C165" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D165">
         <v>5</v>
@@ -3774,13 +3771,13 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B166">
         <v>56</v>
       </c>
       <c r="C166" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D166">
         <v>5</v>
@@ -3788,13 +3785,13 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B167">
         <v>1.02</v>
       </c>
       <c r="C167" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D167">
         <v>5</v>
@@ -3802,13 +3799,13 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B168">
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="C168" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D168">
         <v>5</v>
@@ -3816,13 +3813,13 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B169" s="1">
         <v>187.2</v>
       </c>
       <c r="C169" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D169">
         <v>5</v>
@@ -3830,13 +3827,13 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B170">
         <v>78.2</v>
       </c>
       <c r="C170" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D170">
         <v>5</v>
@@ -3844,13 +3841,13 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B171">
         <v>92.4</v>
       </c>
       <c r="C171" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D171">
         <v>5</v>
@@ -3858,13 +3855,13 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B172" s="1">
         <v>11</v>
       </c>
       <c r="C172" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D172">
         <v>5</v>
@@ -3872,13 +3869,13 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B173" s="1">
         <v>0.51</v>
       </c>
       <c r="C173" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D173">
         <v>5</v>
@@ -3886,13 +3883,13 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B174" s="1">
         <v>0.26</v>
       </c>
       <c r="C174" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D174">
         <v>5</v>
@@ -3900,13 +3897,13 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B175">
         <v>0.5</v>
       </c>
       <c r="C175" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D175">
         <v>5</v>
@@ -3914,13 +3911,13 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B176" s="1">
         <v>0.25</v>
       </c>
       <c r="C176" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D176">
         <v>5</v>
@@ -3928,13 +3925,13 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B177" s="1">
         <v>0.25</v>
       </c>
       <c r="C177" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D177">
         <v>5</v>
@@ -3942,13 +3939,13 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B178">
         <v>0.14000000000000001</v>
       </c>
       <c r="C178" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D178">
         <v>5</v>
@@ -3956,13 +3953,13 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B179" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C179" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D179">
         <v>5</v>
@@ -3970,13 +3967,13 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B180" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C180" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D180">
         <v>5</v>
@@ -3984,13 +3981,13 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B181" s="1">
         <v>11.55</v>
       </c>
       <c r="C181" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D181">
         <v>5</v>
@@ -3998,13 +3995,13 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B182">
         <v>8.6999999999999994E-2</v>
       </c>
       <c r="C182" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D182">
         <v>5</v>
@@ -4012,13 +4009,13 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B183">
         <v>82.6</v>
       </c>
       <c r="C183" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D183">
         <v>5</v>
@@ -4026,13 +4023,13 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B184">
         <v>82.6</v>
       </c>
       <c r="C184" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D184">
         <v>5</v>
@@ -4040,13 +4037,13 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B185">
         <v>82.6</v>
       </c>
       <c r="C185" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D185">
         <v>5</v>
@@ -4054,13 +4051,13 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B186">
         <v>0.255</v>
       </c>
       <c r="C186" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D186">
         <v>5</v>
@@ -4068,13 +4065,13 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B187">
         <v>14.3</v>
       </c>
       <c r="C187" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D187">
         <v>5</v>
@@ -4082,13 +4079,13 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B188">
         <v>14.3</v>
       </c>
       <c r="C188" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D188">
         <v>5</v>
@@ -4096,13 +4093,13 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B189">
         <v>533.79999999999995</v>
       </c>
       <c r="C189" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D189">
         <v>5</v>
@@ -4110,13 +4107,13 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B190" s="1">
         <v>19.2</v>
       </c>
       <c r="C190" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D190">
         <v>5</v>
@@ -4124,13 +4121,13 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B191">
         <v>0.75</v>
       </c>
       <c r="C191" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D191">
         <v>5</v>
@@ -4138,13 +4135,13 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B192">
         <v>0.75</v>
       </c>
       <c r="C192" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D192">
         <v>5</v>
@@ -4152,13 +4149,13 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B193">
         <v>0.75</v>
       </c>
       <c r="C193" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D193">
         <v>5</v>
@@ -4166,13 +4163,13 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B194">
         <v>0.75</v>
       </c>
       <c r="C194" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D194">
         <v>5</v>
@@ -4180,13 +4177,13 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B195" s="1">
         <v>144</v>
       </c>
       <c r="C195" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D195">
         <v>5</v>
@@ -4194,13 +4191,13 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B196" s="1">
         <v>144</v>
       </c>
       <c r="C196" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D196">
         <v>5</v>
@@ -4208,13 +4205,13 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B197" s="1">
         <v>144</v>
       </c>
       <c r="C197" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D197">
         <v>5</v>
@@ -4222,13 +4219,13 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B198" s="1">
         <v>144</v>
       </c>
       <c r="C198" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D198">
         <v>5</v>
@@ -4236,13 +4233,13 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B199">
         <v>530</v>
       </c>
       <c r="C199" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D199">
         <v>5</v>
@@ -4250,13 +4247,13 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B200">
         <v>2120</v>
       </c>
       <c r="C200" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D200">
         <v>5</v>
@@ -4298,7 +4295,7 @@
         <v>73</v>
       </c>
       <c r="E1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -4309,30 +4306,30 @@
         <v>81</v>
       </c>
       <c r="C2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D2" t="s">
+        <v>275</v>
+      </c>
+      <c r="E2" t="s">
         <v>277</v>
-      </c>
-      <c r="D2" t="s">
-        <v>276</v>
-      </c>
-      <c r="E2" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>271</v>
+      </c>
+      <c r="B3" t="s">
+        <v>273</v>
+      </c>
+      <c r="C3" t="s">
         <v>272</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
+        <v>275</v>
+      </c>
+      <c r="E3" t="s">
         <v>274</v>
-      </c>
-      <c r="C3" t="s">
-        <v>273</v>
-      </c>
-      <c r="D3" t="s">
-        <v>276</v>
-      </c>
-      <c r="E3" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -4340,16 +4337,16 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
+        <v>279</v>
+      </c>
+      <c r="C4" t="s">
         <v>280</v>
       </c>
-      <c r="C4" t="s">
-        <v>281</v>
-      </c>
       <c r="D4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -4357,16 +4354,16 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
+        <v>281</v>
+      </c>
+      <c r="C5" t="s">
         <v>282</v>
       </c>
-      <c r="C5" t="s">
-        <v>283</v>
-      </c>
       <c r="D5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -4374,118 +4371,118 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
+        <v>279</v>
+      </c>
+      <c r="C6" t="s">
         <v>280</v>
       </c>
-      <c r="C6" t="s">
-        <v>281</v>
-      </c>
       <c r="D6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>284</v>
+      </c>
+      <c r="B7" t="s">
         <v>285</v>
       </c>
-      <c r="B7" t="s">
-        <v>286</v>
-      </c>
       <c r="C7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B8" t="s">
+        <v>289</v>
+      </c>
+      <c r="C8" t="s">
+        <v>288</v>
+      </c>
+      <c r="D8" t="s">
+        <v>275</v>
+      </c>
+      <c r="E8" t="s">
         <v>290</v>
-      </c>
-      <c r="C8" t="s">
-        <v>289</v>
-      </c>
-      <c r="D8" t="s">
-        <v>276</v>
-      </c>
-      <c r="E8" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>294</v>
+      </c>
+      <c r="B9" t="s">
         <v>295</v>
-      </c>
-      <c r="B9" t="s">
-        <v>296</v>
       </c>
       <c r="C9" s="5">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>287</v>
+      </c>
+      <c r="B10" t="s">
+        <v>289</v>
+      </c>
+      <c r="C10" t="s">
         <v>288</v>
       </c>
-      <c r="B10" t="s">
+      <c r="D10" t="s">
+        <v>275</v>
+      </c>
+      <c r="E10" t="s">
         <v>290</v>
-      </c>
-      <c r="C10" t="s">
-        <v>289</v>
-      </c>
-      <c r="D10" t="s">
-        <v>276</v>
-      </c>
-      <c r="E10" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B11" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C11" s="5">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E11" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>291</v>
+      </c>
+      <c r="B12" t="s">
         <v>292</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
+        <v>288</v>
+      </c>
+      <c r="D12" t="s">
+        <v>275</v>
+      </c>
+      <c r="E12" t="s">
         <v>293</v>
-      </c>
-      <c r="C12" t="s">
-        <v>289</v>
-      </c>
-      <c r="D12" t="s">
-        <v>276</v>
-      </c>
-      <c r="E12" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -4493,16 +4490,16 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C13" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="D13" t="s">
+        <v>275</v>
+      </c>
+      <c r="E13" t="s">
         <v>301</v>
-      </c>
-      <c r="D13" t="s">
-        <v>276</v>
-      </c>
-      <c r="E13" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -4510,16 +4507,16 @@
         <v>23</v>
       </c>
       <c r="B14" t="s">
+        <v>299</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="D14" t="s">
+        <v>275</v>
+      </c>
+      <c r="E14" t="s">
         <v>301</v>
-      </c>
-      <c r="D14" t="s">
-        <v>276</v>
-      </c>
-      <c r="E14" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -4527,16 +4524,16 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E15" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -4544,16 +4541,16 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D16" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E16" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -4561,16 +4558,16 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D17" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E17" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -4578,16 +4575,16 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>308</v>
-      </c>
       <c r="D18" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E18" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -4595,390 +4592,390 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C19" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="D19" t="s">
+        <v>296</v>
+      </c>
+      <c r="E19" t="s">
         <v>309</v>
-      </c>
-      <c r="D19" t="s">
-        <v>297</v>
-      </c>
-      <c r="E19" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B20" t="s">
+        <v>312</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="D20" t="s">
+        <v>275</v>
+      </c>
+      <c r="E20" t="s">
         <v>314</v>
-      </c>
-      <c r="D20" t="s">
-        <v>276</v>
-      </c>
-      <c r="E20" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>311</v>
+      </c>
+      <c r="B21" t="s">
         <v>312</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="D21" t="s">
+        <v>275</v>
+      </c>
+      <c r="E21" t="s">
         <v>314</v>
-      </c>
-      <c r="D21" t="s">
-        <v>276</v>
-      </c>
-      <c r="E21" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B22" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C22" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D22" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E22" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B23" t="s">
+        <v>320</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="D23" t="s">
+        <v>296</v>
+      </c>
+      <c r="E23" t="s">
         <v>321</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="D23" t="s">
-        <v>297</v>
-      </c>
-      <c r="E23" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B24" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C24" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D24" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E24" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B25" t="s">
+        <v>320</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="D25" t="s">
+        <v>296</v>
+      </c>
+      <c r="E25" t="s">
         <v>321</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="D25" t="s">
-        <v>297</v>
-      </c>
-      <c r="E25" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B26" t="s">
+        <v>327</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="D26" t="s">
+        <v>275</v>
+      </c>
+      <c r="E26" t="s">
         <v>329</v>
-      </c>
-      <c r="D26" t="s">
-        <v>276</v>
-      </c>
-      <c r="E26" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B27" t="s">
+        <v>327</v>
+      </c>
+      <c r="C27" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="D27" t="s">
+        <v>275</v>
+      </c>
+      <c r="E27" t="s">
         <v>329</v>
-      </c>
-      <c r="D27" t="s">
-        <v>276</v>
-      </c>
-      <c r="E27" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B28" t="s">
+        <v>327</v>
+      </c>
+      <c r="C28" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="D28" t="s">
+        <v>275</v>
+      </c>
+      <c r="E28" t="s">
         <v>329</v>
-      </c>
-      <c r="D28" t="s">
-        <v>276</v>
-      </c>
-      <c r="E28" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B29" t="s">
+        <v>327</v>
+      </c>
+      <c r="C29" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="D29" t="s">
+        <v>275</v>
+      </c>
+      <c r="E29" t="s">
         <v>329</v>
-      </c>
-      <c r="D29" t="s">
-        <v>276</v>
-      </c>
-      <c r="E29" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>326</v>
+      </c>
+      <c r="B30" t="s">
         <v>327</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="D30" t="s">
+        <v>275</v>
+      </c>
+      <c r="E30" t="s">
         <v>329</v>
-      </c>
-      <c r="D30" t="s">
-        <v>276</v>
-      </c>
-      <c r="E30" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B31" t="s">
+        <v>337</v>
+      </c>
+      <c r="C31" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="D31" t="s">
+        <v>275</v>
+      </c>
+      <c r="E31" t="s">
         <v>339</v>
-      </c>
-      <c r="D31" t="s">
-        <v>276</v>
-      </c>
-      <c r="E31" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B32" t="s">
+        <v>337</v>
+      </c>
+      <c r="C32" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="D32" t="s">
+        <v>275</v>
+      </c>
+      <c r="E32" t="s">
         <v>339</v>
-      </c>
-      <c r="D32" t="s">
-        <v>276</v>
-      </c>
-      <c r="E32" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B33" t="s">
+        <v>337</v>
+      </c>
+      <c r="C33" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="D33" t="s">
+        <v>275</v>
+      </c>
+      <c r="E33" t="s">
         <v>339</v>
-      </c>
-      <c r="D33" t="s">
-        <v>276</v>
-      </c>
-      <c r="E33" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B34" t="s">
+        <v>340</v>
+      </c>
+      <c r="C34" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="C34" s="5" t="s">
-        <v>342</v>
-      </c>
       <c r="D34" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E34" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B35" t="s">
+        <v>337</v>
+      </c>
+      <c r="C35" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="D35" t="s">
+        <v>275</v>
+      </c>
+      <c r="E35" t="s">
         <v>339</v>
-      </c>
-      <c r="D35" t="s">
-        <v>276</v>
-      </c>
-      <c r="E35" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B36" t="s">
+        <v>337</v>
+      </c>
+      <c r="C36" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="D36" t="s">
+        <v>275</v>
+      </c>
+      <c r="E36" t="s">
         <v>339</v>
-      </c>
-      <c r="D36" t="s">
-        <v>276</v>
-      </c>
-      <c r="E36" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B37" t="s">
+        <v>337</v>
+      </c>
+      <c r="C37" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="D37" t="s">
+        <v>275</v>
+      </c>
+      <c r="E37" t="s">
         <v>339</v>
-      </c>
-      <c r="D37" t="s">
-        <v>276</v>
-      </c>
-      <c r="E37" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B38" t="s">
+        <v>337</v>
+      </c>
+      <c r="C38" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="D38" t="s">
+        <v>275</v>
+      </c>
+      <c r="E38" t="s">
         <v>339</v>
-      </c>
-      <c r="D38" t="s">
-        <v>276</v>
-      </c>
-      <c r="E38" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>336</v>
+      </c>
+      <c r="B39" t="s">
         <v>337</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="D39" t="s">
+        <v>275</v>
+      </c>
+      <c r="E39" t="s">
         <v>339</v>
-      </c>
-      <c r="D39" t="s">
-        <v>276</v>
-      </c>
-      <c r="E39" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B40" t="s">
+        <v>340</v>
+      </c>
+      <c r="C40" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="C40" s="5" t="s">
-        <v>342</v>
-      </c>
       <c r="D40" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E40" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
+        <v>343</v>
+      </c>
+      <c r="B41" t="s">
+        <v>340</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="D41" t="s">
+        <v>275</v>
+      </c>
+      <c r="E41" t="s">
         <v>344</v>
-      </c>
-      <c r="B41" t="s">
-        <v>341</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="D41" t="s">
-        <v>276</v>
-      </c>
-      <c r="E41" t="s">
-        <v>345</v>
       </c>
     </row>
   </sheetData>

--- a/Data/manual_update.xlsx
+++ b/Data/manual_update.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cheyu/Documents/GitHub/CofactorYeast/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE56E893-C0F0-CD4B-A504-6097C5B60C77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18D90567-5FE2-314A-94A2-3793A6216938}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="460" windowWidth="31000" windowHeight="20540" xr2:uid="{0732DB2B-E664-7544-B4C9-5536E1206D06}"/>
+    <workbookView xWindow="-26540" yWindow="3740" windowWidth="23600" windowHeight="17540" xr2:uid="{0732DB2B-E664-7544-B4C9-5536E1206D06}"/>
   </bookViews>
   <sheets>
     <sheet name="kcats" sheetId="3" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="441">
   <si>
     <t>PMID: 11561293</t>
   </si>
@@ -417,9 +417,6 @@
     <t>r_0462_enzyme</t>
   </si>
   <si>
-    <t>PMID: 16554305</t>
-  </si>
-  <si>
     <t>Median of EC2.5.1.1 with isopentenyl diphosphate as substrate</t>
   </si>
   <si>
@@ -807,9 +804,6 @@
     <t>r_0348_enzyme</t>
   </si>
   <si>
-    <t>Median of EC4.2.1.36</t>
-  </si>
-  <si>
     <t>r_0542_1_fwd_enzyme</t>
   </si>
   <si>
@@ -1072,13 +1066,304 @@
   </si>
   <si>
     <t>Median of three values: Median of EC1.8.1.4 with NAD+ as substrate (506) * stoichiometry of YFL018C (12); Median of EC1.2.4.1 with pyruvate as substrate (37.9) * stoichiometry of YBR221C and YER178W (24); Median of EC1.2.4.1 with pyruvate as substrate (2.4) * stoichiometry of YNL071W (60).</t>
+  </si>
+  <si>
+    <t>r_4631_1_enzyme</t>
+  </si>
+  <si>
+    <t>r_4631_2_enzyme</t>
+  </si>
+  <si>
+    <t>r_4632_1_enzyme</t>
+  </si>
+  <si>
+    <t>r_4632_2_enzyme</t>
+  </si>
+  <si>
+    <t>Should check ID</t>
+  </si>
+  <si>
+    <t>r_0352_enzyme</t>
+  </si>
+  <si>
+    <t>r_0353_enzyme</t>
+  </si>
+  <si>
+    <t>Median of EC4.2.1.9 with matched substrates (2,3-Dihydroxy-3-methylbutanoate)</t>
+  </si>
+  <si>
+    <t>Median of EC4.2.1.9 with matched substrates (2R,3S-2,3-dihydroxy-3-methylpentanoate)</t>
+  </si>
+  <si>
+    <t>r_0027_rvs_enzyme</t>
+  </si>
+  <si>
+    <t>r_0027_fwd_enzyme</t>
+  </si>
+  <si>
+    <t>kcat of EC4.2.1.36 of Methanocaldococcus jannaschii with matched substrate (homocitrate) (PMID: 18765671)</t>
+  </si>
+  <si>
+    <t>kcat of EC4.2.1.36 of Methanocaldococcus jannaschii with matched substrate ((Z)-but-1-ene-1,2,4-tricarboxylate) (BRENDA)</t>
+  </si>
+  <si>
+    <t>kcat of EC4.2.1.36 of Methanocaldococcus jannaschii with matched substrate (But-1-ene-1,2,4-tricarboxylate) (PMID: 18765671)</t>
+  </si>
+  <si>
+    <t>kcat of EC4.2.1.36 of Methanocaldococcus jannaschii with matched substrate (Homoisocitrate) (PMID: 18765671)</t>
+  </si>
+  <si>
+    <t>r_0038_enzyme</t>
+  </si>
+  <si>
+    <t>Median of EC4.1.99.X</t>
+  </si>
+  <si>
+    <t>r_0238_enzyme</t>
+  </si>
+  <si>
+    <t>r_0239_enzyme</t>
+  </si>
+  <si>
+    <t>r_0240_enzyme</t>
+  </si>
+  <si>
+    <t>r_0241_enzyme</t>
+  </si>
+  <si>
+    <t>r_0908_enzyme</t>
+  </si>
+  <si>
+    <t>r_0915_enzyme</t>
+  </si>
+  <si>
+    <t>Median of EC2.4.2.X</t>
+  </si>
+  <si>
+    <t>r_1790_enzyme</t>
+  </si>
+  <si>
+    <t>r_0917_enzyme</t>
+  </si>
+  <si>
+    <t>r_1089_enzyme</t>
+  </si>
+  <si>
+    <t>r_1090_enzyme</t>
+  </si>
+  <si>
+    <t>Estimated from specific activity</t>
+  </si>
+  <si>
+    <t>Median of EC6.1.1.5 with matched substrates (atp &amp; isoleucine &amp; trnaile)</t>
+  </si>
+  <si>
+    <t>Median of EC2.7.7.2 with matched substrate (atp &amp; fmn)</t>
+  </si>
+  <si>
+    <t>Median of EC6.3.2.X with matched substrate (atp)</t>
+  </si>
+  <si>
+    <t>kcat of EC1.18.1.6 of Mycobacterium tuberculosis with matched substrate (nadph)</t>
+  </si>
+  <si>
+    <t>Median of EC1.14.13.X with matched substrate (nadph)</t>
+  </si>
+  <si>
+    <t>r_0665_enzyme</t>
+  </si>
+  <si>
+    <t>r_0666_enzyme</t>
+  </si>
+  <si>
+    <t>Median of EC1.1.1.3X with matched substrate (nadph)</t>
+  </si>
+  <si>
+    <t>r_0558_1_enzyme</t>
+  </si>
+  <si>
+    <t>r_0558_2_enzyme</t>
+  </si>
+  <si>
+    <t>r_0559_enzyme</t>
+  </si>
+  <si>
+    <t>r_0560_enzyme</t>
+  </si>
+  <si>
+    <t>r_0079_enzyme</t>
+  </si>
+  <si>
+    <t>Median of EC6.3.5.X with matched substrate (atp &amp; gln)</t>
+  </si>
+  <si>
+    <t>r_0317_enzyme</t>
+  </si>
+  <si>
+    <t>Median of two values: Median of EC1.6.2.4 with NADPH as substrate (10.2) / NADPH coefficient (3); Median of EC1.14.14.154 with lanosterol as substrate (0.29).</t>
+  </si>
+  <si>
+    <t>r_1010_enzyme</t>
+  </si>
+  <si>
+    <t>r_1011_enzyme</t>
+  </si>
+  <si>
+    <t>Median of EC2.3.1.X</t>
+  </si>
+  <si>
+    <t>r_2308_1_enzyme</t>
+  </si>
+  <si>
+    <t>r_2308_2_enzyme</t>
+  </si>
+  <si>
+    <t>r_2309_1_enzyme</t>
+  </si>
+  <si>
+    <t>r_2309_2_enzyme</t>
+  </si>
+  <si>
+    <t>r_2312_1_enzyme</t>
+  </si>
+  <si>
+    <t>r_2312_2_enzyme</t>
+  </si>
+  <si>
+    <t>r_2313_1_enzyme</t>
+  </si>
+  <si>
+    <t>r_2313_2_enzyme</t>
+  </si>
+  <si>
+    <t>r_2310_enzyme</t>
+  </si>
+  <si>
+    <t>r_2311_enzyme</t>
+  </si>
+  <si>
+    <t>r_2314_enzyme</t>
+  </si>
+  <si>
+    <t>r_2315_enzyme</t>
+  </si>
+  <si>
+    <t>r_2316_enzyme</t>
+  </si>
+  <si>
+    <t>r_2317_enzyme</t>
+  </si>
+  <si>
+    <t>r_2318_enzyme</t>
+  </si>
+  <si>
+    <t>r_2319_enzyme</t>
+  </si>
+  <si>
+    <t>r_2320_enzyme</t>
+  </si>
+  <si>
+    <t>r_2321_enzyme</t>
+  </si>
+  <si>
+    <t>r_2322_enzyme</t>
+  </si>
+  <si>
+    <t>r_2323_enzyme</t>
+  </si>
+  <si>
+    <t>r_0774_enzyme</t>
+  </si>
+  <si>
+    <t>r_0775_enzyme</t>
+  </si>
+  <si>
+    <t>r_0967_enzyme</t>
+  </si>
+  <si>
+    <t>r_0014_enzyme</t>
+  </si>
+  <si>
+    <t>Median of EC3.5.4.X</t>
+  </si>
+  <si>
+    <t>r_0525_enzyme</t>
+  </si>
+  <si>
+    <t>r_0968_enzyme</t>
+  </si>
+  <si>
+    <t>Median of EC2.5.1.X</t>
+  </si>
+  <si>
+    <t>r_0304_enzyme</t>
+  </si>
+  <si>
+    <t>Median of EC1.3.3.X</t>
+  </si>
+  <si>
+    <t>r_0557_enzyme</t>
+  </si>
+  <si>
+    <t>r_1081_enzyme</t>
+  </si>
+  <si>
+    <t>Median of EC4.1.1.X</t>
+  </si>
+  <si>
+    <t>r_0942_enzyme</t>
+  </si>
+  <si>
+    <t>r_0347_enzyme</t>
+  </si>
+  <si>
+    <t>r_0017_enzyme</t>
+  </si>
+  <si>
+    <t>r_0350_enzyme</t>
+  </si>
+  <si>
+    <t>r_0351_enzyme</t>
+  </si>
+  <si>
+    <t>Estimated from specific activity (EC2.5.1.15)</t>
+  </si>
+  <si>
+    <t>r_0524_enzyme</t>
+  </si>
+  <si>
+    <t>r_1034_enzyme</t>
+  </si>
+  <si>
+    <t>r_1035_enzyme</t>
+  </si>
+  <si>
+    <t>Median of EC2.7.6.X with matched substrate (atp)</t>
+  </si>
+  <si>
+    <t>Median of EC4.1.2.X</t>
+  </si>
+  <si>
+    <t>Median of EC1.14.14.X</t>
+  </si>
+  <si>
+    <t>r_0531_enzyme</t>
+  </si>
+  <si>
+    <t>r_0436_enzyme</t>
+  </si>
+  <si>
+    <t>r_4630_enzyme</t>
+  </si>
+  <si>
+    <t>Median of EC4.4.1.X</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1099,19 +1384,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1126,13 +1412,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1447,2815 +1734,3811 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1417A95A-9A45-104E-81A0-44F5861A24E6}">
-  <dimension ref="A1:D200"/>
+  <dimension ref="A1:E269"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+    <sheetView tabSelected="1" topLeftCell="A246" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D266" sqref="D266:D269"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.83203125" customWidth="1"/>
-    <col min="3" max="3" width="63.5" customWidth="1"/>
+    <col min="3" max="3" width="58.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="3">
         <v>200</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="3">
         <v>200</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="3">
         <v>200</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="3">
         <v>200</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="3">
         <v>200</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="3">
         <v>200</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="3">
         <v>200</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="3">
         <v>200</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="3">
         <v>200</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="3">
         <v>200</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="3">
         <v>200</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="A13" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="3">
         <v>200</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="A14" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="3">
         <v>200</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="A15" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="3">
         <v>200</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="A16" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="3">
         <v>200</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="A17" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="3">
         <v>200</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="A18" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="3">
         <v>200</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="A19" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="3">
         <v>200</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="A20" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="3">
         <v>200</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="A21" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="3">
         <v>200</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="A22" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="3">
         <v>63.1</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="A23" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="3">
         <v>63.1</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="A24" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="3">
         <v>63.1</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="A25" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="3">
         <v>63.1</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="A26" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="3">
         <v>487</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="A27" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="3">
         <v>627.70000000000005</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="A28" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="3">
         <v>1275.5</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="A29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="3">
         <v>4.1399999999999997</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+      <c r="A30" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="3">
         <v>36.4</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+      <c r="A31" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31" s="3">
         <v>29</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+      <c r="A32" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="3">
         <v>64</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+      <c r="A33" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" s="3">
         <v>230</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+      <c r="A34" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="3">
         <v>460</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+      <c r="A35" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="3">
         <v>460</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+      <c r="A36" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36" s="3">
         <v>230</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+      <c r="A37" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37" s="3">
         <v>230</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+      <c r="A38" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="3">
         <v>909.59999999999991</v>
       </c>
-      <c r="C38" t="s">
-        <v>345</v>
-      </c>
-      <c r="D38">
+      <c r="C38" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="D38" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+      <c r="A39" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B39" s="3">
         <v>142.30000000000001</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+      <c r="A40" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40" s="3">
         <v>143.5</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="3">
         <v>143.30000000000001</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="3">
         <v>143.30000000000001</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="3">
         <v>143.30000000000001</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="3">
         <v>143.30000000000001</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B45" s="3">
+        <v>143.30000000000001</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D45" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="B45">
+      <c r="B46" s="3">
         <v>143.30000000000001</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C46" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D45">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
+      <c r="D46" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B46">
+      <c r="B47" s="3">
         <v>143.30000000000001</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C47" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D46">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
+      <c r="D47" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="B47">
+      <c r="B48" s="3">
         <v>143.30000000000001</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C48" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D47">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B48">
-        <v>143.30000000000001</v>
-      </c>
-      <c r="C48" t="s">
+      <c r="D48" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B49" s="3">
+        <v>93.8</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D48">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>35</v>
-      </c>
-      <c r="B49" s="1">
-        <v>93.8</v>
-      </c>
-      <c r="C49" t="s">
+      <c r="D49" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B50" s="3">
+        <v>357.7</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D49">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>46</v>
-      </c>
-      <c r="B50">
-        <v>357.7</v>
-      </c>
-      <c r="C50" t="s">
+      <c r="D50" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B51" s="3">
+        <v>359.8</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D50">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>47</v>
-      </c>
-      <c r="B51">
-        <v>359.8</v>
-      </c>
-      <c r="C51" t="s">
+      <c r="D51" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B52" s="3">
+        <v>353.6</v>
+      </c>
+      <c r="C52" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D51">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>48</v>
-      </c>
-      <c r="B52">
-        <v>353.6</v>
-      </c>
-      <c r="C52" t="s">
+      <c r="D52" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B53" s="3">
+        <v>4074.9</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D52">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>25</v>
-      </c>
-      <c r="B53">
+      <c r="D53" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B54" s="3">
         <v>4074.9</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C54" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D53">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>26</v>
-      </c>
-      <c r="B54">
-        <v>4074.9</v>
-      </c>
-      <c r="C54" t="s">
+      <c r="D54" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B55" s="3">
+        <v>183.4</v>
+      </c>
+      <c r="C55" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D54">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>36</v>
-      </c>
-      <c r="B55" s="1">
-        <v>183.4</v>
-      </c>
-      <c r="C55" t="s">
-        <v>2</v>
-      </c>
-      <c r="D55">
+      <c r="D55" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
+      <c r="A56" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B56" s="2">
+      <c r="B56" s="3">
         <v>704</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
+      <c r="A57" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B57" s="2">
+      <c r="B57" s="3">
         <v>704</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
+      <c r="A58" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B58" s="1">
+      <c r="B58" s="3">
         <v>65</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
+      <c r="A59" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B59" s="1">
+      <c r="B59" s="3">
         <v>290</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
+      <c r="A60" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B60" s="1">
+      <c r="B60" s="3">
         <v>207</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
+      <c r="A61" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="3">
         <v>118.1</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
+      <c r="A62" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B62" s="1">
+      <c r="B62" s="3">
         <v>63.6</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
+      <c r="A63" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B63" s="1">
+      <c r="B63" s="3">
         <v>64.75</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D63">
+      <c r="D63" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="4" t="s">
+      <c r="A64" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B64" s="4">
+      <c r="B64" s="3">
         <v>120</v>
       </c>
-      <c r="C64" s="4" t="s">
+      <c r="C64" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D64" s="4">
+      <c r="D64" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B65" s="4">
+      <c r="A65" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B65" s="3">
         <v>120</v>
       </c>
-      <c r="C65" s="4" t="s">
+      <c r="C65" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D65" s="4">
+      <c r="D65" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="4" t="s">
+      <c r="A66" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B66" s="4">
+      <c r="B66" s="3">
         <v>120</v>
       </c>
-      <c r="C66" s="4" t="s">
+      <c r="C66" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D66" s="4">
+      <c r="D66" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="4" t="s">
+      <c r="A67" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B67" s="4">
+      <c r="B67" s="3">
         <v>160</v>
       </c>
-      <c r="C67" s="4" t="s">
+      <c r="C67" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D67" s="4">
+      <c r="D67" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="4" t="s">
+      <c r="A68" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B68" s="4">
+      <c r="B68" s="3">
         <v>160</v>
       </c>
-      <c r="C68" s="4" t="s">
+      <c r="C68" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D68" s="4">
+      <c r="D68" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="4" t="s">
+      <c r="A69" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B69" s="3">
         <v>755.1</v>
       </c>
-      <c r="C69" s="4" t="s">
+      <c r="C69" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D69" s="4">
+      <c r="D69" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="4" t="s">
+      <c r="A70" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B70" s="3">
         <v>754.9</v>
       </c>
-      <c r="C70" s="4" t="s">
+      <c r="C70" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D70" s="4">
+      <c r="D70" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="4" t="s">
+      <c r="A71" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B71" s="3">
         <v>754</v>
       </c>
-      <c r="C71" s="4" t="s">
+      <c r="C71" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D71" s="4">
+      <c r="D71" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="4" t="s">
+      <c r="A72" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B72" s="3">
         <v>753.8</v>
       </c>
-      <c r="C72" s="4" t="s">
+      <c r="C72" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D72" s="4">
+      <c r="D72" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="4" t="s">
+      <c r="A73" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B73" s="3">
         <v>825.4</v>
       </c>
-      <c r="C73" s="4" t="s">
+      <c r="C73" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D73" s="4">
+      <c r="D73" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
+      <c r="A74" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B74" s="1">
+      <c r="B74" s="3">
         <v>63.75</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D74">
+      <c r="D74" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
+      <c r="A75" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B75" s="1">
+      <c r="B75" s="3">
         <v>0.34499999999999997</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D75">
+      <c r="D75" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
+      <c r="A76" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B76" s="1">
+      <c r="B76" s="3">
         <v>0.69</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D76">
+      <c r="D76" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
+      <c r="A77" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B77" s="1">
+      <c r="B77" s="3">
         <v>0.34499999999999997</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D77">
+      <c r="D77" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
+      <c r="A78" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B78" s="1">
+      <c r="B78" s="3">
         <v>0.34499999999999997</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D78">
+      <c r="D78" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
+      <c r="A79" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B79" s="1">
+      <c r="B79" s="3">
         <v>0.69</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C79" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D79">
+      <c r="D79" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
+      <c r="A80" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B80" s="1">
+      <c r="B80" s="3">
         <v>0.34499999999999997</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D80">
+      <c r="D80" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
+      <c r="A81" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B81" s="1">
+      <c r="B81" s="3">
         <v>101.35</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D81">
+      <c r="D81" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
+      <c r="A82" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B82" s="1">
+      <c r="B82" s="3">
         <v>4.5999999999999996</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C82" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D82">
+      <c r="D82" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
+      <c r="A83" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B83">
+      <c r="B83" s="3">
         <v>7.5</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C83" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D83">
+      <c r="D83" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
+      <c r="A84" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B84">
+      <c r="B84" s="3">
         <v>7.5</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C84" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D84">
+      <c r="D84" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
+      <c r="A85" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B85">
+      <c r="B85" s="3">
         <v>7.5</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C85" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="D85">
+      <c r="D85" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
+      <c r="A86" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B86">
+      <c r="B86" s="3">
         <v>7.5</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C86" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="D86">
+      <c r="D86" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
+      <c r="A87" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B87">
+      <c r="B87" s="3">
         <v>14</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C87" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D87">
+      <c r="D87" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
+      <c r="A88" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B88">
+      <c r="B88" s="3">
         <v>14</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C88" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D88">
+      <c r="D88" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
+      <c r="A89" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B89">
+      <c r="B89" s="3">
         <v>14</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C89" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D89">
+      <c r="D89" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
+      <c r="A90" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B90">
+      <c r="B90" s="3">
         <v>14</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C90" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D90">
+      <c r="D90" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
+      <c r="A91" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B91">
+      <c r="B91" s="3">
         <v>6.08</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C91" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D91">
+      <c r="D91" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
+      <c r="A92" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B92">
+      <c r="B92" s="3">
         <v>6.08</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C92" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D92">
+      <c r="D92" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" s="1" t="s">
+      <c r="A93" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B93">
+      <c r="B93" s="3">
         <v>552.9</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C93" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D93">
+      <c r="D93" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" s="1" t="s">
+      <c r="A94" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B94">
+      <c r="B94" s="3">
         <v>590.9</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C94" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D94">
+      <c r="D94" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" s="1" t="s">
+      <c r="A95" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B95">
+      <c r="B95" s="3">
         <v>550.29999999999995</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C95" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D95">
+      <c r="D95" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96" s="1" t="s">
+      <c r="A96" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B96">
+      <c r="B96" s="3">
         <v>588.29999999999995</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C96" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D96">
+      <c r="D96" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A97" s="1" t="s">
+      <c r="A97" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B97">
+      <c r="B97" s="3">
         <v>0.98</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C97" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D97">
+      <c r="D97" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A98" s="1" t="s">
+      <c r="A98" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B98">
+      <c r="B98" s="3">
         <v>0.7</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C98" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="D98">
+      <c r="D98" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A99" s="1" t="s">
+      <c r="A99" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B99" s="1">
+      <c r="B99" s="3">
         <v>0.55600000000000005</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C99" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D99" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B100">
+        <f>40482.89*2.33/60/1000</f>
+        <v>1.5720855616666667</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="D100" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="D99">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A100" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B100" s="1">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="C100" t="s">
-        <v>127</v>
-      </c>
-      <c r="D100">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A101" s="1" t="s">
+      <c r="B101" s="3">
+        <v>17.55</v>
+      </c>
+      <c r="C101" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B101" s="1">
-        <v>17.55</v>
-      </c>
-      <c r="C101" t="s">
+      <c r="D101" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="D101">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A102" s="1" t="s">
+      <c r="B102" s="3">
+        <v>141.69999999999999</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D102" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="B102">
+      <c r="B103" s="3">
         <v>141.69999999999999</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C103" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D103" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B104" s="3">
+        <v>141.69999999999999</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D104" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="D102">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A103" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B103">
-        <v>141.69999999999999</v>
-      </c>
-      <c r="C103" t="s">
-        <v>134</v>
-      </c>
-      <c r="D103">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A104" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B104">
-        <v>141.69999999999999</v>
-      </c>
-      <c r="C104" t="s">
-        <v>134</v>
-      </c>
-      <c r="D104">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A105" s="1" t="s">
+      <c r="B105" s="3">
+        <v>60.68</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D105" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B105" s="1">
+      <c r="B106" s="3">
         <v>60.68</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C106" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D106" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B107" s="3">
+        <v>60.68</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D107" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B108" s="3">
+        <v>60.68</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D108" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B109" s="3">
+        <v>60.68</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D109" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="D105">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A106" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B106" s="1">
-        <v>60.68</v>
-      </c>
-      <c r="C106" t="s">
-        <v>140</v>
-      </c>
-      <c r="D106">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A107" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B107" s="1">
-        <v>60.68</v>
-      </c>
-      <c r="C107" t="s">
-        <v>140</v>
-      </c>
-      <c r="D107">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A108" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B108" s="1">
-        <v>60.68</v>
-      </c>
-      <c r="C108" t="s">
-        <v>140</v>
-      </c>
-      <c r="D108">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A109" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B109" s="1">
-        <v>60.68</v>
-      </c>
-      <c r="C109" t="s">
-        <v>140</v>
-      </c>
-      <c r="D109">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A110" s="1" t="s">
+      <c r="B110" s="3">
+        <v>1642.8</v>
+      </c>
+      <c r="C110" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="B110">
-        <v>1642.8</v>
-      </c>
-      <c r="C110" t="s">
-        <v>142</v>
-      </c>
-      <c r="D110">
+      <c r="D110" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A111" s="1" t="s">
+      <c r="A111" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B111" s="3">
+        <v>14.5</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D111" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B111">
-        <v>14.5</v>
-      </c>
-      <c r="C111" t="s">
+      <c r="B112" s="3">
+        <v>13.8</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D112" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B113" s="3">
+        <v>17</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D113" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B114" s="3">
+        <v>9.4</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D114" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B115" s="3">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D115" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="D111">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A112" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B112">
-        <v>13.8</v>
-      </c>
-      <c r="C112" t="s">
-        <v>150</v>
-      </c>
-      <c r="D112">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A113" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B113">
-        <v>17</v>
-      </c>
-      <c r="C113" t="s">
-        <v>150</v>
-      </c>
-      <c r="D113">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A114" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B114" s="1">
-        <v>9.4</v>
-      </c>
-      <c r="C114" t="s">
-        <v>115</v>
-      </c>
-      <c r="D114">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A115" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B115" s="1">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="C115" t="s">
-        <v>115</v>
-      </c>
-      <c r="D115">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A116" s="1" t="s">
+      <c r="B116" s="3">
+        <v>530</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D116" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B116">
-        <v>530</v>
-      </c>
-      <c r="C116" t="s">
+      <c r="B117" s="3">
+        <v>2120</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D117" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A118" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="D116">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A117" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B117">
-        <v>2120</v>
-      </c>
-      <c r="C117" t="s">
-        <v>153</v>
-      </c>
-      <c r="D117">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A118" s="1" t="s">
+      <c r="B118" s="3">
+        <v>1012</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D118" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A119" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="B118">
+      <c r="B119" s="3">
         <v>1012</v>
       </c>
-      <c r="C118" t="s">
+      <c r="C119" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D119" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="D118">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A119" s="1" t="s">
+      <c r="B120" s="3">
+        <v>22</v>
+      </c>
+      <c r="C120" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="B119">
-        <v>1012</v>
-      </c>
-      <c r="C119" t="s">
-        <v>156</v>
-      </c>
-      <c r="D119">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A120" s="1" t="s">
+      <c r="D120" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="B120" s="1">
-        <v>22</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D120">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A121" s="1" t="s">
+      <c r="B121" s="3">
+        <v>56.7</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D121" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="B121">
+      <c r="B122" s="3">
+        <v>44.5</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D122" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A123" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B123" s="3">
         <v>56.7</v>
       </c>
-      <c r="C121" t="s">
+      <c r="C123" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D123" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A124" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B124" s="3">
+        <v>44.5</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D124" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A125" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B125" s="3">
+        <v>69</v>
+      </c>
+      <c r="C125" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="D121">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A122" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B122">
+      <c r="D125" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A126" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B126" s="3">
         <v>44.5</v>
       </c>
-      <c r="C122" t="s">
-        <v>168</v>
-      </c>
-      <c r="D122">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A123" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B123">
-        <v>56.7</v>
-      </c>
-      <c r="C123" t="s">
+      <c r="C126" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D126" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B127" s="3">
+        <v>69</v>
+      </c>
+      <c r="C127" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="D123">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A124" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B124">
+      <c r="D127" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A128" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B128" s="3">
         <v>44.5</v>
       </c>
-      <c r="C124" t="s">
-        <v>168</v>
-      </c>
-      <c r="D124">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A125" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B125">
-        <v>69</v>
-      </c>
-      <c r="C125" t="s">
+      <c r="C128" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="D125">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A126" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B126">
-        <v>44.5</v>
-      </c>
-      <c r="C126" t="s">
-        <v>168</v>
-      </c>
-      <c r="D126">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A127" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B127">
-        <v>69</v>
-      </c>
-      <c r="C127" t="s">
-        <v>167</v>
-      </c>
-      <c r="D127">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A128" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B128">
-        <v>44.5</v>
-      </c>
-      <c r="C128" t="s">
-        <v>168</v>
-      </c>
-      <c r="D128">
+      <c r="D128" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="B129">
+        <v>168</v>
+      </c>
+      <c r="B129" s="3">
         <v>14.5</v>
       </c>
-      <c r="C129" t="s">
-        <v>171</v>
-      </c>
-      <c r="D129">
+      <c r="C129" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D129" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B130" s="3">
+        <v>14.5</v>
+      </c>
+      <c r="C130" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="B130">
-        <v>14.5</v>
-      </c>
-      <c r="C130" t="s">
-        <v>171</v>
-      </c>
-      <c r="D130">
+      <c r="D130" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="B131">
+        <v>171</v>
+      </c>
+      <c r="B131" s="3">
         <v>12.8</v>
       </c>
-      <c r="C131" t="s">
-        <v>178</v>
-      </c>
-      <c r="D131">
+      <c r="C131" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D131" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="B132">
+        <v>172</v>
+      </c>
+      <c r="B132" s="3">
         <v>18.399999999999999</v>
       </c>
-      <c r="C132" t="s">
-        <v>179</v>
-      </c>
-      <c r="D132">
+      <c r="C132" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D132" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="B133" s="1">
+        <v>173</v>
+      </c>
+      <c r="B133" s="3">
         <v>12.8</v>
       </c>
-      <c r="C133" t="s">
-        <v>178</v>
-      </c>
-      <c r="D133">
+      <c r="C133" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D133" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="B134" s="1">
+        <v>174</v>
+      </c>
+      <c r="B134" s="3">
         <v>18.399999999999999</v>
       </c>
-      <c r="C134" t="s">
-        <v>179</v>
-      </c>
-      <c r="D134">
+      <c r="C134" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D134" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="B135">
+        <v>175</v>
+      </c>
+      <c r="B135" s="3">
         <v>25.6</v>
       </c>
-      <c r="C135" t="s">
-        <v>178</v>
-      </c>
-      <c r="D135">
+      <c r="C135" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D135" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="B136">
+        <v>176</v>
+      </c>
+      <c r="B136" s="3">
         <v>36.799999999999997</v>
       </c>
-      <c r="C136" t="s">
-        <v>179</v>
-      </c>
-      <c r="D136">
+      <c r="C136" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D136" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="B137">
+        <v>179</v>
+      </c>
+      <c r="B137" s="3">
         <v>8.83</v>
       </c>
-      <c r="C137" t="s">
-        <v>182</v>
-      </c>
-      <c r="D137">
+      <c r="C137" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D137" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B138" s="3">
+        <v>8.83</v>
+      </c>
+      <c r="C138" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="B138">
+      <c r="D138" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A139" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B139" s="3">
         <v>8.83</v>
       </c>
-      <c r="C138" t="s">
-        <v>182</v>
-      </c>
-      <c r="D138">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A139" s="4" t="s">
+      <c r="C139" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D139" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A140" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="B139">
+      <c r="B140" s="3">
         <v>8.83</v>
       </c>
-      <c r="C139" t="s">
-        <v>182</v>
-      </c>
-      <c r="D139">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A140" s="4" t="s">
+      <c r="C140" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D140" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A141" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B141" s="3">
+        <v>104</v>
+      </c>
+      <c r="C141" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="B140">
-        <v>8.83</v>
-      </c>
-      <c r="C140" t="s">
-        <v>182</v>
-      </c>
-      <c r="D140">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A141" s="4" t="s">
+      <c r="D141" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A142" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="B141">
+      <c r="B142" s="3">
         <v>104</v>
       </c>
-      <c r="C141" t="s">
-        <v>185</v>
-      </c>
-      <c r="D141">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A142" s="4" t="s">
+      <c r="C142" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D142" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A143" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B143" s="3">
+        <v>52.15</v>
+      </c>
+      <c r="C143" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="B142">
-        <v>104</v>
-      </c>
-      <c r="C142" t="s">
-        <v>185</v>
-      </c>
-      <c r="D142">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A143" s="4" t="s">
+      <c r="D143" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A144" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B144" s="3">
+        <v>145.1</v>
+      </c>
+      <c r="C144" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="B143">
-        <v>52.15</v>
-      </c>
-      <c r="C143" t="s">
-        <v>188</v>
-      </c>
-      <c r="D143">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A144" s="4" t="s">
+      <c r="D144" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A145" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="B144">
+      <c r="B145" s="3">
         <v>145.1</v>
       </c>
-      <c r="C144" t="s">
-        <v>190</v>
-      </c>
-      <c r="D144">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A145" s="4" t="s">
+      <c r="C145" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D145" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A146" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="B145">
-        <v>145.1</v>
-      </c>
-      <c r="C145" t="s">
-        <v>190</v>
-      </c>
-      <c r="D145">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A146" s="4" t="s">
+      <c r="B146" s="3">
+        <v>3135</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D146" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A147" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="B146" s="1">
+      <c r="B147" s="3">
         <v>3135</v>
       </c>
-      <c r="C146" t="s">
+      <c r="C147" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D147" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A148" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B148" s="3">
+        <v>6270</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D148" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A149" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="D146">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A147" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="B147" s="1">
+      <c r="B149" s="3">
         <v>3135</v>
       </c>
-      <c r="C147" t="s">
-        <v>196</v>
-      </c>
-      <c r="D147">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A148" s="4" t="s">
+      <c r="C149" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="B148">
-        <v>6270</v>
-      </c>
-      <c r="C148" t="s">
-        <v>196</v>
-      </c>
-      <c r="D148">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A149" s="4" t="s">
+      <c r="D149" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A150" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="B149" s="1">
+      <c r="B150" s="3">
         <v>3135</v>
       </c>
-      <c r="C149" t="s">
-        <v>196</v>
-      </c>
-      <c r="D149">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A150" s="4" t="s">
+      <c r="C150" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D150" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A151" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="B150">
-        <v>3135</v>
-      </c>
-      <c r="C150" t="s">
-        <v>196</v>
-      </c>
-      <c r="D150">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A151" s="4" t="s">
+      <c r="B151" s="3">
+        <v>105.8</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D151" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A152" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="B151" s="1">
+      <c r="B152" s="3">
         <v>105.8</v>
       </c>
-      <c r="C151" t="s">
+      <c r="C152" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D152" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A153" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B153" s="3">
+        <v>52.9</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D153" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A154" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B154" s="3">
+        <v>52.9</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D154" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A155" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B155" s="3">
+        <v>52.9</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D155" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A156" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B156" s="3">
+        <v>52.9</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D156" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A157" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B157" s="3">
+        <v>52.9</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D157" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A158" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B158" s="3">
+        <v>52.9</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D158" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A159" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B159" s="3">
+        <v>52.9</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D159" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A160" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B160" s="3">
+        <v>52.9</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D160" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A161" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B161" s="3">
+        <v>52.9</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D161" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A162" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B162" s="3">
+        <v>52.9</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D162" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A163" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="D151">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A152" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="B152" s="1">
-        <v>105.8</v>
-      </c>
-      <c r="C152" t="s">
-        <v>112</v>
-      </c>
-      <c r="D152">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A153" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="B153">
-        <v>52.9</v>
-      </c>
-      <c r="C153" t="s">
-        <v>211</v>
-      </c>
-      <c r="D153">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A154" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="B154">
-        <v>52.9</v>
-      </c>
-      <c r="C154" t="s">
-        <v>112</v>
-      </c>
-      <c r="D154">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A155" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B155">
-        <v>52.9</v>
-      </c>
-      <c r="C155" t="s">
-        <v>211</v>
-      </c>
-      <c r="D155">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A156" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="B156">
-        <v>52.9</v>
-      </c>
-      <c r="C156" t="s">
-        <v>112</v>
-      </c>
-      <c r="D156">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A157" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="B157">
-        <v>52.9</v>
-      </c>
-      <c r="C157" t="s">
-        <v>211</v>
-      </c>
-      <c r="D157">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A158" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="B158">
-        <v>52.9</v>
-      </c>
-      <c r="C158" t="s">
-        <v>112</v>
-      </c>
-      <c r="D158">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A159" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="B159">
-        <v>52.9</v>
-      </c>
-      <c r="C159" t="s">
-        <v>211</v>
-      </c>
-      <c r="D159">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A160" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="B160">
-        <v>52.9</v>
-      </c>
-      <c r="C160" t="s">
-        <v>112</v>
-      </c>
-      <c r="D160">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A161" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="B161">
-        <v>52.9</v>
-      </c>
-      <c r="C161" t="s">
-        <v>211</v>
-      </c>
-      <c r="D161">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A162" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="B162">
-        <v>52.9</v>
-      </c>
-      <c r="C162" t="s">
-        <v>112</v>
-      </c>
-      <c r="D162">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A163" s="4" t="s">
+      <c r="B163" s="3">
+        <v>3.15</v>
+      </c>
+      <c r="C163" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="B163">
-        <v>3.15</v>
-      </c>
-      <c r="C163" t="s">
+      <c r="D163" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A164" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="D163">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A164" s="4" t="s">
+      <c r="B164" s="3">
+        <v>439.3</v>
+      </c>
+      <c r="C164" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="B164">
-        <v>439.3</v>
-      </c>
-      <c r="C164" t="s">
+      <c r="D164" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A165" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="D164">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A165" s="4" t="s">
+      <c r="B165" s="3">
+        <v>56</v>
+      </c>
+      <c r="C165" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D165" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A166" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="B165">
+      <c r="B166" s="3">
         <v>56</v>
       </c>
-      <c r="C165" t="s">
+      <c r="C166" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D166" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A167" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="D165">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A166" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="B166">
-        <v>56</v>
-      </c>
-      <c r="C166" t="s">
-        <v>218</v>
-      </c>
-      <c r="D166">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A167" s="4" t="s">
+      <c r="B167" s="3">
+        <v>1.02</v>
+      </c>
+      <c r="C167" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="B167">
-        <v>1.02</v>
-      </c>
-      <c r="C167" t="s">
+      <c r="D167" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A168" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="D167">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A168" s="4" t="s">
+      <c r="B168" s="3">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="C168" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="B168">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="C168" t="s">
+      <c r="D168" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A169" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="D168">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A169" s="4" t="s">
+      <c r="B169" s="3">
+        <v>187.2</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D169" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A170" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="B169" s="1">
-        <v>187.2</v>
-      </c>
-      <c r="C169" t="s">
+      <c r="B170" s="3">
+        <v>78.2</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D170" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A171" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B171" s="3">
+        <v>92.4</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D171" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A172" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="B172" s="3">
+        <v>11</v>
+      </c>
+      <c r="C172" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="D169">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A170" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="B170">
-        <v>78.2</v>
-      </c>
-      <c r="C170" t="s">
-        <v>226</v>
-      </c>
-      <c r="D170">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A171" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="B171">
-        <v>92.4</v>
-      </c>
-      <c r="C171" t="s">
-        <v>226</v>
-      </c>
-      <c r="D171">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A172" s="4" t="s">
+      <c r="D172" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A173" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="B172" s="1">
-        <v>11</v>
-      </c>
-      <c r="C172" t="s">
-        <v>227</v>
-      </c>
-      <c r="D172">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A173" s="4" t="s">
+      <c r="B173" s="3">
+        <v>0.51</v>
+      </c>
+      <c r="C173" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="B173" s="1">
-        <v>0.51</v>
-      </c>
-      <c r="C173" t="s">
+      <c r="D173" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A174" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="D173">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A174" s="4" t="s">
+      <c r="B174" s="3">
+        <v>0.26</v>
+      </c>
+      <c r="C174" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D174" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A175" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="B174" s="1">
-        <v>0.26</v>
-      </c>
-      <c r="C174" t="s">
-        <v>230</v>
-      </c>
-      <c r="D174">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A175" s="4" t="s">
+      <c r="B175" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="D175" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A176" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="B175">
-        <v>0.5</v>
-      </c>
-      <c r="C175" t="s">
+      <c r="B176" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="C176" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="D176" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A177" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B177" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="C177" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="D177" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A178" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="D175">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A176" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="B176" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="C176" t="s">
-        <v>235</v>
-      </c>
-      <c r="D176">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A177" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="B177" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="C177" t="s">
-        <v>235</v>
-      </c>
-      <c r="D177">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A178" s="4" t="s">
+      <c r="B178" s="3">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="D178" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A179" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="B178">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="C178" t="s">
+      <c r="B179" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C179" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="D179" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A180" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B180" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C180" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="D180" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A181" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="D178">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A179" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="B179" s="1">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C179" t="s">
-        <v>239</v>
-      </c>
-      <c r="D179">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A180" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="B180" s="1">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C180" t="s">
-        <v>239</v>
-      </c>
-      <c r="D180">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A181" s="4" t="s">
+      <c r="B181" s="3">
+        <v>11.55</v>
+      </c>
+      <c r="C181" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="B181" s="1">
-        <v>11.55</v>
-      </c>
-      <c r="C181" t="s">
+      <c r="D181" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A182" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B182" s="3">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="C182" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="D181">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A182" s="4" t="s">
+      <c r="D182" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A183" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B183" s="3">
+        <v>82.6</v>
+      </c>
+      <c r="C183" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="B182">
-        <v>8.6999999999999994E-2</v>
-      </c>
-      <c r="C182" t="s">
-        <v>242</v>
-      </c>
-      <c r="D182">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A183" s="4" t="s">
+      <c r="D183" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A184" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="B183">
+      <c r="B184" s="3">
         <v>82.6</v>
       </c>
-      <c r="C183" t="s">
-        <v>244</v>
-      </c>
-      <c r="D183">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A184" s="4" t="s">
+      <c r="C184" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="D184" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A185" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="B184">
+      <c r="B185" s="3">
         <v>82.6</v>
       </c>
-      <c r="C184" t="s">
-        <v>244</v>
-      </c>
-      <c r="D184">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A185" s="4" t="s">
+      <c r="C185" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="D185" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A186" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B186" s="3">
+        <v>0.255</v>
+      </c>
+      <c r="C186" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="B185">
-        <v>82.6</v>
-      </c>
-      <c r="C185" t="s">
-        <v>244</v>
-      </c>
-      <c r="D185">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A186" s="4" t="s">
+      <c r="D186" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A187" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="B186">
-        <v>0.255</v>
-      </c>
-      <c r="C186" t="s">
-        <v>248</v>
-      </c>
-      <c r="D186">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A187" s="4" t="s">
+      <c r="B187" s="3">
+        <v>14.3</v>
+      </c>
+      <c r="C187" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="D187" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A188" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="B187">
+      <c r="B188" s="3">
         <v>14.3</v>
       </c>
-      <c r="C187" t="s">
+      <c r="C188" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="D188" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A189" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B189" s="3">
+        <v>533.79999999999995</v>
+      </c>
+      <c r="C189" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="D187">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A188" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="B188">
-        <v>14.3</v>
-      </c>
-      <c r="C188" t="s">
-        <v>252</v>
-      </c>
-      <c r="D188">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A189" s="4" t="s">
+      <c r="D189" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A190" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="B190" s="3">
+        <v>19.2</v>
+      </c>
+      <c r="C190" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="B189">
-        <v>533.79999999999995</v>
-      </c>
-      <c r="C189" t="s">
-        <v>253</v>
-      </c>
-      <c r="D189">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A190" s="4" t="s">
+      <c r="D190" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A191" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="B191" s="3">
+        <v>144</v>
+      </c>
+      <c r="C191" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="D191" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A192" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B192" s="3">
+        <v>144</v>
+      </c>
+      <c r="C192" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="D192" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A193" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="B193" s="3">
+        <v>144</v>
+      </c>
+      <c r="C193" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="D193" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A194" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="B194" s="3">
+        <v>144</v>
+      </c>
+      <c r="C194" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="D194" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A195" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B195" s="3">
+        <v>530</v>
+      </c>
+      <c r="C195" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="D195" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A196" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="B196" s="3">
+        <v>2120</v>
+      </c>
+      <c r="C196" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="D196" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A197" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="B197" s="3">
+        <v>6.8</v>
+      </c>
+      <c r="C197" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="D197" s="3">
+        <v>5</v>
+      </c>
+      <c r="E197" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>344</v>
+      </c>
+      <c r="B198" s="3">
+        <v>50.6</v>
+      </c>
+      <c r="C198" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="D198" s="3">
+        <v>5</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>345</v>
+      </c>
+      <c r="B199" s="3">
+        <v>50.6</v>
+      </c>
+      <c r="C199" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="D199" s="3">
+        <v>5</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>346</v>
+      </c>
+      <c r="B200" s="3">
+        <v>25.3</v>
+      </c>
+      <c r="C200" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="D200" s="3">
+        <v>5</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>347</v>
+      </c>
+      <c r="B201" s="3">
+        <v>25.3</v>
+      </c>
+      <c r="C201" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="D201" s="3">
+        <v>5</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>349</v>
+      </c>
+      <c r="B202" s="3">
+        <v>5.9050000000000002</v>
+      </c>
+      <c r="C202" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="D202" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>350</v>
+      </c>
+      <c r="B203" s="3">
+        <v>10.029999999999999</v>
+      </c>
+      <c r="C203" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="D203" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>354</v>
+      </c>
+      <c r="B204" s="3">
+        <v>0.37</v>
+      </c>
+      <c r="C204" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="D204" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>353</v>
+      </c>
+      <c r="B205" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="C205" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="D205" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
         <v>256</v>
       </c>
-      <c r="B190" s="1">
-        <v>19.2</v>
-      </c>
-      <c r="C190" t="s">
-        <v>255</v>
-      </c>
-      <c r="D190">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A191" s="4" t="s">
+      <c r="B206" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="C206" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="D206" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>257</v>
+      </c>
+      <c r="B207" s="3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C207" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="D207" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
         <v>258</v>
       </c>
-      <c r="B191">
-        <v>0.75</v>
-      </c>
-      <c r="C191" t="s">
-        <v>257</v>
-      </c>
-      <c r="D191">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A192" s="4" t="s">
+      <c r="B208" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="C208" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="D208" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
         <v>259</v>
       </c>
-      <c r="B192">
-        <v>0.75</v>
-      </c>
-      <c r="C192" t="s">
-        <v>257</v>
-      </c>
-      <c r="D192">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A193" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="B193">
-        <v>0.75</v>
-      </c>
-      <c r="C193" t="s">
-        <v>257</v>
-      </c>
-      <c r="D193">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A194" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="B194">
-        <v>0.75</v>
-      </c>
-      <c r="C194" t="s">
-        <v>257</v>
-      </c>
-      <c r="D194">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A195" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="B195" s="1">
-        <v>144</v>
-      </c>
-      <c r="C195" t="s">
-        <v>262</v>
-      </c>
-      <c r="D195">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A196" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="B196" s="1">
-        <v>144</v>
-      </c>
-      <c r="C196" t="s">
-        <v>262</v>
-      </c>
-      <c r="D196">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A197" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="B197" s="1">
-        <v>144</v>
-      </c>
-      <c r="C197" t="s">
-        <v>262</v>
-      </c>
-      <c r="D197">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A198" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="B198" s="1">
-        <v>144</v>
-      </c>
-      <c r="C198" t="s">
-        <v>262</v>
-      </c>
-      <c r="D198">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A199" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B199">
-        <v>530</v>
-      </c>
-      <c r="C199" t="s">
-        <v>269</v>
-      </c>
-      <c r="D199">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A200" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B200">
-        <v>2120</v>
-      </c>
-      <c r="C200" t="s">
-        <v>269</v>
-      </c>
-      <c r="D200">
+      <c r="B209" s="3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C209" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="D209" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>359</v>
+      </c>
+      <c r="B210" s="3">
+        <v>0.53</v>
+      </c>
+      <c r="C210" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="D210" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>361</v>
+      </c>
+      <c r="B211" s="3">
+        <v>2.8</v>
+      </c>
+      <c r="C211" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="D211" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>362</v>
+      </c>
+      <c r="B212" s="3">
+        <v>2.8</v>
+      </c>
+      <c r="C212" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="D212" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>363</v>
+      </c>
+      <c r="B213" s="3">
+        <v>2.8</v>
+      </c>
+      <c r="C213" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="D213" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>364</v>
+      </c>
+      <c r="B214" s="3">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="C214" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="D214" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>365</v>
+      </c>
+      <c r="B215" s="3">
+        <v>5.2</v>
+      </c>
+      <c r="C215" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="D215" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>366</v>
+      </c>
+      <c r="B216" s="3">
+        <v>2.7850000000000001</v>
+      </c>
+      <c r="C216" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="D216" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>368</v>
+      </c>
+      <c r="B217" s="3">
+        <v>3.3500000000000002E-2</v>
+      </c>
+      <c r="C217" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="D217" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>369</v>
+      </c>
+      <c r="B218">
+        <f>34206.84*17.3/60/1000</f>
+        <v>9.862972199999998</v>
+      </c>
+      <c r="C218" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="D218" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>370</v>
+      </c>
+      <c r="B219">
+        <f>125768.2*0.42/60/1000</f>
+        <v>0.88037739999999998</v>
+      </c>
+      <c r="C219" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="D219" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>371</v>
+      </c>
+      <c r="B220">
+        <f>125768.2*0.42/60/1000</f>
+        <v>0.88037739999999998</v>
+      </c>
+      <c r="C220" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="D220" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>378</v>
+      </c>
+      <c r="B221">
+        <v>18</v>
+      </c>
+      <c r="C221" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="D221" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>379</v>
+      </c>
+      <c r="B222">
+        <v>18</v>
+      </c>
+      <c r="C222" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="D222" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>381</v>
+      </c>
+      <c r="B223">
+        <v>2.0249999999999999</v>
+      </c>
+      <c r="C223" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="D223" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>382</v>
+      </c>
+      <c r="B224">
+        <v>2.0249999999999999</v>
+      </c>
+      <c r="C224" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="D224" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>383</v>
+      </c>
+      <c r="B225">
+        <f>55012.83*2.1/60/1000</f>
+        <v>1.9254490500000001</v>
+      </c>
+      <c r="C225" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="D225" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>384</v>
+      </c>
+      <c r="B226">
+        <f>55012.83*2.1/60/1000</f>
+        <v>1.9254490500000001</v>
+      </c>
+      <c r="C226" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="D226" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
+        <v>385</v>
+      </c>
+      <c r="B227">
+        <v>2.94</v>
+      </c>
+      <c r="C227" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="D227" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>387</v>
+      </c>
+      <c r="B228">
+        <v>1.845</v>
+      </c>
+      <c r="C228" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="D228" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A229" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="B229">
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="C229" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="D229" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A230" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="B230">
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="C230" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="D230" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
+        <v>392</v>
+      </c>
+      <c r="B231">
+        <v>1.97</v>
+      </c>
+      <c r="C231" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="D231" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
+        <v>393</v>
+      </c>
+      <c r="B232">
+        <v>1.97</v>
+      </c>
+      <c r="C232" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="D232" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
+        <v>394</v>
+      </c>
+      <c r="B233">
+        <v>1.97</v>
+      </c>
+      <c r="C233" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="D233" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
+        <v>395</v>
+      </c>
+      <c r="B234">
+        <v>1.97</v>
+      </c>
+      <c r="C234" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="D234" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
+        <v>396</v>
+      </c>
+      <c r="B235">
+        <v>1.97</v>
+      </c>
+      <c r="C235" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="D235" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
+        <v>397</v>
+      </c>
+      <c r="B236">
+        <v>1.97</v>
+      </c>
+      <c r="C236" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="D236" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
+        <v>398</v>
+      </c>
+      <c r="B237">
+        <v>1.97</v>
+      </c>
+      <c r="C237" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="D237" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A238" t="s">
+        <v>399</v>
+      </c>
+      <c r="B238">
+        <v>1.97</v>
+      </c>
+      <c r="C238" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="D238" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A239" t="s">
+        <v>400</v>
+      </c>
+      <c r="B239">
+        <v>1.97</v>
+      </c>
+      <c r="C239" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="D239" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A240" t="s">
+        <v>401</v>
+      </c>
+      <c r="B240">
+        <v>1.97</v>
+      </c>
+      <c r="C240" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="D240" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A241" t="s">
+        <v>402</v>
+      </c>
+      <c r="B241">
+        <v>1.97</v>
+      </c>
+      <c r="C241" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="D241" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A242" t="s">
+        <v>403</v>
+      </c>
+      <c r="B242">
+        <v>1.97</v>
+      </c>
+      <c r="C242" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="D242" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
+        <v>404</v>
+      </c>
+      <c r="B243">
+        <v>1.97</v>
+      </c>
+      <c r="C243" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="D243" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
+        <v>405</v>
+      </c>
+      <c r="B244">
+        <v>1.97</v>
+      </c>
+      <c r="C244" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="D244" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A245" t="s">
+        <v>406</v>
+      </c>
+      <c r="B245">
+        <v>1.97</v>
+      </c>
+      <c r="C245" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="D245" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A246" t="s">
+        <v>407</v>
+      </c>
+      <c r="B246">
+        <v>1.97</v>
+      </c>
+      <c r="C246" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="D246" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A247" t="s">
+        <v>408</v>
+      </c>
+      <c r="B247">
+        <v>1.97</v>
+      </c>
+      <c r="C247" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="D247" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
+        <v>409</v>
+      </c>
+      <c r="B248">
+        <v>1.97</v>
+      </c>
+      <c r="C248" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="D248" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A249" t="s">
+        <v>410</v>
+      </c>
+      <c r="B249">
+        <v>1.97</v>
+      </c>
+      <c r="C249" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="D249" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A250" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="B250">
+        <v>1.97</v>
+      </c>
+      <c r="C250" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="D250" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A251" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="B251">
+        <f>49017.93*2.3/60/1000</f>
+        <v>1.8790206499999997</v>
+      </c>
+      <c r="C251" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="D251" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A252" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="B252">
+        <f>49017.93*2.3/60/1000</f>
+        <v>1.8790206499999997</v>
+      </c>
+      <c r="C252" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="D252" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A253" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="B253">
+        <f>92776.75*15.4/60/1000</f>
+        <v>23.812699166666665</v>
+      </c>
+      <c r="C253" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="D253" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A254" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="B254">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C254" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="D254" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A255" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="B255">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C255" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="D255" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A256" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="B256">
+        <v>0.3</v>
+      </c>
+      <c r="C256" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="D256" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A257" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="B257">
+        <v>0.7</v>
+      </c>
+      <c r="C257" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="D257" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A258" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="B258">
+        <v>0.3</v>
+      </c>
+      <c r="C258" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="D258" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A259" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="B259">
+        <v>5</v>
+      </c>
+      <c r="C259" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="D259" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A260" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="B260">
+        <f>59702.26*0.73/60/1000/2</f>
+        <v>0.36318874833333331</v>
+      </c>
+      <c r="C260" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="D260" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A261" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="B261">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C261" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="D261" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A262" t="s">
+        <v>427</v>
+      </c>
+      <c r="B262">
+        <v>0.36449999999999999</v>
+      </c>
+      <c r="C262" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="D262" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A263" t="s">
+        <v>426</v>
+      </c>
+      <c r="B263">
+        <v>19.149999999999999</v>
+      </c>
+      <c r="C263" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="D263" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A264" t="s">
+        <v>428</v>
+      </c>
+      <c r="B264">
+        <f>93119.04*1.25/60/1000</f>
+        <v>1.9399799999999998</v>
+      </c>
+      <c r="C264" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="D264" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A265" t="s">
+        <v>429</v>
+      </c>
+      <c r="B265">
+        <f>93119.04*1.25/60/1000</f>
+        <v>1.9399799999999998</v>
+      </c>
+      <c r="C265" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="D265" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A266" t="s">
+        <v>432</v>
+      </c>
+      <c r="B266">
+        <f>2*0.3645</f>
+        <v>0.72899999999999998</v>
+      </c>
+      <c r="C266" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="D266" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A267" t="s">
+        <v>433</v>
+      </c>
+      <c r="B267">
+        <f>2*0.3645</f>
+        <v>0.72899999999999998</v>
+      </c>
+      <c r="C267" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="D267" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A268" t="s">
+        <v>437</v>
+      </c>
+      <c r="B268">
+        <v>0.3</v>
+      </c>
+      <c r="C268" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="D268" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A269" t="s">
+        <v>438</v>
+      </c>
+      <c r="B269">
+        <f>89191.2*0.447/60/1000</f>
+        <v>0.66447444</v>
+      </c>
+      <c r="C269" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="D269" s="3">
         <v>5</v>
       </c>
     </row>
@@ -4295,7 +5578,7 @@
         <v>73</v>
       </c>
       <c r="E1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -4306,30 +5589,30 @@
         <v>81</v>
       </c>
       <c r="C2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D2" t="s">
+        <v>273</v>
+      </c>
+      <c r="E2" t="s">
         <v>275</v>
-      </c>
-      <c r="E2" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>269</v>
+      </c>
+      <c r="B3" t="s">
         <v>271</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>270</v>
+      </c>
+      <c r="D3" t="s">
         <v>273</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>272</v>
-      </c>
-      <c r="D3" t="s">
-        <v>275</v>
-      </c>
-      <c r="E3" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -4337,16 +5620,16 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C4" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D4" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E4" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -4354,16 +5637,16 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C5" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E5" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -4371,118 +5654,118 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C6" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D6" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E6" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C7" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>284</v>
+      </c>
+      <c r="B8" t="s">
+        <v>287</v>
+      </c>
+      <c r="C8" t="s">
         <v>286</v>
       </c>
-      <c r="B8" t="s">
-        <v>289</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
+        <v>273</v>
+      </c>
+      <c r="E8" t="s">
         <v>288</v>
-      </c>
-      <c r="D8" t="s">
-        <v>275</v>
-      </c>
-      <c r="E8" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>292</v>
+      </c>
+      <c r="B9" t="s">
+        <v>293</v>
+      </c>
+      <c r="C9" s="2">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
         <v>294</v>
       </c>
-      <c r="B9" t="s">
-        <v>295</v>
-      </c>
-      <c r="C9" s="5">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>296</v>
-      </c>
       <c r="E9" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>285</v>
+      </c>
+      <c r="B10" t="s">
         <v>287</v>
       </c>
-      <c r="B10" t="s">
-        <v>289</v>
-      </c>
       <c r="C10" t="s">
+        <v>286</v>
+      </c>
+      <c r="D10" t="s">
+        <v>273</v>
+      </c>
+      <c r="E10" t="s">
         <v>288</v>
-      </c>
-      <c r="D10" t="s">
-        <v>275</v>
-      </c>
-      <c r="E10" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B11" t="s">
-        <v>295</v>
-      </c>
-      <c r="C11" s="5">
+        <v>293</v>
+      </c>
+      <c r="C11" s="2">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E11" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>289</v>
+      </c>
+      <c r="B12" t="s">
+        <v>290</v>
+      </c>
+      <c r="C12" t="s">
+        <v>286</v>
+      </c>
+      <c r="D12" t="s">
+        <v>273</v>
+      </c>
+      <c r="E12" t="s">
         <v>291</v>
-      </c>
-      <c r="B12" t="s">
-        <v>292</v>
-      </c>
-      <c r="C12" t="s">
-        <v>288</v>
-      </c>
-      <c r="D12" t="s">
-        <v>275</v>
-      </c>
-      <c r="E12" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -4490,16 +5773,16 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>296</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>300</v>
-      </c>
       <c r="D13" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E13" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -4507,16 +5790,16 @@
         <v>23</v>
       </c>
       <c r="B14" t="s">
+        <v>297</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="D14" t="s">
+        <v>273</v>
+      </c>
+      <c r="E14" t="s">
         <v>299</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="D14" t="s">
-        <v>275</v>
-      </c>
-      <c r="E14" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -4524,16 +5807,16 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>303</v>
-      </c>
-      <c r="C15" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D15" t="s">
+        <v>273</v>
+      </c>
+      <c r="E15" t="s">
         <v>307</v>
-      </c>
-      <c r="D15" t="s">
-        <v>275</v>
-      </c>
-      <c r="E15" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -4541,16 +5824,16 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>304</v>
-      </c>
-      <c r="C16" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D16" t="s">
+        <v>273</v>
+      </c>
+      <c r="E16" t="s">
         <v>307</v>
-      </c>
-      <c r="D16" t="s">
-        <v>275</v>
-      </c>
-      <c r="E16" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -4558,16 +5841,16 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
+        <v>303</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="D17" t="s">
+        <v>273</v>
+      </c>
+      <c r="E17" t="s">
         <v>307</v>
-      </c>
-      <c r="D17" t="s">
-        <v>275</v>
-      </c>
-      <c r="E17" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -4575,16 +5858,16 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>306</v>
-      </c>
-      <c r="C18" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D18" t="s">
+        <v>273</v>
+      </c>
+      <c r="E18" t="s">
         <v>307</v>
-      </c>
-      <c r="D18" t="s">
-        <v>275</v>
-      </c>
-      <c r="E18" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -4592,390 +5875,390 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>302</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>308</v>
+        <v>300</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>306</v>
       </c>
       <c r="D19" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E19" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>308</v>
+      </c>
+      <c r="B20" t="s">
         <v>310</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="D20" t="s">
+        <v>273</v>
+      </c>
+      <c r="E20" t="s">
         <v>312</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="D20" t="s">
-        <v>275</v>
-      </c>
-      <c r="E20" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>309</v>
+      </c>
+      <c r="B21" t="s">
+        <v>310</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="B21" t="s">
+      <c r="D21" t="s">
+        <v>273</v>
+      </c>
+      <c r="E21" t="s">
         <v>312</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="D21" t="s">
-        <v>275</v>
-      </c>
-      <c r="E21" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B22" t="s">
+        <v>317</v>
+      </c>
+      <c r="C22" t="s">
+        <v>270</v>
+      </c>
+      <c r="D22" t="s">
+        <v>273</v>
+      </c>
+      <c r="E22" t="s">
         <v>319</v>
-      </c>
-      <c r="C22" t="s">
-        <v>272</v>
-      </c>
-      <c r="D22" t="s">
-        <v>275</v>
-      </c>
-      <c r="E22" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B23" t="s">
-        <v>320</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>313</v>
+        <v>318</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>311</v>
       </c>
       <c r="D23" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E23" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>315</v>
+      </c>
+      <c r="B24" t="s">
         <v>317</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
+        <v>270</v>
+      </c>
+      <c r="D24" t="s">
+        <v>273</v>
+      </c>
+      <c r="E24" t="s">
         <v>319</v>
-      </c>
-      <c r="C24" t="s">
-        <v>272</v>
-      </c>
-      <c r="D24" t="s">
-        <v>275</v>
-      </c>
-      <c r="E24" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>316</v>
+      </c>
+      <c r="B25" t="s">
         <v>318</v>
       </c>
-      <c r="B25" t="s">
-        <v>320</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>313</v>
+      <c r="C25" s="2" t="s">
+        <v>311</v>
       </c>
       <c r="D25" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E25" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B26" t="s">
+        <v>325</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="D26" t="s">
+        <v>273</v>
+      </c>
+      <c r="E26" t="s">
         <v>327</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="D26" t="s">
-        <v>275</v>
-      </c>
-      <c r="E26" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B27" t="s">
+        <v>325</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="D27" t="s">
+        <v>273</v>
+      </c>
+      <c r="E27" t="s">
         <v>327</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="D27" t="s">
-        <v>275</v>
-      </c>
-      <c r="E27" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B28" t="s">
+        <v>325</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="D28" t="s">
+        <v>273</v>
+      </c>
+      <c r="E28" t="s">
         <v>327</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="D28" t="s">
-        <v>275</v>
-      </c>
-      <c r="E28" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>323</v>
+      </c>
+      <c r="B29" t="s">
         <v>325</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="D29" t="s">
+        <v>273</v>
+      </c>
+      <c r="E29" t="s">
         <v>327</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="D29" t="s">
-        <v>275</v>
-      </c>
-      <c r="E29" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>324</v>
+      </c>
+      <c r="B30" t="s">
+        <v>325</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="B30" t="s">
+      <c r="D30" t="s">
+        <v>273</v>
+      </c>
+      <c r="E30" t="s">
         <v>327</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="D30" t="s">
-        <v>275</v>
-      </c>
-      <c r="E30" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B31" t="s">
+        <v>335</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="D31" t="s">
+        <v>273</v>
+      </c>
+      <c r="E31" t="s">
         <v>337</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="D31" t="s">
-        <v>275</v>
-      </c>
-      <c r="E31" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B32" t="s">
+        <v>335</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="D32" t="s">
+        <v>273</v>
+      </c>
+      <c r="E32" t="s">
         <v>337</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="D32" t="s">
-        <v>275</v>
-      </c>
-      <c r="E32" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B33" t="s">
+        <v>335</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="D33" t="s">
+        <v>273</v>
+      </c>
+      <c r="E33" t="s">
         <v>337</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="D33" t="s">
-        <v>275</v>
-      </c>
-      <c r="E33" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B34" t="s">
-        <v>340</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>341</v>
+        <v>338</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>339</v>
       </c>
       <c r="D34" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E34" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B35" t="s">
+        <v>335</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="D35" t="s">
+        <v>273</v>
+      </c>
+      <c r="E35" t="s">
         <v>337</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="D35" t="s">
-        <v>275</v>
-      </c>
-      <c r="E35" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B36" t="s">
+        <v>335</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="D36" t="s">
+        <v>273</v>
+      </c>
+      <c r="E36" t="s">
         <v>337</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="D36" t="s">
-        <v>275</v>
-      </c>
-      <c r="E36" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B37" t="s">
+        <v>335</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="D37" t="s">
+        <v>273</v>
+      </c>
+      <c r="E37" t="s">
         <v>337</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="D37" t="s">
-        <v>275</v>
-      </c>
-      <c r="E37" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
+        <v>333</v>
+      </c>
+      <c r="B38" t="s">
         <v>335</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="D38" t="s">
+        <v>273</v>
+      </c>
+      <c r="E38" t="s">
         <v>337</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="D38" t="s">
-        <v>275</v>
-      </c>
-      <c r="E38" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>334</v>
+      </c>
+      <c r="B39" t="s">
+        <v>335</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="B39" t="s">
+      <c r="D39" t="s">
+        <v>273</v>
+      </c>
+      <c r="E39" t="s">
         <v>337</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="D39" t="s">
-        <v>275</v>
-      </c>
-      <c r="E39" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
+        <v>340</v>
+      </c>
+      <c r="B40" t="s">
+        <v>338</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="D40" t="s">
+        <v>273</v>
+      </c>
+      <c r="E40" t="s">
         <v>342</v>
-      </c>
-      <c r="B40" t="s">
-        <v>340</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="D40" t="s">
-        <v>275</v>
-      </c>
-      <c r="E40" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B41" t="s">
-        <v>340</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>341</v>
+        <v>338</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>339</v>
       </c>
       <c r="D41" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E41" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
   </sheetData>

--- a/Data/manual_update.xlsx
+++ b/Data/manual_update.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cheyu/Documents/GitHub/CofactorYeast/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18D90567-5FE2-314A-94A2-3793A6216938}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{335D3A07-86B9-7740-B05C-CE44D04FA3ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26540" yWindow="3740" windowWidth="23600" windowHeight="17540" xr2:uid="{0732DB2B-E664-7544-B4C9-5536E1206D06}"/>
+    <workbookView xWindow="-23340" yWindow="460" windowWidth="22020" windowHeight="20820" xr2:uid="{0732DB2B-E664-7544-B4C9-5536E1206D06}"/>
   </bookViews>
   <sheets>
     <sheet name="kcats" sheetId="3" r:id="rId1"/>
     <sheet name="stoichiometry" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="445">
   <si>
     <t>PMID: 11561293</t>
   </si>
@@ -1176,9 +1177,6 @@
     <t>r_0666_enzyme</t>
   </si>
   <si>
-    <t>Median of EC1.1.1.3X with matched substrate (nadph)</t>
-  </si>
-  <si>
     <t>r_0558_1_enzyme</t>
   </si>
   <si>
@@ -1357,13 +1355,28 @@
   </si>
   <si>
     <t>Median of EC4.4.1.X</t>
+  </si>
+  <si>
+    <t>Median of EC1.1.1.X with matched substrate (nadph)</t>
+  </si>
+  <si>
+    <t>Median of EC4.99.1.1 with matched substrate (iron(2+) &amp; protoporphyrin)</t>
+  </si>
+  <si>
+    <t>kcat of EC2.5.1.61 of Homo sapiens with matched substrate (porphobilinogen)</t>
+  </si>
+  <si>
+    <t>kcat of EC2.5.1.15 of bacillus anthracis with matched substrate (4-aminobenzoate)</t>
+  </si>
+  <si>
+    <t>Median of EC1.3.3.4 with matched substrate (protoporphyrinogen)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1384,20 +1397,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1412,14 +1424,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1734,10 +1750,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1417A95A-9A45-104E-81A0-44F5861A24E6}">
-  <dimension ref="A1:E269"/>
+  <dimension ref="A1:E261"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A246" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D266" sqref="D266:D269"/>
+    <sheetView tabSelected="1" topLeftCell="A224" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A257" sqref="A257:D261"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4493,13 +4509,13 @@
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B197" s="3">
         <v>6.8</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D197" s="3">
         <v>5</v>
@@ -4801,59 +4817,56 @@
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A218" t="s">
-        <v>369</v>
+      <c r="A218" s="7" t="s">
+        <v>378</v>
       </c>
       <c r="B218">
-        <f>34206.84*17.3/60/1000</f>
-        <v>9.862972199999998</v>
+        <v>18</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D218" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A219" t="s">
-        <v>370</v>
+      <c r="A219" s="7" t="s">
+        <v>379</v>
       </c>
       <c r="B219">
-        <f>125768.2*0.42/60/1000</f>
-        <v>0.88037739999999998</v>
+        <v>18</v>
       </c>
       <c r="C219" s="3" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D219" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A220" t="s">
-        <v>371</v>
+      <c r="A220" s="7" t="s">
+        <v>380</v>
       </c>
       <c r="B220">
-        <f>125768.2*0.42/60/1000</f>
-        <v>0.88037739999999998</v>
+        <v>3.44</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>372</v>
+        <v>440</v>
       </c>
       <c r="D220" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A221" t="s">
-        <v>378</v>
+      <c r="A221" s="7" t="s">
+        <v>381</v>
       </c>
       <c r="B221">
-        <v>18</v>
+        <v>3.44</v>
       </c>
       <c r="C221" s="3" t="s">
-        <v>373</v>
+        <v>440</v>
       </c>
       <c r="D221" s="3">
         <v>5</v>
@@ -4861,13 +4874,13 @@
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="B222">
-        <v>18</v>
+        <v>2.94</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
       <c r="D222" s="3">
         <v>5</v>
@@ -4875,169 +4888,170 @@
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="B223">
-        <v>2.0249999999999999</v>
+        <v>1.845</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="D223" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A224" t="s">
-        <v>382</v>
+      <c r="A224" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="B224">
-        <v>2.0249999999999999</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="C224" s="3" t="s">
-        <v>380</v>
+        <v>415</v>
       </c>
       <c r="D224" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A225" t="s">
-        <v>383</v>
+      <c r="A225" s="1" t="s">
+        <v>416</v>
       </c>
       <c r="B225">
-        <f>55012.83*2.1/60/1000</f>
-        <v>1.9254490500000001</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="C225" s="3" t="s">
-        <v>372</v>
+        <v>415</v>
       </c>
       <c r="D225" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A226" t="s">
-        <v>384</v>
+      <c r="A226" s="1" t="s">
+        <v>417</v>
       </c>
       <c r="B226">
-        <f>55012.83*2.1/60/1000</f>
-        <v>1.9254490500000001</v>
+        <v>0.3</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>372</v>
+        <v>418</v>
       </c>
       <c r="D226" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A227" t="s">
-        <v>385</v>
+      <c r="A227" s="4" t="s">
+        <v>421</v>
       </c>
       <c r="B227">
-        <v>2.94</v>
+        <f>0.25/4</f>
+        <v>6.25E-2</v>
       </c>
       <c r="C227" s="3" t="s">
-        <v>386</v>
+        <v>442</v>
       </c>
       <c r="D227" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A228" t="s">
-        <v>387</v>
+      <c r="A228" s="4" t="s">
+        <v>424</v>
       </c>
       <c r="B228">
-        <v>1.845</v>
+        <v>0.25374999999999998</v>
       </c>
       <c r="C228" s="3" t="s">
-        <v>388</v>
+        <v>444</v>
       </c>
       <c r="D228" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A229" s="4" t="s">
-        <v>389</v>
+      <c r="A229" s="1" t="s">
+        <v>426</v>
       </c>
       <c r="B229">
-        <v>0.45800000000000002</v>
+        <v>0.36449999999999999</v>
       </c>
       <c r="C229" s="3" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="D229" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A230" s="4" t="s">
-        <v>390</v>
+      <c r="A230" s="1" t="s">
+        <v>425</v>
       </c>
       <c r="B230">
-        <v>0.45800000000000002</v>
+        <v>19.149999999999999</v>
       </c>
       <c r="C230" s="3" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D230" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A231" t="s">
-        <v>392</v>
+      <c r="A231" s="10" t="s">
+        <v>427</v>
       </c>
       <c r="B231">
-        <v>1.97</v>
+        <v>0.109</v>
       </c>
       <c r="C231" s="3" t="s">
-        <v>391</v>
+        <v>443</v>
       </c>
       <c r="D231" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A232" t="s">
-        <v>393</v>
+      <c r="A232" s="10" t="s">
+        <v>428</v>
       </c>
       <c r="B232">
-        <v>1.97</v>
+        <v>0.109</v>
       </c>
       <c r="C232" s="3" t="s">
-        <v>391</v>
+        <v>443</v>
       </c>
       <c r="D232" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A233" t="s">
-        <v>394</v>
+      <c r="A233" s="1" t="s">
+        <v>431</v>
       </c>
       <c r="B233">
-        <v>1.97</v>
+        <f>2*0.3645</f>
+        <v>0.72899999999999998</v>
       </c>
       <c r="C233" s="3" t="s">
-        <v>391</v>
+        <v>433</v>
       </c>
       <c r="D233" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A234" t="s">
-        <v>395</v>
+      <c r="A234" s="1" t="s">
+        <v>432</v>
       </c>
       <c r="B234">
-        <v>1.97</v>
+        <f>2*0.3645</f>
+        <v>0.72899999999999998</v>
       </c>
       <c r="C234" s="3" t="s">
-        <v>391</v>
+        <v>433</v>
       </c>
       <c r="D234" s="3">
         <v>5</v>
@@ -5045,27 +5059,27 @@
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>396</v>
+        <v>436</v>
       </c>
       <c r="B235">
-        <v>1.97</v>
+        <v>0.3</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>391</v>
+        <v>418</v>
       </c>
       <c r="D235" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A236" t="s">
-        <v>397</v>
+      <c r="A236" s="7" t="s">
+        <v>437</v>
       </c>
       <c r="B236">
-        <v>1.97</v>
+        <v>8.1670000000000006E-2</v>
       </c>
       <c r="C236" s="3" t="s">
-        <v>391</v>
+        <v>441</v>
       </c>
       <c r="D236" s="3">
         <v>5</v>
@@ -5073,13 +5087,13 @@
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="B237">
         <v>1.97</v>
       </c>
       <c r="C237" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D237" s="3">
         <v>5</v>
@@ -5087,13 +5101,13 @@
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="B238">
         <v>1.97</v>
       </c>
       <c r="C238" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D238" s="3">
         <v>5</v>
@@ -5101,13 +5115,13 @@
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="B239">
         <v>1.97</v>
       </c>
       <c r="C239" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D239" s="3">
         <v>5</v>
@@ -5115,13 +5129,13 @@
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="B240">
         <v>1.97</v>
       </c>
       <c r="C240" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D240" s="3">
         <v>5</v>
@@ -5129,13 +5143,13 @@
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="B241">
         <v>1.97</v>
       </c>
       <c r="C241" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D241" s="3">
         <v>5</v>
@@ -5143,13 +5157,13 @@
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="B242">
         <v>1.97</v>
       </c>
       <c r="C242" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D242" s="3">
         <v>5</v>
@@ -5157,13 +5171,13 @@
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="B243">
         <v>1.97</v>
       </c>
       <c r="C243" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D243" s="3">
         <v>5</v>
@@ -5171,13 +5185,13 @@
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="B244">
         <v>1.97</v>
       </c>
       <c r="C244" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D244" s="3">
         <v>5</v>
@@ -5185,13 +5199,13 @@
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="B245">
         <v>1.97</v>
       </c>
       <c r="C245" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D245" s="3">
         <v>5</v>
@@ -5199,13 +5213,13 @@
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="B246">
         <v>1.97</v>
       </c>
       <c r="C246" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D246" s="3">
         <v>5</v>
@@ -5213,13 +5227,13 @@
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="B247">
         <v>1.97</v>
       </c>
       <c r="C247" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D247" s="3">
         <v>5</v>
@@ -5227,13 +5241,13 @@
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="B248">
         <v>1.97</v>
       </c>
       <c r="C248" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D248" s="3">
         <v>5</v>
@@ -5241,310 +5255,190 @@
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="B249">
         <v>1.97</v>
       </c>
       <c r="C249" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D249" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A250" s="5" t="s">
-        <v>411</v>
+      <c r="A250" t="s">
+        <v>404</v>
       </c>
       <c r="B250">
         <v>1.97</v>
       </c>
       <c r="C250" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D250" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A251" s="6" t="s">
-        <v>412</v>
+      <c r="A251" t="s">
+        <v>405</v>
       </c>
       <c r="B251">
-        <f>49017.93*2.3/60/1000</f>
-        <v>1.8790206499999997</v>
+        <v>1.97</v>
       </c>
       <c r="C251" s="3" t="s">
-        <v>372</v>
+        <v>390</v>
       </c>
       <c r="D251" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A252" s="6" t="s">
-        <v>413</v>
+      <c r="A252" t="s">
+        <v>406</v>
       </c>
       <c r="B252">
-        <f>49017.93*2.3/60/1000</f>
-        <v>1.8790206499999997</v>
+        <v>1.97</v>
       </c>
       <c r="C252" s="3" t="s">
-        <v>372</v>
+        <v>390</v>
       </c>
       <c r="D252" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A253" s="5" t="s">
-        <v>414</v>
+      <c r="A253" t="s">
+        <v>407</v>
       </c>
       <c r="B253">
-        <f>92776.75*15.4/60/1000</f>
-        <v>23.812699166666665</v>
+        <v>1.97</v>
       </c>
       <c r="C253" s="3" t="s">
-        <v>372</v>
+        <v>390</v>
       </c>
       <c r="D253" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A254" s="5" t="s">
+      <c r="A254" t="s">
+        <v>408</v>
+      </c>
+      <c r="B254">
+        <v>1.97</v>
+      </c>
+      <c r="C254" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="D254" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A255" t="s">
+        <v>409</v>
+      </c>
+      <c r="B255">
+        <v>1.97</v>
+      </c>
+      <c r="C255" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="D255" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A256" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="B256">
+        <v>1.97</v>
+      </c>
+      <c r="C256" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="D256" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A257" s="10" t="s">
+        <v>430</v>
+      </c>
+      <c r="B257">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C257" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="B254">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="C254" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="D254" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A255" s="5" t="s">
-        <v>417</v>
-      </c>
-      <c r="B255">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="C255" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="D255" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A256" s="5" t="s">
-        <v>418</v>
-      </c>
-      <c r="B256">
-        <v>0.3</v>
-      </c>
-      <c r="C256" s="3" t="s">
+      <c r="D257" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A258" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="B258">
+        <v>5</v>
+      </c>
+      <c r="C258" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="D258" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A259" s="9" t="s">
         <v>419</v>
       </c>
-      <c r="D256" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A257" s="5" t="s">
+      <c r="B259">
+        <v>0.7</v>
+      </c>
+      <c r="C259" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="B257">
-        <v>0.7</v>
-      </c>
-      <c r="C257" s="3" t="s">
-        <v>421</v>
-      </c>
-      <c r="D257" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A258" s="5" t="s">
-        <v>422</v>
-      </c>
-      <c r="B258">
-        <v>0.3</v>
-      </c>
-      <c r="C258" s="3" t="s">
-        <v>419</v>
-      </c>
-      <c r="D258" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A259" s="5" t="s">
-        <v>423</v>
-      </c>
-      <c r="B259">
-        <v>5</v>
-      </c>
-      <c r="C259" s="3" t="s">
-        <v>424</v>
-      </c>
       <c r="D259" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A260" s="5" t="s">
-        <v>425</v>
+      <c r="A260" s="8" t="s">
+        <v>388</v>
       </c>
       <c r="B260">
-        <f>59702.26*0.73/60/1000/2</f>
-        <v>0.36318874833333331</v>
+        <v>0.45800000000000002</v>
       </c>
       <c r="C260" s="3" t="s">
-        <v>372</v>
+        <v>435</v>
       </c>
       <c r="D260" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A261" s="5" t="s">
-        <v>431</v>
+      <c r="A261" s="8" t="s">
+        <v>389</v>
       </c>
       <c r="B261">
-        <v>5.0999999999999996</v>
+        <v>0.45800000000000002</v>
       </c>
       <c r="C261" s="3" t="s">
-        <v>416</v>
+        <v>435</v>
       </c>
       <c r="D261" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A262" t="s">
-        <v>427</v>
-      </c>
-      <c r="B262">
-        <v>0.36449999999999999</v>
-      </c>
-      <c r="C262" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="D262" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A263" t="s">
-        <v>426</v>
-      </c>
-      <c r="B263">
-        <v>19.149999999999999</v>
-      </c>
-      <c r="C263" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="D263" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A264" t="s">
-        <v>428</v>
-      </c>
-      <c r="B264">
-        <f>93119.04*1.25/60/1000</f>
-        <v>1.9399799999999998</v>
-      </c>
-      <c r="C264" s="3" t="s">
-        <v>430</v>
-      </c>
-      <c r="D264" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A265" t="s">
-        <v>429</v>
-      </c>
-      <c r="B265">
-        <f>93119.04*1.25/60/1000</f>
-        <v>1.9399799999999998</v>
-      </c>
-      <c r="C265" s="3" t="s">
-        <v>430</v>
-      </c>
-      <c r="D265" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A266" t="s">
-        <v>432</v>
-      </c>
-      <c r="B266">
-        <f>2*0.3645</f>
-        <v>0.72899999999999998</v>
-      </c>
-      <c r="C266" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="D266" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A267" t="s">
-        <v>433</v>
-      </c>
-      <c r="B267">
-        <f>2*0.3645</f>
-        <v>0.72899999999999998</v>
-      </c>
-      <c r="C267" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="D267" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A268" t="s">
-        <v>437</v>
-      </c>
-      <c r="B268">
-        <v>0.3</v>
-      </c>
-      <c r="C268" s="3" t="s">
-        <v>419</v>
-      </c>
-      <c r="D268" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A269" t="s">
-        <v>438</v>
-      </c>
-      <c r="B269">
-        <f>89191.2*0.447/60/1000</f>
-        <v>0.66447444</v>
-      </c>
-      <c r="C269" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="D269" s="3">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -6269,4 +6163,187 @@
     <ignoredError sqref="C20:C21 C23 C25" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBA5C896-468E-8848-B9F7-A46A5B71A943}">
+  <dimension ref="A30:D40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:D25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.1640625" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="41.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="10" t="s">
+        <v>427</v>
+      </c>
+      <c r="B30">
+        <f>93119.04*1.25/60/1000</f>
+        <v>1.9399799999999998</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="D30" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="10" t="s">
+        <v>428</v>
+      </c>
+      <c r="B31">
+        <f>93119.04*1.25/60/1000</f>
+        <v>1.9399799999999998</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="D31" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="B32">
+        <f>59702.26*0.73/60/1000/2</f>
+        <v>0.36318874833333331</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="B33">
+        <f>49017.93*2.3/60/1000</f>
+        <v>1.8790206499999997</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="D33" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="B34">
+        <f>49017.93*2.3/60/1000</f>
+        <v>1.8790206499999997</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="D34" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B35">
+        <f>92776.75*15.4/60/1000</f>
+        <v>23.812699166666665</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="D35" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="B36">
+        <f>55012.83*2.1/60/1000</f>
+        <v>1.9254490500000001</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="D36" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="B37">
+        <f>55012.83*2.1/60/1000</f>
+        <v>1.9254490500000001</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="D37" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>369</v>
+      </c>
+      <c r="B38">
+        <f>34206.84*17.3/60/1000</f>
+        <v>9.862972199999998</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="D38" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>370</v>
+      </c>
+      <c r="B39">
+        <f>125768.2*0.42/60/1000</f>
+        <v>0.88037739999999998</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="D39" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>371</v>
+      </c>
+      <c r="B40">
+        <f>125768.2*0.42/60/1000</f>
+        <v>0.88037739999999998</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="D40" s="3">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>
--- a/Data/manual_update.xlsx
+++ b/Data/manual_update.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cheyu/Documents/GitHub/CofactorYeast/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{335D3A07-86B9-7740-B05C-CE44D04FA3ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8002A88-0E77-CA45-A6A4-C6E93D667F9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23340" yWindow="460" windowWidth="22020" windowHeight="20820" xr2:uid="{0732DB2B-E664-7544-B4C9-5536E1206D06}"/>
+    <workbookView xWindow="-27760" yWindow="460" windowWidth="22020" windowHeight="20820" activeTab="2" xr2:uid="{0732DB2B-E664-7544-B4C9-5536E1206D06}"/>
   </bookViews>
   <sheets>
     <sheet name="kcats" sheetId="3" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="706">
   <si>
     <t>PMID: 11561293</t>
   </si>
@@ -1370,6 +1370,789 @@
   </si>
   <si>
     <t>Median of EC1.3.3.4 with matched substrate (protoporphyrinogen)</t>
+  </si>
+  <si>
+    <t>r_0362_1_enzyme</t>
+  </si>
+  <si>
+    <t>r_0362_2_enzyme</t>
+  </si>
+  <si>
+    <t>r_0362_3_enzyme</t>
+  </si>
+  <si>
+    <t>r_0362_4_enzyme</t>
+  </si>
+  <si>
+    <t>Median of EC2.4.1.X</t>
+  </si>
+  <si>
+    <t>r_0487_enzyme</t>
+  </si>
+  <si>
+    <t>Median of EC1.1.1.X with matched substrate (glycerol &amp; nadp+)</t>
+  </si>
+  <si>
+    <t>Median of EC1.2.1.X with matched substrate (nadph)</t>
+  </si>
+  <si>
+    <t>r_0473_enzyme</t>
+  </si>
+  <si>
+    <t>Median of EC6.3.4.X with matched substrate (atp)</t>
+  </si>
+  <si>
+    <t>r_0208_fwd_enzyme</t>
+  </si>
+  <si>
+    <t>r_2154_enzyme</t>
+  </si>
+  <si>
+    <t>r_2155_enzyme</t>
+  </si>
+  <si>
+    <t>r_2156_enzyme</t>
+  </si>
+  <si>
+    <t>r_2157_1_enzyme</t>
+  </si>
+  <si>
+    <t>r_2157_2_enzyme</t>
+  </si>
+  <si>
+    <t>r_2158_1_enzyme</t>
+  </si>
+  <si>
+    <t>r_2158_2_enzyme</t>
+  </si>
+  <si>
+    <t>r_2159_1_enzyme</t>
+  </si>
+  <si>
+    <t>r_2159_2_enzyme</t>
+  </si>
+  <si>
+    <t>r_2160_enzyme</t>
+  </si>
+  <si>
+    <t>Median of EC2.3.1.X with matched substrate (malonyl-coa)</t>
+  </si>
+  <si>
+    <t>r_2168_fwd_enzyme</t>
+  </si>
+  <si>
+    <t>r_2168_rvs_enzyme</t>
+  </si>
+  <si>
+    <t>r_2169_fwd_enzyme</t>
+  </si>
+  <si>
+    <t>r_2169_rvs_enzyme</t>
+  </si>
+  <si>
+    <t>r_2170_fwd_enzyme</t>
+  </si>
+  <si>
+    <t>r_2170_rvs_enzyme</t>
+  </si>
+  <si>
+    <t>r_2171_fwd_enzyme</t>
+  </si>
+  <si>
+    <t>r_2171_rvs_enzyme</t>
+  </si>
+  <si>
+    <t>r_2172_fwd_enzyme</t>
+  </si>
+  <si>
+    <t>r_2172_rvs_enzyme</t>
+  </si>
+  <si>
+    <t>r_2173_fwd_enzyme</t>
+  </si>
+  <si>
+    <t>r_2173_rvs_enzyme</t>
+  </si>
+  <si>
+    <t>r_2174_fwd_enzyme</t>
+  </si>
+  <si>
+    <t>r_2174_rvs_enzyme</t>
+  </si>
+  <si>
+    <t>Median of EC4.2.1.X</t>
+  </si>
+  <si>
+    <t>r_2175_enzyme</t>
+  </si>
+  <si>
+    <t>r_2176_enzyme</t>
+  </si>
+  <si>
+    <t>r_2177_enzyme</t>
+  </si>
+  <si>
+    <t>r_2178_enzyme</t>
+  </si>
+  <si>
+    <t>r_2179_enzyme</t>
+  </si>
+  <si>
+    <t>r_2180_enzyme</t>
+  </si>
+  <si>
+    <t>r_2181_enzyme</t>
+  </si>
+  <si>
+    <t>Median of EC1.3.1.X with matched substrate (nadph)</t>
+  </si>
+  <si>
+    <t>r_0231_enzyme</t>
+  </si>
+  <si>
+    <t>r_0234_enzyme</t>
+  </si>
+  <si>
+    <t>Median of EC1.1.1.X with matched substrate (nadp+)</t>
+  </si>
+  <si>
+    <t>r_0235_enzyme</t>
+  </si>
+  <si>
+    <t>Median of EC1.1.1.X with matched substrate (nad)</t>
+  </si>
+  <si>
+    <t>r_0244_enzyme</t>
+  </si>
+  <si>
+    <t>Median of EC5.4.99.X</t>
+  </si>
+  <si>
+    <t>r_0698_enzyme</t>
+  </si>
+  <si>
+    <t>r_2332_enzyme</t>
+  </si>
+  <si>
+    <t>r_2333_1_enzyme</t>
+  </si>
+  <si>
+    <t>r_2333_2_enzyme</t>
+  </si>
+  <si>
+    <t>r_2334_enzyme</t>
+  </si>
+  <si>
+    <t>r_2335_1_enzyme</t>
+  </si>
+  <si>
+    <t>r_2335_2_enzyme</t>
+  </si>
+  <si>
+    <t>r_2336_enzyme</t>
+  </si>
+  <si>
+    <t>r_2337_1_enzyme</t>
+  </si>
+  <si>
+    <t>r_2337_2_enzyme</t>
+  </si>
+  <si>
+    <t>r_2338_enzyme</t>
+  </si>
+  <si>
+    <t>r_2339_1_enzyme</t>
+  </si>
+  <si>
+    <t>r_2339_2_enzyme</t>
+  </si>
+  <si>
+    <t>r_2446_enzyme</t>
+  </si>
+  <si>
+    <t>r_2447_enzyme</t>
+  </si>
+  <si>
+    <t>r_2448_enzyme</t>
+  </si>
+  <si>
+    <t>r_2449_enzyme</t>
+  </si>
+  <si>
+    <t>r_2450_enzyme</t>
+  </si>
+  <si>
+    <t>r_2451_enzyme</t>
+  </si>
+  <si>
+    <t>r_2452_enzyme</t>
+  </si>
+  <si>
+    <t>r_2453_enzyme</t>
+  </si>
+  <si>
+    <t>r_2454_enzyme</t>
+  </si>
+  <si>
+    <t>r_2455_enzyme</t>
+  </si>
+  <si>
+    <t>r_2456_enzyme</t>
+  </si>
+  <si>
+    <t>r_2457_enzyme</t>
+  </si>
+  <si>
+    <t>r_2458_enzyme</t>
+  </si>
+  <si>
+    <t>r_2459_enzyme</t>
+  </si>
+  <si>
+    <t>r_2460_enzyme</t>
+  </si>
+  <si>
+    <t>r_2461_enzyme</t>
+  </si>
+  <si>
+    <t>Median of EC2.7.8.X</t>
+  </si>
+  <si>
+    <t>r_0015_enzyme</t>
+  </si>
+  <si>
+    <t>r_0126_fwd_enzyme</t>
+  </si>
+  <si>
+    <t>r_0126_rvs_enzyme</t>
+  </si>
+  <si>
+    <t>r_0127_1_fwd_enzyme</t>
+  </si>
+  <si>
+    <t>r_0127_1_rvs_enzyme</t>
+  </si>
+  <si>
+    <t>r_0127_2_fwd_enzyme</t>
+  </si>
+  <si>
+    <t>r_0127_2_rvs_enzyme</t>
+  </si>
+  <si>
+    <t>r_0128_fwd_enzyme</t>
+  </si>
+  <si>
+    <t>r_0128_rvs_enzyme</t>
+  </si>
+  <si>
+    <t>r_0129_fwd_enzyme</t>
+  </si>
+  <si>
+    <t>r_0129_rvs_enzyme</t>
+  </si>
+  <si>
+    <t>r_0130_fwd_enzyme</t>
+  </si>
+  <si>
+    <t>r_0130_rvs_enzyme</t>
+  </si>
+  <si>
+    <t>r_0131_fwd_enzyme</t>
+  </si>
+  <si>
+    <t>r_0131_rvs_enzyme</t>
+  </si>
+  <si>
+    <t>r_0132_1_fwd_enzyme</t>
+  </si>
+  <si>
+    <t>r_0132_1_rvs_enzyme</t>
+  </si>
+  <si>
+    <t>r_0132_2_fwd_enzyme</t>
+  </si>
+  <si>
+    <t>r_0132_2_rvs_enzyme</t>
+  </si>
+  <si>
+    <t>r_0133_fwd_enzyme</t>
+  </si>
+  <si>
+    <t>r_0133_rvs_enzyme</t>
+  </si>
+  <si>
+    <t>r_0134_fwd_enzyme</t>
+  </si>
+  <si>
+    <t>r_0134_rvs_enzyme</t>
+  </si>
+  <si>
+    <t>r_0135_fwd_enzyme</t>
+  </si>
+  <si>
+    <t>r_0135_rvs_enzyme</t>
+  </si>
+  <si>
+    <t>Median of EC2.3.1.X with matched substrate (coa)</t>
+  </si>
+  <si>
+    <t>r_2368_1_enzyme</t>
+  </si>
+  <si>
+    <t>r_2368_2_enzyme</t>
+  </si>
+  <si>
+    <t>r_2368_3_enzyme</t>
+  </si>
+  <si>
+    <t>r_2369_1_enzyme</t>
+  </si>
+  <si>
+    <t>r_2369_2_enzyme</t>
+  </si>
+  <si>
+    <t>r_2369_3_enzyme</t>
+  </si>
+  <si>
+    <t>r_2370_1_enzyme</t>
+  </si>
+  <si>
+    <t>r_2370_2_enzyme</t>
+  </si>
+  <si>
+    <t>r_2370_3_enzyme</t>
+  </si>
+  <si>
+    <t>r_2371_1_enzyme</t>
+  </si>
+  <si>
+    <t>r_2371_2_enzyme</t>
+  </si>
+  <si>
+    <t>r_2371_3_enzyme</t>
+  </si>
+  <si>
+    <t>r_2372_1_enzyme</t>
+  </si>
+  <si>
+    <t>r_2372_2_enzyme</t>
+  </si>
+  <si>
+    <t>r_2372_3_enzyme</t>
+  </si>
+  <si>
+    <t>r_2373_1_enzyme</t>
+  </si>
+  <si>
+    <t>r_2373_2_enzyme</t>
+  </si>
+  <si>
+    <t>r_2373_3_enzyme</t>
+  </si>
+  <si>
+    <t>r_2374_1_enzyme</t>
+  </si>
+  <si>
+    <t>r_2374_2_enzyme</t>
+  </si>
+  <si>
+    <t>r_2374_3_enzyme</t>
+  </si>
+  <si>
+    <t>r_2375_1_enzyme</t>
+  </si>
+  <si>
+    <t>r_2375_2_enzyme</t>
+  </si>
+  <si>
+    <t>r_2375_3_enzyme</t>
+  </si>
+  <si>
+    <t>r_2376_1_enzyme</t>
+  </si>
+  <si>
+    <t>r_2376_2_enzyme</t>
+  </si>
+  <si>
+    <t>r_2376_3_enzyme</t>
+  </si>
+  <si>
+    <t>r_2377_1_enzyme</t>
+  </si>
+  <si>
+    <t>r_2377_2_enzyme</t>
+  </si>
+  <si>
+    <t>r_2377_3_enzyme</t>
+  </si>
+  <si>
+    <t>r_2378_1_enzyme</t>
+  </si>
+  <si>
+    <t>r_2378_2_enzyme</t>
+  </si>
+  <si>
+    <t>r_2378_3_enzyme</t>
+  </si>
+  <si>
+    <t>r_2379_1_enzyme</t>
+  </si>
+  <si>
+    <t>r_2379_2_enzyme</t>
+  </si>
+  <si>
+    <t>r_2379_3_enzyme</t>
+  </si>
+  <si>
+    <t>r_2380_1_enzyme</t>
+  </si>
+  <si>
+    <t>r_2380_2_enzyme</t>
+  </si>
+  <si>
+    <t>r_2380_3_enzyme</t>
+  </si>
+  <si>
+    <t>r_2381_1_enzyme</t>
+  </si>
+  <si>
+    <t>r_2381_2_enzyme</t>
+  </si>
+  <si>
+    <t>r_2381_3_enzyme</t>
+  </si>
+  <si>
+    <t>r_2382_1_enzyme</t>
+  </si>
+  <si>
+    <t>r_2382_2_enzyme</t>
+  </si>
+  <si>
+    <t>r_2382_3_enzyme</t>
+  </si>
+  <si>
+    <t>r_2383_1_enzyme</t>
+  </si>
+  <si>
+    <t>r_2383_2_enzyme</t>
+  </si>
+  <si>
+    <t>r_2383_3_enzyme</t>
+  </si>
+  <si>
+    <t>r_2384_1_enzyme</t>
+  </si>
+  <si>
+    <t>r_2384_2_enzyme</t>
+  </si>
+  <si>
+    <t>r_2384_3_enzyme</t>
+  </si>
+  <si>
+    <t>r_2385_1_enzyme</t>
+  </si>
+  <si>
+    <t>r_2385_2_enzyme</t>
+  </si>
+  <si>
+    <t>r_2385_3_enzyme</t>
+  </si>
+  <si>
+    <t>r_2386_1_enzyme</t>
+  </si>
+  <si>
+    <t>r_2386_2_enzyme</t>
+  </si>
+  <si>
+    <t>r_2386_3_enzyme</t>
+  </si>
+  <si>
+    <t>r_2387_1_enzyme</t>
+  </si>
+  <si>
+    <t>r_2387_2_enzyme</t>
+  </si>
+  <si>
+    <t>r_2387_3_enzyme</t>
+  </si>
+  <si>
+    <t>r_2388_1_enzyme</t>
+  </si>
+  <si>
+    <t>r_2388_2_enzyme</t>
+  </si>
+  <si>
+    <t>r_2388_3_enzyme</t>
+  </si>
+  <si>
+    <t>r_2389_1_enzyme</t>
+  </si>
+  <si>
+    <t>r_2389_2_enzyme</t>
+  </si>
+  <si>
+    <t>r_2389_3_enzyme</t>
+  </si>
+  <si>
+    <t>r_2390_1_enzyme</t>
+  </si>
+  <si>
+    <t>r_2390_2_enzyme</t>
+  </si>
+  <si>
+    <t>r_2390_3_enzyme</t>
+  </si>
+  <si>
+    <t>r_2391_1_enzyme</t>
+  </si>
+  <si>
+    <t>r_2391_2_enzyme</t>
+  </si>
+  <si>
+    <t>r_2391_3_enzyme</t>
+  </si>
+  <si>
+    <t>r_2392_1_enzyme</t>
+  </si>
+  <si>
+    <t>r_2392_2_enzyme</t>
+  </si>
+  <si>
+    <t>r_2392_3_enzyme</t>
+  </si>
+  <si>
+    <t>r_2393_1_enzyme</t>
+  </si>
+  <si>
+    <t>r_2393_2_enzyme</t>
+  </si>
+  <si>
+    <t>r_2393_3_enzyme</t>
+  </si>
+  <si>
+    <t>r_2394_1_enzyme</t>
+  </si>
+  <si>
+    <t>r_2394_2_enzyme</t>
+  </si>
+  <si>
+    <t>r_2394_3_enzyme</t>
+  </si>
+  <si>
+    <t>r_2395_1_enzyme</t>
+  </si>
+  <si>
+    <t>r_2395_2_enzyme</t>
+  </si>
+  <si>
+    <t>r_2395_3_enzyme</t>
+  </si>
+  <si>
+    <t>r_2396_1_enzyme</t>
+  </si>
+  <si>
+    <t>r_2396_2_enzyme</t>
+  </si>
+  <si>
+    <t>r_2396_3_enzyme</t>
+  </si>
+  <si>
+    <t>r_2397_1_enzyme</t>
+  </si>
+  <si>
+    <t>r_2397_2_enzyme</t>
+  </si>
+  <si>
+    <t>r_2397_3_enzyme</t>
+  </si>
+  <si>
+    <t>r_2398_1_enzyme</t>
+  </si>
+  <si>
+    <t>r_2398_2_enzyme</t>
+  </si>
+  <si>
+    <t>r_2398_3_enzyme</t>
+  </si>
+  <si>
+    <t>r_2399_1_enzyme</t>
+  </si>
+  <si>
+    <t>r_2399_2_enzyme</t>
+  </si>
+  <si>
+    <t>r_2399_3_enzyme</t>
+  </si>
+  <si>
+    <t>r_2464_enzyme</t>
+  </si>
+  <si>
+    <t>r_2465_enzyme</t>
+  </si>
+  <si>
+    <t>r_2466_enzyme</t>
+  </si>
+  <si>
+    <t>r_2467_enzyme</t>
+  </si>
+  <si>
+    <t>r_2468_enzyme</t>
+  </si>
+  <si>
+    <t>r_2469_enzyme</t>
+  </si>
+  <si>
+    <t>r_2470_enzyme</t>
+  </si>
+  <si>
+    <t>r_2471_enzyme</t>
+  </si>
+  <si>
+    <t>r_2472_enzyme</t>
+  </si>
+  <si>
+    <t>r_2473_enzyme</t>
+  </si>
+  <si>
+    <t>r_2474_enzyme</t>
+  </si>
+  <si>
+    <t>r_2475_enzyme</t>
+  </si>
+  <si>
+    <t>r_2476_enzyme</t>
+  </si>
+  <si>
+    <t>r_2477_enzyme</t>
+  </si>
+  <si>
+    <t>r_2478_enzyme</t>
+  </si>
+  <si>
+    <t>r_2479_enzyme</t>
+  </si>
+  <si>
+    <t>r_2480_enzyme</t>
+  </si>
+  <si>
+    <t>r_2481_enzyme</t>
+  </si>
+  <si>
+    <t>r_2482_enzyme</t>
+  </si>
+  <si>
+    <t>r_2483_enzyme</t>
+  </si>
+  <si>
+    <t>r_2484_enzyme</t>
+  </si>
+  <si>
+    <t>r_2485_enzyme</t>
+  </si>
+  <si>
+    <t>r_2486_enzyme</t>
+  </si>
+  <si>
+    <t>r_2487_enzyme</t>
+  </si>
+  <si>
+    <t>r_2488_1_enzyme</t>
+  </si>
+  <si>
+    <t>r_2488_2_enzyme</t>
+  </si>
+  <si>
+    <t>r_2489_1_enzyme</t>
+  </si>
+  <si>
+    <t>r_2489_2_enzyme</t>
+  </si>
+  <si>
+    <t>r_2490_1_enzyme</t>
+  </si>
+  <si>
+    <t>r_2490_2_enzyme</t>
+  </si>
+  <si>
+    <t>r_2491_1_enzyme</t>
+  </si>
+  <si>
+    <t>r_2491_2_enzyme</t>
+  </si>
+  <si>
+    <t>r_2492_1_enzyme</t>
+  </si>
+  <si>
+    <t>r_2492_2_enzyme</t>
+  </si>
+  <si>
+    <t>r_2493_1_enzyme</t>
+  </si>
+  <si>
+    <t>r_2493_2_enzyme</t>
+  </si>
+  <si>
+    <t>r_2494_1_enzyme</t>
+  </si>
+  <si>
+    <t>r_2494_2_enzyme</t>
+  </si>
+  <si>
+    <t>r_2495_1_enzyme</t>
+  </si>
+  <si>
+    <t>r_2495_2_enzyme</t>
+  </si>
+  <si>
+    <t>r_2496_enzyme</t>
+  </si>
+  <si>
+    <t>r_2497_enzyme</t>
+  </si>
+  <si>
+    <t>r_2498_enzyme</t>
+  </si>
+  <si>
+    <t>r_2499_enzyme</t>
+  </si>
+  <si>
+    <t>r_2500_enzyme</t>
+  </si>
+  <si>
+    <t>r_2501_enzyme</t>
+  </si>
+  <si>
+    <t>r_2502_enzyme</t>
+  </si>
+  <si>
+    <t>r_2503_enzyme</t>
+  </si>
+  <si>
+    <t>r_2504_enzyme</t>
+  </si>
+  <si>
+    <t>r_2505_enzyme</t>
+  </si>
+  <si>
+    <t>r_2506_enzyme</t>
+  </si>
+  <si>
+    <t>r_2507_enzyme</t>
+  </si>
+  <si>
+    <t>r_2508_enzyme</t>
+  </si>
+  <si>
+    <t>r_2509_enzyme</t>
+  </si>
+  <si>
+    <t>r_2510_enzyme</t>
+  </si>
+  <si>
+    <t>r_2511_enzyme</t>
+  </si>
+  <si>
+    <t>Median of EC2.1.1.X with matched substrate (s-adenosyl-l-methionine)</t>
   </si>
 </sst>
 </file>
@@ -1750,10 +2533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1417A95A-9A45-104E-81A0-44F5861A24E6}">
-  <dimension ref="A1:E261"/>
+  <dimension ref="A1:E509"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A224" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A257" sqref="A257:D261"/>
+    <sheetView topLeftCell="A216" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A228" sqref="A228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5432,6 +6215,3478 @@
         <v>435</v>
       </c>
       <c r="D261" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A262" t="s">
+        <v>445</v>
+      </c>
+      <c r="B262">
+        <v>6.7249999999999996</v>
+      </c>
+      <c r="C262" t="s">
+        <v>449</v>
+      </c>
+      <c r="D262">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A263" t="s">
+        <v>446</v>
+      </c>
+      <c r="B263">
+        <v>6.7249999999999996</v>
+      </c>
+      <c r="C263" t="s">
+        <v>449</v>
+      </c>
+      <c r="D263">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A264" t="s">
+        <v>447</v>
+      </c>
+      <c r="B264">
+        <v>6.7249999999999996</v>
+      </c>
+      <c r="C264" t="s">
+        <v>449</v>
+      </c>
+      <c r="D264">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A265" t="s">
+        <v>448</v>
+      </c>
+      <c r="B265">
+        <v>6.7249999999999996</v>
+      </c>
+      <c r="C265" t="s">
+        <v>449</v>
+      </c>
+      <c r="D265">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A266" t="s">
+        <v>450</v>
+      </c>
+      <c r="B266">
+        <v>22.45</v>
+      </c>
+      <c r="C266" t="s">
+        <v>451</v>
+      </c>
+      <c r="D266">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A267" t="s">
+        <v>453</v>
+      </c>
+      <c r="B267">
+        <v>79.599999999999994</v>
+      </c>
+      <c r="C267" t="s">
+        <v>452</v>
+      </c>
+      <c r="D267">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A268" t="s">
+        <v>455</v>
+      </c>
+      <c r="B268">
+        <v>1.23</v>
+      </c>
+      <c r="C268" t="s">
+        <v>454</v>
+      </c>
+      <c r="D268">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A269" t="s">
+        <v>456</v>
+      </c>
+      <c r="B269">
+        <v>0.35</v>
+      </c>
+      <c r="C269" t="s">
+        <v>466</v>
+      </c>
+      <c r="D269">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A270" t="s">
+        <v>457</v>
+      </c>
+      <c r="B270">
+        <v>0.35</v>
+      </c>
+      <c r="C270" t="s">
+        <v>466</v>
+      </c>
+      <c r="D270">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A271" t="s">
+        <v>458</v>
+      </c>
+      <c r="B271">
+        <v>0.35</v>
+      </c>
+      <c r="C271" t="s">
+        <v>466</v>
+      </c>
+      <c r="D271">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A272" t="s">
+        <v>459</v>
+      </c>
+      <c r="B272">
+        <v>0.35</v>
+      </c>
+      <c r="C272" t="s">
+        <v>466</v>
+      </c>
+      <c r="D272">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A273" t="s">
+        <v>460</v>
+      </c>
+      <c r="B273">
+        <v>0.35</v>
+      </c>
+      <c r="C273" t="s">
+        <v>466</v>
+      </c>
+      <c r="D273">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A274" t="s">
+        <v>461</v>
+      </c>
+      <c r="B274">
+        <v>0.35</v>
+      </c>
+      <c r="C274" t="s">
+        <v>466</v>
+      </c>
+      <c r="D274">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A275" t="s">
+        <v>462</v>
+      </c>
+      <c r="B275">
+        <v>0.35</v>
+      </c>
+      <c r="C275" t="s">
+        <v>466</v>
+      </c>
+      <c r="D275">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A276" t="s">
+        <v>463</v>
+      </c>
+      <c r="B276">
+        <v>0.35</v>
+      </c>
+      <c r="C276" t="s">
+        <v>466</v>
+      </c>
+      <c r="D276">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A277" t="s">
+        <v>464</v>
+      </c>
+      <c r="B277">
+        <v>0.35</v>
+      </c>
+      <c r="C277" t="s">
+        <v>466</v>
+      </c>
+      <c r="D277">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A278" t="s">
+        <v>465</v>
+      </c>
+      <c r="B278">
+        <v>0.35</v>
+      </c>
+      <c r="C278" t="s">
+        <v>466</v>
+      </c>
+      <c r="D278">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A279" t="s">
+        <v>467</v>
+      </c>
+      <c r="B279">
+        <v>22.085000000000001</v>
+      </c>
+      <c r="C279" t="s">
+        <v>481</v>
+      </c>
+      <c r="D279">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A280" t="s">
+        <v>468</v>
+      </c>
+      <c r="B280">
+        <v>22.085000000000001</v>
+      </c>
+      <c r="C280" t="s">
+        <v>481</v>
+      </c>
+      <c r="D280">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A281" t="s">
+        <v>469</v>
+      </c>
+      <c r="B281">
+        <v>22.085000000000001</v>
+      </c>
+      <c r="C281" t="s">
+        <v>481</v>
+      </c>
+      <c r="D281">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A282" t="s">
+        <v>470</v>
+      </c>
+      <c r="B282">
+        <v>22.085000000000001</v>
+      </c>
+      <c r="C282" t="s">
+        <v>481</v>
+      </c>
+      <c r="D282">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A283" t="s">
+        <v>471</v>
+      </c>
+      <c r="B283">
+        <v>22.085000000000001</v>
+      </c>
+      <c r="C283" t="s">
+        <v>481</v>
+      </c>
+      <c r="D283">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A284" t="s">
+        <v>472</v>
+      </c>
+      <c r="B284">
+        <v>22.085000000000001</v>
+      </c>
+      <c r="C284" t="s">
+        <v>481</v>
+      </c>
+      <c r="D284">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A285" t="s">
+        <v>473</v>
+      </c>
+      <c r="B285">
+        <v>22.085000000000001</v>
+      </c>
+      <c r="C285" t="s">
+        <v>481</v>
+      </c>
+      <c r="D285">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A286" t="s">
+        <v>474</v>
+      </c>
+      <c r="B286">
+        <v>22.085000000000001</v>
+      </c>
+      <c r="C286" t="s">
+        <v>481</v>
+      </c>
+      <c r="D286">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A287" t="s">
+        <v>475</v>
+      </c>
+      <c r="B287">
+        <v>22.085000000000001</v>
+      </c>
+      <c r="C287" t="s">
+        <v>481</v>
+      </c>
+      <c r="D287">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A288" t="s">
+        <v>476</v>
+      </c>
+      <c r="B288">
+        <v>22.085000000000001</v>
+      </c>
+      <c r="C288" t="s">
+        <v>481</v>
+      </c>
+      <c r="D288">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A289" t="s">
+        <v>477</v>
+      </c>
+      <c r="B289">
+        <v>22.085000000000001</v>
+      </c>
+      <c r="C289" t="s">
+        <v>481</v>
+      </c>
+      <c r="D289">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A290" t="s">
+        <v>478</v>
+      </c>
+      <c r="B290">
+        <v>22.085000000000001</v>
+      </c>
+      <c r="C290" t="s">
+        <v>481</v>
+      </c>
+      <c r="D290">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A291" t="s">
+        <v>479</v>
+      </c>
+      <c r="B291">
+        <v>22.085000000000001</v>
+      </c>
+      <c r="C291" t="s">
+        <v>481</v>
+      </c>
+      <c r="D291">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A292" t="s">
+        <v>480</v>
+      </c>
+      <c r="B292">
+        <v>22.085000000000001</v>
+      </c>
+      <c r="C292" t="s">
+        <v>481</v>
+      </c>
+      <c r="D292">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A293" t="s">
+        <v>482</v>
+      </c>
+      <c r="B293">
+        <v>0.16250000000000001</v>
+      </c>
+      <c r="C293" t="s">
+        <v>489</v>
+      </c>
+      <c r="D293">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A294" t="s">
+        <v>483</v>
+      </c>
+      <c r="B294">
+        <v>0.16250000000000001</v>
+      </c>
+      <c r="C294" t="s">
+        <v>489</v>
+      </c>
+      <c r="D294">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A295" t="s">
+        <v>484</v>
+      </c>
+      <c r="B295">
+        <v>0.16250000000000001</v>
+      </c>
+      <c r="C295" t="s">
+        <v>489</v>
+      </c>
+      <c r="D295">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A296" t="s">
+        <v>485</v>
+      </c>
+      <c r="B296">
+        <v>0.16250000000000001</v>
+      </c>
+      <c r="C296" t="s">
+        <v>489</v>
+      </c>
+      <c r="D296">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A297" t="s">
+        <v>486</v>
+      </c>
+      <c r="B297">
+        <v>0.16250000000000001</v>
+      </c>
+      <c r="C297" t="s">
+        <v>489</v>
+      </c>
+      <c r="D297">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A298" t="s">
+        <v>487</v>
+      </c>
+      <c r="B298">
+        <v>0.16250000000000001</v>
+      </c>
+      <c r="C298" t="s">
+        <v>489</v>
+      </c>
+      <c r="D298">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A299" t="s">
+        <v>488</v>
+      </c>
+      <c r="B299">
+        <v>0.16250000000000001</v>
+      </c>
+      <c r="C299" t="s">
+        <v>489</v>
+      </c>
+      <c r="D299">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A300" t="s">
+        <v>490</v>
+      </c>
+      <c r="B300">
+        <v>0.16250000000000001</v>
+      </c>
+      <c r="C300" t="s">
+        <v>489</v>
+      </c>
+      <c r="D300">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A301" t="s">
+        <v>491</v>
+      </c>
+      <c r="B301">
+        <v>25</v>
+      </c>
+      <c r="C301" t="s">
+        <v>492</v>
+      </c>
+      <c r="D301">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A302" t="s">
+        <v>493</v>
+      </c>
+      <c r="B302">
+        <v>17.3</v>
+      </c>
+      <c r="C302" t="s">
+        <v>494</v>
+      </c>
+      <c r="D302">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A303" t="s">
+        <v>495</v>
+      </c>
+      <c r="B303">
+        <v>0.16250000000000001</v>
+      </c>
+      <c r="C303" t="s">
+        <v>489</v>
+      </c>
+      <c r="D303">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A304" t="s">
+        <v>497</v>
+      </c>
+      <c r="B304">
+        <v>12.1</v>
+      </c>
+      <c r="C304" t="s">
+        <v>496</v>
+      </c>
+      <c r="D304">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A305" t="s">
+        <v>498</v>
+      </c>
+      <c r="B305">
+        <v>1.97</v>
+      </c>
+      <c r="C305" t="s">
+        <v>390</v>
+      </c>
+      <c r="D305">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A306" t="s">
+        <v>499</v>
+      </c>
+      <c r="B306">
+        <v>1.97</v>
+      </c>
+      <c r="C306" t="s">
+        <v>390</v>
+      </c>
+      <c r="D306">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A307" t="s">
+        <v>500</v>
+      </c>
+      <c r="B307">
+        <v>1.97</v>
+      </c>
+      <c r="C307" t="s">
+        <v>390</v>
+      </c>
+      <c r="D307">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A308" t="s">
+        <v>501</v>
+      </c>
+      <c r="B308">
+        <v>1.97</v>
+      </c>
+      <c r="C308" t="s">
+        <v>390</v>
+      </c>
+      <c r="D308">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A309" t="s">
+        <v>502</v>
+      </c>
+      <c r="B309">
+        <v>1.97</v>
+      </c>
+      <c r="C309" t="s">
+        <v>390</v>
+      </c>
+      <c r="D309">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A310" t="s">
+        <v>503</v>
+      </c>
+      <c r="B310">
+        <v>1.97</v>
+      </c>
+      <c r="C310" t="s">
+        <v>390</v>
+      </c>
+      <c r="D310">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A311" t="s">
+        <v>504</v>
+      </c>
+      <c r="B311">
+        <v>1.97</v>
+      </c>
+      <c r="C311" t="s">
+        <v>390</v>
+      </c>
+      <c r="D311">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A312" t="s">
+        <v>505</v>
+      </c>
+      <c r="B312">
+        <v>1.97</v>
+      </c>
+      <c r="C312" t="s">
+        <v>390</v>
+      </c>
+      <c r="D312">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A313" t="s">
+        <v>506</v>
+      </c>
+      <c r="B313">
+        <v>1.97</v>
+      </c>
+      <c r="C313" t="s">
+        <v>390</v>
+      </c>
+      <c r="D313">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A314" t="s">
+        <v>507</v>
+      </c>
+      <c r="B314">
+        <v>1.97</v>
+      </c>
+      <c r="C314" t="s">
+        <v>390</v>
+      </c>
+      <c r="D314">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A315" t="s">
+        <v>508</v>
+      </c>
+      <c r="B315">
+        <v>1.97</v>
+      </c>
+      <c r="C315" t="s">
+        <v>390</v>
+      </c>
+      <c r="D315">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A316" t="s">
+        <v>509</v>
+      </c>
+      <c r="B316">
+        <v>1.97</v>
+      </c>
+      <c r="C316" t="s">
+        <v>390</v>
+      </c>
+      <c r="D316">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A317" t="s">
+        <v>510</v>
+      </c>
+      <c r="B317">
+        <v>0.183</v>
+      </c>
+      <c r="C317" t="s">
+        <v>526</v>
+      </c>
+      <c r="D317">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A318" t="s">
+        <v>511</v>
+      </c>
+      <c r="B318">
+        <v>0.183</v>
+      </c>
+      <c r="C318" t="s">
+        <v>526</v>
+      </c>
+      <c r="D318">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A319" t="s">
+        <v>512</v>
+      </c>
+      <c r="B319">
+        <v>0.183</v>
+      </c>
+      <c r="C319" t="s">
+        <v>526</v>
+      </c>
+      <c r="D319">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A320" t="s">
+        <v>513</v>
+      </c>
+      <c r="B320">
+        <v>0.183</v>
+      </c>
+      <c r="C320" t="s">
+        <v>526</v>
+      </c>
+      <c r="D320">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A321" t="s">
+        <v>514</v>
+      </c>
+      <c r="B321">
+        <v>0.183</v>
+      </c>
+      <c r="C321" t="s">
+        <v>526</v>
+      </c>
+      <c r="D321">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A322" t="s">
+        <v>515</v>
+      </c>
+      <c r="B322">
+        <v>0.183</v>
+      </c>
+      <c r="C322" t="s">
+        <v>526</v>
+      </c>
+      <c r="D322">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A323" t="s">
+        <v>516</v>
+      </c>
+      <c r="B323">
+        <v>0.183</v>
+      </c>
+      <c r="C323" t="s">
+        <v>526</v>
+      </c>
+      <c r="D323">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A324" t="s">
+        <v>517</v>
+      </c>
+      <c r="B324">
+        <v>0.183</v>
+      </c>
+      <c r="C324" t="s">
+        <v>526</v>
+      </c>
+      <c r="D324">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A325" t="s">
+        <v>518</v>
+      </c>
+      <c r="B325">
+        <v>0.183</v>
+      </c>
+      <c r="C325" t="s">
+        <v>526</v>
+      </c>
+      <c r="D325">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A326" t="s">
+        <v>519</v>
+      </c>
+      <c r="B326">
+        <v>0.183</v>
+      </c>
+      <c r="C326" t="s">
+        <v>526</v>
+      </c>
+      <c r="D326">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A327" t="s">
+        <v>520</v>
+      </c>
+      <c r="B327">
+        <v>0.183</v>
+      </c>
+      <c r="C327" t="s">
+        <v>526</v>
+      </c>
+      <c r="D327">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A328" t="s">
+        <v>521</v>
+      </c>
+      <c r="B328">
+        <v>0.183</v>
+      </c>
+      <c r="C328" t="s">
+        <v>526</v>
+      </c>
+      <c r="D328">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A329" t="s">
+        <v>522</v>
+      </c>
+      <c r="B329">
+        <v>0.183</v>
+      </c>
+      <c r="C329" t="s">
+        <v>526</v>
+      </c>
+      <c r="D329">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A330" t="s">
+        <v>523</v>
+      </c>
+      <c r="B330">
+        <v>0.183</v>
+      </c>
+      <c r="C330" t="s">
+        <v>526</v>
+      </c>
+      <c r="D330">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A331" t="s">
+        <v>524</v>
+      </c>
+      <c r="B331">
+        <v>0.183</v>
+      </c>
+      <c r="C331" t="s">
+        <v>526</v>
+      </c>
+      <c r="D331">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A332" t="s">
+        <v>525</v>
+      </c>
+      <c r="B332">
+        <v>0.183</v>
+      </c>
+      <c r="C332" t="s">
+        <v>526</v>
+      </c>
+      <c r="D332">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A333" t="s">
+        <v>527</v>
+      </c>
+      <c r="B333">
+        <v>3.44</v>
+      </c>
+      <c r="C333" t="s">
+        <v>440</v>
+      </c>
+      <c r="D333">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A334" t="s">
+        <v>528</v>
+      </c>
+      <c r="B334">
+        <v>1.97</v>
+      </c>
+      <c r="C334" t="s">
+        <v>390</v>
+      </c>
+      <c r="D334">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A335" t="s">
+        <v>529</v>
+      </c>
+      <c r="B335">
+        <v>18.649999999999999</v>
+      </c>
+      <c r="C335" t="s">
+        <v>552</v>
+      </c>
+      <c r="D335">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A336" t="s">
+        <v>530</v>
+      </c>
+      <c r="B336">
+        <v>1.97</v>
+      </c>
+      <c r="C336" t="s">
+        <v>390</v>
+      </c>
+      <c r="D336">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A337" t="s">
+        <v>531</v>
+      </c>
+      <c r="B337">
+        <v>18.649999999999999</v>
+      </c>
+      <c r="C337" t="s">
+        <v>552</v>
+      </c>
+      <c r="D337">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A338" t="s">
+        <v>532</v>
+      </c>
+      <c r="B338">
+        <v>1.97</v>
+      </c>
+      <c r="C338" t="s">
+        <v>390</v>
+      </c>
+      <c r="D338">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A339" t="s">
+        <v>533</v>
+      </c>
+      <c r="B339">
+        <v>18.649999999999999</v>
+      </c>
+      <c r="C339" t="s">
+        <v>552</v>
+      </c>
+      <c r="D339">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A340" t="s">
+        <v>534</v>
+      </c>
+      <c r="B340">
+        <v>1.97</v>
+      </c>
+      <c r="C340" t="s">
+        <v>390</v>
+      </c>
+      <c r="D340">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A341" t="s">
+        <v>535</v>
+      </c>
+      <c r="B341">
+        <v>18.649999999999999</v>
+      </c>
+      <c r="C341" t="s">
+        <v>552</v>
+      </c>
+      <c r="D341">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A342" t="s">
+        <v>536</v>
+      </c>
+      <c r="B342">
+        <v>1.97</v>
+      </c>
+      <c r="C342" t="s">
+        <v>390</v>
+      </c>
+      <c r="D342">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A343" t="s">
+        <v>537</v>
+      </c>
+      <c r="B343">
+        <v>18.649999999999999</v>
+      </c>
+      <c r="C343" t="s">
+        <v>552</v>
+      </c>
+      <c r="D343">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A344" t="s">
+        <v>538</v>
+      </c>
+      <c r="B344">
+        <v>1.97</v>
+      </c>
+      <c r="C344" t="s">
+        <v>390</v>
+      </c>
+      <c r="D344">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A345" t="s">
+        <v>539</v>
+      </c>
+      <c r="B345">
+        <v>18.649999999999999</v>
+      </c>
+      <c r="C345" t="s">
+        <v>552</v>
+      </c>
+      <c r="D345">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A346" t="s">
+        <v>540</v>
+      </c>
+      <c r="B346">
+        <v>1.97</v>
+      </c>
+      <c r="C346" t="s">
+        <v>390</v>
+      </c>
+      <c r="D346">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A347" t="s">
+        <v>541</v>
+      </c>
+      <c r="B347">
+        <v>18.649999999999999</v>
+      </c>
+      <c r="C347" t="s">
+        <v>552</v>
+      </c>
+      <c r="D347">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A348" t="s">
+        <v>542</v>
+      </c>
+      <c r="B348">
+        <v>1.97</v>
+      </c>
+      <c r="C348" t="s">
+        <v>390</v>
+      </c>
+      <c r="D348">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A349" t="s">
+        <v>543</v>
+      </c>
+      <c r="B349">
+        <v>18.649999999999999</v>
+      </c>
+      <c r="C349" t="s">
+        <v>552</v>
+      </c>
+      <c r="D349">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A350" t="s">
+        <v>544</v>
+      </c>
+      <c r="B350">
+        <v>1.97</v>
+      </c>
+      <c r="C350" t="s">
+        <v>390</v>
+      </c>
+      <c r="D350">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A351" t="s">
+        <v>545</v>
+      </c>
+      <c r="B351">
+        <v>18.649999999999999</v>
+      </c>
+      <c r="C351" t="s">
+        <v>552</v>
+      </c>
+      <c r="D351">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A352" t="s">
+        <v>546</v>
+      </c>
+      <c r="B352">
+        <v>1.97</v>
+      </c>
+      <c r="C352" t="s">
+        <v>390</v>
+      </c>
+      <c r="D352">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A353" t="s">
+        <v>547</v>
+      </c>
+      <c r="B353">
+        <v>18.649999999999999</v>
+      </c>
+      <c r="C353" t="s">
+        <v>552</v>
+      </c>
+      <c r="D353">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A354" t="s">
+        <v>548</v>
+      </c>
+      <c r="B354">
+        <v>1.97</v>
+      </c>
+      <c r="C354" t="s">
+        <v>390</v>
+      </c>
+      <c r="D354">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A355" t="s">
+        <v>549</v>
+      </c>
+      <c r="B355">
+        <v>18.649999999999999</v>
+      </c>
+      <c r="C355" t="s">
+        <v>552</v>
+      </c>
+      <c r="D355">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A356" t="s">
+        <v>550</v>
+      </c>
+      <c r="B356">
+        <v>1.97</v>
+      </c>
+      <c r="C356" t="s">
+        <v>390</v>
+      </c>
+      <c r="D356">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A357" t="s">
+        <v>551</v>
+      </c>
+      <c r="B357">
+        <v>18.649999999999999</v>
+      </c>
+      <c r="C357" t="s">
+        <v>552</v>
+      </c>
+      <c r="D357">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A358" t="s">
+        <v>553</v>
+      </c>
+      <c r="B358">
+        <v>1.97</v>
+      </c>
+      <c r="C358" t="s">
+        <v>390</v>
+      </c>
+      <c r="D358">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A359" t="s">
+        <v>554</v>
+      </c>
+      <c r="B359">
+        <v>1.97</v>
+      </c>
+      <c r="C359" t="s">
+        <v>390</v>
+      </c>
+      <c r="D359">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A360" t="s">
+        <v>555</v>
+      </c>
+      <c r="B360">
+        <v>1.97</v>
+      </c>
+      <c r="C360" t="s">
+        <v>390</v>
+      </c>
+      <c r="D360">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A361" t="s">
+        <v>556</v>
+      </c>
+      <c r="B361">
+        <v>1.97</v>
+      </c>
+      <c r="C361" t="s">
+        <v>390</v>
+      </c>
+      <c r="D361">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A362" t="s">
+        <v>557</v>
+      </c>
+      <c r="B362">
+        <v>1.97</v>
+      </c>
+      <c r="C362" t="s">
+        <v>390</v>
+      </c>
+      <c r="D362">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A363" t="s">
+        <v>558</v>
+      </c>
+      <c r="B363">
+        <v>1.97</v>
+      </c>
+      <c r="C363" t="s">
+        <v>390</v>
+      </c>
+      <c r="D363">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A364" t="s">
+        <v>559</v>
+      </c>
+      <c r="B364">
+        <v>1.97</v>
+      </c>
+      <c r="C364" t="s">
+        <v>390</v>
+      </c>
+      <c r="D364">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A365" t="s">
+        <v>560</v>
+      </c>
+      <c r="B365">
+        <v>1.97</v>
+      </c>
+      <c r="C365" t="s">
+        <v>390</v>
+      </c>
+      <c r="D365">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A366" t="s">
+        <v>561</v>
+      </c>
+      <c r="B366">
+        <v>1.97</v>
+      </c>
+      <c r="C366" t="s">
+        <v>390</v>
+      </c>
+      <c r="D366">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A367" t="s">
+        <v>562</v>
+      </c>
+      <c r="B367">
+        <v>1.97</v>
+      </c>
+      <c r="C367" t="s">
+        <v>390</v>
+      </c>
+      <c r="D367">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A368" t="s">
+        <v>563</v>
+      </c>
+      <c r="B368">
+        <v>1.97</v>
+      </c>
+      <c r="C368" t="s">
+        <v>390</v>
+      </c>
+      <c r="D368">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A369" t="s">
+        <v>564</v>
+      </c>
+      <c r="B369">
+        <v>1.97</v>
+      </c>
+      <c r="C369" t="s">
+        <v>390</v>
+      </c>
+      <c r="D369">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A370" t="s">
+        <v>565</v>
+      </c>
+      <c r="B370">
+        <v>1.97</v>
+      </c>
+      <c r="C370" t="s">
+        <v>390</v>
+      </c>
+      <c r="D370">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A371" t="s">
+        <v>566</v>
+      </c>
+      <c r="B371">
+        <v>1.97</v>
+      </c>
+      <c r="C371" t="s">
+        <v>390</v>
+      </c>
+      <c r="D371">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A372" t="s">
+        <v>567</v>
+      </c>
+      <c r="B372">
+        <v>1.97</v>
+      </c>
+      <c r="C372" t="s">
+        <v>390</v>
+      </c>
+      <c r="D372">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A373" t="s">
+        <v>568</v>
+      </c>
+      <c r="B373">
+        <v>1.97</v>
+      </c>
+      <c r="C373" t="s">
+        <v>390</v>
+      </c>
+      <c r="D373">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A374" t="s">
+        <v>569</v>
+      </c>
+      <c r="B374">
+        <v>1.97</v>
+      </c>
+      <c r="C374" t="s">
+        <v>390</v>
+      </c>
+      <c r="D374">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A375" t="s">
+        <v>570</v>
+      </c>
+      <c r="B375">
+        <v>1.97</v>
+      </c>
+      <c r="C375" t="s">
+        <v>390</v>
+      </c>
+      <c r="D375">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A376" t="s">
+        <v>571</v>
+      </c>
+      <c r="B376">
+        <v>1.97</v>
+      </c>
+      <c r="C376" t="s">
+        <v>390</v>
+      </c>
+      <c r="D376">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A377" t="s">
+        <v>572</v>
+      </c>
+      <c r="B377">
+        <v>1.97</v>
+      </c>
+      <c r="C377" t="s">
+        <v>390</v>
+      </c>
+      <c r="D377">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A378" t="s">
+        <v>573</v>
+      </c>
+      <c r="B378">
+        <v>1.97</v>
+      </c>
+      <c r="C378" t="s">
+        <v>390</v>
+      </c>
+      <c r="D378">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A379" t="s">
+        <v>574</v>
+      </c>
+      <c r="B379">
+        <v>1.97</v>
+      </c>
+      <c r="C379" t="s">
+        <v>390</v>
+      </c>
+      <c r="D379">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A380" t="s">
+        <v>575</v>
+      </c>
+      <c r="B380">
+        <v>1.97</v>
+      </c>
+      <c r="C380" t="s">
+        <v>390</v>
+      </c>
+      <c r="D380">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A381" t="s">
+        <v>576</v>
+      </c>
+      <c r="B381">
+        <v>1.97</v>
+      </c>
+      <c r="C381" t="s">
+        <v>390</v>
+      </c>
+      <c r="D381">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A382" t="s">
+        <v>577</v>
+      </c>
+      <c r="B382">
+        <v>1.97</v>
+      </c>
+      <c r="C382" t="s">
+        <v>390</v>
+      </c>
+      <c r="D382">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A383" t="s">
+        <v>578</v>
+      </c>
+      <c r="B383">
+        <v>1.97</v>
+      </c>
+      <c r="C383" t="s">
+        <v>390</v>
+      </c>
+      <c r="D383">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A384" t="s">
+        <v>579</v>
+      </c>
+      <c r="B384">
+        <v>1.97</v>
+      </c>
+      <c r="C384" t="s">
+        <v>390</v>
+      </c>
+      <c r="D384">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A385" t="s">
+        <v>580</v>
+      </c>
+      <c r="B385">
+        <v>1.97</v>
+      </c>
+      <c r="C385" t="s">
+        <v>390</v>
+      </c>
+      <c r="D385">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A386" t="s">
+        <v>581</v>
+      </c>
+      <c r="B386">
+        <v>1.97</v>
+      </c>
+      <c r="C386" t="s">
+        <v>390</v>
+      </c>
+      <c r="D386">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A387" t="s">
+        <v>582</v>
+      </c>
+      <c r="B387">
+        <v>1.97</v>
+      </c>
+      <c r="C387" t="s">
+        <v>390</v>
+      </c>
+      <c r="D387">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A388" t="s">
+        <v>583</v>
+      </c>
+      <c r="B388">
+        <v>1.97</v>
+      </c>
+      <c r="C388" t="s">
+        <v>390</v>
+      </c>
+      <c r="D388">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A389" t="s">
+        <v>584</v>
+      </c>
+      <c r="B389">
+        <v>1.97</v>
+      </c>
+      <c r="C389" t="s">
+        <v>390</v>
+      </c>
+      <c r="D389">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A390" t="s">
+        <v>585</v>
+      </c>
+      <c r="B390">
+        <v>1.97</v>
+      </c>
+      <c r="C390" t="s">
+        <v>390</v>
+      </c>
+      <c r="D390">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A391" t="s">
+        <v>586</v>
+      </c>
+      <c r="B391">
+        <v>1.97</v>
+      </c>
+      <c r="C391" t="s">
+        <v>390</v>
+      </c>
+      <c r="D391">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A392" t="s">
+        <v>587</v>
+      </c>
+      <c r="B392">
+        <v>1.97</v>
+      </c>
+      <c r="C392" t="s">
+        <v>390</v>
+      </c>
+      <c r="D392">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A393" t="s">
+        <v>588</v>
+      </c>
+      <c r="B393">
+        <v>1.97</v>
+      </c>
+      <c r="C393" t="s">
+        <v>390</v>
+      </c>
+      <c r="D393">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A394" t="s">
+        <v>589</v>
+      </c>
+      <c r="B394">
+        <v>1.97</v>
+      </c>
+      <c r="C394" t="s">
+        <v>390</v>
+      </c>
+      <c r="D394">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A395" t="s">
+        <v>590</v>
+      </c>
+      <c r="B395">
+        <v>1.97</v>
+      </c>
+      <c r="C395" t="s">
+        <v>390</v>
+      </c>
+      <c r="D395">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A396" t="s">
+        <v>591</v>
+      </c>
+      <c r="B396">
+        <v>1.97</v>
+      </c>
+      <c r="C396" t="s">
+        <v>390</v>
+      </c>
+      <c r="D396">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A397" t="s">
+        <v>592</v>
+      </c>
+      <c r="B397">
+        <v>1.97</v>
+      </c>
+      <c r="C397" t="s">
+        <v>390</v>
+      </c>
+      <c r="D397">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A398" t="s">
+        <v>593</v>
+      </c>
+      <c r="B398">
+        <v>1.97</v>
+      </c>
+      <c r="C398" t="s">
+        <v>390</v>
+      </c>
+      <c r="D398">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A399" t="s">
+        <v>594</v>
+      </c>
+      <c r="B399">
+        <v>1.97</v>
+      </c>
+      <c r="C399" t="s">
+        <v>390</v>
+      </c>
+      <c r="D399">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A400" t="s">
+        <v>595</v>
+      </c>
+      <c r="B400">
+        <v>1.97</v>
+      </c>
+      <c r="C400" t="s">
+        <v>390</v>
+      </c>
+      <c r="D400">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A401" t="s">
+        <v>596</v>
+      </c>
+      <c r="B401">
+        <v>1.97</v>
+      </c>
+      <c r="C401" t="s">
+        <v>390</v>
+      </c>
+      <c r="D401">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A402" t="s">
+        <v>597</v>
+      </c>
+      <c r="B402">
+        <v>1.97</v>
+      </c>
+      <c r="C402" t="s">
+        <v>390</v>
+      </c>
+      <c r="D402">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A403" t="s">
+        <v>598</v>
+      </c>
+      <c r="B403">
+        <v>1.97</v>
+      </c>
+      <c r="C403" t="s">
+        <v>390</v>
+      </c>
+      <c r="D403">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A404" t="s">
+        <v>599</v>
+      </c>
+      <c r="B404">
+        <v>1.97</v>
+      </c>
+      <c r="C404" t="s">
+        <v>390</v>
+      </c>
+      <c r="D404">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A405" t="s">
+        <v>600</v>
+      </c>
+      <c r="B405">
+        <v>1.97</v>
+      </c>
+      <c r="C405" t="s">
+        <v>390</v>
+      </c>
+      <c r="D405">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A406" t="s">
+        <v>601</v>
+      </c>
+      <c r="B406">
+        <v>1.97</v>
+      </c>
+      <c r="C406" t="s">
+        <v>390</v>
+      </c>
+      <c r="D406">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A407" t="s">
+        <v>602</v>
+      </c>
+      <c r="B407">
+        <v>1.97</v>
+      </c>
+      <c r="C407" t="s">
+        <v>390</v>
+      </c>
+      <c r="D407">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A408" t="s">
+        <v>603</v>
+      </c>
+      <c r="B408">
+        <v>1.97</v>
+      </c>
+      <c r="C408" t="s">
+        <v>390</v>
+      </c>
+      <c r="D408">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A409" t="s">
+        <v>604</v>
+      </c>
+      <c r="B409">
+        <v>1.97</v>
+      </c>
+      <c r="C409" t="s">
+        <v>390</v>
+      </c>
+      <c r="D409">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A410" t="s">
+        <v>605</v>
+      </c>
+      <c r="B410">
+        <v>1.97</v>
+      </c>
+      <c r="C410" t="s">
+        <v>390</v>
+      </c>
+      <c r="D410">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A411" t="s">
+        <v>606</v>
+      </c>
+      <c r="B411">
+        <v>1.97</v>
+      </c>
+      <c r="C411" t="s">
+        <v>390</v>
+      </c>
+      <c r="D411">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A412" t="s">
+        <v>607</v>
+      </c>
+      <c r="B412">
+        <v>1.97</v>
+      </c>
+      <c r="C412" t="s">
+        <v>390</v>
+      </c>
+      <c r="D412">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A413" t="s">
+        <v>608</v>
+      </c>
+      <c r="B413">
+        <v>1.97</v>
+      </c>
+      <c r="C413" t="s">
+        <v>390</v>
+      </c>
+      <c r="D413">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A414" t="s">
+        <v>609</v>
+      </c>
+      <c r="B414">
+        <v>1.97</v>
+      </c>
+      <c r="C414" t="s">
+        <v>390</v>
+      </c>
+      <c r="D414">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A415" t="s">
+        <v>610</v>
+      </c>
+      <c r="B415">
+        <v>1.97</v>
+      </c>
+      <c r="C415" t="s">
+        <v>390</v>
+      </c>
+      <c r="D415">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A416" t="s">
+        <v>611</v>
+      </c>
+      <c r="B416">
+        <v>1.97</v>
+      </c>
+      <c r="C416" t="s">
+        <v>390</v>
+      </c>
+      <c r="D416">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A417" t="s">
+        <v>612</v>
+      </c>
+      <c r="B417">
+        <v>1.97</v>
+      </c>
+      <c r="C417" t="s">
+        <v>390</v>
+      </c>
+      <c r="D417">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A418" t="s">
+        <v>613</v>
+      </c>
+      <c r="B418">
+        <v>1.97</v>
+      </c>
+      <c r="C418" t="s">
+        <v>390</v>
+      </c>
+      <c r="D418">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A419" t="s">
+        <v>614</v>
+      </c>
+      <c r="B419">
+        <v>1.97</v>
+      </c>
+      <c r="C419" t="s">
+        <v>390</v>
+      </c>
+      <c r="D419">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A420" t="s">
+        <v>615</v>
+      </c>
+      <c r="B420">
+        <v>1.97</v>
+      </c>
+      <c r="C420" t="s">
+        <v>390</v>
+      </c>
+      <c r="D420">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A421" t="s">
+        <v>616</v>
+      </c>
+      <c r="B421">
+        <v>1.97</v>
+      </c>
+      <c r="C421" t="s">
+        <v>390</v>
+      </c>
+      <c r="D421">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A422" t="s">
+        <v>617</v>
+      </c>
+      <c r="B422">
+        <v>1.97</v>
+      </c>
+      <c r="C422" t="s">
+        <v>390</v>
+      </c>
+      <c r="D422">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A423" t="s">
+        <v>618</v>
+      </c>
+      <c r="B423">
+        <v>1.97</v>
+      </c>
+      <c r="C423" t="s">
+        <v>390</v>
+      </c>
+      <c r="D423">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A424" t="s">
+        <v>619</v>
+      </c>
+      <c r="B424">
+        <v>1.97</v>
+      </c>
+      <c r="C424" t="s">
+        <v>390</v>
+      </c>
+      <c r="D424">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A425" t="s">
+        <v>620</v>
+      </c>
+      <c r="B425">
+        <v>1.97</v>
+      </c>
+      <c r="C425" t="s">
+        <v>390</v>
+      </c>
+      <c r="D425">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A426" t="s">
+        <v>621</v>
+      </c>
+      <c r="B426">
+        <v>1.97</v>
+      </c>
+      <c r="C426" t="s">
+        <v>390</v>
+      </c>
+      <c r="D426">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A427" t="s">
+        <v>622</v>
+      </c>
+      <c r="B427">
+        <v>1.97</v>
+      </c>
+      <c r="C427" t="s">
+        <v>390</v>
+      </c>
+      <c r="D427">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A428" t="s">
+        <v>623</v>
+      </c>
+      <c r="B428">
+        <v>1.97</v>
+      </c>
+      <c r="C428" t="s">
+        <v>390</v>
+      </c>
+      <c r="D428">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A429" t="s">
+        <v>624</v>
+      </c>
+      <c r="B429">
+        <v>1.97</v>
+      </c>
+      <c r="C429" t="s">
+        <v>390</v>
+      </c>
+      <c r="D429">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A430" t="s">
+        <v>625</v>
+      </c>
+      <c r="B430">
+        <v>1.97</v>
+      </c>
+      <c r="C430" t="s">
+        <v>390</v>
+      </c>
+      <c r="D430">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A431" t="s">
+        <v>626</v>
+      </c>
+      <c r="B431">
+        <v>1.97</v>
+      </c>
+      <c r="C431" t="s">
+        <v>390</v>
+      </c>
+      <c r="D431">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A432" t="s">
+        <v>627</v>
+      </c>
+      <c r="B432">
+        <v>1.97</v>
+      </c>
+      <c r="C432" t="s">
+        <v>390</v>
+      </c>
+      <c r="D432">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A433" t="s">
+        <v>628</v>
+      </c>
+      <c r="B433">
+        <v>1.97</v>
+      </c>
+      <c r="C433" t="s">
+        <v>390</v>
+      </c>
+      <c r="D433">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A434" t="s">
+        <v>629</v>
+      </c>
+      <c r="B434">
+        <v>1.97</v>
+      </c>
+      <c r="C434" t="s">
+        <v>390</v>
+      </c>
+      <c r="D434">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A435" t="s">
+        <v>630</v>
+      </c>
+      <c r="B435">
+        <v>1.97</v>
+      </c>
+      <c r="C435" t="s">
+        <v>390</v>
+      </c>
+      <c r="D435">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A436" t="s">
+        <v>631</v>
+      </c>
+      <c r="B436">
+        <v>1.97</v>
+      </c>
+      <c r="C436" t="s">
+        <v>390</v>
+      </c>
+      <c r="D436">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A437" t="s">
+        <v>632</v>
+      </c>
+      <c r="B437">
+        <v>1.97</v>
+      </c>
+      <c r="C437" t="s">
+        <v>390</v>
+      </c>
+      <c r="D437">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A438" t="s">
+        <v>633</v>
+      </c>
+      <c r="B438">
+        <v>1.97</v>
+      </c>
+      <c r="C438" t="s">
+        <v>390</v>
+      </c>
+      <c r="D438">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A439" t="s">
+        <v>634</v>
+      </c>
+      <c r="B439">
+        <v>1.97</v>
+      </c>
+      <c r="C439" t="s">
+        <v>390</v>
+      </c>
+      <c r="D439">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A440" t="s">
+        <v>635</v>
+      </c>
+      <c r="B440">
+        <v>1.97</v>
+      </c>
+      <c r="C440" t="s">
+        <v>390</v>
+      </c>
+      <c r="D440">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A441" t="s">
+        <v>636</v>
+      </c>
+      <c r="B441">
+        <v>1.97</v>
+      </c>
+      <c r="C441" t="s">
+        <v>390</v>
+      </c>
+      <c r="D441">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A442" t="s">
+        <v>637</v>
+      </c>
+      <c r="B442">
+        <v>1.97</v>
+      </c>
+      <c r="C442" t="s">
+        <v>390</v>
+      </c>
+      <c r="D442">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A443" t="s">
+        <v>638</v>
+      </c>
+      <c r="B443">
+        <v>1.97</v>
+      </c>
+      <c r="C443" t="s">
+        <v>390</v>
+      </c>
+      <c r="D443">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A444" t="s">
+        <v>639</v>
+      </c>
+      <c r="B444">
+        <v>1.97</v>
+      </c>
+      <c r="C444" t="s">
+        <v>390</v>
+      </c>
+      <c r="D444">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A445" t="s">
+        <v>640</v>
+      </c>
+      <c r="B445">
+        <v>1.97</v>
+      </c>
+      <c r="C445" t="s">
+        <v>390</v>
+      </c>
+      <c r="D445">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A446" t="s">
+        <v>641</v>
+      </c>
+      <c r="B446">
+        <v>1.97</v>
+      </c>
+      <c r="C446" t="s">
+        <v>390</v>
+      </c>
+      <c r="D446">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A447" t="s">
+        <v>642</v>
+      </c>
+      <c r="B447">
+        <v>1.97</v>
+      </c>
+      <c r="C447" t="s">
+        <v>390</v>
+      </c>
+      <c r="D447">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A448" t="s">
+        <v>643</v>
+      </c>
+      <c r="B448">
+        <v>1.97</v>
+      </c>
+      <c r="C448" t="s">
+        <v>390</v>
+      </c>
+      <c r="D448">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A449" t="s">
+        <v>644</v>
+      </c>
+      <c r="B449">
+        <v>1.97</v>
+      </c>
+      <c r="C449" t="s">
+        <v>390</v>
+      </c>
+      <c r="D449">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A450" t="s">
+        <v>645</v>
+      </c>
+      <c r="B450">
+        <v>1.97</v>
+      </c>
+      <c r="C450" t="s">
+        <v>390</v>
+      </c>
+      <c r="D450">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A451" t="s">
+        <v>646</v>
+      </c>
+      <c r="B451">
+        <v>1.97</v>
+      </c>
+      <c r="C451" t="s">
+        <v>390</v>
+      </c>
+      <c r="D451">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A452" t="s">
+        <v>647</v>
+      </c>
+      <c r="B452">
+        <v>1.97</v>
+      </c>
+      <c r="C452" t="s">
+        <v>390</v>
+      </c>
+      <c r="D452">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A453" t="s">
+        <v>648</v>
+      </c>
+      <c r="B453">
+        <v>1.97</v>
+      </c>
+      <c r="C453" t="s">
+        <v>390</v>
+      </c>
+      <c r="D453">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A454" t="s">
+        <v>649</v>
+      </c>
+      <c r="B454">
+        <v>5</v>
+      </c>
+      <c r="C454" t="s">
+        <v>423</v>
+      </c>
+      <c r="D454">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A455" t="s">
+        <v>650</v>
+      </c>
+      <c r="B455">
+        <v>5</v>
+      </c>
+      <c r="C455" t="s">
+        <v>423</v>
+      </c>
+      <c r="D455">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A456" t="s">
+        <v>651</v>
+      </c>
+      <c r="B456">
+        <v>5</v>
+      </c>
+      <c r="C456" t="s">
+        <v>423</v>
+      </c>
+      <c r="D456">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A457" t="s">
+        <v>652</v>
+      </c>
+      <c r="B457">
+        <v>5</v>
+      </c>
+      <c r="C457" t="s">
+        <v>423</v>
+      </c>
+      <c r="D457">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A458" t="s">
+        <v>653</v>
+      </c>
+      <c r="B458">
+        <v>5</v>
+      </c>
+      <c r="C458" t="s">
+        <v>423</v>
+      </c>
+      <c r="D458">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A459" t="s">
+        <v>654</v>
+      </c>
+      <c r="B459">
+        <v>5</v>
+      </c>
+      <c r="C459" t="s">
+        <v>423</v>
+      </c>
+      <c r="D459">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A460" t="s">
+        <v>655</v>
+      </c>
+      <c r="B460">
+        <v>5</v>
+      </c>
+      <c r="C460" t="s">
+        <v>423</v>
+      </c>
+      <c r="D460">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A461" t="s">
+        <v>656</v>
+      </c>
+      <c r="B461">
+        <v>5</v>
+      </c>
+      <c r="C461" t="s">
+        <v>423</v>
+      </c>
+      <c r="D461">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A462" t="s">
+        <v>657</v>
+      </c>
+      <c r="B462">
+        <v>5</v>
+      </c>
+      <c r="C462" t="s">
+        <v>423</v>
+      </c>
+      <c r="D462">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A463" t="s">
+        <v>658</v>
+      </c>
+      <c r="B463">
+        <v>5</v>
+      </c>
+      <c r="C463" t="s">
+        <v>423</v>
+      </c>
+      <c r="D463">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A464" t="s">
+        <v>659</v>
+      </c>
+      <c r="B464">
+        <v>5</v>
+      </c>
+      <c r="C464" t="s">
+        <v>423</v>
+      </c>
+      <c r="D464">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A465" t="s">
+        <v>660</v>
+      </c>
+      <c r="B465">
+        <v>5</v>
+      </c>
+      <c r="C465" t="s">
+        <v>423</v>
+      </c>
+      <c r="D465">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A466" t="s">
+        <v>661</v>
+      </c>
+      <c r="B466">
+        <v>5</v>
+      </c>
+      <c r="C466" t="s">
+        <v>423</v>
+      </c>
+      <c r="D466">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A467" t="s">
+        <v>662</v>
+      </c>
+      <c r="B467">
+        <v>5</v>
+      </c>
+      <c r="C467" t="s">
+        <v>423</v>
+      </c>
+      <c r="D467">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A468" t="s">
+        <v>663</v>
+      </c>
+      <c r="B468">
+        <v>5</v>
+      </c>
+      <c r="C468" t="s">
+        <v>423</v>
+      </c>
+      <c r="D468">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A469" t="s">
+        <v>664</v>
+      </c>
+      <c r="B469">
+        <v>5</v>
+      </c>
+      <c r="C469" t="s">
+        <v>423</v>
+      </c>
+      <c r="D469">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A470" t="s">
+        <v>665</v>
+      </c>
+      <c r="B470">
+        <v>5</v>
+      </c>
+      <c r="C470" t="s">
+        <v>423</v>
+      </c>
+      <c r="D470">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A471" t="s">
+        <v>666</v>
+      </c>
+      <c r="B471">
+        <v>5</v>
+      </c>
+      <c r="C471" t="s">
+        <v>423</v>
+      </c>
+      <c r="D471">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A472" t="s">
+        <v>667</v>
+      </c>
+      <c r="B472">
+        <v>5</v>
+      </c>
+      <c r="C472" t="s">
+        <v>423</v>
+      </c>
+      <c r="D472">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A473" t="s">
+        <v>668</v>
+      </c>
+      <c r="B473">
+        <v>5</v>
+      </c>
+      <c r="C473" t="s">
+        <v>423</v>
+      </c>
+      <c r="D473">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A474" t="s">
+        <v>669</v>
+      </c>
+      <c r="B474">
+        <v>5</v>
+      </c>
+      <c r="C474" t="s">
+        <v>423</v>
+      </c>
+      <c r="D474">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A475" t="s">
+        <v>670</v>
+      </c>
+      <c r="B475">
+        <v>5</v>
+      </c>
+      <c r="C475" t="s">
+        <v>423</v>
+      </c>
+      <c r="D475">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A476" t="s">
+        <v>671</v>
+      </c>
+      <c r="B476">
+        <v>5</v>
+      </c>
+      <c r="C476" t="s">
+        <v>423</v>
+      </c>
+      <c r="D476">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A477" t="s">
+        <v>672</v>
+      </c>
+      <c r="B477">
+        <v>5</v>
+      </c>
+      <c r="C477" t="s">
+        <v>423</v>
+      </c>
+      <c r="D477">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A478" t="s">
+        <v>673</v>
+      </c>
+      <c r="B478">
+        <v>0.06</v>
+      </c>
+      <c r="C478" t="s">
+        <v>705</v>
+      </c>
+      <c r="D478">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A479" t="s">
+        <v>674</v>
+      </c>
+      <c r="B479">
+        <v>0.06</v>
+      </c>
+      <c r="C479" t="s">
+        <v>705</v>
+      </c>
+      <c r="D479">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A480" t="s">
+        <v>675</v>
+      </c>
+      <c r="B480">
+        <v>0.06</v>
+      </c>
+      <c r="C480" t="s">
+        <v>705</v>
+      </c>
+      <c r="D480">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A481" t="s">
+        <v>676</v>
+      </c>
+      <c r="B481">
+        <v>0.06</v>
+      </c>
+      <c r="C481" t="s">
+        <v>705</v>
+      </c>
+      <c r="D481">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A482" t="s">
+        <v>677</v>
+      </c>
+      <c r="B482">
+        <v>0.06</v>
+      </c>
+      <c r="C482" t="s">
+        <v>705</v>
+      </c>
+      <c r="D482">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A483" t="s">
+        <v>678</v>
+      </c>
+      <c r="B483">
+        <v>0.06</v>
+      </c>
+      <c r="C483" t="s">
+        <v>705</v>
+      </c>
+      <c r="D483">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A484" t="s">
+        <v>679</v>
+      </c>
+      <c r="B484">
+        <v>0.06</v>
+      </c>
+      <c r="C484" t="s">
+        <v>705</v>
+      </c>
+      <c r="D484">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A485" t="s">
+        <v>680</v>
+      </c>
+      <c r="B485">
+        <v>0.06</v>
+      </c>
+      <c r="C485" t="s">
+        <v>705</v>
+      </c>
+      <c r="D485">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A486" t="s">
+        <v>681</v>
+      </c>
+      <c r="B486">
+        <v>0.06</v>
+      </c>
+      <c r="C486" t="s">
+        <v>705</v>
+      </c>
+      <c r="D486">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A487" t="s">
+        <v>682</v>
+      </c>
+      <c r="B487">
+        <v>0.06</v>
+      </c>
+      <c r="C487" t="s">
+        <v>705</v>
+      </c>
+      <c r="D487">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A488" t="s">
+        <v>683</v>
+      </c>
+      <c r="B488">
+        <v>0.06</v>
+      </c>
+      <c r="C488" t="s">
+        <v>705</v>
+      </c>
+      <c r="D488">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A489" t="s">
+        <v>684</v>
+      </c>
+      <c r="B489">
+        <v>0.06</v>
+      </c>
+      <c r="C489" t="s">
+        <v>705</v>
+      </c>
+      <c r="D489">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A490" t="s">
+        <v>685</v>
+      </c>
+      <c r="B490">
+        <v>0.06</v>
+      </c>
+      <c r="C490" t="s">
+        <v>705</v>
+      </c>
+      <c r="D490">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A491" t="s">
+        <v>686</v>
+      </c>
+      <c r="B491">
+        <v>0.06</v>
+      </c>
+      <c r="C491" t="s">
+        <v>705</v>
+      </c>
+      <c r="D491">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A492" t="s">
+        <v>687</v>
+      </c>
+      <c r="B492">
+        <v>0.06</v>
+      </c>
+      <c r="C492" t="s">
+        <v>705</v>
+      </c>
+      <c r="D492">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A493" t="s">
+        <v>688</v>
+      </c>
+      <c r="B493">
+        <v>0.06</v>
+      </c>
+      <c r="C493" t="s">
+        <v>705</v>
+      </c>
+      <c r="D493">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A494" t="s">
+        <v>689</v>
+      </c>
+      <c r="B494">
+        <v>0.06</v>
+      </c>
+      <c r="C494" t="s">
+        <v>705</v>
+      </c>
+      <c r="D494">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A495" t="s">
+        <v>690</v>
+      </c>
+      <c r="B495">
+        <v>0.06</v>
+      </c>
+      <c r="C495" t="s">
+        <v>705</v>
+      </c>
+      <c r="D495">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A496" t="s">
+        <v>691</v>
+      </c>
+      <c r="B496">
+        <v>0.06</v>
+      </c>
+      <c r="C496" t="s">
+        <v>705</v>
+      </c>
+      <c r="D496">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="497" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A497" t="s">
+        <v>692</v>
+      </c>
+      <c r="B497">
+        <v>0.06</v>
+      </c>
+      <c r="C497" t="s">
+        <v>705</v>
+      </c>
+      <c r="D497">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A498" t="s">
+        <v>693</v>
+      </c>
+      <c r="B498">
+        <v>0.06</v>
+      </c>
+      <c r="C498" t="s">
+        <v>705</v>
+      </c>
+      <c r="D498">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A499" t="s">
+        <v>694</v>
+      </c>
+      <c r="B499">
+        <v>0.06</v>
+      </c>
+      <c r="C499" t="s">
+        <v>705</v>
+      </c>
+      <c r="D499">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A500" t="s">
+        <v>695</v>
+      </c>
+      <c r="B500">
+        <v>0.06</v>
+      </c>
+      <c r="C500" t="s">
+        <v>705</v>
+      </c>
+      <c r="D500">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="501" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A501" t="s">
+        <v>696</v>
+      </c>
+      <c r="B501">
+        <v>0.06</v>
+      </c>
+      <c r="C501" t="s">
+        <v>705</v>
+      </c>
+      <c r="D501">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="502" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A502" t="s">
+        <v>697</v>
+      </c>
+      <c r="B502">
+        <v>0.06</v>
+      </c>
+      <c r="C502" t="s">
+        <v>705</v>
+      </c>
+      <c r="D502">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="503" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A503" t="s">
+        <v>698</v>
+      </c>
+      <c r="B503">
+        <v>0.06</v>
+      </c>
+      <c r="C503" t="s">
+        <v>705</v>
+      </c>
+      <c r="D503">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="504" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A504" t="s">
+        <v>699</v>
+      </c>
+      <c r="B504">
+        <v>0.06</v>
+      </c>
+      <c r="C504" t="s">
+        <v>705</v>
+      </c>
+      <c r="D504">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="505" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A505" t="s">
+        <v>700</v>
+      </c>
+      <c r="B505">
+        <v>0.06</v>
+      </c>
+      <c r="C505" t="s">
+        <v>705</v>
+      </c>
+      <c r="D505">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="506" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A506" t="s">
+        <v>701</v>
+      </c>
+      <c r="B506">
+        <v>0.06</v>
+      </c>
+      <c r="C506" t="s">
+        <v>705</v>
+      </c>
+      <c r="D506">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="507" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A507" t="s">
+        <v>702</v>
+      </c>
+      <c r="B507">
+        <v>0.06</v>
+      </c>
+      <c r="C507" t="s">
+        <v>705</v>
+      </c>
+      <c r="D507">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="508" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A508" t="s">
+        <v>703</v>
+      </c>
+      <c r="B508">
+        <v>0.06</v>
+      </c>
+      <c r="C508" t="s">
+        <v>705</v>
+      </c>
+      <c r="D508">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="509" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A509" t="s">
+        <v>704</v>
+      </c>
+      <c r="B509">
+        <v>0.06</v>
+      </c>
+      <c r="C509" t="s">
+        <v>705</v>
+      </c>
+      <c r="D509">
         <v>5</v>
       </c>
     </row>
@@ -6167,178 +10422,178 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBA5C896-468E-8848-B9F7-A46A5B71A943}">
-  <dimension ref="A30:D40"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:D25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.1640625" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
-    <col min="3" max="3" width="41.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
+    <col min="3" max="3" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="10" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
         <v>427</v>
       </c>
-      <c r="B30">
+      <c r="B1">
         <f>93119.04*1.25/60/1000</f>
         <v>1.9399799999999998</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="D30" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="10" t="s">
+      <c r="D1" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
         <v>428</v>
       </c>
-      <c r="B31">
+      <c r="B2">
         <f>93119.04*1.25/60/1000</f>
         <v>1.9399799999999998</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="D31" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="4" t="s">
+      <c r="D2" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>424</v>
       </c>
-      <c r="B32">
+      <c r="B3">
         <f>59702.26*0.73/60/1000/2</f>
         <v>0.36318874833333331</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="5" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="B33">
+      <c r="B4">
         <f>49017.93*2.3/60/1000</f>
         <v>1.8790206499999997</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="D33" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="5" t="s">
+      <c r="D4" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="B34">
+      <c r="B5">
         <f>49017.93*2.3/60/1000</f>
         <v>1.8790206499999997</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="D34" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
+      <c r="D5" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="B35">
+      <c r="B6">
         <f>92776.75*15.4/60/1000</f>
         <v>23.812699166666665</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="D35" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="6" t="s">
+      <c r="D6" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="B36">
+      <c r="B7">
         <f>55012.83*2.1/60/1000</f>
         <v>1.9254490500000001</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="D36" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="6" t="s">
+      <c r="D7" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
         <v>383</v>
       </c>
-      <c r="B37">
+      <c r="B8">
         <f>55012.83*2.1/60/1000</f>
         <v>1.9254490500000001</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="D37" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+      <c r="D8" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>369</v>
       </c>
-      <c r="B38">
+      <c r="B9">
         <f>34206.84*17.3/60/1000</f>
         <v>9.862972199999998</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="D38" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+      <c r="D9" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>370</v>
       </c>
-      <c r="B39">
+      <c r="B10">
         <f>125768.2*0.42/60/1000</f>
         <v>0.88037739999999998</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C10" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="D39" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+      <c r="D10" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>371</v>
       </c>
-      <c r="B40">
+      <c r="B11">
         <f>125768.2*0.42/60/1000</f>
         <v>0.88037739999999998</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C11" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D11" s="3">
         <v>5</v>
       </c>
     </row>

--- a/Data/manual_update.xlsx
+++ b/Data/manual_update.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cheyu/Documents/GitHub/CofactorYeast/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8002A88-0E77-CA45-A6A4-C6E93D667F9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{904C8225-00B8-8E48-9B4C-EA0E10A077F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27760" yWindow="460" windowWidth="22020" windowHeight="20820" activeTab="2" xr2:uid="{0732DB2B-E664-7544-B4C9-5536E1206D06}"/>
+    <workbookView xWindow="-29680" yWindow="460" windowWidth="26400" windowHeight="20820" xr2:uid="{0732DB2B-E664-7544-B4C9-5536E1206D06}"/>
   </bookViews>
   <sheets>
     <sheet name="kcats" sheetId="3" r:id="rId1"/>
     <sheet name="stoichiometry" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="706">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="702">
   <si>
     <t>PMID: 11561293</t>
   </si>
@@ -1144,15 +1143,6 @@
     <t>r_1790_enzyme</t>
   </si>
   <si>
-    <t>r_0917_enzyme</t>
-  </si>
-  <si>
-    <t>r_1089_enzyme</t>
-  </si>
-  <si>
-    <t>r_1090_enzyme</t>
-  </si>
-  <si>
     <t>Estimated from specific activity</t>
   </si>
   <si>
@@ -1183,12 +1173,6 @@
     <t>r_0558_2_enzyme</t>
   </si>
   <si>
-    <t>r_0559_enzyme</t>
-  </si>
-  <si>
-    <t>r_0560_enzyme</t>
-  </si>
-  <si>
     <t>r_0079_enzyme</t>
   </si>
   <si>
@@ -1270,15 +1254,6 @@
     <t>r_2323_enzyme</t>
   </si>
   <si>
-    <t>r_0774_enzyme</t>
-  </si>
-  <si>
-    <t>r_0775_enzyme</t>
-  </si>
-  <si>
-    <t>r_0967_enzyme</t>
-  </si>
-  <si>
     <t>r_0014_enzyme</t>
   </si>
   <si>
@@ -1324,9 +1299,6 @@
     <t>r_0351_enzyme</t>
   </si>
   <si>
-    <t>Estimated from specific activity (EC2.5.1.15)</t>
-  </si>
-  <si>
     <t>r_0524_enzyme</t>
   </si>
   <si>
@@ -2153,6 +2125,21 @@
   </si>
   <si>
     <t>Median of EC2.1.1.X with matched substrate (s-adenosyl-l-methionine)</t>
+  </si>
+  <si>
+    <t>r_0450_rvs_enzyme</t>
+  </si>
+  <si>
+    <t>Median of EC4.1.2.13 with matched substrate (d-glyceraldehyde 3-phosphate &amp; dihydroxyacetone phosphate)</t>
+  </si>
+  <si>
+    <t>r_0322_rvs_enzyme</t>
+  </si>
+  <si>
+    <t>r_0990_rvs_enzyme</t>
+  </si>
+  <si>
+    <t>Median of EC4.1.2.13</t>
   </si>
 </sst>
 </file>
@@ -2207,14 +2194,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2533,10 +2518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1417A95A-9A45-104E-81A0-44F5861A24E6}">
-  <dimension ref="A1:E509"/>
+  <dimension ref="A1:E512"/>
   <sheetViews>
-    <sheetView topLeftCell="A216" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A228" sqref="A228"/>
+    <sheetView tabSelected="1" topLeftCell="A482" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C498" sqref="C498"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3940,7 +3925,7 @@
         <v>1.5720855616666667</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="D100" s="3">
         <v>5</v>
@@ -5292,13 +5277,13 @@
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" s="3" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="B197" s="3">
         <v>6.8</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="D197" s="3">
         <v>5</v>
@@ -5315,7 +5300,7 @@
         <v>50.6</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="D198" s="3">
         <v>5</v>
@@ -5332,7 +5317,7 @@
         <v>50.6</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="D199" s="3">
         <v>5</v>
@@ -5349,7 +5334,7 @@
         <v>25.3</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="D200" s="3">
         <v>5</v>
@@ -5366,7 +5351,7 @@
         <v>25.3</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="D201" s="3">
         <v>5</v>
@@ -5509,7 +5494,7 @@
         <v>2.8</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D211" s="3">
         <v>5</v>
@@ -5523,7 +5508,7 @@
         <v>2.8</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D212" s="3">
         <v>5</v>
@@ -5537,7 +5522,7 @@
         <v>2.8</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D213" s="3">
         <v>5</v>
@@ -5551,7 +5536,7 @@
         <v>0.93300000000000005</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D214" s="3">
         <v>5</v>
@@ -5565,7 +5550,7 @@
         <v>5.2</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D215" s="3">
         <v>5</v>
@@ -5593,63 +5578,63 @@
         <v>3.3500000000000002E-2</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D217" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A218" s="7" t="s">
-        <v>378</v>
+      <c r="A218" s="5" t="s">
+        <v>375</v>
       </c>
       <c r="B218">
         <v>18</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D218" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A219" s="7" t="s">
-        <v>379</v>
+      <c r="A219" s="5" t="s">
+        <v>376</v>
       </c>
       <c r="B219">
         <v>18</v>
       </c>
       <c r="C219" s="3" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D219" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A220" s="7" t="s">
-        <v>380</v>
+      <c r="A220" s="5" t="s">
+        <v>377</v>
       </c>
       <c r="B220">
         <v>3.44</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="D220" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A221" s="7" t="s">
-        <v>381</v>
+      <c r="A221" s="5" t="s">
+        <v>378</v>
       </c>
       <c r="B221">
         <v>3.44</v>
       </c>
       <c r="C221" s="3" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="D221" s="3">
         <v>5</v>
@@ -5657,13 +5642,13 @@
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="B222">
         <v>2.94</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="D222" s="3">
         <v>5</v>
@@ -5671,13 +5656,13 @@
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="B223">
         <v>1.845</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D223" s="3">
         <v>5</v>
@@ -5685,13 +5670,13 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="B224">
         <v>5.0999999999999996</v>
       </c>
       <c r="C224" s="3" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="D224" s="3">
         <v>5</v>
@@ -5699,13 +5684,13 @@
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="B225">
         <v>5.0999999999999996</v>
       </c>
       <c r="C225" s="3" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="D225" s="3">
         <v>5</v>
@@ -5713,13 +5698,13 @@
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="B226">
         <v>0.3</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="D226" s="3">
         <v>5</v>
@@ -5727,14 +5712,14 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227" s="4" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="B227">
         <f>0.25/4</f>
         <v>6.25E-2</v>
       </c>
       <c r="C227" s="3" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="D227" s="3">
         <v>5</v>
@@ -5742,13 +5727,13 @@
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228" s="4" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="B228">
         <v>0.25374999999999998</v>
       </c>
       <c r="C228" s="3" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="D228" s="3">
         <v>5</v>
@@ -5756,13 +5741,13 @@
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B229">
         <v>0.36449999999999999</v>
       </c>
       <c r="C229" s="3" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="D229" s="3">
         <v>5</v>
@@ -5770,41 +5755,41 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="B230">
         <v>19.149999999999999</v>
       </c>
       <c r="C230" s="3" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="D230" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A231" s="10" t="s">
-        <v>427</v>
+      <c r="A231" s="8" t="s">
+        <v>419</v>
       </c>
       <c r="B231">
         <v>0.109</v>
       </c>
       <c r="C231" s="3" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="D231" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A232" s="10" t="s">
-        <v>428</v>
+      <c r="A232" s="8" t="s">
+        <v>420</v>
       </c>
       <c r="B232">
         <v>0.109</v>
       </c>
       <c r="C232" s="3" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="D232" s="3">
         <v>5</v>
@@ -5812,14 +5797,14 @@
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="B233">
         <f>2*0.3645</f>
         <v>0.72899999999999998</v>
       </c>
       <c r="C233" s="3" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="D233" s="3">
         <v>5</v>
@@ -5827,14 +5812,14 @@
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="B234">
         <f>2*0.3645</f>
         <v>0.72899999999999998</v>
       </c>
       <c r="C234" s="3" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="D234" s="3">
         <v>5</v>
@@ -5842,27 +5827,27 @@
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="B235">
         <v>0.3</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="D235" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A236" s="7" t="s">
-        <v>437</v>
+      <c r="A236" s="5" t="s">
+        <v>428</v>
       </c>
       <c r="B236">
         <v>8.1670000000000006E-2</v>
       </c>
       <c r="C236" s="3" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="D236" s="3">
         <v>5</v>
@@ -5870,13 +5855,13 @@
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="B237">
         <v>1.97</v>
       </c>
       <c r="C237" s="3" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D237" s="3">
         <v>5</v>
@@ -5884,13 +5869,13 @@
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="B238">
         <v>1.97</v>
       </c>
       <c r="C238" s="3" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D238" s="3">
         <v>5</v>
@@ -5898,13 +5883,13 @@
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="B239">
         <v>1.97</v>
       </c>
       <c r="C239" s="3" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D239" s="3">
         <v>5</v>
@@ -5912,13 +5897,13 @@
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="B240">
         <v>1.97</v>
       </c>
       <c r="C240" s="3" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D240" s="3">
         <v>5</v>
@@ -5926,13 +5911,13 @@
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="B241">
         <v>1.97</v>
       </c>
       <c r="C241" s="3" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D241" s="3">
         <v>5</v>
@@ -5940,13 +5925,13 @@
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="B242">
         <v>1.97</v>
       </c>
       <c r="C242" s="3" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D242" s="3">
         <v>5</v>
@@ -5954,13 +5939,13 @@
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="B243">
         <v>1.97</v>
       </c>
       <c r="C243" s="3" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D243" s="3">
         <v>5</v>
@@ -5968,13 +5953,13 @@
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="B244">
         <v>1.97</v>
       </c>
       <c r="C244" s="3" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D244" s="3">
         <v>5</v>
@@ -5982,13 +5967,13 @@
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="B245">
         <v>1.97</v>
       </c>
       <c r="C245" s="3" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D245" s="3">
         <v>5</v>
@@ -5996,13 +5981,13 @@
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="B246">
         <v>1.97</v>
       </c>
       <c r="C246" s="3" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D246" s="3">
         <v>5</v>
@@ -6010,13 +5995,13 @@
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B247">
         <v>1.97</v>
       </c>
       <c r="C247" s="3" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D247" s="3">
         <v>5</v>
@@ -6024,13 +6009,13 @@
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B248">
         <v>1.97</v>
       </c>
       <c r="C248" s="3" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D248" s="3">
         <v>5</v>
@@ -6038,13 +6023,13 @@
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B249">
         <v>1.97</v>
       </c>
       <c r="C249" s="3" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D249" s="3">
         <v>5</v>
@@ -6052,13 +6037,13 @@
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="B250">
         <v>1.97</v>
       </c>
       <c r="C250" s="3" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D250" s="3">
         <v>5</v>
@@ -6066,13 +6051,13 @@
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="B251">
         <v>1.97</v>
       </c>
       <c r="C251" s="3" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D251" s="3">
         <v>5</v>
@@ -6080,13 +6065,13 @@
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="B252">
         <v>1.97</v>
       </c>
       <c r="C252" s="3" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D252" s="3">
         <v>5</v>
@@ -6094,13 +6079,13 @@
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="B253">
         <v>1.97</v>
       </c>
       <c r="C253" s="3" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D253" s="3">
         <v>5</v>
@@ -6108,13 +6093,13 @@
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="B254">
         <v>1.97</v>
       </c>
       <c r="C254" s="3" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D254" s="3">
         <v>5</v>
@@ -6122,13 +6107,13 @@
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="B255">
         <v>1.97</v>
       </c>
       <c r="C255" s="3" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D255" s="3">
         <v>5</v>
@@ -6136,83 +6121,83 @@
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A256" s="4" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="B256">
         <v>1.97</v>
       </c>
       <c r="C256" s="3" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D256" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A257" s="10" t="s">
-        <v>430</v>
+      <c r="A257" s="8" t="s">
+        <v>421</v>
       </c>
       <c r="B257">
         <v>5.0999999999999996</v>
       </c>
       <c r="C257" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="D257" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A258" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="B258">
+        <v>5</v>
+      </c>
+      <c r="C258" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="D257" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A258" s="9" t="s">
-        <v>422</v>
-      </c>
-      <c r="B258">
-        <v>5</v>
-      </c>
-      <c r="C258" s="3" t="s">
-        <v>423</v>
-      </c>
       <c r="D258" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A259" s="9" t="s">
-        <v>419</v>
+      <c r="A259" s="7" t="s">
+        <v>411</v>
       </c>
       <c r="B259">
         <v>0.7</v>
       </c>
       <c r="C259" s="3" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="D259" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A260" s="8" t="s">
-        <v>388</v>
+      <c r="A260" s="6" t="s">
+        <v>383</v>
       </c>
       <c r="B260">
         <v>0.45800000000000002</v>
       </c>
       <c r="C260" s="3" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="D260" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A261" s="8" t="s">
-        <v>389</v>
+      <c r="A261" s="6" t="s">
+        <v>384</v>
       </c>
       <c r="B261">
         <v>0.45800000000000002</v>
       </c>
       <c r="C261" s="3" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="D261" s="3">
         <v>5</v>
@@ -6220,13 +6205,13 @@
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="B262">
         <v>6.7249999999999996</v>
       </c>
       <c r="C262" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="D262">
         <v>5</v>
@@ -6234,13 +6219,13 @@
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="B263">
         <v>6.7249999999999996</v>
       </c>
       <c r="C263" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="D263">
         <v>5</v>
@@ -6248,13 +6233,13 @@
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="B264">
         <v>6.7249999999999996</v>
       </c>
       <c r="C264" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="D264">
         <v>5</v>
@@ -6262,13 +6247,13 @@
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="B265">
         <v>6.7249999999999996</v>
       </c>
       <c r="C265" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="D265">
         <v>5</v>
@@ -6276,13 +6261,13 @@
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="B266">
         <v>22.45</v>
       </c>
       <c r="C266" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="D266">
         <v>5</v>
@@ -6290,13 +6275,13 @@
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="B267">
         <v>79.599999999999994</v>
       </c>
       <c r="C267" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="D267">
         <v>5</v>
@@ -6304,13 +6289,13 @@
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="B268">
         <v>1.23</v>
       </c>
       <c r="C268" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="D268">
         <v>5</v>
@@ -6318,13 +6303,13 @@
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="B269">
         <v>0.35</v>
       </c>
       <c r="C269" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="D269">
         <v>5</v>
@@ -6332,13 +6317,13 @@
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="B270">
         <v>0.35</v>
       </c>
       <c r="C270" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="D270">
         <v>5</v>
@@ -6346,13 +6331,13 @@
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="B271">
         <v>0.35</v>
       </c>
       <c r="C271" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="D271">
         <v>5</v>
@@ -6360,13 +6345,13 @@
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="B272">
         <v>0.35</v>
       </c>
       <c r="C272" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="D272">
         <v>5</v>
@@ -6374,13 +6359,13 @@
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="B273">
         <v>0.35</v>
       </c>
       <c r="C273" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="D273">
         <v>5</v>
@@ -6388,13 +6373,13 @@
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="B274">
         <v>0.35</v>
       </c>
       <c r="C274" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="D274">
         <v>5</v>
@@ -6402,13 +6387,13 @@
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="B275">
         <v>0.35</v>
       </c>
       <c r="C275" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="D275">
         <v>5</v>
@@ -6416,13 +6401,13 @@
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="B276">
         <v>0.35</v>
       </c>
       <c r="C276" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="D276">
         <v>5</v>
@@ -6430,13 +6415,13 @@
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="B277">
         <v>0.35</v>
       </c>
       <c r="C277" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="D277">
         <v>5</v>
@@ -6444,13 +6429,13 @@
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="B278">
         <v>0.35</v>
       </c>
       <c r="C278" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="D278">
         <v>5</v>
@@ -6458,13 +6443,13 @@
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="B279">
         <v>22.085000000000001</v>
       </c>
       <c r="C279" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="D279">
         <v>5</v>
@@ -6472,13 +6457,13 @@
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="B280">
         <v>22.085000000000001</v>
       </c>
       <c r="C280" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="D280">
         <v>5</v>
@@ -6486,13 +6471,13 @@
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="B281">
         <v>22.085000000000001</v>
       </c>
       <c r="C281" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="D281">
         <v>5</v>
@@ -6500,13 +6485,13 @@
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="B282">
         <v>22.085000000000001</v>
       </c>
       <c r="C282" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="D282">
         <v>5</v>
@@ -6514,13 +6499,13 @@
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="B283">
         <v>22.085000000000001</v>
       </c>
       <c r="C283" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="D283">
         <v>5</v>
@@ -6528,13 +6513,13 @@
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="B284">
         <v>22.085000000000001</v>
       </c>
       <c r="C284" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="D284">
         <v>5</v>
@@ -6542,13 +6527,13 @@
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="B285">
         <v>22.085000000000001</v>
       </c>
       <c r="C285" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="D285">
         <v>5</v>
@@ -6556,13 +6541,13 @@
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="B286">
         <v>22.085000000000001</v>
       </c>
       <c r="C286" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="D286">
         <v>5</v>
@@ -6570,13 +6555,13 @@
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="B287">
         <v>22.085000000000001</v>
       </c>
       <c r="C287" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="D287">
         <v>5</v>
@@ -6584,13 +6569,13 @@
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="B288">
         <v>22.085000000000001</v>
       </c>
       <c r="C288" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="D288">
         <v>5</v>
@@ -6598,13 +6583,13 @@
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="B289">
         <v>22.085000000000001</v>
       </c>
       <c r="C289" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="D289">
         <v>5</v>
@@ -6612,13 +6597,13 @@
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="B290">
         <v>22.085000000000001</v>
       </c>
       <c r="C290" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="D290">
         <v>5</v>
@@ -6626,13 +6611,13 @@
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="B291">
         <v>22.085000000000001</v>
       </c>
       <c r="C291" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="D291">
         <v>5</v>
@@ -6640,13 +6625,13 @@
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="B292">
         <v>22.085000000000001</v>
       </c>
       <c r="C292" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="D292">
         <v>5</v>
@@ -6654,13 +6639,13 @@
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="B293">
         <v>0.16250000000000001</v>
       </c>
       <c r="C293" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="D293">
         <v>5</v>
@@ -6668,13 +6653,13 @@
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="B294">
         <v>0.16250000000000001</v>
       </c>
       <c r="C294" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="D294">
         <v>5</v>
@@ -6682,13 +6667,13 @@
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="B295">
         <v>0.16250000000000001</v>
       </c>
       <c r="C295" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="D295">
         <v>5</v>
@@ -6696,13 +6681,13 @@
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="B296">
         <v>0.16250000000000001</v>
       </c>
       <c r="C296" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="D296">
         <v>5</v>
@@ -6710,13 +6695,13 @@
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="B297">
         <v>0.16250000000000001</v>
       </c>
       <c r="C297" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="D297">
         <v>5</v>
@@ -6724,13 +6709,13 @@
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="B298">
         <v>0.16250000000000001</v>
       </c>
       <c r="C298" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="D298">
         <v>5</v>
@@ -6738,13 +6723,13 @@
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="B299">
         <v>0.16250000000000001</v>
       </c>
       <c r="C299" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="D299">
         <v>5</v>
@@ -6752,13 +6737,13 @@
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="B300">
         <v>0.16250000000000001</v>
       </c>
       <c r="C300" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="D300">
         <v>5</v>
@@ -6766,13 +6751,13 @@
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="B301">
         <v>25</v>
       </c>
       <c r="C301" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="D301">
         <v>5</v>
@@ -6780,13 +6765,13 @@
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="B302">
         <v>17.3</v>
       </c>
       <c r="C302" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="D302">
         <v>5</v>
@@ -6794,13 +6779,13 @@
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="B303">
         <v>0.16250000000000001</v>
       </c>
       <c r="C303" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="D303">
         <v>5</v>
@@ -6808,13 +6793,13 @@
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="B304">
         <v>12.1</v>
       </c>
       <c r="C304" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="D304">
         <v>5</v>
@@ -6822,13 +6807,13 @@
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="B305">
         <v>1.97</v>
       </c>
       <c r="C305" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D305">
         <v>5</v>
@@ -6836,13 +6821,13 @@
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="B306">
         <v>1.97</v>
       </c>
       <c r="C306" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D306">
         <v>5</v>
@@ -6850,13 +6835,13 @@
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="B307">
         <v>1.97</v>
       </c>
       <c r="C307" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D307">
         <v>5</v>
@@ -6864,13 +6849,13 @@
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="B308">
         <v>1.97</v>
       </c>
       <c r="C308" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D308">
         <v>5</v>
@@ -6878,13 +6863,13 @@
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="B309">
         <v>1.97</v>
       </c>
       <c r="C309" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D309">
         <v>5</v>
@@ -6892,13 +6877,13 @@
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="B310">
         <v>1.97</v>
       </c>
       <c r="C310" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D310">
         <v>5</v>
@@ -6906,13 +6891,13 @@
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="B311">
         <v>1.97</v>
       </c>
       <c r="C311" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D311">
         <v>5</v>
@@ -6920,13 +6905,13 @@
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="B312">
         <v>1.97</v>
       </c>
       <c r="C312" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D312">
         <v>5</v>
@@ -6934,13 +6919,13 @@
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="B313">
         <v>1.97</v>
       </c>
       <c r="C313" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D313">
         <v>5</v>
@@ -6948,13 +6933,13 @@
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="B314">
         <v>1.97</v>
       </c>
       <c r="C314" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D314">
         <v>5</v>
@@ -6962,13 +6947,13 @@
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="B315">
         <v>1.97</v>
       </c>
       <c r="C315" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D315">
         <v>5</v>
@@ -6976,13 +6961,13 @@
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="B316">
         <v>1.97</v>
       </c>
       <c r="C316" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D316">
         <v>5</v>
@@ -6990,13 +6975,13 @@
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="B317">
         <v>0.183</v>
       </c>
       <c r="C317" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="D317">
         <v>5</v>
@@ -7004,13 +6989,13 @@
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="B318">
         <v>0.183</v>
       </c>
       <c r="C318" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="D318">
         <v>5</v>
@@ -7018,13 +7003,13 @@
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="B319">
         <v>0.183</v>
       </c>
       <c r="C319" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="D319">
         <v>5</v>
@@ -7032,13 +7017,13 @@
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="B320">
         <v>0.183</v>
       </c>
       <c r="C320" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="D320">
         <v>5</v>
@@ -7046,13 +7031,13 @@
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="B321">
         <v>0.183</v>
       </c>
       <c r="C321" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="D321">
         <v>5</v>
@@ -7060,13 +7045,13 @@
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="B322">
         <v>0.183</v>
       </c>
       <c r="C322" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="D322">
         <v>5</v>
@@ -7074,13 +7059,13 @@
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="B323">
         <v>0.183</v>
       </c>
       <c r="C323" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="D323">
         <v>5</v>
@@ -7088,13 +7073,13 @@
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="B324">
         <v>0.183</v>
       </c>
       <c r="C324" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="D324">
         <v>5</v>
@@ -7102,13 +7087,13 @@
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="B325">
         <v>0.183</v>
       </c>
       <c r="C325" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="D325">
         <v>5</v>
@@ -7116,13 +7101,13 @@
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="B326">
         <v>0.183</v>
       </c>
       <c r="C326" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="D326">
         <v>5</v>
@@ -7130,13 +7115,13 @@
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="B327">
         <v>0.183</v>
       </c>
       <c r="C327" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="D327">
         <v>5</v>
@@ -7144,13 +7129,13 @@
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="B328">
         <v>0.183</v>
       </c>
       <c r="C328" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="D328">
         <v>5</v>
@@ -7158,13 +7143,13 @@
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="B329">
         <v>0.183</v>
       </c>
       <c r="C329" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="D329">
         <v>5</v>
@@ -7172,13 +7157,13 @@
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="B330">
         <v>0.183</v>
       </c>
       <c r="C330" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="D330">
         <v>5</v>
@@ -7186,13 +7171,13 @@
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="B331">
         <v>0.183</v>
       </c>
       <c r="C331" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="D331">
         <v>5</v>
@@ -7200,13 +7185,13 @@
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="B332">
         <v>0.183</v>
       </c>
       <c r="C332" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="D332">
         <v>5</v>
@@ -7214,13 +7199,13 @@
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="B333">
         <v>3.44</v>
       </c>
       <c r="C333" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="D333">
         <v>5</v>
@@ -7228,13 +7213,13 @@
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
       <c r="B334">
         <v>1.97</v>
       </c>
       <c r="C334" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D334">
         <v>5</v>
@@ -7242,13 +7227,13 @@
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="B335">
         <v>18.649999999999999</v>
       </c>
       <c r="C335" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="D335">
         <v>5</v>
@@ -7256,13 +7241,13 @@
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="B336">
         <v>1.97</v>
       </c>
       <c r="C336" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D336">
         <v>5</v>
@@ -7270,13 +7255,13 @@
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="B337">
         <v>18.649999999999999</v>
       </c>
       <c r="C337" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="D337">
         <v>5</v>
@@ -7284,13 +7269,13 @@
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="B338">
         <v>1.97</v>
       </c>
       <c r="C338" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D338">
         <v>5</v>
@@ -7298,13 +7283,13 @@
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="B339">
         <v>18.649999999999999</v>
       </c>
       <c r="C339" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="D339">
         <v>5</v>
@@ -7312,13 +7297,13 @@
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="B340">
         <v>1.97</v>
       </c>
       <c r="C340" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D340">
         <v>5</v>
@@ -7326,13 +7311,13 @@
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="B341">
         <v>18.649999999999999</v>
       </c>
       <c r="C341" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="D341">
         <v>5</v>
@@ -7340,13 +7325,13 @@
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="B342">
         <v>1.97</v>
       </c>
       <c r="C342" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D342">
         <v>5</v>
@@ -7354,13 +7339,13 @@
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="B343">
         <v>18.649999999999999</v>
       </c>
       <c r="C343" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="D343">
         <v>5</v>
@@ -7368,13 +7353,13 @@
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="B344">
         <v>1.97</v>
       </c>
       <c r="C344" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D344">
         <v>5</v>
@@ -7382,13 +7367,13 @@
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="B345">
         <v>18.649999999999999</v>
       </c>
       <c r="C345" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="D345">
         <v>5</v>
@@ -7396,13 +7381,13 @@
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="B346">
         <v>1.97</v>
       </c>
       <c r="C346" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D346">
         <v>5</v>
@@ -7410,13 +7395,13 @@
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="B347">
         <v>18.649999999999999</v>
       </c>
       <c r="C347" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="D347">
         <v>5</v>
@@ -7424,13 +7409,13 @@
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="B348">
         <v>1.97</v>
       </c>
       <c r="C348" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D348">
         <v>5</v>
@@ -7438,13 +7423,13 @@
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="B349">
         <v>18.649999999999999</v>
       </c>
       <c r="C349" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="D349">
         <v>5</v>
@@ -7452,13 +7437,13 @@
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="B350">
         <v>1.97</v>
       </c>
       <c r="C350" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D350">
         <v>5</v>
@@ -7466,13 +7451,13 @@
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="B351">
         <v>18.649999999999999</v>
       </c>
       <c r="C351" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="D351">
         <v>5</v>
@@ -7480,13 +7465,13 @@
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="B352">
         <v>1.97</v>
       </c>
       <c r="C352" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D352">
         <v>5</v>
@@ -7494,13 +7479,13 @@
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="B353">
         <v>18.649999999999999</v>
       </c>
       <c r="C353" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="D353">
         <v>5</v>
@@ -7508,13 +7493,13 @@
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="B354">
         <v>1.97</v>
       </c>
       <c r="C354" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D354">
         <v>5</v>
@@ -7522,13 +7507,13 @@
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="B355">
         <v>18.649999999999999</v>
       </c>
       <c r="C355" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="D355">
         <v>5</v>
@@ -7536,13 +7521,13 @@
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="B356">
         <v>1.97</v>
       </c>
       <c r="C356" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D356">
         <v>5</v>
@@ -7550,13 +7535,13 @@
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
       <c r="B357">
         <v>18.649999999999999</v>
       </c>
       <c r="C357" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="D357">
         <v>5</v>
@@ -7564,13 +7549,13 @@
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="B358">
         <v>1.97</v>
       </c>
       <c r="C358" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D358">
         <v>5</v>
@@ -7578,13 +7563,13 @@
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>554</v>
+        <v>545</v>
       </c>
       <c r="B359">
         <v>1.97</v>
       </c>
       <c r="C359" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D359">
         <v>5</v>
@@ -7592,13 +7577,13 @@
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="B360">
         <v>1.97</v>
       </c>
       <c r="C360" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D360">
         <v>5</v>
@@ -7606,13 +7591,13 @@
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="B361">
         <v>1.97</v>
       </c>
       <c r="C361" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D361">
         <v>5</v>
@@ -7620,13 +7605,13 @@
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>557</v>
+        <v>548</v>
       </c>
       <c r="B362">
         <v>1.97</v>
       </c>
       <c r="C362" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D362">
         <v>5</v>
@@ -7634,13 +7619,13 @@
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="B363">
         <v>1.97</v>
       </c>
       <c r="C363" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D363">
         <v>5</v>
@@ -7648,13 +7633,13 @@
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
-        <v>559</v>
+        <v>550</v>
       </c>
       <c r="B364">
         <v>1.97</v>
       </c>
       <c r="C364" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D364">
         <v>5</v>
@@ -7662,13 +7647,13 @@
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
-        <v>560</v>
+        <v>551</v>
       </c>
       <c r="B365">
         <v>1.97</v>
       </c>
       <c r="C365" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D365">
         <v>5</v>
@@ -7676,13 +7661,13 @@
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>561</v>
+        <v>552</v>
       </c>
       <c r="B366">
         <v>1.97</v>
       </c>
       <c r="C366" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D366">
         <v>5</v>
@@ -7690,13 +7675,13 @@
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="B367">
         <v>1.97</v>
       </c>
       <c r="C367" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D367">
         <v>5</v>
@@ -7704,13 +7689,13 @@
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
       <c r="B368">
         <v>1.97</v>
       </c>
       <c r="C368" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D368">
         <v>5</v>
@@ -7718,13 +7703,13 @@
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="B369">
         <v>1.97</v>
       </c>
       <c r="C369" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D369">
         <v>5</v>
@@ -7732,13 +7717,13 @@
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="B370">
         <v>1.97</v>
       </c>
       <c r="C370" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D370">
         <v>5</v>
@@ -7746,13 +7731,13 @@
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
       <c r="B371">
         <v>1.97</v>
       </c>
       <c r="C371" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D371">
         <v>5</v>
@@ -7760,13 +7745,13 @@
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
-        <v>567</v>
+        <v>558</v>
       </c>
       <c r="B372">
         <v>1.97</v>
       </c>
       <c r="C372" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D372">
         <v>5</v>
@@ -7774,13 +7759,13 @@
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
-        <v>568</v>
+        <v>559</v>
       </c>
       <c r="B373">
         <v>1.97</v>
       </c>
       <c r="C373" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D373">
         <v>5</v>
@@ -7788,13 +7773,13 @@
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="B374">
         <v>1.97</v>
       </c>
       <c r="C374" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D374">
         <v>5</v>
@@ -7802,13 +7787,13 @@
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
-        <v>570</v>
+        <v>561</v>
       </c>
       <c r="B375">
         <v>1.97</v>
       </c>
       <c r="C375" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D375">
         <v>5</v>
@@ -7816,13 +7801,13 @@
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
-        <v>571</v>
+        <v>562</v>
       </c>
       <c r="B376">
         <v>1.97</v>
       </c>
       <c r="C376" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D376">
         <v>5</v>
@@ -7830,13 +7815,13 @@
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
       <c r="B377">
         <v>1.97</v>
       </c>
       <c r="C377" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D377">
         <v>5</v>
@@ -7844,13 +7829,13 @@
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
       <c r="B378">
         <v>1.97</v>
       </c>
       <c r="C378" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D378">
         <v>5</v>
@@ -7858,13 +7843,13 @@
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
-        <v>574</v>
+        <v>565</v>
       </c>
       <c r="B379">
         <v>1.97</v>
       </c>
       <c r="C379" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D379">
         <v>5</v>
@@ -7872,13 +7857,13 @@
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="B380">
         <v>1.97</v>
       </c>
       <c r="C380" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D380">
         <v>5</v>
@@ -7886,13 +7871,13 @@
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="B381">
         <v>1.97</v>
       </c>
       <c r="C381" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D381">
         <v>5</v>
@@ -7900,13 +7885,13 @@
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="B382">
         <v>1.97</v>
       </c>
       <c r="C382" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D382">
         <v>5</v>
@@ -7914,13 +7899,13 @@
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
       <c r="B383">
         <v>1.97</v>
       </c>
       <c r="C383" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D383">
         <v>5</v>
@@ -7928,13 +7913,13 @@
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
       <c r="B384">
         <v>1.97</v>
       </c>
       <c r="C384" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D384">
         <v>5</v>
@@ -7942,13 +7927,13 @@
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
       <c r="B385">
         <v>1.97</v>
       </c>
       <c r="C385" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D385">
         <v>5</v>
@@ -7956,13 +7941,13 @@
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="B386">
         <v>1.97</v>
       </c>
       <c r="C386" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D386">
         <v>5</v>
@@ -7970,13 +7955,13 @@
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="B387">
         <v>1.97</v>
       </c>
       <c r="C387" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D387">
         <v>5</v>
@@ -7984,13 +7969,13 @@
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="B388">
         <v>1.97</v>
       </c>
       <c r="C388" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D388">
         <v>5</v>
@@ -7998,13 +7983,13 @@
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="B389">
         <v>1.97</v>
       </c>
       <c r="C389" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D389">
         <v>5</v>
@@ -8012,13 +7997,13 @@
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
       <c r="B390">
         <v>1.97</v>
       </c>
       <c r="C390" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D390">
         <v>5</v>
@@ -8026,13 +8011,13 @@
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="B391">
         <v>1.97</v>
       </c>
       <c r="C391" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D391">
         <v>5</v>
@@ -8040,13 +8025,13 @@
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="B392">
         <v>1.97</v>
       </c>
       <c r="C392" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D392">
         <v>5</v>
@@ -8054,13 +8039,13 @@
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="B393">
         <v>1.97</v>
       </c>
       <c r="C393" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D393">
         <v>5</v>
@@ -8068,13 +8053,13 @@
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="B394">
         <v>1.97</v>
       </c>
       <c r="C394" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D394">
         <v>5</v>
@@ -8082,13 +8067,13 @@
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="B395">
         <v>1.97</v>
       </c>
       <c r="C395" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D395">
         <v>5</v>
@@ -8096,13 +8081,13 @@
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="B396">
         <v>1.97</v>
       </c>
       <c r="C396" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D396">
         <v>5</v>
@@ -8110,13 +8095,13 @@
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
       <c r="B397">
         <v>1.97</v>
       </c>
       <c r="C397" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D397">
         <v>5</v>
@@ -8124,13 +8109,13 @@
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="B398">
         <v>1.97</v>
       </c>
       <c r="C398" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D398">
         <v>5</v>
@@ -8138,13 +8123,13 @@
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
-        <v>594</v>
+        <v>585</v>
       </c>
       <c r="B399">
         <v>1.97</v>
       </c>
       <c r="C399" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D399">
         <v>5</v>
@@ -8152,13 +8137,13 @@
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
-        <v>595</v>
+        <v>586</v>
       </c>
       <c r="B400">
         <v>1.97</v>
       </c>
       <c r="C400" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D400">
         <v>5</v>
@@ -8166,13 +8151,13 @@
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
-        <v>596</v>
+        <v>587</v>
       </c>
       <c r="B401">
         <v>1.97</v>
       </c>
       <c r="C401" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D401">
         <v>5</v>
@@ -8180,13 +8165,13 @@
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
-        <v>597</v>
+        <v>588</v>
       </c>
       <c r="B402">
         <v>1.97</v>
       </c>
       <c r="C402" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D402">
         <v>5</v>
@@ -8194,13 +8179,13 @@
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
-        <v>598</v>
+        <v>589</v>
       </c>
       <c r="B403">
         <v>1.97</v>
       </c>
       <c r="C403" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D403">
         <v>5</v>
@@ -8208,13 +8193,13 @@
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
-        <v>599</v>
+        <v>590</v>
       </c>
       <c r="B404">
         <v>1.97</v>
       </c>
       <c r="C404" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D404">
         <v>5</v>
@@ -8222,13 +8207,13 @@
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
-        <v>600</v>
+        <v>591</v>
       </c>
       <c r="B405">
         <v>1.97</v>
       </c>
       <c r="C405" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D405">
         <v>5</v>
@@ -8236,13 +8221,13 @@
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
-        <v>601</v>
+        <v>592</v>
       </c>
       <c r="B406">
         <v>1.97</v>
       </c>
       <c r="C406" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D406">
         <v>5</v>
@@ -8250,13 +8235,13 @@
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="B407">
         <v>1.97</v>
       </c>
       <c r="C407" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D407">
         <v>5</v>
@@ -8264,13 +8249,13 @@
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
       <c r="B408">
         <v>1.97</v>
       </c>
       <c r="C408" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D408">
         <v>5</v>
@@ -8278,13 +8263,13 @@
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
       <c r="B409">
         <v>1.97</v>
       </c>
       <c r="C409" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D409">
         <v>5</v>
@@ -8292,13 +8277,13 @@
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="B410">
         <v>1.97</v>
       </c>
       <c r="C410" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D410">
         <v>5</v>
@@ -8306,13 +8291,13 @@
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
-        <v>606</v>
+        <v>597</v>
       </c>
       <c r="B411">
         <v>1.97</v>
       </c>
       <c r="C411" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D411">
         <v>5</v>
@@ -8320,13 +8305,13 @@
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
-        <v>607</v>
+        <v>598</v>
       </c>
       <c r="B412">
         <v>1.97</v>
       </c>
       <c r="C412" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D412">
         <v>5</v>
@@ -8334,13 +8319,13 @@
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
-        <v>608</v>
+        <v>599</v>
       </c>
       <c r="B413">
         <v>1.97</v>
       </c>
       <c r="C413" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D413">
         <v>5</v>
@@ -8348,13 +8333,13 @@
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="B414">
         <v>1.97</v>
       </c>
       <c r="C414" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D414">
         <v>5</v>
@@ -8362,13 +8347,13 @@
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
-        <v>610</v>
+        <v>601</v>
       </c>
       <c r="B415">
         <v>1.97</v>
       </c>
       <c r="C415" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D415">
         <v>5</v>
@@ -8376,13 +8361,13 @@
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
-        <v>611</v>
+        <v>602</v>
       </c>
       <c r="B416">
         <v>1.97</v>
       </c>
       <c r="C416" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D416">
         <v>5</v>
@@ -8390,13 +8375,13 @@
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
-        <v>612</v>
+        <v>603</v>
       </c>
       <c r="B417">
         <v>1.97</v>
       </c>
       <c r="C417" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D417">
         <v>5</v>
@@ -8404,13 +8389,13 @@
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="B418">
         <v>1.97</v>
       </c>
       <c r="C418" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D418">
         <v>5</v>
@@ -8418,13 +8403,13 @@
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
-        <v>614</v>
+        <v>605</v>
       </c>
       <c r="B419">
         <v>1.97</v>
       </c>
       <c r="C419" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D419">
         <v>5</v>
@@ -8432,13 +8417,13 @@
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
-        <v>615</v>
+        <v>606</v>
       </c>
       <c r="B420">
         <v>1.97</v>
       </c>
       <c r="C420" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D420">
         <v>5</v>
@@ -8446,13 +8431,13 @@
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
-        <v>616</v>
+        <v>607</v>
       </c>
       <c r="B421">
         <v>1.97</v>
       </c>
       <c r="C421" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D421">
         <v>5</v>
@@ -8460,13 +8445,13 @@
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
-        <v>617</v>
+        <v>608</v>
       </c>
       <c r="B422">
         <v>1.97</v>
       </c>
       <c r="C422" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D422">
         <v>5</v>
@@ -8474,13 +8459,13 @@
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="B423">
         <v>1.97</v>
       </c>
       <c r="C423" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D423">
         <v>5</v>
@@ -8488,13 +8473,13 @@
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
-        <v>619</v>
+        <v>610</v>
       </c>
       <c r="B424">
         <v>1.97</v>
       </c>
       <c r="C424" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D424">
         <v>5</v>
@@ -8502,13 +8487,13 @@
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
-        <v>620</v>
+        <v>611</v>
       </c>
       <c r="B425">
         <v>1.97</v>
       </c>
       <c r="C425" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D425">
         <v>5</v>
@@ -8516,13 +8501,13 @@
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
-        <v>621</v>
+        <v>612</v>
       </c>
       <c r="B426">
         <v>1.97</v>
       </c>
       <c r="C426" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D426">
         <v>5</v>
@@ -8530,13 +8515,13 @@
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
-        <v>622</v>
+        <v>613</v>
       </c>
       <c r="B427">
         <v>1.97</v>
       </c>
       <c r="C427" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D427">
         <v>5</v>
@@ -8544,13 +8529,13 @@
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
-        <v>623</v>
+        <v>614</v>
       </c>
       <c r="B428">
         <v>1.97</v>
       </c>
       <c r="C428" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D428">
         <v>5</v>
@@ -8558,13 +8543,13 @@
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
-        <v>624</v>
+        <v>615</v>
       </c>
       <c r="B429">
         <v>1.97</v>
       </c>
       <c r="C429" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D429">
         <v>5</v>
@@ -8572,13 +8557,13 @@
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
       <c r="B430">
         <v>1.97</v>
       </c>
       <c r="C430" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D430">
         <v>5</v>
@@ -8586,13 +8571,13 @@
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
-        <v>626</v>
+        <v>617</v>
       </c>
       <c r="B431">
         <v>1.97</v>
       </c>
       <c r="C431" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D431">
         <v>5</v>
@@ -8600,13 +8585,13 @@
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
-        <v>627</v>
+        <v>618</v>
       </c>
       <c r="B432">
         <v>1.97</v>
       </c>
       <c r="C432" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D432">
         <v>5</v>
@@ -8614,13 +8599,13 @@
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="B433">
         <v>1.97</v>
       </c>
       <c r="C433" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D433">
         <v>5</v>
@@ -8628,13 +8613,13 @@
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="B434">
         <v>1.97</v>
       </c>
       <c r="C434" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D434">
         <v>5</v>
@@ -8642,13 +8627,13 @@
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
-        <v>630</v>
+        <v>621</v>
       </c>
       <c r="B435">
         <v>1.97</v>
       </c>
       <c r="C435" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D435">
         <v>5</v>
@@ -8656,13 +8641,13 @@
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
-        <v>631</v>
+        <v>622</v>
       </c>
       <c r="B436">
         <v>1.97</v>
       </c>
       <c r="C436" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D436">
         <v>5</v>
@@ -8670,13 +8655,13 @@
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
       <c r="B437">
         <v>1.97</v>
       </c>
       <c r="C437" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D437">
         <v>5</v>
@@ -8684,13 +8669,13 @@
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
-        <v>633</v>
+        <v>624</v>
       </c>
       <c r="B438">
         <v>1.97</v>
       </c>
       <c r="C438" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D438">
         <v>5</v>
@@ -8698,13 +8683,13 @@
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
-        <v>634</v>
+        <v>625</v>
       </c>
       <c r="B439">
         <v>1.97</v>
       </c>
       <c r="C439" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D439">
         <v>5</v>
@@ -8712,13 +8697,13 @@
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="B440">
         <v>1.97</v>
       </c>
       <c r="C440" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D440">
         <v>5</v>
@@ -8726,13 +8711,13 @@
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
-        <v>636</v>
+        <v>627</v>
       </c>
       <c r="B441">
         <v>1.97</v>
       </c>
       <c r="C441" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D441">
         <v>5</v>
@@ -8740,13 +8725,13 @@
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="B442">
         <v>1.97</v>
       </c>
       <c r="C442" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D442">
         <v>5</v>
@@ -8754,13 +8739,13 @@
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
-        <v>638</v>
+        <v>629</v>
       </c>
       <c r="B443">
         <v>1.97</v>
       </c>
       <c r="C443" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D443">
         <v>5</v>
@@ -8768,13 +8753,13 @@
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
       <c r="B444">
         <v>1.97</v>
       </c>
       <c r="C444" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D444">
         <v>5</v>
@@ -8782,13 +8767,13 @@
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="B445">
         <v>1.97</v>
       </c>
       <c r="C445" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D445">
         <v>5</v>
@@ -8796,13 +8781,13 @@
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
-        <v>641</v>
+        <v>632</v>
       </c>
       <c r="B446">
         <v>1.97</v>
       </c>
       <c r="C446" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D446">
         <v>5</v>
@@ -8810,13 +8795,13 @@
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="B447">
         <v>1.97</v>
       </c>
       <c r="C447" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D447">
         <v>5</v>
@@ -8824,13 +8809,13 @@
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
-        <v>643</v>
+        <v>634</v>
       </c>
       <c r="B448">
         <v>1.97</v>
       </c>
       <c r="C448" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D448">
         <v>5</v>
@@ -8838,13 +8823,13 @@
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
-        <v>644</v>
+        <v>635</v>
       </c>
       <c r="B449">
         <v>1.97</v>
       </c>
       <c r="C449" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D449">
         <v>5</v>
@@ -8852,13 +8837,13 @@
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
-        <v>645</v>
+        <v>636</v>
       </c>
       <c r="B450">
         <v>1.97</v>
       </c>
       <c r="C450" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D450">
         <v>5</v>
@@ -8866,13 +8851,13 @@
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
-        <v>646</v>
+        <v>637</v>
       </c>
       <c r="B451">
         <v>1.97</v>
       </c>
       <c r="C451" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D451">
         <v>5</v>
@@ -8880,13 +8865,13 @@
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
-        <v>647</v>
+        <v>638</v>
       </c>
       <c r="B452">
         <v>1.97</v>
       </c>
       <c r="C452" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D452">
         <v>5</v>
@@ -8894,13 +8879,13 @@
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
-        <v>648</v>
+        <v>639</v>
       </c>
       <c r="B453">
         <v>1.97</v>
       </c>
       <c r="C453" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D453">
         <v>5</v>
@@ -8908,13 +8893,13 @@
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
-        <v>649</v>
+        <v>640</v>
       </c>
       <c r="B454">
         <v>5</v>
       </c>
       <c r="C454" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="D454">
         <v>5</v>
@@ -8922,13 +8907,13 @@
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
-        <v>650</v>
+        <v>641</v>
       </c>
       <c r="B455">
         <v>5</v>
       </c>
       <c r="C455" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="D455">
         <v>5</v>
@@ -8936,13 +8921,13 @@
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="B456">
         <v>5</v>
       </c>
       <c r="C456" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="D456">
         <v>5</v>
@@ -8950,13 +8935,13 @@
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
-        <v>652</v>
+        <v>643</v>
       </c>
       <c r="B457">
         <v>5</v>
       </c>
       <c r="C457" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="D457">
         <v>5</v>
@@ -8964,13 +8949,13 @@
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
-        <v>653</v>
+        <v>644</v>
       </c>
       <c r="B458">
         <v>5</v>
       </c>
       <c r="C458" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="D458">
         <v>5</v>
@@ -8978,13 +8963,13 @@
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
-        <v>654</v>
+        <v>645</v>
       </c>
       <c r="B459">
         <v>5</v>
       </c>
       <c r="C459" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="D459">
         <v>5</v>
@@ -8992,13 +8977,13 @@
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="B460">
         <v>5</v>
       </c>
       <c r="C460" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="D460">
         <v>5</v>
@@ -9006,13 +8991,13 @@
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
-        <v>656</v>
+        <v>647</v>
       </c>
       <c r="B461">
         <v>5</v>
       </c>
       <c r="C461" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="D461">
         <v>5</v>
@@ -9020,13 +9005,13 @@
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
-        <v>657</v>
+        <v>648</v>
       </c>
       <c r="B462">
         <v>5</v>
       </c>
       <c r="C462" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="D462">
         <v>5</v>
@@ -9034,13 +9019,13 @@
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="B463">
         <v>5</v>
       </c>
       <c r="C463" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="D463">
         <v>5</v>
@@ -9048,13 +9033,13 @@
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="B464">
         <v>5</v>
       </c>
       <c r="C464" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="D464">
         <v>5</v>
@@ -9062,13 +9047,13 @@
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
       <c r="B465">
         <v>5</v>
       </c>
       <c r="C465" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="D465">
         <v>5</v>
@@ -9076,13 +9061,13 @@
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="B466">
         <v>5</v>
       </c>
       <c r="C466" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="D466">
         <v>5</v>
@@ -9090,13 +9075,13 @@
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
-        <v>662</v>
+        <v>653</v>
       </c>
       <c r="B467">
         <v>5</v>
       </c>
       <c r="C467" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="D467">
         <v>5</v>
@@ -9104,13 +9089,13 @@
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
-        <v>663</v>
+        <v>654</v>
       </c>
       <c r="B468">
         <v>5</v>
       </c>
       <c r="C468" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="D468">
         <v>5</v>
@@ -9118,13 +9103,13 @@
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
-        <v>664</v>
+        <v>655</v>
       </c>
       <c r="B469">
         <v>5</v>
       </c>
       <c r="C469" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="D469">
         <v>5</v>
@@ -9132,13 +9117,13 @@
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
-        <v>665</v>
+        <v>656</v>
       </c>
       <c r="B470">
         <v>5</v>
       </c>
       <c r="C470" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="D470">
         <v>5</v>
@@ -9146,13 +9131,13 @@
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
-        <v>666</v>
+        <v>657</v>
       </c>
       <c r="B471">
         <v>5</v>
       </c>
       <c r="C471" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="D471">
         <v>5</v>
@@ -9160,13 +9145,13 @@
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
-        <v>667</v>
+        <v>658</v>
       </c>
       <c r="B472">
         <v>5</v>
       </c>
       <c r="C472" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="D472">
         <v>5</v>
@@ -9174,13 +9159,13 @@
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
-        <v>668</v>
+        <v>659</v>
       </c>
       <c r="B473">
         <v>5</v>
       </c>
       <c r="C473" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="D473">
         <v>5</v>
@@ -9188,13 +9173,13 @@
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
-        <v>669</v>
+        <v>660</v>
       </c>
       <c r="B474">
         <v>5</v>
       </c>
       <c r="C474" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="D474">
         <v>5</v>
@@ -9202,13 +9187,13 @@
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
-        <v>670</v>
+        <v>661</v>
       </c>
       <c r="B475">
         <v>5</v>
       </c>
       <c r="C475" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="D475">
         <v>5</v>
@@ -9216,13 +9201,13 @@
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
-        <v>671</v>
+        <v>662</v>
       </c>
       <c r="B476">
         <v>5</v>
       </c>
       <c r="C476" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="D476">
         <v>5</v>
@@ -9230,13 +9215,13 @@
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
-        <v>672</v>
+        <v>663</v>
       </c>
       <c r="B477">
         <v>5</v>
       </c>
       <c r="C477" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="D477">
         <v>5</v>
@@ -9244,13 +9229,13 @@
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
-        <v>673</v>
+        <v>664</v>
       </c>
       <c r="B478">
         <v>0.06</v>
       </c>
       <c r="C478" t="s">
-        <v>705</v>
+        <v>696</v>
       </c>
       <c r="D478">
         <v>5</v>
@@ -9258,13 +9243,13 @@
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
-        <v>674</v>
+        <v>665</v>
       </c>
       <c r="B479">
         <v>0.06</v>
       </c>
       <c r="C479" t="s">
-        <v>705</v>
+        <v>696</v>
       </c>
       <c r="D479">
         <v>5</v>
@@ -9272,13 +9257,13 @@
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
-        <v>675</v>
+        <v>666</v>
       </c>
       <c r="B480">
         <v>0.06</v>
       </c>
       <c r="C480" t="s">
-        <v>705</v>
+        <v>696</v>
       </c>
       <c r="D480">
         <v>5</v>
@@ -9286,13 +9271,13 @@
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
-        <v>676</v>
+        <v>667</v>
       </c>
       <c r="B481">
         <v>0.06</v>
       </c>
       <c r="C481" t="s">
-        <v>705</v>
+        <v>696</v>
       </c>
       <c r="D481">
         <v>5</v>
@@ -9300,13 +9285,13 @@
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
-        <v>677</v>
+        <v>668</v>
       </c>
       <c r="B482">
         <v>0.06</v>
       </c>
       <c r="C482" t="s">
-        <v>705</v>
+        <v>696</v>
       </c>
       <c r="D482">
         <v>5</v>
@@ -9314,13 +9299,13 @@
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
-        <v>678</v>
+        <v>669</v>
       </c>
       <c r="B483">
         <v>0.06</v>
       </c>
       <c r="C483" t="s">
-        <v>705</v>
+        <v>696</v>
       </c>
       <c r="D483">
         <v>5</v>
@@ -9328,13 +9313,13 @@
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
-        <v>679</v>
+        <v>670</v>
       </c>
       <c r="B484">
         <v>0.06</v>
       </c>
       <c r="C484" t="s">
-        <v>705</v>
+        <v>696</v>
       </c>
       <c r="D484">
         <v>5</v>
@@ -9342,13 +9327,13 @@
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
-        <v>680</v>
+        <v>671</v>
       </c>
       <c r="B485">
         <v>0.06</v>
       </c>
       <c r="C485" t="s">
-        <v>705</v>
+        <v>696</v>
       </c>
       <c r="D485">
         <v>5</v>
@@ -9356,13 +9341,13 @@
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
-        <v>681</v>
+        <v>672</v>
       </c>
       <c r="B486">
         <v>0.06</v>
       </c>
       <c r="C486" t="s">
-        <v>705</v>
+        <v>696</v>
       </c>
       <c r="D486">
         <v>5</v>
@@ -9370,13 +9355,13 @@
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
-        <v>682</v>
+        <v>673</v>
       </c>
       <c r="B487">
         <v>0.06</v>
       </c>
       <c r="C487" t="s">
-        <v>705</v>
+        <v>696</v>
       </c>
       <c r="D487">
         <v>5</v>
@@ -9384,13 +9369,13 @@
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
       <c r="B488">
         <v>0.06</v>
       </c>
       <c r="C488" t="s">
-        <v>705</v>
+        <v>696</v>
       </c>
       <c r="D488">
         <v>5</v>
@@ -9398,13 +9383,13 @@
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
-        <v>684</v>
+        <v>675</v>
       </c>
       <c r="B489">
         <v>0.06</v>
       </c>
       <c r="C489" t="s">
-        <v>705</v>
+        <v>696</v>
       </c>
       <c r="D489">
         <v>5</v>
@@ -9412,13 +9397,13 @@
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
       <c r="B490">
         <v>0.06</v>
       </c>
       <c r="C490" t="s">
-        <v>705</v>
+        <v>696</v>
       </c>
       <c r="D490">
         <v>5</v>
@@ -9426,13 +9411,13 @@
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
-        <v>686</v>
+        <v>677</v>
       </c>
       <c r="B491">
         <v>0.06</v>
       </c>
       <c r="C491" t="s">
-        <v>705</v>
+        <v>696</v>
       </c>
       <c r="D491">
         <v>5</v>
@@ -9440,13 +9425,13 @@
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
-        <v>687</v>
+        <v>678</v>
       </c>
       <c r="B492">
         <v>0.06</v>
       </c>
       <c r="C492" t="s">
-        <v>705</v>
+        <v>696</v>
       </c>
       <c r="D492">
         <v>5</v>
@@ -9454,13 +9439,13 @@
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
-        <v>688</v>
+        <v>679</v>
       </c>
       <c r="B493">
         <v>0.06</v>
       </c>
       <c r="C493" t="s">
-        <v>705</v>
+        <v>696</v>
       </c>
       <c r="D493">
         <v>5</v>
@@ -9468,13 +9453,13 @@
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="B494">
         <v>0.06</v>
       </c>
       <c r="C494" t="s">
-        <v>705</v>
+        <v>696</v>
       </c>
       <c r="D494">
         <v>5</v>
@@ -9482,13 +9467,13 @@
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
-        <v>690</v>
+        <v>681</v>
       </c>
       <c r="B495">
         <v>0.06</v>
       </c>
       <c r="C495" t="s">
-        <v>705</v>
+        <v>696</v>
       </c>
       <c r="D495">
         <v>5</v>
@@ -9496,13 +9481,13 @@
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
-        <v>691</v>
+        <v>682</v>
       </c>
       <c r="B496">
         <v>0.06</v>
       </c>
       <c r="C496" t="s">
-        <v>705</v>
+        <v>696</v>
       </c>
       <c r="D496">
         <v>5</v>
@@ -9510,13 +9495,13 @@
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
-        <v>692</v>
+        <v>683</v>
       </c>
       <c r="B497">
         <v>0.06</v>
       </c>
       <c r="C497" t="s">
-        <v>705</v>
+        <v>696</v>
       </c>
       <c r="D497">
         <v>5</v>
@@ -9524,13 +9509,13 @@
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
-        <v>693</v>
+        <v>684</v>
       </c>
       <c r="B498">
         <v>0.06</v>
       </c>
       <c r="C498" t="s">
-        <v>705</v>
+        <v>696</v>
       </c>
       <c r="D498">
         <v>5</v>
@@ -9538,13 +9523,13 @@
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
-        <v>694</v>
+        <v>685</v>
       </c>
       <c r="B499">
         <v>0.06</v>
       </c>
       <c r="C499" t="s">
-        <v>705</v>
+        <v>696</v>
       </c>
       <c r="D499">
         <v>5</v>
@@ -9552,13 +9537,13 @@
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
-        <v>695</v>
+        <v>686</v>
       </c>
       <c r="B500">
         <v>0.06</v>
       </c>
       <c r="C500" t="s">
-        <v>705</v>
+        <v>696</v>
       </c>
       <c r="D500">
         <v>5</v>
@@ -9566,13 +9551,13 @@
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
-        <v>696</v>
+        <v>687</v>
       </c>
       <c r="B501">
         <v>0.06</v>
       </c>
       <c r="C501" t="s">
-        <v>705</v>
+        <v>696</v>
       </c>
       <c r="D501">
         <v>5</v>
@@ -9580,13 +9565,13 @@
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
-        <v>697</v>
+        <v>688</v>
       </c>
       <c r="B502">
         <v>0.06</v>
       </c>
       <c r="C502" t="s">
-        <v>705</v>
+        <v>696</v>
       </c>
       <c r="D502">
         <v>5</v>
@@ -9594,13 +9579,13 @@
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
-        <v>698</v>
+        <v>689</v>
       </c>
       <c r="B503">
         <v>0.06</v>
       </c>
       <c r="C503" t="s">
-        <v>705</v>
+        <v>696</v>
       </c>
       <c r="D503">
         <v>5</v>
@@ -9608,13 +9593,13 @@
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
-        <v>699</v>
+        <v>690</v>
       </c>
       <c r="B504">
         <v>0.06</v>
       </c>
       <c r="C504" t="s">
-        <v>705</v>
+        <v>696</v>
       </c>
       <c r="D504">
         <v>5</v>
@@ -9622,13 +9607,13 @@
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
-        <v>700</v>
+        <v>691</v>
       </c>
       <c r="B505">
         <v>0.06</v>
       </c>
       <c r="C505" t="s">
-        <v>705</v>
+        <v>696</v>
       </c>
       <c r="D505">
         <v>5</v>
@@ -9636,13 +9621,13 @@
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
-        <v>701</v>
+        <v>692</v>
       </c>
       <c r="B506">
         <v>0.06</v>
       </c>
       <c r="C506" t="s">
-        <v>705</v>
+        <v>696</v>
       </c>
       <c r="D506">
         <v>5</v>
@@ -9650,13 +9635,13 @@
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
-        <v>702</v>
+        <v>693</v>
       </c>
       <c r="B507">
         <v>0.06</v>
       </c>
       <c r="C507" t="s">
-        <v>705</v>
+        <v>696</v>
       </c>
       <c r="D507">
         <v>5</v>
@@ -9664,13 +9649,13 @@
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="B508">
         <v>0.06</v>
       </c>
       <c r="C508" t="s">
-        <v>705</v>
+        <v>696</v>
       </c>
       <c r="D508">
         <v>5</v>
@@ -9678,15 +9663,57 @@
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
-        <v>704</v>
+        <v>695</v>
       </c>
       <c r="B509">
         <v>0.06</v>
       </c>
       <c r="C509" t="s">
-        <v>705</v>
+        <v>696</v>
       </c>
       <c r="D509">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A510" t="s">
+        <v>697</v>
+      </c>
+      <c r="B510">
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="C510" t="s">
+        <v>698</v>
+      </c>
+      <c r="D510">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A511" t="s">
+        <v>700</v>
+      </c>
+      <c r="B511">
+        <v>8</v>
+      </c>
+      <c r="C511" t="s">
+        <v>701</v>
+      </c>
+      <c r="D511">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A512" t="s">
+        <v>699</v>
+      </c>
+      <c r="B512">
+        <v>8</v>
+      </c>
+      <c r="C512" t="s">
+        <v>701</v>
+      </c>
+      <c r="D512">
         <v>5</v>
       </c>
     </row>
@@ -10418,187 +10445,4 @@
     <ignoredError sqref="C20:C21 C23 C25" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBA5C896-468E-8848-B9F7-A46A5B71A943}">
-  <dimension ref="A1:D11"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="19.1640625" customWidth="1"/>
-    <col min="2" max="2" width="13.5" customWidth="1"/>
-    <col min="3" max="3" width="48.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
-        <v>427</v>
-      </c>
-      <c r="B1">
-        <f>93119.04*1.25/60/1000</f>
-        <v>1.9399799999999998</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>429</v>
-      </c>
-      <c r="D1" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
-        <v>428</v>
-      </c>
-      <c r="B2">
-        <f>93119.04*1.25/60/1000</f>
-        <v>1.9399799999999998</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>429</v>
-      </c>
-      <c r="D2" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>424</v>
-      </c>
-      <c r="B3">
-        <f>59702.26*0.73/60/1000/2</f>
-        <v>0.36318874833333331</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
-        <v>411</v>
-      </c>
-      <c r="B4">
-        <f>49017.93*2.3/60/1000</f>
-        <v>1.8790206499999997</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="D4" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>412</v>
-      </c>
-      <c r="B5">
-        <f>49017.93*2.3/60/1000</f>
-        <v>1.8790206499999997</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="D5" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="B6">
-        <f>92776.75*15.4/60/1000</f>
-        <v>23.812699166666665</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="D6" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="B7">
-        <f>55012.83*2.1/60/1000</f>
-        <v>1.9254490500000001</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="D7" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="B8">
-        <f>55012.83*2.1/60/1000</f>
-        <v>1.9254490500000001</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="D8" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>369</v>
-      </c>
-      <c r="B9">
-        <f>34206.84*17.3/60/1000</f>
-        <v>9.862972199999998</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="D9" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>370</v>
-      </c>
-      <c r="B10">
-        <f>125768.2*0.42/60/1000</f>
-        <v>0.88037739999999998</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="D10" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>371</v>
-      </c>
-      <c r="B11">
-        <f>125768.2*0.42/60/1000</f>
-        <v>0.88037739999999998</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="D11" s="3">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
 </file>